--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopatkova\SVN\GitHub-UMR\tecto2umr\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="19050" windowHeight="6705"/>
   </bookViews>
@@ -17,14 +12,14 @@
     <sheet name="List3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$D$1:$D$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$E$1:$E$122</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="252">
   <si>
     <t>RSTR</t>
   </si>
@@ -944,21 +939,12 @@
     <t>refer-number</t>
   </si>
   <si>
-    <t>subrole … attribute of NE concepts (not relation)</t>
-  </si>
-  <si>
-    <t>subrole … attribute of quantity/quantity concepts (not relation)</t>
-  </si>
-  <si>
     <t>attribute of ?event node</t>
   </si>
   <si>
     <t>attribute of event node</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>attribute of entity  node</t>
   </si>
   <si>
@@ -981,9 +967,6 @@
   </si>
   <si>
     <t>subtraction</t>
-  </si>
-  <si>
-    <t>discurse role</t>
   </si>
   <si>
     <r>
@@ -1433,12 +1416,6 @@
     <t>contrast-91</t>
   </si>
   <si>
-    <t>discourse role</t>
-  </si>
-  <si>
-    <t>NON-part. role</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1666,24 +1643,6 @@
   </si>
   <si>
     <t xml:space="preserve">UMR rozlišuje date-interval, value-interval, between, slash </t>
-  </si>
-  <si>
-    <r>
-      <t>TODO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - hyperrole</t>
-    </r>
-  </si>
-  <si>
-    <t>event, args</t>
   </si>
   <si>
     <t>ARG1 for main clause, ARG2 for contrastive clause</t>
@@ -2440,12 +2399,182 @@
  </t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>TODO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - new abstract concept</t>
+    </r>
+  </si>
+  <si>
+    <t>… attribute of quantity/quantity concepts (not relation)</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute </t>
+  </si>
+  <si>
+    <t>role, participant</t>
+  </si>
+  <si>
+    <t>role, NON-participant</t>
+  </si>
+  <si>
+    <t>concept, event, args</t>
+  </si>
+  <si>
+    <t>concept, abstract entity; ops</t>
+  </si>
+  <si>
+    <t>role, discourse relation</t>
+  </si>
+  <si>
+    <t>subrole for NE concepts (not relation)</t>
+  </si>
+  <si>
+    <t>subrole, NE</t>
+  </si>
+  <si>
+    <t>subrole,quantity/quantity concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subrole, quantity/quantity concepts </t>
+  </si>
+  <si>
+    <t>subrole, date-entity</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">intensifier , downtoner , or equal </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>… 3-3-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">include: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>imperative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">expressive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>interrogative</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(typically for main predicate) … </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3-3-2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2571,8 +2700,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2594,18 +2743,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2648,9 +2785,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2713,67 +2850,52 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2815,11 +2937,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
+    <cellStyle name="Kontrolní buňka" xfId="2" builtinId="23"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2835,9 +2958,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kancelář">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2875,9 +2998,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kancelář">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2912,7 +3035,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2947,7 +3070,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kancelář">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3123,17 +3246,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="10" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="6" customWidth="1"/>
     <col min="6" max="6" width="62" style="15" customWidth="1"/>
     <col min="7" max="7" width="67.42578125" style="13" customWidth="1"/>
     <col min="8" max="8" width="44.140625" style="14" customWidth="1"/>
@@ -3141,39 +3264,39 @@
     <col min="10" max="10" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="33">
+    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="36">
+      <c r="H1" s="31">
         <v>2014</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="28" t="s">
         <v>100</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -3184,10 +3307,10 @@
         <v>10207</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -3198,10 +3321,10 @@
         <v>8427</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -3212,10 +3335,10 @@
         <v>2793</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -3226,11 +3349,11 @@
         <v>209767</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>0</v>
       </c>
@@ -3241,23 +3364,23 @@
         <v>422</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="33">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
         <v>0</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="1:10" ht="120.75" thickTop="1">
+      <c r="B7" s="30"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -3271,16 +3394,16 @@
         <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="165">
+    <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -3294,16 +3417,16 @@
         <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -3317,7 +3440,7 @@
         <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>122</v>
@@ -3326,7 +3449,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="60">
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -3340,13 +3463,13 @@
         <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>112</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>79</v>
@@ -3355,7 +3478,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30.75" thickBot="1">
+    <row r="12" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -3369,10 +3492,10 @@
         <v>98</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>80</v>
@@ -3381,20 +3504,20 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="33">
+    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28">
         <v>6</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickTop="1">
+      <c r="B13" s="30"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>7</v>
       </c>
@@ -3414,7 +3537,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>8</v>
       </c>
@@ -3428,11 +3551,11 @@
         <v>83</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>9</v>
       </c>
@@ -3446,13 +3569,13 @@
         <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>10</v>
       </c>
@@ -3466,14 +3589,14 @@
         <v>83</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>11</v>
       </c>
@@ -3487,11 +3610,11 @@
         <v>103</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>12</v>
       </c>
@@ -3505,7 +3628,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>13</v>
       </c>
@@ -3519,7 +3642,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>14</v>
       </c>
@@ -3533,7 +3656,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>15</v>
       </c>
@@ -3547,49 +3670,49 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="38">
+    <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33">
         <v>16</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:9" ht="75.75" thickTop="1">
-      <c r="A24" s="39">
+      <c r="B23" s="35"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="1:9" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
         <v>17</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="38">
         <v>17394</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" s="49" t="s">
+      <c r="E24" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="I24" s="50" t="s">
+      <c r="I24" s="45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>18</v>
       </c>
@@ -3603,7 +3726,7 @@
         <v>105</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>110</v>
@@ -3615,7 +3738,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="60">
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>19</v>
       </c>
@@ -3629,7 +3752,7 @@
         <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>111</v>
@@ -3641,7 +3764,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>20</v>
       </c>
@@ -3655,7 +3778,7 @@
         <v>67</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>113</v>
@@ -3667,37 +3790,37 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="38">
+    <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
         <v>21</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickTop="1">
-      <c r="A29" s="39">
+      <c r="B28" s="35"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
         <v>22</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="49" t="s">
+      <c r="G29" s="42"/>
+      <c r="H29" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="49"/>
-    </row>
-    <row r="30" spans="1:9" ht="30">
+      <c r="I29" s="44"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>23</v>
       </c>
@@ -3711,7 +3834,7 @@
         <v>91</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>116</v>
@@ -3720,7 +3843,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>24</v>
       </c>
@@ -3731,13 +3854,14 @@
         <v>2713</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>244</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>25</v>
       </c>
@@ -3748,14 +3872,14 @@
         <v>7375</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>26</v>
       </c>
@@ -3769,26 +3893,26 @@
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="38">
+    <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33">
         <v>27</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-    </row>
-    <row r="35" spans="1:9" ht="30.75" thickTop="1">
+      <c r="B34" s="35"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+    </row>
+    <row r="35" spans="1:9" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>28</v>
       </c>
@@ -3799,10 +3923,10 @@
         <v>12042</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>108</v>
@@ -3811,7 +3935,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>29</v>
       </c>
@@ -3831,7 +3955,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>30</v>
       </c>
@@ -3842,16 +3966,16 @@
         <v>4932</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>31</v>
       </c>
@@ -3865,13 +3989,13 @@
         <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>32</v>
       </c>
@@ -3885,7 +4009,7 @@
         <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>121</v>
@@ -3894,7 +4018,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>33</v>
       </c>
@@ -3908,7 +4032,7 @@
         <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>117</v>
@@ -3917,7 +4041,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>34</v>
       </c>
@@ -3931,7 +4055,7 @@
         <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>109</v>
@@ -3940,27 +4064,27 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>35</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C42" s="8">
         <v>0</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>36</v>
       </c>
@@ -3974,13 +4098,13 @@
         <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>37</v>
       </c>
@@ -3991,16 +4115,16 @@
         <v>1617</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>38</v>
       </c>
@@ -4011,26 +4135,27 @@
         <v>1488</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="38">
+        <v>244</v>
+      </c>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="33">
         <v>39</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-    </row>
-    <row r="47" spans="1:9" ht="30.75" thickTop="1">
+      <c r="B46" s="35"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+    </row>
+    <row r="47" spans="1:9" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>40</v>
       </c>
@@ -4041,10 +4166,10 @@
         <v>15359</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>115</v>
@@ -4056,7 +4181,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="75">
+    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>41</v>
       </c>
@@ -4066,17 +4191,17 @@
       <c r="C48" s="8">
         <v>656</v>
       </c>
-      <c r="D48" s="54" t="s">
-        <v>175</v>
+      <c r="D48" s="49" t="s">
+        <v>171</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="45">
+        <v>242</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>42</v>
       </c>
@@ -4090,16 +4215,16 @@
         <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>43</v>
       </c>
@@ -4110,27 +4235,27 @@
         <v>989</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>176</v>
+        <v>155</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="38">
+    <row r="51" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="33">
         <v>44</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-    </row>
-    <row r="52" spans="1:9" ht="331.5" thickTop="1" thickBot="1">
+      <c r="B51" s="35"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+    </row>
+    <row r="52" spans="1:9" ht="331.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>45</v>
       </c>
@@ -4140,34 +4265,34 @@
       <c r="C52" s="8">
         <v>7069</v>
       </c>
-      <c r="D52" s="51" t="s">
-        <v>240</v>
+      <c r="D52" s="46" t="s">
+        <v>232</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="53" t="s">
-        <v>242</v>
+      <c r="F52" s="48" t="s">
+        <v>234</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H52" s="55" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="38">
+        <v>235</v>
+      </c>
+      <c r="H52" s="50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="33">
         <v>44</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-    </row>
-    <row r="54" spans="1:9" ht="45.75" thickTop="1">
+      <c r="B53" s="35"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+    </row>
+    <row r="54" spans="1:9" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>47</v>
       </c>
@@ -4181,10 +4306,10 @@
         <v>129</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>93</v>
@@ -4193,7 +4318,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>48</v>
       </c>
@@ -4207,13 +4332,13 @@
         <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>49</v>
       </c>
@@ -4227,10 +4352,13 @@
         <v>76</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="30">
+        <v>246</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>50</v>
       </c>
@@ -4244,13 +4372,13 @@
         <v>66</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>51</v>
       </c>
@@ -4264,33 +4392,33 @@
         <v>66</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="F58" s="2"/>
       <c r="H58" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="28">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="23">
         <v>52</v>
       </c>
-      <c r="B59" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="B59" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" s="23"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>53</v>
       </c>
@@ -4307,7 +4435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>54</v>
       </c>
@@ -4325,7 +4453,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>55</v>
       </c>
@@ -4343,26 +4471,26 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="28">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="23">
         <v>56</v>
       </c>
-      <c r="B63" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="E63" s="28"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="B63" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" s="23"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>57</v>
       </c>
@@ -4373,13 +4501,13 @@
         <v>7134</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>58</v>
       </c>
@@ -4390,16 +4518,16 @@
         <v>99</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>59</v>
       </c>
@@ -4413,10 +4541,10 @@
         <v>68</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="30">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>60</v>
       </c>
@@ -4427,19 +4555,19 @@
         <v>211</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>197</v>
+        <v>179</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>66</v>
       </c>
@@ -4450,13 +4578,13 @@
         <v>3054</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>67</v>
       </c>
@@ -4467,16 +4595,16 @@
         <v>4122</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>68</v>
       </c>
@@ -4490,10 +4618,10 @@
         <v>68</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>69</v>
       </c>
@@ -4504,35 +4632,35 @@
         <v>491</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="28">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="23">
         <v>70</v>
       </c>
-      <c r="B72" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="E72" s="28"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="B72" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" s="23"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>71</v>
       </c>
@@ -4543,33 +4671,33 @@
         <v>18512</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="E73" s="2"/>
       <c r="G73" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="28">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="23">
         <v>72</v>
       </c>
-      <c r="B74" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="E74" s="28"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="B74" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="23"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>73</v>
       </c>
@@ -4580,38 +4708,38 @@
         <v>5006</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="28">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="23">
         <v>74</v>
       </c>
-      <c r="B76" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D76" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="E76" s="28"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="B76" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" s="23"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>75</v>
       </c>
@@ -4621,32 +4749,34 @@
       <c r="C77" s="8">
         <v>7505</v>
       </c>
-      <c r="D77" s="23"/>
+      <c r="D77" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="E77" s="2"/>
-      <c r="G77" s="24" t="s">
+      <c r="G77" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="28">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="23">
         <v>76</v>
       </c>
-      <c r="B78" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="E78" s="28"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="B78" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78" s="23"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>77</v>
       </c>
@@ -4656,13 +4786,15 @@
       <c r="C79" s="8">
         <v>7403</v>
       </c>
-      <c r="D79" s="22"/>
+      <c r="D79" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="E79" s="2"/>
-      <c r="G79" s="25" t="s">
+      <c r="G79" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>78</v>
       </c>
@@ -4672,13 +4804,15 @@
       <c r="C80" s="8">
         <v>1199</v>
       </c>
-      <c r="D80" s="22"/>
+      <c r="D80" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="E80" s="2"/>
-      <c r="G80" s="25" t="s">
+      <c r="G80" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>79</v>
       </c>
@@ -4688,13 +4822,15 @@
       <c r="C81" s="8">
         <v>5557</v>
       </c>
-      <c r="D81" s="22"/>
+      <c r="D81" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="E81" s="2"/>
-      <c r="G81" s="25" t="s">
+      <c r="G81" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>80</v>
       </c>
@@ -4704,13 +4840,15 @@
       <c r="C82" s="8">
         <v>17898</v>
       </c>
-      <c r="D82" s="22"/>
+      <c r="D82" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="E82" s="2"/>
-      <c r="G82" s="25" t="s">
+      <c r="G82" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>81</v>
       </c>
@@ -4720,344 +4858,355 @@
       <c r="C83" s="8">
         <v>62978</v>
       </c>
-      <c r="D83" s="22"/>
+      <c r="D83" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="E83" s="2"/>
-      <c r="G83" s="26" t="s">
+      <c r="G83" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="28">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="23">
         <v>82</v>
       </c>
-      <c r="B84" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C84" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D84" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="E84" s="28"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="B84" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E84" s="23"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D86" s="10" t="s">
         <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D88" s="4" t="s">
         <v>125</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D89" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D90" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D91" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D92" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D93" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D94" s="4" t="s">
         <v>133</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D95" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D96" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="4:6">
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="99" spans="4:6">
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D99" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="100" spans="4:6">
+      <c r="E99" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D100" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="4:6">
+        <v>247</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D101" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" spans="4:6">
+        <v>248</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D102" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="4:6">
+        <v>248</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D103" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="4:6">
+        <v>248</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D105" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E105" s="18" t="s">
-        <v>141</v>
+      <c r="E105" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="F105" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="4:6">
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E106" s="18"/>
     </row>
-    <row r="107" spans="4:6">
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D107" s="11" t="s">
         <v>142</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="108" spans="4:6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D108" s="11" t="s">
         <v>143</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="109" spans="4:6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D109" s="11" t="s">
         <v>144</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="110" spans="4:6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D110" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E110" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="111" spans="4:6">
+      <c r="E110" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F110" s="51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D111" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E111" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="F111" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="112" spans="4:6">
+      <c r="E111" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F111" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D112" s="11" t="s">
         <v>147</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="113" spans="4:6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D113" s="11" t="s">
         <v>148</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="114" spans="4:6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D114" s="11"/>
       <c r="E114" s="3"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="4:6">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D115" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="116" spans="4:6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D116" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="117" spans="4:6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D117" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="118" spans="4:6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D118" s="3"/>
       <c r="E118" s="18"/>
     </row>
-    <row r="119" spans="4:6">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D119" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120" spans="4:6">
+        <v>152</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D120" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D121" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6">
-      <c r="D121" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="122" spans="4:6">
+      <c r="E121" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D122" s="6"/>
       <c r="F122" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D122"/>
+  <autoFilter ref="E1:E122"/>
   <sortState ref="A2:J122">
     <sortCondition ref="A1:A125"/>
   </sortState>
@@ -5077,174 +5226,174 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="32" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="32" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="32" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="32" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="32" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="32" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="32" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="32" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="32" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="32" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="32" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="32" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="32" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="32" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="32" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="32" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="32" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="32" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="32" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="32" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="32" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="32" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="32" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="32" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="32" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5258,7 +5407,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -1645,9 +1645,6 @@
     <t xml:space="preserve">UMR rozlišuje date-interval, value-interval, between, slash </t>
   </si>
   <si>
-    <t>ARG1 for main clause, ARG2 for contrastive clause</t>
-  </si>
-  <si>
     <t>ARG1 for main clause, ARG2 for causative clause (with conjunction)</t>
   </si>
   <si>
@@ -2568,6 +2565,10 @@
       </rPr>
       <t>3-3-2</t>
     </r>
+  </si>
+  <si>
+    <t>ARG1 for main clause, ARG2 for contrastive clause
+(?? I would suppose have-contrast-91, rather than contrast-91)</t>
   </si>
 </sst>
 </file>
@@ -3246,8 +3247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,7 +3395,7 @@
         <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>163</v>
@@ -3417,7 +3418,7 @@
         <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>164</v>
@@ -3440,7 +3441,7 @@
         <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>122</v>
@@ -3463,7 +3464,7 @@
         <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>112</v>
@@ -3492,7 +3493,7 @@
         <v>98</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>189</v>
@@ -3551,7 +3552,7 @@
         <v>83</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -3569,7 +3570,7 @@
         <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>120</v>
@@ -3589,7 +3590,7 @@
         <v>83</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="14" t="s">
@@ -3610,7 +3611,7 @@
         <v>103</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -3697,7 +3698,7 @@
         <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F24" s="41" t="s">
         <v>173</v>
@@ -3726,7 +3727,7 @@
         <v>105</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>110</v>
@@ -3752,7 +3753,7 @@
         <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>111</v>
@@ -3778,7 +3779,7 @@
         <v>67</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>113</v>
@@ -3834,7 +3835,7 @@
         <v>91</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>116</v>
@@ -3857,7 +3858,7 @@
         <v>156</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F31" s="2"/>
     </row>
@@ -3875,7 +3876,7 @@
         <v>153</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F32" s="2"/>
     </row>
@@ -3893,7 +3894,7 @@
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>119</v>
@@ -3926,7 +3927,7 @@
         <v>185</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>108</v>
@@ -3969,7 +3970,7 @@
         <v>166</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>168</v>
@@ -3989,7 +3990,7 @@
         <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>121</v>
@@ -4009,7 +4010,7 @@
         <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>121</v>
@@ -4032,7 +4033,7 @@
         <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>117</v>
@@ -4055,7 +4056,7 @@
         <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>109</v>
@@ -4078,7 +4079,7 @@
         <v>166</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>168</v>
@@ -4098,7 +4099,7 @@
         <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>117</v>
@@ -4118,7 +4119,7 @@
         <v>170</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>168</v>
@@ -4138,7 +4139,7 @@
         <v>158</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F45" s="2"/>
     </row>
@@ -4166,10 +4167,10 @@
         <v>15359</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>115</v>
@@ -4195,10 +4196,10 @@
         <v>171</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4215,7 +4216,7 @@
         <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>173</v>
@@ -4238,7 +4239,7 @@
         <v>155</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F50" s="2"/>
     </row>
@@ -4266,17 +4267,17 @@
         <v>7069</v>
       </c>
       <c r="D52" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="H52" s="50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4306,10 +4307,10 @@
         <v>129</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>93</v>
@@ -4332,7 +4333,7 @@
         <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>174</v>
@@ -4352,7 +4353,7 @@
         <v>76</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>175</v>
@@ -4372,7 +4373,7 @@
         <v>66</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>176</v>
@@ -4392,7 +4393,7 @@
         <v>66</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F58" s="2"/>
       <c r="H58" s="14" t="s">
@@ -4507,7 +4508,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>58</v>
       </c>
@@ -4521,10 +4522,10 @@
         <v>171</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4635,10 +4636,10 @@
         <v>184</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -4711,13 +4712,13 @@
         <v>192</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>193</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -4890,7 +4891,7 @@
         <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>188</v>
@@ -4901,7 +4902,7 @@
         <v>125</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F88" s="2"/>
     </row>
@@ -4910,7 +4911,7 @@
         <v>126</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F89" s="2"/>
     </row>
@@ -4919,7 +4920,7 @@
         <v>127</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F90" s="2"/>
     </row>
@@ -4928,7 +4929,7 @@
         <v>128</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F91" s="2"/>
     </row>
@@ -4937,7 +4938,7 @@
         <v>131</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F92" s="2"/>
     </row>
@@ -4946,7 +4947,7 @@
         <v>132</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F93" s="2"/>
     </row>
@@ -4955,7 +4956,7 @@
         <v>133</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F94" s="2"/>
     </row>
@@ -4964,7 +4965,7 @@
         <v>134</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F95" s="2"/>
     </row>
@@ -4973,7 +4974,7 @@
         <v>135</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F96" s="2"/>
     </row>
@@ -4982,7 +4983,7 @@
         <v>136</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -4991,10 +4992,10 @@
         <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.25">
@@ -5002,10 +5003,10 @@
         <v>138</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
@@ -5013,10 +5014,10 @@
         <v>139</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.25">
@@ -5024,10 +5025,10 @@
         <v>95</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.25">
@@ -5035,10 +5036,10 @@
         <v>140</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.25">
@@ -5046,7 +5047,7 @@
         <v>81</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F105" s="15" t="s">
         <v>141</v>
@@ -5060,7 +5061,7 @@
         <v>142</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>149</v>
@@ -5071,7 +5072,7 @@
         <v>143</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>150</v>
@@ -5082,7 +5083,7 @@
         <v>144</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>149</v>
@@ -5093,10 +5094,10 @@
         <v>145</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F110" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -5104,10 +5105,10 @@
         <v>146</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F111" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.25">
@@ -5115,7 +5116,7 @@
         <v>147</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>151</v>
@@ -5126,7 +5127,7 @@
         <v>148</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>151</v>
@@ -5142,7 +5143,7 @@
         <v>159</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>162</v>
@@ -5153,7 +5154,7 @@
         <v>160</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>162</v>
@@ -5164,7 +5165,7 @@
         <v>161</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>162</v>
@@ -5179,7 +5180,7 @@
         <v>152</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -5188,7 +5189,7 @@
         <v>154</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -5197,7 +5198,7 @@
         <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -5233,167 +5234,167 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopatkova\SVN\GitHub-UMR\tecto2umr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="19050" windowHeight="6705"/>
   </bookViews>
@@ -12,14 +17,14 @@
     <sheet name="List3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$E$1:$E$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$G$1:$G$122</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="265">
   <si>
     <t>RSTR</t>
   </si>
@@ -1404,9 +1409,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>NOT in UMR, NEW to cover this nuance</t>
-  </si>
-  <si>
     <t>NORM</t>
   </si>
   <si>
@@ -1626,14 +1628,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NOT in UMR, NEW to cover EFF
-TODO - nesedí pro slovesa komunikace! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOT in UMR, NEW to cover this nuance 
-</t>
   </si>
   <si>
     <t>t_lemma = #Dash, versus, kontra, vs., - , #Separ, tenhle, v, x</t>
@@ -2397,21 +2391,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>TODO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - new abstract concept</t>
-    </r>
-  </si>
-  <si>
     <t>… attribute of quantity/quantity concepts (not relation)</t>
   </si>
   <si>
@@ -2569,13 +2548,366 @@
   <si>
     <t>ARG1 for main clause, ARG2 for contrastive clause
 (?? I would suppose have-contrast-91, rather than contrast-91)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW role, NOT in UMR, NEW to cover EFF
+TODO - nesedí pro slovesa komunikace! </t>
+  </si>
+  <si>
+    <t>NEW role, NOT in UMR, NEW to cover this nuance</t>
+  </si>
+  <si>
+    <t>NEW abstract concept, NOT in UMR, NEW to cover foreign phrases</t>
+  </si>
+  <si>
+    <t>op1, op2, …
+BUT see column F</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In theory, the verb and the CPHR node should be merged … </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>but problem with frame matching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (many types of coreference between the verb functors and the noub functors)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!!!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--&gt; keep it as it is for NOW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TODO - problem with different types of coreference 
+NEEDED inspection of coreference patterns 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(available in VALLEX, not in PDT-Vallex)  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>DPHR-&gt; part-of-phraseme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPHR -&gt; predicative noun </t>
+  </si>
+  <si>
+    <t>concept, abstract entity; plus name role, ops</t>
+  </si>
+  <si>
+    <t>role, NEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO … ?? chceme "zploštit" ?? </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NEW abstract concept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hyper-role for existing interval entities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">??? přidat uzel pod #Forn jako společného rodiče  
+a sadu op pro jednotlivé uzly s FPHR 
+                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(to mimic other structures with abstract concepts)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. t_lemma #Forn --&gt; foreign-phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (as NEW abstract concept)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. insert </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NEW child</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with relation</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FPHR --&gt; op1, op2, ….</t>
+    </r>
+  </si>
+  <si>
+    <t>CM -&gt; discourse-marker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #Neg -&gt;  attribute "polarity"
+jiné -&gt; tfa marker</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lemma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#Neg 194x … jeho rodičem je vždy koord. uzel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (GRAD, ADVS n. CONJ) … </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?? schova</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+??? další t_lemmata … spousty, teď neřešit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(schovat???)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lemma #Neg 27795x  -&gt;  attribute "polarity"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+??? další t_lemmata  … spousty, teď neřešit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(schovat???)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2788,7 +3120,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2939,11 +3271,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
-    <cellStyle name="Kontrolní buňka" xfId="2" builtinId="23"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2959,9 +3297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kancelář">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2999,9 +3337,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kancelář">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3036,7 +3374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3071,7 +3409,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kancelář">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3247,25 +3585,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="62" style="15" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" style="15" customWidth="1"/>
     <col min="7" max="7" width="67.42578125" style="13" customWidth="1"/>
     <col min="8" max="8" width="44.140625" style="14" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" style="14" customWidth="1"/>
     <col min="10" max="10" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="28">
         <v>0</v>
       </c>
@@ -3297,7 +3635,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -3308,10 +3646,10 @@
         <v>10207</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -3322,10 +3660,10 @@
         <v>8427</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -3336,10 +3674,10 @@
         <v>2793</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -3350,11 +3688,11 @@
         <v>209767</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="A6" s="6">
         <v>0</v>
       </c>
@@ -3365,10 +3703,10 @@
         <v>422</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="28">
         <v>0</v>
       </c>
@@ -3381,7 +3719,7 @@
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
     </row>
-    <row r="8" spans="1:10" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="120.75" thickTop="1">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -3395,7 +3733,7 @@
         <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>163</v>
@@ -3404,7 +3742,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="165">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -3418,7 +3756,7 @@
         <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>164</v>
@@ -3427,7 +3765,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -3441,7 +3779,7 @@
         <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>122</v>
@@ -3450,7 +3788,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="60">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -3464,7 +3802,7 @@
         <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>112</v>
@@ -3479,7 +3817,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="30.75" thickBot="1">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -3493,10 +3831,10 @@
         <v>98</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>80</v>
@@ -3505,7 +3843,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="28">
         <v>6</v>
       </c>
@@ -3518,7 +3856,7 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" thickTop="1">
       <c r="A14" s="6">
         <v>7</v>
       </c>
@@ -3538,7 +3876,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="6">
         <v>8</v>
       </c>
@@ -3552,11 +3890,11 @@
         <v>83</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="6">
         <v>9</v>
       </c>
@@ -3570,13 +3908,13 @@
         <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="6">
         <v>10</v>
       </c>
@@ -3590,14 +3928,14 @@
         <v>83</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="6">
         <v>11</v>
       </c>
@@ -3611,11 +3949,11 @@
         <v>103</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="6">
         <v>12</v>
       </c>
@@ -3629,7 +3967,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="6">
         <v>13</v>
       </c>
@@ -3643,7 +3981,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="6">
         <v>14</v>
       </c>
@@ -3657,7 +3995,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="6">
         <v>15</v>
       </c>
@@ -3671,7 +4009,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="33">
         <v>16</v>
       </c>
@@ -3684,7 +4022,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="1:9" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="75.75" thickTop="1">
       <c r="A24" s="34">
         <v>17</v>
       </c>
@@ -3698,13 +4036,13 @@
         <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H24" s="44" t="s">
         <v>84</v>
@@ -3713,7 +4051,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="6">
         <v>18</v>
       </c>
@@ -3727,7 +4065,7 @@
         <v>105</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>110</v>
@@ -3739,7 +4077,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="60">
       <c r="A26" s="6">
         <v>19</v>
       </c>
@@ -3753,7 +4091,7 @@
         <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>111</v>
@@ -3765,7 +4103,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1">
       <c r="A27" s="6">
         <v>20</v>
       </c>
@@ -3779,7 +4117,7 @@
         <v>67</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>113</v>
@@ -3791,7 +4129,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="33">
         <v>21</v>
       </c>
@@ -3804,7 +4142,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" thickTop="1">
       <c r="A29" s="34">
         <v>22</v>
       </c>
@@ -3821,7 +4159,7 @@
       </c>
       <c r="I29" s="44"/>
     </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="30">
       <c r="A30" s="6">
         <v>23</v>
       </c>
@@ -3835,7 +4173,7 @@
         <v>91</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>116</v>
@@ -3844,7 +4182,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="6">
         <v>24</v>
       </c>
@@ -3858,11 +4196,11 @@
         <v>156</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="6">
         <v>25</v>
       </c>
@@ -3876,11 +4214,11 @@
         <v>153</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1">
       <c r="A33" s="6">
         <v>26</v>
       </c>
@@ -3894,13 +4232,13 @@
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A34" s="33">
         <v>27</v>
       </c>
@@ -3913,7 +4251,7 @@
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
     </row>
-    <row r="35" spans="1:9" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30.75" thickTop="1">
       <c r="A35" s="6">
         <v>28</v>
       </c>
@@ -3924,10 +4262,10 @@
         <v>12042</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>108</v>
@@ -3936,7 +4274,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="6">
         <v>29</v>
       </c>
@@ -3956,7 +4294,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="6">
         <v>30</v>
       </c>
@@ -3970,13 +4308,13 @@
         <v>166</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="6">
         <v>31</v>
       </c>
@@ -3990,13 +4328,13 @@
         <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="6">
         <v>32</v>
       </c>
@@ -4010,7 +4348,7 @@
         <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>121</v>
@@ -4019,7 +4357,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="6">
         <v>33</v>
       </c>
@@ -4033,7 +4371,7 @@
         <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>117</v>
@@ -4042,7 +4380,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="30">
       <c r="A41" s="6">
         <v>34</v>
       </c>
@@ -4056,7 +4394,7 @@
         <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>109</v>
@@ -4065,12 +4403,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="6">
         <v>35</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" s="8">
         <v>0</v>
@@ -4079,13 +4417,13 @@
         <v>166</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="6">
         <v>36</v>
       </c>
@@ -4099,13 +4437,13 @@
         <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="6">
         <v>37</v>
       </c>
@@ -4116,16 +4454,16 @@
         <v>1617</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1">
       <c r="A45" s="6">
         <v>38</v>
       </c>
@@ -4139,11 +4477,11 @@
         <v>158</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="33">
         <v>39</v>
       </c>
@@ -4156,7 +4494,7 @@
       <c r="H46" s="33"/>
       <c r="I46" s="33"/>
     </row>
-    <row r="47" spans="1:9" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="30.75" thickTop="1">
       <c r="A47" s="6">
         <v>40</v>
       </c>
@@ -4167,10 +4505,10 @@
         <v>15359</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>115</v>
@@ -4182,7 +4520,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="75">
       <c r="A48" s="6">
         <v>41</v>
       </c>
@@ -4193,16 +4531,16 @@
         <v>656</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="45">
       <c r="A49" s="6">
         <v>42</v>
       </c>
@@ -4216,16 +4554,16 @@
         <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1">
       <c r="A50" s="6">
         <v>43</v>
       </c>
@@ -4239,11 +4577,11 @@
         <v>155</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A51" s="33">
         <v>44</v>
       </c>
@@ -4256,7 +4594,7 @@
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
     </row>
-    <row r="52" spans="1:9" ht="331.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="331.5" thickTop="1" thickBot="1">
       <c r="A52" s="6">
         <v>45</v>
       </c>
@@ -4267,20 +4605,20 @@
         <v>7069</v>
       </c>
       <c r="D52" s="46" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="48" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H52" s="50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A53" s="33">
         <v>44</v>
       </c>
@@ -4293,7 +4631,7 @@
       <c r="H53" s="33"/>
       <c r="I53" s="33"/>
     </row>
-    <row r="54" spans="1:9" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="45.75" thickTop="1">
       <c r="A54" s="6">
         <v>47</v>
       </c>
@@ -4307,10 +4645,10 @@
         <v>129</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>93</v>
@@ -4319,7 +4657,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="6">
         <v>48</v>
       </c>
@@ -4333,13 +4671,13 @@
         <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="6">
         <v>49</v>
       </c>
@@ -4353,13 +4691,13 @@
         <v>76</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="6">
         <v>50</v>
       </c>
@@ -4373,13 +4711,13 @@
         <v>66</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="6">
         <v>51</v>
       </c>
@@ -4393,25 +4731,25 @@
         <v>66</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F58" s="2"/>
       <c r="H58" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="23">
         <v>52</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="26"/>
@@ -4419,7 +4757,7 @@
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="75">
       <c r="A60" s="6">
         <v>53</v>
       </c>
@@ -4429,14 +4767,20 @@
       <c r="C60" s="8">
         <v>8959</v>
       </c>
-      <c r="D60" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D60" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="6">
         <v>54</v>
       </c>
@@ -4446,15 +4790,17 @@
       <c r="C61" s="8">
         <v>5141</v>
       </c>
-      <c r="D61" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="G61" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D61" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="90">
       <c r="A62" s="6">
         <v>55</v>
       </c>
@@ -4464,26 +4810,31 @@
       <c r="C62" s="8">
         <v>59068</v>
       </c>
-      <c r="D62" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="G62" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D62" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F62" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="23">
         <v>56</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="26"/>
@@ -4491,7 +4842,7 @@
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="6">
         <v>57</v>
       </c>
@@ -4502,13 +4853,13 @@
         <v>7134</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:9" ht="30">
       <c r="A65" s="6">
         <v>58</v>
       </c>
@@ -4519,16 +4870,16 @@
         <v>99</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="6">
         <v>59</v>
       </c>
@@ -4542,10 +4893,10 @@
         <v>68</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="6">
         <v>60</v>
       </c>
@@ -4556,19 +4907,19 @@
         <v>211</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="6">
         <v>66</v>
       </c>
@@ -4579,13 +4930,13 @@
         <v>3054</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="6">
         <v>67</v>
       </c>
@@ -4596,16 +4947,16 @@
         <v>4122</v>
       </c>
       <c r="D69" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="6">
         <v>68</v>
       </c>
@@ -4619,10 +4970,10 @@
         <v>68</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="6">
         <v>69</v>
       </c>
@@ -4633,27 +4984,27 @@
         <v>491</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="23">
         <v>70</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="26"/>
@@ -4661,7 +5012,7 @@
       <c r="H72" s="23"/>
       <c r="I72" s="23"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="6">
         <v>71</v>
       </c>
@@ -4679,18 +5030,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="23">
         <v>72</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="26"/>
@@ -4698,7 +5049,7 @@
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="6">
         <v>73</v>
       </c>
@@ -4709,30 +5060,30 @@
         <v>5006</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="G75" s="52" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="23">
         <v>74</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E76" s="23"/>
       <c r="F76" s="26"/>
@@ -4740,7 +5091,7 @@
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="45">
       <c r="A77" s="6">
         <v>75</v>
       </c>
@@ -4750,26 +5101,31 @@
       <c r="C77" s="8">
         <v>7505</v>
       </c>
-      <c r="D77" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="G77" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D77" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F77" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="23">
         <v>76</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="26"/>
@@ -4777,7 +5133,7 @@
       <c r="H78" s="23"/>
       <c r="I78" s="23"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="6">
         <v>77</v>
       </c>
@@ -4795,7 +5151,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="6">
         <v>78</v>
       </c>
@@ -4813,7 +5169,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="6">
         <v>79</v>
       </c>
@@ -4831,7 +5187,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="6">
         <v>80</v>
       </c>
@@ -4849,7 +5205,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="30">
       <c r="A83" s="6">
         <v>81</v>
       </c>
@@ -4859,26 +5215,29 @@
       <c r="C83" s="8">
         <v>62978</v>
       </c>
-      <c r="D83" s="19" t="s">
-        <v>74</v>
+      <c r="D83" s="17" t="s">
+        <v>262</v>
       </c>
       <c r="E83" s="2"/>
+      <c r="F83" s="53" t="s">
+        <v>264</v>
+      </c>
       <c r="G83" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="23">
         <v>82</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="26"/>
@@ -4886,328 +5245,328 @@
       <c r="H84" s="23"/>
       <c r="I84" s="23"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="D86" s="10" t="s">
         <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="D88" s="4" t="s">
         <v>125</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="D89" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="D90" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="D91" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="D92" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="D93" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="D94" s="4" t="s">
         <v>133</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="D95" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="D96" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:6">
       <c r="D97" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:6">
       <c r="D99" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6">
       <c r="D100" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6">
       <c r="D101" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6">
       <c r="D102" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6">
       <c r="D103" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6">
       <c r="D105" s="11" t="s">
         <v>81</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F105" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:6">
       <c r="E106" s="18"/>
     </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:6">
       <c r="D107" s="11" t="s">
         <v>142</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:6">
       <c r="D108" s="11" t="s">
         <v>143</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:6">
       <c r="D109" s="11" t="s">
         <v>144</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:6">
       <c r="D110" s="12" t="s">
         <v>145</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F110" s="51" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="111" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" ht="15.75">
       <c r="D111" s="12" t="s">
         <v>146</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F111" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6">
       <c r="D112" s="11" t="s">
         <v>147</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:6">
       <c r="D113" s="11" t="s">
         <v>148</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:6">
       <c r="D114" s="11"/>
       <c r="E114" s="3"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:6">
       <c r="D115" s="3" t="s">
         <v>159</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:6">
       <c r="D116" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:6">
       <c r="D117" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:6">
       <c r="D118" s="3"/>
       <c r="E118" s="18"/>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:6">
       <c r="D119" s="6" t="s">
         <v>152</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:6">
       <c r="D120" s="6" t="s">
         <v>154</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:6">
       <c r="D121" s="6" t="s">
         <v>157</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:6">
       <c r="D122" s="6"/>
       <c r="F122" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E122"/>
+  <autoFilter ref="G1:G122"/>
   <sortState ref="A2:J122">
     <sortCondition ref="A1:A125"/>
   </sortState>
@@ -5227,174 +5586,174 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="147.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="27" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="27" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="27" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="27" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="27" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="27" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="27" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="27" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="27" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="27" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="27" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="27" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="27" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="27" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="27" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="27" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="27" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="27" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="27" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="27" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="27" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="27" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="27" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="27" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="27" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="27" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="27" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5408,7 +5767,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="APP" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="List3" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="APP" sheetId="2" r:id="rId2"/>
+    <sheet name="List3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">List1!$G$1:$G$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$G$1:$G$122</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,67 +26,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="266">
   <si>
-    <t xml:space="preserve">funktor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frekvence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARG / role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">participant role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poznámka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poznánka k 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/ufal/umr-guidelines/blob/master/guidelines.md#part-3-2-1-1-stage-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DENOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(root)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOCAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARG0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role, participant</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">actor</t>
+    <t>funktor</t>
+  </si>
+  <si>
+    <t>frekvence</t>
+  </si>
+  <si>
+    <t>ARG / role</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>participant role</t>
+  </si>
+  <si>
+    <t>poznámka</t>
+  </si>
+  <si>
+    <t>poznánka k 2014</t>
+  </si>
+  <si>
+    <t>https://github.com/ufal/umr-guidelines/blob/master/guidelines.md#part-3-2-1-1-stage-0</t>
+  </si>
+  <si>
+    <t>DENOM</t>
+  </si>
+  <si>
+    <t>(root)</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>PARTL</t>
+  </si>
+  <si>
+    <t>PRED</t>
+  </si>
+  <si>
+    <t>VOCAT</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>ARG0</t>
+  </si>
+  <si>
+    <t>role, participant</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>actor</t>
     </r>
     <r>
       <rPr>
@@ -101,14 +100,14 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">animate</t>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>animate</t>
     </r>
     <r>
       <rPr>
@@ -134,14 +133,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">force</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>force</t>
     </r>
     <r>
       <rPr>
@@ -155,14 +154,14 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">inanimate</t>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>inanimate</t>
     </r>
     <r>
       <rPr>
@@ -178,14 +177,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">causer</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>causer</t>
     </r>
     <r>
       <rPr>
@@ -199,14 +198,14 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">inanimate</t>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>inanimate</t>
     </r>
     <r>
       <rPr>
@@ -222,14 +221,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">experiencer</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>experiencer</t>
     </r>
     <r>
       <rPr>
@@ -243,14 +242,14 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">animate</t>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>animate</t>
     </r>
     <r>
       <rPr>
@@ -264,22 +263,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">PAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARG1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">theme</t>
+    <t>PAT</t>
+  </si>
+  <si>
+    <t>ARG1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>theme</t>
     </r>
     <r>
       <rPr>
@@ -293,14 +292,14 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">moves</t>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>moves</t>
     </r>
     <r>
       <rPr>
@@ -314,7 +313,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
@@ -337,14 +336,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">undergoer</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>undergoer</t>
     </r>
     <r>
       <rPr>
@@ -360,14 +359,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">material</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>material</t>
     </r>
     <r>
       <rPr>
@@ -381,14 +380,14 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(inanimate)</t>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(inanimate)</t>
     </r>
     <r>
       <rPr>
@@ -404,14 +403,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">stimulus</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>stimulus</t>
     </r>
     <r>
       <rPr>
@@ -425,22 +424,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ADDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARG2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">recipient</t>
+    <t>ADDR</t>
+  </si>
+  <si>
+    <t>ARG2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>recipient</t>
     </r>
     <r>
       <rPr>
@@ -454,14 +453,14 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">animate</t>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>animate</t>
     </r>
     <r>
       <rPr>
@@ -475,22 +474,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ORIG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">source</t>
+    <t>ORIG</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>source</t>
     </r>
     <r>
       <rPr>
@@ -506,14 +505,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">material</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>material</t>
     </r>
     <r>
       <rPr>
@@ -529,7 +528,7 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -541,59 +540,59 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ARG3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nesedí s převodem přes CEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effect</t>
+    <t>ARG3</t>
+  </si>
+  <si>
+    <t>nesedí s převodem přes CEV</t>
+  </si>
+  <si>
+    <t>EFF</t>
+  </si>
+  <si>
+    <t>effect</t>
   </si>
   <si>
     <t xml:space="preserve">NEW role, NOT in UMR, NEW to cover EFF
 TODO - nesedí pro slovesa komunikace! </t>
   </si>
   <si>
-    <t xml:space="preserve">ARG4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWHEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temporal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time --&gt; temporal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TFHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role, NON-participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TFRWH</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">temporal</t>
+    <t>ARG4</t>
+  </si>
+  <si>
+    <t>TWHEN</t>
+  </si>
+  <si>
+    <t>temporal</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>time --&gt; temporal</t>
+  </si>
+  <si>
+    <t>TFHL</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>role, NON-participant</t>
+  </si>
+  <si>
+    <t>TFRWH</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>temporal</t>
     </r>
     <r>
       <rPr>
@@ -607,43 +606,43 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">THL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOWH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">start</t>
+    <t>THL</t>
+  </si>
+  <si>
+    <t>THO</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>TOWH</t>
+  </si>
+  <si>
+    <t>TPAR</t>
+  </si>
+  <si>
+    <t>TSIN</t>
+  </si>
+  <si>
+    <t>TTILL</t>
+  </si>
+  <si>
+    <t>DIR1</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>start</t>
     </r>
     <r>
       <rPr>
@@ -657,7 +656,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
@@ -680,14 +679,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">source</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>source</t>
     </r>
     <r>
       <rPr>
@@ -703,7 +702,7 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -717,19 +716,19 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.35"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">source</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.35"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -738,22 +737,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">DIR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">path</t>
+    <t>DIR2</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>path</t>
     </r>
     <r>
       <rPr>
@@ -767,14 +766,14 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">spatial paths</t>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>spatial paths</t>
     </r>
     <r>
       <rPr>
@@ -788,28 +787,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">location</t>
+    <t>location</t>
   </si>
   <si>
     <t xml:space="preserve">location --&gt; place = location at which the action takes place </t>
   </si>
   <si>
-    <t xml:space="preserve">DIR3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goal</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">goal</t>
+    <t>DIR3</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>goal</t>
     </r>
     <r>
       <rPr>
@@ -823,14 +822,14 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">location</t>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>location</t>
     </r>
     <r>
       <rPr>
@@ -844,14 +843,14 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">action ends</t>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>action ends</t>
     </r>
     <r>
       <rPr>
@@ -865,35 +864,35 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">end point at which the theme arrives</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">direction</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.35"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">direction</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.35"/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>end point at which the theme arrives</t>
+    </r>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>direction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -908,26 +907,26 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">NON-participant role</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">place</t>
+      <t>NON-participant role</t>
+    </r>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>place</t>
     </r>
     <r>
       <rPr>
@@ -941,7 +940,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
@@ -952,25 +951,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">location --&gt; place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purpose</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">purpose</t>
+    <t>location --&gt; place</t>
+  </si>
+  <si>
+    <t>AIM</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>purpose</t>
     </r>
     <r>
       <rPr>
@@ -984,22 +983,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">CAUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cause</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">cause</t>
+    <t>CAUS</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>cause</t>
     </r>
     <r>
       <rPr>
@@ -1013,14 +1012,14 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">inanimate</t>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>inanimate</t>
     </r>
     <r>
       <rPr>
@@ -1034,40 +1033,40 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">CNCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concession</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role, discourse relation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">companion</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">companion</t>
+    <t>CNCS</t>
+  </si>
+  <si>
+    <t>concession</t>
+  </si>
+  <si>
+    <t>role, discourse relation</t>
+  </si>
+  <si>
+    <t>COND</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>INTT</t>
+  </si>
+  <si>
+    <t>ACMP</t>
+  </si>
+  <si>
+    <t>companion</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>companion</t>
     </r>
     <r>
       <rPr>
@@ -1081,43 +1080,43 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">accompanier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compared-to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">according-to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW role, NOT in UMR, NEW to cover this nuance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extent</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">extent</t>
+    <t>accompanier</t>
+  </si>
+  <si>
+    <t>CPR</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>compared-to</t>
+  </si>
+  <si>
+    <t>CRIT</t>
+  </si>
+  <si>
+    <t>according-to</t>
+  </si>
+  <si>
+    <t>NEW role, NOT in UMR, NEW to cover this nuance</t>
+  </si>
+  <si>
+    <t>DIFF</t>
+  </si>
+  <si>
+    <t>extent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>extent</t>
     </r>
     <r>
       <rPr>
@@ -1131,28 +1130,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">EXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manner</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">manner</t>
+    <t>EXT</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>MANN</t>
+  </si>
+  <si>
+    <t>manner</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>manner</t>
     </r>
     <r>
       <rPr>
@@ -1166,22 +1165,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">MEANS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instrument</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">instrument</t>
+    <t>MEANS</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>instrument</t>
     </r>
     <r>
       <rPr>
@@ -1195,40 +1194,40 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NORM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subtraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">affectee</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">affectee</t>
+    <t>NORM</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>RESL</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>RESTR</t>
+  </si>
+  <si>
+    <t>subtraction</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>affectee</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>affectee</t>
     </r>
     <r>
       <rPr>
@@ -1242,24 +1241,24 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">beneficiary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beneficiary -&gt; affectee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contrast-91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concept, event, args</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+    <t>beneficiary</t>
+  </si>
+  <si>
+    <t>beneficiary -&gt; affectee</t>
+  </si>
+  <si>
+    <t>CONTRD</t>
+  </si>
+  <si>
+    <t>contrast-91</t>
+  </si>
+  <si>
+    <t>concept, event, args</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1275,27 +1274,27 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">kořenem nově … contrast-91
+      <t>kořenem nově … contrast-91
 původní rodič … ARG1 (main clause)
 původní dítě … ARG2 (contrastive clause, the one with the conjunction)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">HER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">substitute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+    <t>HER</t>
+  </si>
+  <si>
+    <t>SUBS</t>
+  </si>
+  <si>
+    <t>substitute</t>
+  </si>
+  <si>
+    <t>COMPL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1318,20 +1317,20 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">mod-of</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>mod-of</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1346,11 +1345,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(a šipka též k substantivu, tj. nejsou jen prohozeny)</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>(a šipka též k substantivu, tj. nejsou jen prohozeny)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1362,7 +1361,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -1376,7 +1375,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1387,22 +1386,22 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(NEBO mod, ale pak od substantiva k doplňku!!)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <u val="single"/>
+      <t>(NEBO mod, ale pak od substantiva k doplňku!!)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1413,7 +1412,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1425,18 +1424,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">!!</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>!!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1455,7 +1454,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -1478,7 +1477,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -1489,7 +1488,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1508,7 +1507,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -1529,7 +1528,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -1545,11 +1544,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">typ</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>typ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -1560,7 +1559,7 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1575,18 +1574,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">... manner
+      <t>... manner
 ALE: a</t>
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">kt provokace dopouštějící samu.COMPL revoluci</t>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>kt provokace dopouštějící samu.COMPL revoluci</t>
     </r>
     <r>
       <rPr>
@@ -1600,13 +1599,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">vědomi rychlosti coby proměnné v oblasti konkurence</t>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>vědomi rychlosti coby proměnné v oblasti konkurence</t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1619,7 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1632,9 +1631,9 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <u val="single"/>
+        <b/>
+        <i/>
+        <u/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1645,7 +1644,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1657,7 +1656,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -1668,13 +1667,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">adj.*</t>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>adj.*</t>
     </r>
     <r>
       <rPr>
@@ -1687,7 +1686,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -1719,18 +1718,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">!!</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>!!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1749,14 +1748,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">mod-of</t>
+      <t>mod-of</t>
     </r>
     <r>
       <rPr>
@@ -1769,7 +1768,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -1793,18 +1792,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">!!</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>!!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1823,7 +1822,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -1845,15 +1844,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">APP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">possessor</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>possessor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -1876,64 +1875,64 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">have-rel-role-91</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">poss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poss -&gt; possessor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source = entity from which the theme detaches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subrole, NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subrole for NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO - mod OR part
+      <t>have-rel-role-91</t>
+    </r>
+  </si>
+  <si>
+    <t>poss</t>
+  </si>
+  <si>
+    <t>poss -&gt; possessor</t>
+  </si>
+  <si>
+    <t>AUTH</t>
+  </si>
+  <si>
+    <t>source = entity from which the theme detaches</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>subrole, NE</t>
+  </si>
+  <si>
+    <t>subrole for NE</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>TODO - mod OR part
 ?? how directed</t>
   </si>
   <si>
-    <t xml:space="preserve">RSTR</t>
+    <t>RSTR</t>
   </si>
   <si>
     <t xml:space="preserve"> ---</t>
   </si>
   <si>
-    <t xml:space="preserve">CPHR</t>
+    <t>CPHR</t>
   </si>
   <si>
     <t xml:space="preserve">CPHR -&gt; predicative noun </t>
   </si>
   <si>
-    <t xml:space="preserve">role, NEW</t>
+    <t>role, NEW</t>
   </si>
   <si>
     <r>
@@ -1947,14 +1946,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">but problem with frame matching</t>
+      <t>but problem with frame matching</t>
     </r>
     <r>
       <rPr>
@@ -1978,20 +1977,20 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">--&gt; keep it as it is for NOW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>--&gt; keep it as it is for NOW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -2014,57 +2013,84 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">DPHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPHR-&gt; part-of-phraseme</t>
+    <t>DPHR</t>
+  </si>
+  <si>
+    <t>DPHR-&gt; part-of-phraseme</t>
   </si>
   <si>
     <t xml:space="preserve">TODO … ?? chceme "zploštit" ?? </t>
   </si>
   <si>
-    <t xml:space="preserve">FPHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">op1, op2, …
+    <t>FPHR</t>
+  </si>
+  <si>
+    <t>op1, op2, …
 BUT see column F</t>
   </si>
   <si>
-    <t xml:space="preserve">concept, abstract entity; plus name role, ops</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">??? přidat uzel pod #Forn jako společného rodiče  
-a sadu op pro jednotlivé uzly s FPHR 
-                        </t>
-    </r>
-    <r>
-      <rPr>
+    <t>concept, abstract entity; plus name role, ops</t>
+  </si>
+  <si>
+    <t>NEW abstract concept, NOT in UMR, NEW to cover foreign phrases</t>
+  </si>
+  <si>
+    <t>ADVS</t>
+  </si>
+  <si>
+    <t>but-91</t>
+  </si>
+  <si>
+    <t>keyword, args</t>
+  </si>
+  <si>
+    <t>CONFR</t>
+  </si>
+  <si>
+    <t>ARG1 for main clause, ARG2 for contrastive clause
+(?? I would suppose have-contrast-91, rather than contrast-91)</t>
+  </si>
+  <si>
+    <t>CONJ</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>keyword, ops</t>
+  </si>
+  <si>
+    <t>CONTRA</t>
+  </si>
+  <si>
+    <t>contra</t>
+  </si>
+  <si>
+    <t>t_lemma = #Dash, versus, kontra, vs., - , #Separ, tenhle, v, x</t>
+  </si>
+  <si>
+    <t>CSQ</t>
+  </si>
+  <si>
+    <t>consecutive</t>
+  </si>
+  <si>
+    <t>DISJ</t>
+  </si>
+  <si>
+    <t>exclusive-disjunctive</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(to mimic other structures with abstract concepts)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. t_lemma #Forn --&gt; foreign-phrase</t>
+      <t>TODO</t>
     </r>
     <r>
       <rPr>
@@ -2074,255 +2100,115 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> (as NEW abstract concept)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. insert </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">NEW child</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> with relation</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> :name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">FPHR --&gt; op1, op2, ….</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW abstract concept, NOT in UMR, NEW to cover foreign phrases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">but-91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyword, args</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARG1 for main clause, ARG2 for contrastive clause
-(?? I would suppose have-contrast-91, rather than contrast-91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyword, ops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t_lemma = #Dash, versus, kontra, vs., - , #Separ, tenhle, v, x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consecutive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exclusive-disjunctive</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t xml:space="preserve"> - nebo obecnější</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">TODO</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">  'or'</t>
+    </r>
+  </si>
+  <si>
+    <t>GRAD</t>
+  </si>
+  <si>
+    <t>REAS</t>
+  </si>
+  <si>
+    <t>have-cause-91</t>
+  </si>
+  <si>
+    <t>ARG1 for main clause, ARG2 for causative clause (with conjunction)</t>
+  </si>
+  <si>
+    <t>APPS</t>
+  </si>
+  <si>
+    <t>OPER</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>concept, abstract entity; ops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMR rozlišuje date-interval, value-interval, between, slash </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> - nebo obecnější</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>NEW abstract concept</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">  'or'</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">have-cause-91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARG1 for main clause, ARG2 for causative clause (with conjunction)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concept, abstract entity; ops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMR rozlišuje date-interval, value-interval, between, slash </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>, hyper-role for existing interval entities</t>
+    </r>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>CM -&gt; discourse-marker</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">lemma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>#Neg 194x … jeho rodičem je vždy koord. uzel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (GRAD, ADVS n. CONJ) … </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">NEW abstract concept</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, hyper-role for existing interval entities</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM -&gt; discourse-marker</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">lemma </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">#Neg 194x … jeho rodičem je vždy koord. uzel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (GRAD, ADVS n. CONJ) … </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?? schova</t>
+      <t>?? schova</t>
     </r>
     <r>
       <rPr>
@@ -2352,23 +2238,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(schovat???)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ATT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHEM</t>
+      <t>(schovat???)</t>
+    </r>
+  </si>
+  <si>
+    <t>ATT</t>
+  </si>
+  <si>
+    <t>INTF</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>PREC</t>
+  </si>
+  <si>
+    <t>RHEM</t>
   </si>
   <si>
     <t xml:space="preserve"> #Neg -&gt;  attribute "polarity"
@@ -2377,7 +2263,7 @@
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -2393,7 +2279,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">??? další t_lemmata  … spousty, teď neřešit</t>
+      <t>??? další t_lemmata  … spousty, teď neřešit</t>
     </r>
     <r>
       <rPr>
@@ -2413,23 +2299,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(schovat???)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">reason</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>(schovat???)</t>
+    </r>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">reason</t>
+      <t>reason</t>
     </r>
     <r>
       <rPr>
@@ -2453,88 +2339,88 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">quant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vocative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list-item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wiki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subrole for NE concepts (not relation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subrole,quantity/quantity concepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">… attribute of quantity/quantity concepts (not relation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit</t>
+    <t>quant</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>vocative</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>ord</t>
+  </si>
+  <si>
+    <t>list-item</t>
+  </si>
+  <si>
+    <t>wiki</t>
+  </si>
+  <si>
+    <t>subrole for NE concepts (not relation)</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>subrole,quantity/quantity concepts</t>
+  </si>
+  <si>
+    <t>… attribute of quantity/quantity concepts (not relation)</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
   <si>
     <t xml:space="preserve">subrole, quantity/quantity concepts </t>
   </si>
   <si>
-    <t xml:space="preserve">range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subrole, date-entity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">??? date-entity role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attribute of ?event node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aspect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attribute of event node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polarity</t>
+    <t>range</t>
+  </si>
+  <si>
+    <t>subrole, date-entity</t>
+  </si>
+  <si>
+    <t>??? date-entity role</t>
+  </si>
+  <si>
+    <t>polite</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>attribute of ?event node</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>attribute of event node</t>
+  </si>
+  <si>
+    <t>polarity</t>
   </si>
   <si>
     <t xml:space="preserve">attribute </t>
   </si>
   <si>
-    <t xml:space="preserve">mode</t>
+    <t>mode</t>
   </si>
   <si>
     <r>
@@ -2549,18 +2435,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF1F2328"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">… 3-3-6</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">degree</t>
+      <t>… 3-3-6</t>
+    </r>
+  </si>
+  <si>
+    <t>degree</t>
   </si>
   <si>
     <r>
@@ -2581,7 +2467,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">imperative</t>
+      <t>imperative</t>
     </r>
     <r>
       <rPr>
@@ -2621,7 +2507,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">and</t>
+      <t>and</t>
     </r>
     <r>
       <rPr>
@@ -2641,11 +2527,11 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">interrogative</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>interrogative</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -2666,34 +2552,34 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3-3-2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">refer-person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attribute of entity  node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refer-number</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mod</t>
+      <t>3-3-2</t>
+    </r>
+  </si>
+  <si>
+    <t>refer-person</t>
+  </si>
+  <si>
+    <t>attribute of entity  node</t>
+  </si>
+  <si>
+    <t>refer-number</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>mod</t>
     </r>
     <r>
       <rPr>
@@ -2702,21 +2588,21 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">al-strength</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">attribute of event node (modal)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mod</t>
+      <t>al-strength</t>
+    </r>
+  </si>
+  <si>
+    <t>attribute of event node (modal)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>mod</t>
     </r>
     <r>
       <rPr>
@@ -2725,23 +2611,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">al-predicate</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">quot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apprehensive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pure-addition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concessive-condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDT: (1) příbuzenské vztahy (kinship)</t>
+      <t>al-predicate</t>
+    </r>
+  </si>
+  <si>
+    <t>quot</t>
+  </si>
+  <si>
+    <t>apprehensive</t>
+  </si>
+  <si>
+    <t>pure-addition</t>
+  </si>
+  <si>
+    <t>concessive-condition</t>
+  </si>
+  <si>
+    <t>PDT: (1) příbuzenské vztahy (kinship)</t>
   </si>
   <si>
     <t xml:space="preserve">            manžel slavné spisovatelky.APP                 --&gt; !! ("kinship" příbuznost) ... have-rel-role-92!!!!</t>
@@ -2838,17 +2724,269 @@
   </si>
   <si>
     <t xml:space="preserve">            poezie lásky.APP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">POKUD je e-rodičem uzlu FPHR uzel s funktorem ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(vždy lemma #Forn.ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> t_lemma #Forn --&gt; foreign-phrase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(as NEW abstract concept)
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>FPHR --&gt; op1, op2, ….</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>POKUD e-rodič uzlu FPHR není uzel s funktorem ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> t_lemma #Forn --&gt; foreign-phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (as NEW abstract concept)
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> insert NEW child</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> with relation</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> :name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  and keywird "name"
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (to mimic other structures with abstract concepts)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">FPHR --&gt; op1, op2, …. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2857,22 +2995,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2881,7 +3004,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.35"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2894,7 +3017,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -2902,7 +3025,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -2916,7 +3039,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -2924,7 +3047,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -2939,7 +3062,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -2947,24 +3070,24 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.35"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
-      <u val="single"/>
+      <b/>
+      <i/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2978,7 +3101,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2992,7 +3115,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF1F2328"/>
       <name val="Calibri"/>
@@ -3012,6 +3135,30 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3028,7 +3175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
@@ -3046,20 +3193,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3075,298 +3222,155 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="47">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="46">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Check Cell" xfId="21"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Excel Built-in Check Cell" xfId="2"/>
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF808080"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA5A5A5"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -3425,51 +3429,60 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -3477,12 +3490,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -3511,7 +3524,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -3532,7 +3545,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -3583,7 +3596,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -3601,41 +3614,40 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="57.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="67.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="44.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="23.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="59.71"/>
+    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="67.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -3656,7 +3668,7 @@
       <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="n">
+      <c r="H1" s="9">
         <v>2014</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -3666,56 +3678,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>10207</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3">
         <v>8427</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>2793</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>209767</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -3723,22 +3735,22 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>422</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>0</v>
       </c>
       <c r="B7" s="8"/>
@@ -3750,14 +3762,14 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:10" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="3">
         <v>374608</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3773,14 +3785,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="3">
         <v>291817</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3796,14 +3808,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="3">
         <v>41118</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3819,14 +3831,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="3">
         <v>4279</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3848,14 +3860,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="3">
         <v>34902</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -3874,8 +3886,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>6</v>
       </c>
       <c r="B13" s="8"/>
@@ -3887,14 +3899,14 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="3">
         <v>70575</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3907,14 +3919,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>8</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="3">
         <v>1383</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3925,14 +3937,14 @@
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>9</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="3">
         <v>1179</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -3945,14 +3957,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>10</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="3">
         <v>10848</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3966,14 +3978,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="3">
         <v>7317</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3984,64 +3996,64 @@
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="3">
         <v>489</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>13</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="3">
         <v>3123</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>14</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="3">
         <v>2403</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="3">
         <v>3411</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>16</v>
       </c>
       <c r="B23" s="8"/>
@@ -4053,14 +4065,14 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="n">
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
         <v>17</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="21" t="n">
+      <c r="C24" s="21">
         <v>17394</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -4082,14 +4094,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>18</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="3">
         <v>1590</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -4108,14 +4120,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>19</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="3">
         <v>28167</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -4134,14 +4146,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>20</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="3">
         <v>79877</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -4160,8 +4172,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>21</v>
       </c>
       <c r="B28" s="8"/>
@@ -4173,8 +4185,8 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19" t="n">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
         <v>22</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -4194,14 +4206,14 @@
       </c>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>23</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="3">
         <v>10757</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -4217,14 +4229,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>24</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="3">
         <v>2713</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -4235,14 +4247,14 @@
       </c>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>25</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="3">
         <v>7375</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -4253,14 +4265,14 @@
       </c>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>26</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="3">
         <v>2921</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -4273,8 +4285,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="n">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <v>27</v>
       </c>
       <c r="B34" s="8"/>
@@ -4286,14 +4298,14 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>28</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="3">
         <v>12042</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -4309,14 +4321,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>29</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="3">
         <v>7271</v>
       </c>
       <c r="D36" s="29" t="s">
@@ -4329,14 +4341,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>30</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" s="3">
         <v>4932</v>
       </c>
       <c r="D37" s="17" t="s">
@@ -4349,14 +4361,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>31</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="3">
         <v>6449</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -4369,14 +4381,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>32</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" s="3">
         <v>35669</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -4392,14 +4404,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>33</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="3">
         <v>31911</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -4415,14 +4427,14 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>34</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="C41" s="3">
         <v>8718</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -4438,14 +4450,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>35</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="3" t="n">
+      <c r="C42" s="3">
         <v>0</v>
       </c>
       <c r="D42" s="17" t="s">
@@ -4458,14 +4470,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>36</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="3" t="n">
+      <c r="C43" s="3">
         <v>10752</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -4478,14 +4490,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>37</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="3" t="n">
+      <c r="C44" s="3">
         <v>1617</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -4498,14 +4510,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>38</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="3" t="n">
+      <c r="C45" s="3">
         <v>1488</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -4516,8 +4528,8 @@
       </c>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
         <v>39</v>
       </c>
       <c r="B46" s="8"/>
@@ -4529,14 +4541,14 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>40</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="3" t="n">
+      <c r="C47" s="3">
         <v>15359</v>
       </c>
       <c r="D47" s="11" t="s">
@@ -4555,14 +4567,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>41</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="3" t="n">
+      <c r="C48" s="3">
         <v>656</v>
       </c>
       <c r="D48" s="31" t="s">
@@ -4575,14 +4587,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>42</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="3" t="n">
+      <c r="C49" s="3">
         <v>142</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -4598,14 +4610,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>43</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="3" t="n">
+      <c r="C50" s="3">
         <v>989</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -4616,8 +4628,8 @@
       </c>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="n">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
         <v>44</v>
       </c>
       <c r="B51" s="8"/>
@@ -4629,14 +4641,14 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>45</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C52" s="3" t="n">
+      <c r="C52" s="3">
         <v>7069</v>
       </c>
       <c r="D52" s="33" t="s">
@@ -4653,8 +4665,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="n">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
         <v>44</v>
       </c>
       <c r="B53" s="8"/>
@@ -4666,14 +4678,14 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>47</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="3" t="n">
+      <c r="C54" s="3">
         <v>30097</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -4692,14 +4704,14 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>48</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="3" t="n">
+      <c r="C55" s="3">
         <v>781</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -4712,14 +4724,14 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>49</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="3" t="n">
+      <c r="C56" s="3">
         <v>38823</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -4732,14 +4744,14 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>50</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="3" t="n">
+      <c r="C57" s="3">
         <v>5268</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -4752,14 +4764,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>51</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="3" t="n">
+      <c r="C58" s="3">
         <v>493996</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -4773,8 +4785,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="36" t="n">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="36">
         <v>52</v>
       </c>
       <c r="B59" s="37" t="s">
@@ -4792,14 +4804,14 @@
       <c r="H59" s="36"/>
       <c r="I59" s="36"/>
     </row>
-    <row r="60" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>53</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="3" t="n">
+      <c r="C60" s="3">
         <v>8959</v>
       </c>
       <c r="D60" s="18" t="s">
@@ -4815,14 +4827,14 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>54</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="3" t="n">
+      <c r="C61" s="3">
         <v>5141</v>
       </c>
       <c r="D61" s="18" t="s">
@@ -4835,14 +4847,14 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>55</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C62" s="3" t="n">
+      <c r="C62" s="3">
         <v>59068</v>
       </c>
       <c r="D62" s="32" t="s">
@@ -4851,15 +4863,15 @@
       <c r="E62" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="F62" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="G62" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="G62" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="36" t="n">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="36">
         <v>56</v>
       </c>
       <c r="B63" s="37" t="s">
@@ -4877,31 +4889,31 @@
       <c r="H63" s="36"/>
       <c r="I63" s="36"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>57</v>
       </c>
       <c r="B64" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="3">
+        <v>7134</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="3" t="n">
-        <v>7134</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E64" s="14" t="s">
+    </row>
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>58</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65" s="3" t="n">
+      <c r="C65" s="3">
         <v>99</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -4911,125 +4923,125 @@
         <v>115</v>
       </c>
       <c r="F65" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>59</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B66" s="11" t="s">
+      <c r="C66" s="3">
+        <v>76346</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C66" s="3" t="n">
-        <v>76346</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>60</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B67" s="11" t="s">
+      <c r="C67" s="3">
+        <v>211</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C67" s="3" t="n">
-        <v>211</v>
-      </c>
-      <c r="D67" s="17" t="s">
+      <c r="E67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F67" s="39" t="s">
         <v>163</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F67" s="39" t="s">
-        <v>164</v>
       </c>
       <c r="G67" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3054</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C68" s="3" t="n">
-        <v>3054</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" s="11" t="s">
+      <c r="C69" s="3">
+        <v>4122</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C69" s="3" t="n">
-        <v>4122</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G69" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G69" s="18" t="s">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" s="11" t="s">
+      <c r="C70" s="3">
+        <v>1346</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="3" t="n">
-        <v>1346</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" s="11" t="s">
+      <c r="C71" s="3">
+        <v>491</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C71" s="3" t="n">
-        <v>491</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="36" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="36">
         <v>70</v>
       </c>
       <c r="B72" s="37" t="s">
@@ -5047,14 +5059,14 @@
       <c r="H72" s="36"/>
       <c r="I72" s="36"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C73" s="3" t="n">
+        <v>173</v>
+      </c>
+      <c r="C73" s="3">
         <v>18512</v>
       </c>
       <c r="D73" s="29" t="s">
@@ -5065,8 +5077,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="36" t="n">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="36">
         <v>72</v>
       </c>
       <c r="B74" s="37" t="s">
@@ -5084,31 +5096,31 @@
       <c r="H74" s="36"/>
       <c r="I74" s="36"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="3">
+        <v>5006</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C75" s="3" t="n">
-        <v>5006</v>
-      </c>
-      <c r="D75" s="17" t="s">
+      <c r="E75" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="F75" s="14" t="s">
+      <c r="G75" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="G75" s="18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="36" t="n">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="36">
         <v>74</v>
       </c>
       <c r="B76" s="37" t="s">
@@ -5126,31 +5138,31 @@
       <c r="H76" s="36"/>
       <c r="I76" s="36"/>
     </row>
-    <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="3">
+        <v>7505</v>
+      </c>
+      <c r="D77" s="18" t="s">
         <v>180</v>
-      </c>
-      <c r="C77" s="3" t="n">
-        <v>7505</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>181</v>
       </c>
       <c r="E77" s="14" t="s">
         <v>143</v>
       </c>
       <c r="F77" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G77" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="36" t="n">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="36">
         <v>76</v>
       </c>
       <c r="B78" s="37" t="s">
@@ -5168,14 +5180,14 @@
       <c r="H78" s="36"/>
       <c r="I78" s="36"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C79" s="3" t="n">
+        <v>182</v>
+      </c>
+      <c r="C79" s="3">
         <v>7403</v>
       </c>
       <c r="D79" s="29" t="s">
@@ -5186,14 +5198,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C80" s="3" t="n">
+        <v>183</v>
+      </c>
+      <c r="C80" s="3">
         <v>1199</v>
       </c>
       <c r="D80" s="29" t="s">
@@ -5204,14 +5216,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C81" s="3" t="n">
+        <v>184</v>
+      </c>
+      <c r="C81" s="3">
         <v>5557</v>
       </c>
       <c r="D81" s="29" t="s">
@@ -5222,14 +5234,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C82" s="3" t="n">
+        <v>185</v>
+      </c>
+      <c r="C82" s="3">
         <v>17898</v>
       </c>
       <c r="D82" s="29" t="s">
@@ -5240,29 +5252,29 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="3">
+        <v>62978</v>
+      </c>
+      <c r="D83" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="C83" s="3" t="n">
-        <v>62978</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>188</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G83" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="36" t="n">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="36">
         <v>82</v>
       </c>
       <c r="B84" s="37" t="s">
@@ -5280,553 +5292,529 @@
       <c r="H84" s="36"/>
       <c r="I84" s="36"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D86" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D88" s="2" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F88" s="13"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D89" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F89" s="13"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D90" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F90" s="13"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D91" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F91" s="13"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D92" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F92" s="13"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D93" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F93" s="13"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D94" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F94" s="13"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D95" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F95" s="13"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D96" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F96" s="13"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F97" s="13"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D99" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>134</v>
       </c>
       <c r="F99" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D100" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="E100" s="13" t="s">
+      <c r="F100" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="F100" s="13" t="s">
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D101" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E101" s="13" t="s">
-        <v>208</v>
-      </c>
       <c r="F101" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D102" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E102" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D103" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F102" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D103" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="E103" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D105" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E105" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F105" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="F105" s="35" t="s">
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E106" s="30"/>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D107" s="12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="30"/>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D107" s="12" t="s">
+      <c r="E107" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="E107" s="13" t="s">
+      <c r="F107" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F107" s="14" t="s">
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D108" s="12" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D108" s="12" t="s">
+      <c r="E108" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="E108" s="13" t="s">
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D109" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F109" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F108" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D109" s="12" t="s">
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D110" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="E110" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="E109" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D110" s="43" t="s">
+      <c r="F110" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="E110" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F110" s="44" t="s">
+    </row>
+    <row r="111" spans="4:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="D111" s="43" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D111" s="43" t="s">
+      <c r="E111" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F111" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="E111" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F111" s="35" t="s">
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D112" s="12" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D112" s="12" t="s">
+      <c r="E112" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F112" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="E112" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="F112" s="14" t="s">
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D113" s="12" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D113" s="12" t="s">
-        <v>225</v>
-      </c>
       <c r="E113" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D114" s="12"/>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D115" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F115" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E115" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F115" s="14" t="s">
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D116" s="13" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D116" s="13" t="s">
+      <c r="E116" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D117" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="E116" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D117" s="13" t="s">
-        <v>229</v>
-      </c>
       <c r="E117" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D118" s="13"/>
       <c r="E118" s="30"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D119" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E119" s="14" t="s">
         <v>77</v>
       </c>
       <c r="F119" s="13"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D120" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E120" s="14" t="s">
         <v>77</v>
       </c>
       <c r="F120" s="13"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D121" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E121" s="14" t="s">
         <v>77</v>
       </c>
       <c r="F121" s="13"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D122" s="1"/>
       <c r="F122" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="G1:G122"/>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1" location="part-3-2-1-1-stage-0" display="https://github.com/ufal/umr-guidelines/blob/master/guidelines.md#part-3-2-1-1-stage-0"/>
+    <hyperlink ref="J1" r:id="rId1" location="part-3-2-1-1-stage-0"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="147.15"/>
+    <col min="1" max="1" width="147.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="45" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="45" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="45" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="45" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="45" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="45" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="45" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="45" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="45" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="45" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="45" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="45" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="45" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="45" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="45" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="45" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="45" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="45" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="45" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="45" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="45" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="45" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="45" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="45" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="45" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="45" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="45" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="45" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="45" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="45" t="s">
-        <v>265</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopatkova\SVN\GitHub-UMR\tecto2umr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="274">
   <si>
     <t>funktor</t>
   </si>
@@ -1916,10 +1921,6 @@
     <t>mod</t>
   </si>
   <si>
-    <t>TODO - mod OR part
-?? how directed</t>
-  </si>
-  <si>
     <t>RSTR</t>
   </si>
   <si>
@@ -1927,9 +1928,6 @@
   </si>
   <si>
     <t>CPHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPHR -&gt; predicative noun </t>
   </si>
   <si>
     <t>role, NEW</t>
@@ -2032,9 +2030,6 @@
     <t>concept, abstract entity; plus name role, ops</t>
   </si>
   <si>
-    <t>NEW abstract concept, NOT in UMR, NEW to cover foreign phrases</t>
-  </si>
-  <si>
     <t>ADVS</t>
   </si>
   <si>
@@ -2133,36 +2128,10 @@
     <t>OPER</t>
   </si>
   <si>
-    <t>interval</t>
-  </si>
-  <si>
     <t>concept, abstract entity; ops</t>
   </si>
   <si>
     <t xml:space="preserve">UMR rozlišuje date-interval, value-interval, between, slash </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>NEW abstract concept</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, hyper-role for existing interval entities</t>
-    </r>
   </si>
   <si>
     <t>CM</t>
@@ -2980,6 +2949,74 @@
       </rPr>
       <t xml:space="preserve">FPHR --&gt; op1, op2, …. </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO - must be refined
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO - ??? according to, ?? 
+</t>
+  </si>
+  <si>
+    <t>TODO - mod OR part or source
+?? how directed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPHR -&gt; predicative-noun </t>
+  </si>
+  <si>
+    <t>NEW abstract concept, NOT in UMR, NEW to cover foreign phrases
+??? POZOR … FPHR nejso vždy jména</t>
+  </si>
+  <si>
+    <t>NEW role, NOT in UMR, NEW to cover this nuance
+??? conflict (pokud existuje něco takového )</t>
+  </si>
+  <si>
+    <t>gradation</t>
+  </si>
+  <si>
+    <t>NEW keyword, NOT in UMR</t>
+  </si>
+  <si>
+    <r>
+      <t>TODO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> … ??? identity … ??? mod (neměla by tam být negace)</t>
+    </r>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <r>
+      <t>NEW abstract concept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, hyper-role …. should be refine later</t>
+    </r>
+  </si>
+  <si>
+    <t>TODO … ZKONTROLOVAT, že pod tím nic nevisí (a případně smazat???)</t>
+  </si>
+  <si>
+    <t>NEW role, NOT in UMR, NEW to cover this nuance
+TODO … ZKONTROLOVAT, že pod tím nic nevisí (a případně smazat???)</t>
   </si>
 </sst>
 </file>
@@ -3160,7 +3197,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3197,6 +3234,30 @@
         <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3227,7 +3288,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3363,11 +3424,26 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Check Cell" xfId="2"/>
-    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3442,6 +3518,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3628,8 +3707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4446,6 +4525,9 @@
       <c r="F41" s="15" t="s">
         <v>101</v>
       </c>
+      <c r="G41" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="H41" s="5" t="s">
         <v>100</v>
       </c>
@@ -4470,7 +4552,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>36</v>
       </c>
@@ -4488,6 +4570,9 @@
       </c>
       <c r="F43" s="30" t="s">
         <v>98</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -4761,7 +4846,7 @@
         <v>40</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>138</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4769,7 +4854,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C58" s="3">
         <v>493996</v>
@@ -4790,13 +4875,13 @@
         <v>52</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E59" s="36"/>
       <c r="F59" s="36"/>
@@ -4809,22 +4894,22 @@
         <v>53</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C60" s="3">
         <v>8959</v>
       </c>
       <c r="D60" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="G60" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -4832,19 +4917,19 @@
         <v>54</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C61" s="3">
         <v>5141</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -4852,22 +4937,22 @@
         <v>55</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C62" s="3">
         <v>59068</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F62" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="G62" s="48" t="s">
         <v>265</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4875,13 +4960,13 @@
         <v>56</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E63" s="36"/>
       <c r="F63" s="36"/>
@@ -4894,16 +4979,16 @@
         <v>57</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C64" s="3">
         <v>7134</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4911,7 +4996,7 @@
         <v>58</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C65" s="3">
         <v>99</v>
@@ -4923,7 +5008,7 @@
         <v>115</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4931,56 +5016,56 @@
         <v>59</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C66" s="3">
         <v>76346</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>60</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C67" s="3">
         <v>211</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F67" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="F67" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>90</v>
+      <c r="G67" s="48" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>164</v>
+      <c r="B68" s="50" t="s">
+        <v>161</v>
       </c>
       <c r="C68" s="3">
         <v>3054</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -4988,19 +5073,19 @@
         <v>67</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C69" s="3">
         <v>4122</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -5008,36 +5093,39 @@
         <v>68</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C70" s="3">
         <v>1346</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>159</v>
+      <c r="D70" s="49" t="s">
+        <v>267</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="G70" s="42" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>170</v>
+      <c r="B71" s="50" t="s">
+        <v>167</v>
       </c>
       <c r="C71" s="3">
         <v>491</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -5045,13 +5133,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D72" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
@@ -5064,7 +5152,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C73" s="3">
         <v>18512</v>
@@ -5073,8 +5161,8 @@
         <v>86</v>
       </c>
       <c r="E73" s="13"/>
-      <c r="G73" s="29" t="s">
-        <v>86</v>
+      <c r="G73" s="51" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -5082,13 +5170,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D74" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E74" s="36"/>
       <c r="F74" s="36"/>
@@ -5101,22 +5189,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C75" s="3">
         <v>5006</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>178</v>
+        <v>173</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -5124,13 +5212,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D76" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E76" s="36"/>
       <c r="F76" s="36"/>
@@ -5143,22 +5231,22 @@
         <v>75</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C77" s="3">
         <v>7505</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F77" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>90</v>
+        <v>176</v>
+      </c>
+      <c r="G77" s="47" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -5166,13 +5254,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
@@ -5185,7 +5273,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C79" s="3">
         <v>7403</v>
@@ -5195,7 +5283,7 @@
       </c>
       <c r="E79" s="13"/>
       <c r="G79" s="29" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -5203,7 +5291,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C80" s="3">
         <v>1199</v>
@@ -5213,7 +5301,7 @@
       </c>
       <c r="E80" s="13"/>
       <c r="G80" s="29" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -5221,7 +5309,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C81" s="3">
         <v>5557</v>
@@ -5231,7 +5319,7 @@
       </c>
       <c r="E81" s="13"/>
       <c r="G81" s="29" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -5239,7 +5327,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C82" s="3">
         <v>17898</v>
@@ -5249,7 +5337,7 @@
       </c>
       <c r="E82" s="13"/>
       <c r="G82" s="29" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5257,20 +5345,20 @@
         <v>81</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C83" s="3">
         <v>62978</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="32" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -5278,13 +5366,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D84" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E84" s="36"/>
       <c r="F84" s="36"/>
@@ -5294,18 +5382,18 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D86" s="41" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D88" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>40</v>
@@ -5314,7 +5402,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D89" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>40</v>
@@ -5323,7 +5411,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D90" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>40</v>
@@ -5332,7 +5420,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D91" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>40</v>
@@ -5341,7 +5429,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D92" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>40</v>
@@ -5350,7 +5438,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D93" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>40</v>
@@ -5359,7 +5447,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D94" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>40</v>
@@ -5368,7 +5456,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D95" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>40</v>
@@ -5377,7 +5465,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D96" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>40</v>
@@ -5386,7 +5474,7 @@
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>40</v>
@@ -5395,35 +5483,35 @@
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D99" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>134</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D100" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D101" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.25">
@@ -5431,21 +5519,21 @@
         <v>95</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D103" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.25">
@@ -5453,10 +5541,10 @@
         <v>36</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F105" s="35" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="4:6" x14ac:dyDescent="0.25">
@@ -5464,79 +5552,79 @@
     </row>
     <row r="107" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D107" s="12" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D108" s="12" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D109" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D110" s="43" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F110" s="44" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="4:6" ht="30.75" x14ac:dyDescent="0.25">
       <c r="D111" s="43" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F111" s="35" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D112" s="12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D113" s="12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="4:6" x14ac:dyDescent="0.25">
@@ -5546,35 +5634,35 @@
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D115" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D116" s="13" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D117" s="13" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="4:6" x14ac:dyDescent="0.25">
@@ -5583,7 +5671,7 @@
     </row>
     <row r="119" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D119" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E119" s="14" t="s">
         <v>77</v>
@@ -5592,7 +5680,7 @@
     </row>
     <row r="120" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D120" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E120" s="14" t="s">
         <v>77</v>
@@ -5601,7 +5689,7 @@
     </row>
     <row r="121" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D121" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E121" s="14" t="s">
         <v>77</v>
@@ -5637,167 +5725,167 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -12,12 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
-    <sheet name="APP" sheetId="2" r:id="rId2"/>
-    <sheet name="List3" sheetId="3" r:id="rId3"/>
+    <sheet name="funktory" sheetId="1" r:id="rId1"/>
+    <sheet name="zástupná lemmata" sheetId="3" r:id="rId2"/>
+    <sheet name="APP" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$F$1:$F$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">funktory!$F$1:$F$122</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="289">
   <si>
     <t>funktor</t>
   </si>
@@ -2069,10 +2069,6 @@
     <t>NOT in UMR, NEW role (non-participant)</t>
   </si>
   <si>
-    <t>NOT in UMR, NEW  abstract concept
-??? POZOR … FPHR nejso vždy jména</t>
-  </si>
-  <si>
     <t>NOT in UMR, NEW keyword
 ??? conflict (pokud existuje něco takového )</t>
   </si>
@@ -2080,10 +2076,6 @@
     <t>role (NON-participant)</t>
   </si>
   <si>
-    <t>concept (abstract entity)
-role (name, ops)</t>
-  </si>
-  <si>
     <t>role (discourse relation)</t>
   </si>
   <si>
@@ -2110,10 +2102,6 @@
   <si>
     <t>concept (event, args) … 
 … TEDY to dopadne jako koordinace</t>
-  </si>
-  <si>
-    <t>role (participant / NON-participant)
-role (NON-participant)</t>
   </si>
   <si>
     <r>
@@ -2865,36 +2853,304 @@
     </r>
   </si>
   <si>
-    <t>#Forn --&gt; foreign-phrase
-FPHR --&gt; op1, op2, …
-BUT see column H</t>
-  </si>
-  <si>
-    <r>
-      <t>POKUD je e-rodičem uzlu FPHR uzel s funktorem ID</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <r>
+      <t xml:space="preserve">hrana (e-child) rodič-COMPL --&gt; manner / mod
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>podle sempos rodiče:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   sempos:   v, adj.* --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>manner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+                                 n.*  --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>mod</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>undef ... DODĚLAT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+(compl.rf šipka) COMPL --&gt; mod-of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NEBO mod, ale pak od substantiva 
+                                                            k doplňku!!)</t>
+    </r>
+  </si>
+  <si>
+    <t>NOT in UMR, NEW keyword</t>
+  </si>
+  <si>
+    <t>#Forn</t>
+  </si>
+  <si>
+    <t>t_lemma</t>
+  </si>
+  <si>
+    <t>k čemu slouží</t>
+  </si>
+  <si>
+    <t>struktura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kořen pro cizojazyčnou frázi (která se neskloňuje), 
+</t>
+  </si>
+  <si>
+    <t>jednotlivé tokeny fráze na něm visí (seznam) s funktorem FPHR
+(FPHR nikdy nevisí na jiném t_lemmatu)</t>
+  </si>
+  <si>
+    <t>UMR</t>
+  </si>
+  <si>
+    <t>vlastn9 jm0no&lt;&lt;</t>
+  </si>
+  <si>
+    <t>NOT in UMR, NEW  abstract concept
+??? TODO ne vše, co je #Forn ID, je vlastní jméno???</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PDT:
+v textu obecné jméno + cizí fráze --&gt; vkládá se uzel #Forn.ID, (43 571x),
+teprve na něm visí FPHR 
+   koupili společnost.PAT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(#Forn.ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Electric.FPHR) (motors.FPHR) 
+v textu jen cizí fráze 
+    koupili #Forn.PAT (Electric.FPHR) (motors.FPHR) 
+UMR ... v případě s #Forn.ID  
+    - ztrácíme info, že je to cizí fráze (to asui nevadí?)
+    - !!! NE vždy jde o vlastní jméno ... např. nápis "Pull" </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>!! e-rodič uzlu FPHR má vždy t_lemma #Forn !!
+POKUD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> e-rodič uzlu FPHR (=#Forn)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> není ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6 443x)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1: t_lemma #Forn 
+        --&gt; foreign-phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (NEW abstract concept)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   2: FPHR --&gt; op1, op2, …. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     (7x má FPHR dítě
+     1x PAR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+POKUD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> e-rodič uzlu FPHR  (=#Forn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) je ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(13 449x):</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
@@ -2908,6 +3164,69 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(uzlu #Forn) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">--&gt; name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(role) 
+                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>??obecněji  mod</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">1: </t>
     </r>
     <r>
@@ -2917,16 +3236,35 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> t_lemma #Forn --&gt; foreign-phrase </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> t_lemma #Forn --&gt; name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (concept) 
+                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">(as NEW abstract concept)
+      <t>?? foreign-phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
    </t>
     </r>
     <r>
@@ -2983,292 +3321,39 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">POKUD e-rodič uzlu FPHR není uzel s funktorem ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(15 497x)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>t_lemma uzlu s ID NENÍ #Forn:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
+?? lze najít vlastní jména 
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> t_lemma #Forn --&gt; foreign-phrase</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (as NEW abstract concept)
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> insert NEW child</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> with relation</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> :list-item</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  and keyward "name"
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (to mimic other structures with abstract concepts)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">FPHR --&gt; op1, op2, …. 
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  (7x má FPHR dítě</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">hrana (e-child) rodič-COMPL --&gt; manner / mod
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>podle sempos rodiče:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   sempos:   v, adj.* --&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>manner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-                                 n.*  --&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>mod</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>undef ... DODĚLAT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-(compl.rf šipka) COMPL --&gt; mod-of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NEBO mod, ale pak od substantiva 
-                                                            k doplňku!!)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>?? lze najít vlastní jména (asi ano v PDT, jinde ne?)</t>
+      </rPr>
+      <t>(asi ano v PDT, jinde ne?)</t>
     </r>
     <r>
       <rPr>
@@ -3305,7 +3390,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ostatní --&gt; mod</t>
+      <t>ostatní (mimo #Forn) --&gt; mod</t>
     </r>
     <r>
       <rPr>
@@ -3330,11 +3415,10 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>??? JAK se kominuje s FPHR … DODĚLAT???</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>t_lemma uzlu s ID JE #Forn … viz FPHR</t>
     </r>
     <r>
       <rPr>
@@ -3348,31 +3432,62 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">PDT:
-v textu obecné jméno + cizí fráze --&gt; vkládá se uzel #Forn.ID, (43 571x),
-teprve na něm visí FPHR 
-   koupili společnost.PAT (#Forn.ID (Electric.FPHR) (motors.FPHR) 
-v textu jen cizí fráze 
-    koupili #Forn.PAT (Electric.FPHR) (motors.FPHR) 
-UMR vždy uzel, který vše zahrnuje
-v textu obecné jméno + cizí fráze --&gt;  nic se nevkládá
-v textu jen cizí fráze --&gt; mělo by se do něčeho zabalit
+    <t>role (participant / NON-participant)
+role (NON-participant)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if #Forn NE funktor ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+#Forn --&gt; foreign-phrase
+FPHR --&gt; op1, op2, …
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>DODĚLAT !!!</t>
-    </r>
-  </si>
-  <si>
-    <t>NOT in UMR, NEW keyword</t>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+if #Forn.ID:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID --&gt; name / mod
+#Forn --&gt; name 
+                    / foreign-phrase
+FPHR --&gt; op1, op2, …</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+concept (abstract entity)
+role (foreign-phrase, ops)
+subrole (NE) / role (participant)
+concept (abstract entity)
+          /concept (abstract entity)
+role (name/foreign-phrase, ops)</t>
   </si>
 </sst>
 </file>
@@ -3631,7 +3746,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3705,12 +3820,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3731,6 +3840,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -3779,7 +3900,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3883,9 +4004,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3910,16 +4028,13 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3928,7 +4043,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3952,10 +4067,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3964,10 +4076,10 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3985,7 +4097,7 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4012,7 +4124,20 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4286,7 +4411,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I68" sqref="I68"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4308,34 +4433,34 @@
       <c r="A1" s="25">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
-        <v>266</v>
-      </c>
-      <c r="C1" s="74" t="s">
+      <c r="B1" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>257</v>
-      </c>
-      <c r="J1" s="77">
+      <c r="G1" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="J1" s="74">
         <v>2014</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="71" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -4477,7 +4602,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="31" t="s">
@@ -4504,7 +4629,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="31" t="s">
@@ -4531,7 +4656,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="31" t="s">
@@ -4558,7 +4683,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G11" s="30"/>
       <c r="H11" s="31" t="s">
@@ -4589,7 +4714,7 @@
         <v>157</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="23"/>
@@ -4633,7 +4758,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="23"/>
@@ -4660,7 +4785,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="24"/>
@@ -4683,7 +4808,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="31" t="s">
@@ -4708,7 +4833,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="24"/>
@@ -4733,7 +4858,7 @@
         <v>39</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="24"/>
@@ -4756,7 +4881,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="23"/>
@@ -4779,7 +4904,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="23"/>
@@ -4802,7 +4927,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="23"/>
@@ -4825,7 +4950,7 @@
         <v>30</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="23"/>
@@ -4863,7 +4988,7 @@
         <v>45</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="31" t="s">
@@ -4894,7 +5019,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="31" t="s">
@@ -4923,7 +5048,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G26" s="30"/>
       <c r="H26" s="31" t="s">
@@ -4952,7 +5077,7 @@
         <v>60</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G27" s="30"/>
       <c r="H27" s="31" t="s">
@@ -5019,7 +5144,7 @@
         <v>67</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G30" s="30"/>
       <c r="H30" s="31" t="s">
@@ -5046,7 +5171,7 @@
         <v>70</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G31" s="30"/>
       <c r="H31" s="24"/>
@@ -5069,7 +5194,7 @@
         <v>72</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G32" s="30"/>
       <c r="H32" s="24"/>
@@ -5092,7 +5217,7 @@
         <v>64</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G33" s="30"/>
       <c r="H33" s="31" t="s">
@@ -5132,7 +5257,7 @@
         <v>75</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G35" s="30"/>
       <c r="H35" s="31" t="s">
@@ -5186,13 +5311,13 @@
         <v>239</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="G37" s="37" t="s">
-        <v>262</v>
+        <v>243</v>
+      </c>
+      <c r="G37" s="80" t="s">
+        <v>259</v>
       </c>
       <c r="H37" s="23"/>
-      <c r="I37" s="38" t="s">
+      <c r="I37" s="37" t="s">
         <v>241</v>
       </c>
       <c r="J37" s="28"/>
@@ -5213,7 +5338,7 @@
         <v>83</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G38" s="30"/>
       <c r="H38" s="31" t="s">
@@ -5238,7 +5363,7 @@
         <v>83</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G39" s="30"/>
       <c r="H39" s="31" t="s">
@@ -5265,10 +5390,10 @@
         <v>88</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G40" s="30"/>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="38" t="s">
         <v>89</v>
       </c>
       <c r="I40" s="19"/>
@@ -5292,7 +5417,7 @@
         <v>91</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G41" s="30"/>
       <c r="H41" s="31" t="s">
@@ -5307,31 +5432,31 @@
       <c r="K41" s="28"/>
     </row>
     <row r="42" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40">
+      <c r="A42" s="39">
         <v>35</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="41" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="41">
         <v>0</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="F42" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40" t="s">
+      <c r="F42" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="I42" s="44" t="s">
+      <c r="I42" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
@@ -5344,17 +5469,17 @@
       <c r="D43" s="21">
         <v>10752</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="44" t="s">
         <v>239</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="G43" s="46" t="s">
-        <v>261</v>
+        <v>245</v>
+      </c>
+      <c r="G43" s="81" t="s">
+        <v>258</v>
       </c>
       <c r="H43" s="23"/>
-      <c r="I43" s="38" t="s">
+      <c r="I43" s="37" t="s">
         <v>241</v>
       </c>
       <c r="J43" s="28"/>
@@ -5375,11 +5500,11 @@
         <v>96</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G44" s="19"/>
       <c r="H44" s="23"/>
-      <c r="I44" s="38" t="s">
+      <c r="I44" s="37" t="s">
         <v>241</v>
       </c>
       <c r="J44" s="28"/>
@@ -5400,7 +5525,7 @@
         <v>98</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G45" s="30"/>
       <c r="H45" s="24"/>
@@ -5438,7 +5563,7 @@
         <v>100</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G47" s="30"/>
       <c r="H47" s="31" t="s">
@@ -5456,21 +5581,21 @@
       <c r="A48" s="19">
         <v>41</v>
       </c>
-      <c r="B48" s="47"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="20" t="s">
         <v>104</v>
       </c>
       <c r="D48" s="21">
         <v>656</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="G48" s="50" t="s">
-        <v>274</v>
+      <c r="F48" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>271</v>
       </c>
       <c r="H48" s="23"/>
       <c r="I48" s="19"/>
@@ -5492,7 +5617,7 @@
         <v>22</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G49" s="30"/>
       <c r="H49" s="31" t="s">
@@ -5515,11 +5640,11 @@
       <c r="D50" s="21">
         <v>989</v>
       </c>
-      <c r="E50" s="51" t="s">
+      <c r="E50" s="49" t="s">
         <v>108</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G50" s="30"/>
       <c r="H50" s="24"/>
@@ -5546,27 +5671,27 @@
       <c r="A52" s="19">
         <v>45</v>
       </c>
-      <c r="B52" s="47"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="20" t="s">
         <v>109</v>
       </c>
       <c r="D52" s="21">
         <v>7069</v>
       </c>
-      <c r="E52" s="52" t="s">
-        <v>256</v>
+      <c r="E52" s="50" t="s">
+        <v>253</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="G52" s="79" t="s">
-        <v>277</v>
-      </c>
-      <c r="H52" s="53" t="s">
-        <v>263</v>
+        <v>286</v>
+      </c>
+      <c r="G52" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="H52" s="51" t="s">
+        <v>260</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J52" s="28"/>
       <c r="K52" s="28"/>
@@ -5601,12 +5726,12 @@
         <v>111</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G54" s="19"/>
       <c r="H54" s="23"/>
       <c r="I54" s="32" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J54" s="28" t="s">
         <v>112</v>
@@ -5630,17 +5755,17 @@
         <v>22</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G55" s="30"/>
-      <c r="H55" s="54" t="s">
+      <c r="H55" s="52" t="s">
         <v>115</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="28"/>
       <c r="K55" s="28"/>
     </row>
-    <row r="56" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>49</v>
       </c>
@@ -5651,20 +5776,20 @@
       <c r="D56" s="21">
         <v>38823</v>
       </c>
-      <c r="E56" s="55" t="s">
-        <v>268</v>
+      <c r="E56" s="53" t="s">
+        <v>265</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="G56" s="78" t="s">
-        <v>278</v>
+        <v>266</v>
+      </c>
+      <c r="G56" s="75" t="s">
+        <v>285</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I56" s="32" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
@@ -5684,7 +5809,7 @@
         <v>118</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G57" s="19"/>
       <c r="H57" s="23"/>
@@ -5709,7 +5834,7 @@
         <v>118</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G58" s="19"/>
       <c r="H58" s="24"/>
@@ -5720,25 +5845,25 @@
       <c r="K58" s="28"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="56">
+      <c r="A59" s="54">
         <v>52</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="57" t="s">
+      <c r="B59" s="54"/>
+      <c r="C59" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="58" t="s">
+      <c r="D59" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="57" t="s">
+      <c r="E59" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="56"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
     </row>
     <row r="60" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
@@ -5751,8 +5876,8 @@
       <c r="D60" s="21">
         <v>8959</v>
       </c>
-      <c r="E60" s="59" t="s">
-        <v>270</v>
+      <c r="E60" s="57" t="s">
+        <v>267</v>
       </c>
       <c r="F60" s="19" t="s">
         <v>122</v>
@@ -5761,8 +5886,8 @@
       <c r="H60" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="I60" s="60" t="s">
-        <v>272</v>
+      <c r="I60" s="58" t="s">
+        <v>269</v>
       </c>
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
@@ -5778,21 +5903,21 @@
       <c r="D61" s="21">
         <v>5141</v>
       </c>
-      <c r="E61" s="59" t="s">
-        <v>271</v>
+      <c r="E61" s="57" t="s">
+        <v>268</v>
       </c>
       <c r="F61" s="30" t="s">
         <v>122</v>
       </c>
       <c r="G61" s="30"/>
       <c r="H61" s="23"/>
-      <c r="I61" s="60" t="s">
-        <v>273</v>
+      <c r="I61" s="58" t="s">
+        <v>270</v>
       </c>
       <c r="J61" s="28"/>
       <c r="K61" s="28"/>
     </row>
-    <row r="62" spans="1:11" ht="285" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>55</v>
       </c>
@@ -5803,44 +5928,46 @@
       <c r="D62" s="21">
         <v>59068</v>
       </c>
-      <c r="E62" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="F62" s="62" t="s">
-        <v>245</v>
-      </c>
-      <c r="G62" s="80" t="s">
-        <v>276</v>
+      <c r="E62" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="F62" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="G62" s="82" t="s">
+        <v>284</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="I62" s="63" t="s">
-        <v>242</v>
+        <v>283</v>
+      </c>
+      <c r="I62" s="60" t="s">
+        <v>282</v>
       </c>
       <c r="J62" s="28"/>
       <c r="K62" s="28"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="56">
+      <c r="A63" s="54">
         <v>56</v>
       </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="57" t="s">
+      <c r="B63" s="54"/>
+      <c r="C63" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="58" t="s">
+      <c r="D63" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="E63" s="57" t="s">
+      <c r="E63" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
     </row>
     <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
@@ -5856,11 +5983,13 @@
       <c r="E64" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F64" s="64" t="s">
-        <v>251</v>
-      </c>
-      <c r="G64" s="64"/>
-      <c r="H64" s="23"/>
+      <c r="F64" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="G64" s="61"/>
+      <c r="H64" s="23" t="s">
+        <v>280</v>
+      </c>
       <c r="I64" s="19"/>
       <c r="J64" s="28"/>
       <c r="K64" s="28"/>
@@ -5879,10 +6008,10 @@
       <c r="E65" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="F65" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="G65" s="65"/>
+      <c r="F65" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="G65" s="62"/>
       <c r="H65" s="30" t="s">
         <v>129</v>
       </c>
@@ -5904,10 +6033,10 @@
       <c r="E66" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="F66" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="G66" s="65"/>
+      <c r="F66" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="G66" s="62"/>
       <c r="H66" s="23"/>
       <c r="I66" s="19"/>
       <c r="J66" s="28"/>
@@ -5924,18 +6053,18 @@
       <c r="D67" s="21">
         <v>211</v>
       </c>
-      <c r="E67" s="66" t="s">
+      <c r="E67" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="F67" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="G67" s="65"/>
+      <c r="F67" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="G67" s="62"/>
       <c r="H67" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="I67" s="62" t="s">
-        <v>243</v>
+      <c r="I67" s="59" t="s">
+        <v>242</v>
       </c>
       <c r="J67" s="28"/>
       <c r="K67" s="28"/>
@@ -5945,7 +6074,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="19"/>
-      <c r="C68" s="67" t="s">
+      <c r="C68" s="64" t="s">
         <v>135</v>
       </c>
       <c r="D68" s="21">
@@ -5954,10 +6083,10 @@
       <c r="E68" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="G68" s="65"/>
+      <c r="F68" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="G68" s="62"/>
       <c r="H68" s="23"/>
       <c r="I68" s="19"/>
       <c r="J68" s="28"/>
@@ -5977,12 +6106,12 @@
       <c r="E69" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F69" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="G69" s="65"/>
+      <c r="F69" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="G69" s="62"/>
       <c r="H69" s="23"/>
-      <c r="I69" s="68" t="s">
+      <c r="I69" s="65" t="s">
         <v>139</v>
       </c>
       <c r="J69" s="28"/>
@@ -5999,16 +6128,16 @@
       <c r="D70" s="21">
         <v>1346</v>
       </c>
-      <c r="E70" s="69" t="s">
+      <c r="E70" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="G70" s="65"/>
+      <c r="F70" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="G70" s="62"/>
       <c r="H70" s="23"/>
-      <c r="I70" s="38" t="s">
-        <v>280</v>
+      <c r="I70" s="37" t="s">
+        <v>273</v>
       </c>
       <c r="J70" s="28"/>
       <c r="K70" s="28"/>
@@ -6018,7 +6147,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="19"/>
-      <c r="C71" s="67" t="s">
+      <c r="C71" s="64" t="s">
         <v>141</v>
       </c>
       <c r="D71" s="21">
@@ -6027,10 +6156,10 @@
       <c r="E71" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="G71" s="65"/>
+      <c r="F71" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="G71" s="62"/>
       <c r="H71" s="30" t="s">
         <v>143</v>
       </c>
@@ -6039,25 +6168,25 @@
       <c r="K71" s="28"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="56">
+      <c r="A72" s="54">
         <v>70</v>
       </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="57" t="s">
+      <c r="B72" s="54"/>
+      <c r="C72" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="58" t="s">
+      <c r="D72" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="E72" s="57" t="s">
+      <c r="E72" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="56"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
     </row>
     <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
@@ -6076,32 +6205,32 @@
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
       <c r="H73" s="23"/>
-      <c r="I73" s="70" t="s">
+      <c r="I73" s="67" t="s">
         <v>233</v>
       </c>
       <c r="J73" s="28"/>
       <c r="K73" s="28"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="56">
+      <c r="A74" s="54">
         <v>72</v>
       </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="57" t="s">
+      <c r="B74" s="54"/>
+      <c r="C74" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D74" s="58" t="s">
+      <c r="D74" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="E74" s="57" t="s">
+      <c r="E74" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F74" s="56"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="56"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="54"/>
     </row>
     <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
@@ -6114,13 +6243,13 @@
       <c r="D75" s="21">
         <v>5006</v>
       </c>
-      <c r="E75" s="66" t="s">
+      <c r="E75" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="F75" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="G75" s="65"/>
+      <c r="F75" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="G75" s="62"/>
       <c r="H75" s="30" t="s">
         <v>146</v>
       </c>
@@ -6131,25 +6260,25 @@
       <c r="K75" s="28"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="56">
+      <c r="A76" s="54">
         <v>74</v>
       </c>
-      <c r="B76" s="56"/>
-      <c r="C76" s="57" t="s">
+      <c r="B76" s="54"/>
+      <c r="C76" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D76" s="58" t="s">
+      <c r="D76" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="E76" s="57" t="s">
+      <c r="E76" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="56"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="54"/>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
@@ -6162,42 +6291,42 @@
       <c r="D77" s="21">
         <v>7505</v>
       </c>
-      <c r="E77" s="68" t="s">
+      <c r="E77" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="F77" s="71" t="s">
+      <c r="F77" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="G77" s="71"/>
-      <c r="H77" s="72" t="s">
+      <c r="G77" s="68"/>
+      <c r="H77" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="I77" s="73" t="s">
+      <c r="I77" s="70" t="s">
         <v>237</v>
       </c>
       <c r="J77" s="28"/>
       <c r="K77" s="28"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="56">
+      <c r="A78" s="54">
         <v>76</v>
       </c>
-      <c r="B78" s="56"/>
-      <c r="C78" s="57" t="s">
+      <c r="B78" s="54"/>
+      <c r="C78" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D78" s="58" t="s">
+      <c r="D78" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="E78" s="57" t="s">
+      <c r="E78" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="56"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="54"/>
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
@@ -6302,12 +6431,12 @@
       <c r="D83" s="21">
         <v>62978</v>
       </c>
-      <c r="E83" s="68" t="s">
+      <c r="E83" s="65" t="s">
         <v>155</v>
       </c>
       <c r="F83" s="24"/>
       <c r="G83" s="24"/>
-      <c r="H83" s="50" t="s">
+      <c r="H83" s="48" t="s">
         <v>156</v>
       </c>
       <c r="I83" s="35" t="s">
@@ -6317,32 +6446,32 @@
       <c r="K83" s="28"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="56">
+      <c r="A84" s="54">
         <v>82</v>
       </c>
-      <c r="B84" s="56"/>
-      <c r="C84" s="57" t="s">
+      <c r="B84" s="54"/>
+      <c r="C84" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D84" s="58" t="s">
+      <c r="D84" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="E84" s="57" t="s">
+      <c r="E84" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="56"/>
-      <c r="K84" s="56"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="54"/>
+      <c r="K84" s="54"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E86" s="13" t="s">
         <v>157</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="14" t="s">
@@ -6354,7 +6483,7 @@
         <v>159</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H88" s="8"/>
     </row>
@@ -6363,7 +6492,7 @@
         <v>160</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H89" s="8"/>
     </row>
@@ -6372,7 +6501,7 @@
         <v>161</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H90" s="8"/>
     </row>
@@ -6381,7 +6510,7 @@
         <v>162</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H91" s="8"/>
     </row>
@@ -6390,7 +6519,7 @@
         <v>163</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H92" s="8"/>
     </row>
@@ -6399,7 +6528,7 @@
         <v>164</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H93" s="8"/>
     </row>
@@ -6408,7 +6537,7 @@
         <v>165</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H94" s="8"/>
     </row>
@@ -6417,7 +6546,7 @@
         <v>166</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H95" s="8"/>
     </row>
@@ -6426,7 +6555,7 @@
         <v>167</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H96" s="8"/>
     </row>
@@ -6435,7 +6564,7 @@
         <v>168</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H97" s="8"/>
     </row>
@@ -6444,7 +6573,7 @@
         <v>169</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G99" s="12"/>
       <c r="H99" s="8" t="s">
@@ -6456,7 +6585,7 @@
         <v>171</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8" t="s">
@@ -6468,7 +6597,7 @@
         <v>173</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8" t="s">
@@ -6480,7 +6609,7 @@
         <v>86</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8" t="s">
@@ -6492,7 +6621,7 @@
         <v>174</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8" t="s">
@@ -6504,7 +6633,7 @@
         <v>31</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="11" t="s">
@@ -6651,7 +6780,7 @@
         <v>194</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G119" s="12"/>
       <c r="H119" s="8"/>
@@ -6661,7 +6790,7 @@
         <v>195</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G120" s="12"/>
       <c r="H120" s="8"/>
@@ -6671,7 +6800,7 @@
         <v>196</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G121" s="12"/>
       <c r="H121" s="8"/>
@@ -6691,6 +6820,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
@@ -6872,17 +7044,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="289">
   <si>
     <t>funktor</t>
   </si>
@@ -2040,9 +2040,6 @@
     <t>NOT in PDT-C</t>
   </si>
   <si>
-    <t>considering</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2142,9 +2139,6 @@
   <si>
     <t xml:space="preserve">TODO - must be further refined
 </t>
-  </si>
-  <si>
-    <t>Śárka's suggestion</t>
   </si>
   <si>
     <t>better name to cover also REG</t>
@@ -2853,121 +2847,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">hrana (e-child) rodič-COMPL --&gt; manner / mod
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>podle sempos rodiče:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   sempos:   v, adj.* --&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>manner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-                                 n.*  --&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>mod</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>undef ... DODĚLAT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-(compl.rf šipka) COMPL --&gt; mod-of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NEBO mod, ale pak od substantiva 
-                                                            k doplňku!!)</t>
-    </r>
-  </si>
-  <si>
     <t>NOT in UMR, NEW keyword</t>
   </si>
   <si>
@@ -2995,10 +2874,6 @@
   </si>
   <si>
     <t>vlastn9 jm0no&lt;&lt;</t>
-  </si>
-  <si>
-    <t>NOT in UMR, NEW  abstract concept
-??? TODO ne vše, co je #Forn ID, je vlastní jméno???</t>
   </si>
   <si>
     <r>
@@ -3035,297 +2910,6 @@
   </si>
   <si>
     <r>
-      <t>!! e-rodič uzlu FPHR má vždy t_lemma #Forn !!
-POKUD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> e-rodič uzlu FPHR (=#Forn)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> není ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(6 443x)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1: t_lemma #Forn 
-        --&gt; foreign-phrase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (NEW abstract concept)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   2: FPHR --&gt; op1, op2, …. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     (7x má FPHR dítě
-     1x PAR</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-POKUD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> e-rodič uzlu FPHR  (=#Forn</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) je ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(13 449x):</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(uzlu #Forn) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">--&gt; name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(role) 
-                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>??obecněji  mod</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> t_lemma #Forn --&gt; name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (concept) 
-                                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>?? foreign-phrase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">FPHR --&gt; op1, op2, ….
-       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(2x má FPHR dítě - jednou chyba, 
-                                         podruhé číslovka jako součást jména --&gt; též op)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -3437,24 +3021,28 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>if #Forn NE funktor ID:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+      <t xml:space="preserve">hrana (e-child) rodič-COMPL --&gt; manner / mod
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>podle sempos rodiče:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
-#Forn --&gt; foreign-phrase
-FPHR --&gt; op1, op2, …
 </t>
     </r>
     <r>
@@ -3463,21 +3051,87 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">   sempos:   v, adj.* --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>manner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">
-if #Forn.ID:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID --&gt; name / mod
-#Forn --&gt; name 
-                    / foreign-phrase
-FPHR --&gt; op1, op2, …</t>
+                          n.*  --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>mod</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>undef ... DODĚLAT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+(compl.rf šipka) COMPL --&gt; mod-of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NEBO mod, ale pak od substantiva 
+                                                       k doplňku!!)</t>
     </r>
   </si>
   <si>
@@ -3487,14 +3141,399 @@
 subrole (NE) / role (participant)
 concept (abstract entity)
           /concept (abstract entity)
-role (name/foreign-phrase, ops)</t>
+??? (name/foreign-phrase, ops)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if #Forn NE funktor ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+#Forn --&gt; foreign-phrase
+FPHR --&gt; op1, op2, …
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+if #Forn.ID:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID --&gt; name / mod
+#Forn --&gt; name 
+                    / foreign-phrase
+FPHR --&gt; op1, op2, … ATRIBUTY ??</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>!! e-rodič uzlu FPHR má vždy t_lemma #Forn !!
+POKUD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> e-rodič uzlu FPHR (=#Forn)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> není ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6 443x)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1: t_lemma #Forn 
+        --&gt; foreign-phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (NEW abstract concept)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   2: FPHR --&gt; op1, op2, …. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     (7x má FPHR dítě
+     1x PAR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+POKUD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> e-rodič uzlu FPHR  (=#Forn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) je ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(13 449x):</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(uzlu #Forn) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(role) ... </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>??obecněji  mod</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> t_lemma #Forn --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (concept)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?? foreign-phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">FPHR --&gt; op1, op2, …. ATRIBUT místo uzlu
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2x má FPHR dítě - jednou chyba, 
+                                         podruhé číslovka jako součást jména --&gt; též op)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>NOT in UMR, NEW  abstract concept
+??? TODO ne vše, co je #Forn ID, je vlastní jméno???
+TODO refinement needed !!!</t>
+  </si>
+  <si>
+    <t>regard</t>
+  </si>
+  <si>
+    <t>Šárka: the same as CRIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3745,8 +3784,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3842,18 +3887,6 @@
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3900,7 +3933,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4025,15 +4058,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4043,9 +4070,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4071,9 +4095,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4131,13 +4152,7 @@
     <xf numFmtId="0" fontId="21" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4410,64 +4425,64 @@
   <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="3.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="73.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="53.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="59.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="73.7265625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="53.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="23.26953125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="59.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="25">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="71" t="s">
+      <c r="B1" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="H1" s="73" t="s">
+      <c r="G1" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="H1" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="J1" s="74">
+      <c r="I1" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="70">
         <v>2014</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="67" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19">
         <v>0</v>
       </c>
@@ -4488,7 +4503,7 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
         <v>0</v>
       </c>
@@ -4509,7 +4524,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>0</v>
       </c>
@@ -4530,7 +4545,7 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>0</v>
       </c>
@@ -4551,7 +4566,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>0</v>
       </c>
@@ -4572,7 +4587,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="25">
         <v>0</v>
       </c>
@@ -4587,7 +4602,7 @@
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:12" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="94" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>1</v>
       </c>
@@ -4602,7 +4617,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="31" t="s">
@@ -4614,7 +4629,7 @@
       </c>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>2</v>
       </c>
@@ -4629,7 +4644,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="31" t="s">
@@ -4641,7 +4656,7 @@
       </c>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>3</v>
       </c>
@@ -4656,7 +4671,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="31" t="s">
@@ -4668,7 +4683,7 @@
       </c>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>4</v>
       </c>
@@ -4683,7 +4698,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="30"/>
       <c r="H11" s="31" t="s">
@@ -4699,7 +4714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>5</v>
       </c>
@@ -4714,12 +4729,12 @@
         <v>157</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="23"/>
       <c r="I12" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J12" s="28" t="s">
         <v>28</v>
@@ -4728,7 +4743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="25">
         <v>6</v>
       </c>
@@ -4743,7 +4758,7 @@
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>7</v>
       </c>
@@ -4758,7 +4773,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="23"/>
@@ -4770,7 +4785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>8</v>
       </c>
@@ -4785,7 +4800,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="24"/>
@@ -4793,7 +4808,7 @@
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>9</v>
       </c>
@@ -4808,7 +4823,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="31" t="s">
@@ -4818,7 +4833,7 @@
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <v>10</v>
       </c>
@@ -4833,7 +4848,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="24"/>
@@ -4843,7 +4858,7 @@
       </c>
       <c r="K17" s="28"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="19">
         <v>11</v>
       </c>
@@ -4858,7 +4873,7 @@
         <v>39</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="24"/>
@@ -4866,7 +4881,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="19">
         <v>12</v>
       </c>
@@ -4881,7 +4896,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="23"/>
@@ -4889,7 +4904,7 @@
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="19">
         <v>13</v>
       </c>
@@ -4904,7 +4919,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="23"/>
@@ -4912,7 +4927,7 @@
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="19">
         <v>14</v>
       </c>
@@ -4927,7 +4942,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="23"/>
@@ -4935,7 +4950,7 @@
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="19">
         <v>15</v>
       </c>
@@ -4950,7 +4965,7 @@
         <v>30</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="23"/>
@@ -4958,7 +4973,7 @@
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="25">
         <v>16</v>
       </c>
@@ -4973,7 +4988,7 @@
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
     </row>
-    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="19">
         <v>17</v>
       </c>
@@ -4988,7 +5003,7 @@
         <v>45</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="31" t="s">
@@ -5004,7 +5019,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="19">
         <v>18</v>
       </c>
@@ -5019,7 +5034,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="31" t="s">
@@ -5033,7 +5048,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="19">
         <v>19</v>
       </c>
@@ -5048,7 +5063,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G26" s="30"/>
       <c r="H26" s="31" t="s">
@@ -5062,7 +5077,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="19">
         <v>20</v>
       </c>
@@ -5077,7 +5092,7 @@
         <v>60</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G27" s="30"/>
       <c r="H27" s="31" t="s">
@@ -5091,7 +5106,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="25">
         <v>21</v>
       </c>
@@ -5106,7 +5121,7 @@
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="19">
         <v>22</v>
       </c>
@@ -5118,7 +5133,9 @@
       <c r="E29" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="24"/>
+      <c r="F29" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="G29" s="24"/>
       <c r="H29" s="31" t="s">
         <v>65</v>
@@ -5129,7 +5146,7 @@
       </c>
       <c r="K29" s="28"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="19">
         <v>23</v>
       </c>
@@ -5144,7 +5161,7 @@
         <v>67</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G30" s="30"/>
       <c r="H30" s="31" t="s">
@@ -5156,7 +5173,7 @@
       </c>
       <c r="K30" s="28"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="19">
         <v>24</v>
       </c>
@@ -5171,7 +5188,7 @@
         <v>70</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G31" s="30"/>
       <c r="H31" s="24"/>
@@ -5179,7 +5196,7 @@
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="19">
         <v>25</v>
       </c>
@@ -5194,7 +5211,7 @@
         <v>72</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G32" s="30"/>
       <c r="H32" s="24"/>
@@ -5202,7 +5219,7 @@
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="19">
         <v>26</v>
       </c>
@@ -5217,7 +5234,7 @@
         <v>64</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G33" s="30"/>
       <c r="H33" s="31" t="s">
@@ -5227,7 +5244,7 @@
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="25">
         <v>27</v>
       </c>
@@ -5242,7 +5259,7 @@
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="19">
         <v>28</v>
       </c>
@@ -5257,7 +5274,7 @@
         <v>75</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G35" s="30"/>
       <c r="H35" s="31" t="s">
@@ -5269,7 +5286,7 @@
       </c>
       <c r="K35" s="28"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="19">
         <v>29</v>
       </c>
@@ -5296,7 +5313,7 @@
       </c>
       <c r="K36" s="28"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="19">
         <v>30</v>
       </c>
@@ -5307,23 +5324,23 @@
       <c r="D37" s="21">
         <v>4932</v>
       </c>
-      <c r="E37" s="36" t="s">
-        <v>239</v>
+      <c r="E37" s="62" t="s">
+        <v>287</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="G37" s="80" t="s">
-        <v>259</v>
+        <v>242</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>257</v>
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="19">
         <v>31</v>
       </c>
@@ -5338,7 +5355,7 @@
         <v>83</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G38" s="30"/>
       <c r="H38" s="31" t="s">
@@ -5348,7 +5365,7 @@
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="19">
         <v>32</v>
       </c>
@@ -5363,7 +5380,7 @@
         <v>83</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G39" s="30"/>
       <c r="H39" s="31" t="s">
@@ -5375,7 +5392,7 @@
       </c>
       <c r="K39" s="28"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="19">
         <v>33</v>
       </c>
@@ -5390,7 +5407,7 @@
         <v>88</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G40" s="30"/>
       <c r="H40" s="38" t="s">
@@ -5402,7 +5419,7 @@
       </c>
       <c r="K40" s="28"/>
     </row>
-    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="19">
         <v>34</v>
       </c>
@@ -5417,7 +5434,7 @@
         <v>91</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G41" s="30"/>
       <c r="H41" s="31" t="s">
@@ -5431,7 +5448,7 @@
       </c>
       <c r="K41" s="28"/>
     </row>
-    <row r="42" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="39">
         <v>35</v>
       </c>
@@ -5443,22 +5460,22 @@
         <v>0</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G42" s="39"/>
       <c r="H42" s="39" t="s">
         <v>238</v>
       </c>
       <c r="I42" s="43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J42" s="39"/>
       <c r="K42" s="39"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="19">
         <v>36</v>
       </c>
@@ -5469,23 +5486,23 @@
       <c r="D43" s="21">
         <v>10752</v>
       </c>
-      <c r="E43" s="44" t="s">
-        <v>239</v>
+      <c r="E43" s="62" t="s">
+        <v>287</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="G43" s="81" t="s">
-        <v>258</v>
+        <v>242</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>288</v>
       </c>
       <c r="H43" s="23"/>
       <c r="I43" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J43" s="28"/>
       <c r="K43" s="28"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="19">
         <v>37</v>
       </c>
@@ -5500,17 +5517,17 @@
         <v>96</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G44" s="19"/>
       <c r="H44" s="23"/>
       <c r="I44" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J44" s="28"/>
       <c r="K44" s="28"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="19">
         <v>38</v>
       </c>
@@ -5525,7 +5542,7 @@
         <v>98</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G45" s="30"/>
       <c r="H45" s="24"/>
@@ -5533,7 +5550,7 @@
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="25">
         <v>39</v>
       </c>
@@ -5548,7 +5565,7 @@
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
     </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="19">
         <v>40</v>
       </c>
@@ -5563,7 +5580,7 @@
         <v>100</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G47" s="30"/>
       <c r="H47" s="31" t="s">
@@ -5577,11 +5594,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A48" s="19">
         <v>41</v>
       </c>
-      <c r="B48" s="45"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="20" t="s">
         <v>104</v>
       </c>
@@ -5591,18 +5608,18 @@
       <c r="E48" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="G48" s="48" t="s">
-        <v>271</v>
+      <c r="F48" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="G48" s="46" t="s">
+        <v>269</v>
       </c>
       <c r="H48" s="23"/>
       <c r="I48" s="19"/>
       <c r="J48" s="28"/>
       <c r="K48" s="28"/>
     </row>
-    <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="19">
         <v>42</v>
       </c>
@@ -5617,7 +5634,7 @@
         <v>22</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G49" s="30"/>
       <c r="H49" s="31" t="s">
@@ -5629,7 +5646,7 @@
       <c r="J49" s="28"/>
       <c r="K49" s="28"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="19">
         <v>43</v>
       </c>
@@ -5640,11 +5657,11 @@
       <c r="D50" s="21">
         <v>989</v>
       </c>
-      <c r="E50" s="49" t="s">
+      <c r="E50" s="47" t="s">
         <v>108</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G50" s="30"/>
       <c r="H50" s="24"/>
@@ -5652,7 +5669,7 @@
       <c r="J50" s="28"/>
       <c r="K50" s="28"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="25">
         <v>44</v>
       </c>
@@ -5667,36 +5684,36 @@
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
     </row>
-    <row r="52" spans="1:11" ht="267" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="267" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="19">
         <v>45</v>
       </c>
-      <c r="B52" s="45"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="20" t="s">
         <v>109</v>
       </c>
       <c r="D52" s="21">
         <v>7069</v>
       </c>
-      <c r="E52" s="50" t="s">
-        <v>253</v>
+      <c r="E52" s="46" t="s">
+        <v>252</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="G52" s="76" t="s">
-        <v>272</v>
-      </c>
-      <c r="H52" s="51" t="s">
-        <v>260</v>
+        <v>281</v>
+      </c>
+      <c r="G52" s="72" t="s">
+        <v>282</v>
+      </c>
+      <c r="H52" s="48" t="s">
+        <v>258</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J52" s="28"/>
       <c r="K52" s="28"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="25">
         <v>44</v>
       </c>
@@ -5711,7 +5728,7 @@
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
     </row>
-    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="19">
         <v>47</v>
       </c>
@@ -5726,12 +5743,12 @@
         <v>111</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G54" s="19"/>
       <c r="H54" s="23"/>
       <c r="I54" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J54" s="28" t="s">
         <v>112</v>
@@ -5740,7 +5757,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="19">
         <v>48</v>
       </c>
@@ -5755,17 +5772,17 @@
         <v>22</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G55" s="30"/>
-      <c r="H55" s="52" t="s">
+      <c r="H55" s="49" t="s">
         <v>115</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="28"/>
       <c r="K55" s="28"/>
     </row>
-    <row r="56" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="A56" s="19">
         <v>49</v>
       </c>
@@ -5776,25 +5793,25 @@
       <c r="D56" s="21">
         <v>38823</v>
       </c>
-      <c r="E56" s="53" t="s">
-        <v>265</v>
+      <c r="E56" s="50" t="s">
+        <v>263</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="G56" s="75" t="s">
-        <v>285</v>
+        <v>264</v>
+      </c>
+      <c r="G56" s="71" t="s">
+        <v>280</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I56" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
     </row>
-    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="19">
         <v>50</v>
       </c>
@@ -5809,7 +5826,7 @@
         <v>118</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G57" s="19"/>
       <c r="H57" s="23"/>
@@ -5819,7 +5836,7 @@
       <c r="J57" s="28"/>
       <c r="K57" s="28"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="19">
         <v>51</v>
       </c>
@@ -5834,7 +5851,7 @@
         <v>118</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G58" s="19"/>
       <c r="H58" s="24"/>
@@ -5844,28 +5861,28 @@
       </c>
       <c r="K58" s="28"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="54">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="51">
         <v>52</v>
       </c>
-      <c r="B59" s="54"/>
-      <c r="C59" s="55" t="s">
+      <c r="B59" s="51"/>
+      <c r="C59" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="56" t="s">
+      <c r="D59" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="55" t="s">
+      <c r="E59" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-    </row>
-    <row r="60" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+    </row>
+    <row r="60" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="19">
         <v>53</v>
       </c>
@@ -5876,8 +5893,8 @@
       <c r="D60" s="21">
         <v>8959</v>
       </c>
-      <c r="E60" s="57" t="s">
-        <v>267</v>
+      <c r="E60" s="54" t="s">
+        <v>265</v>
       </c>
       <c r="F60" s="19" t="s">
         <v>122</v>
@@ -5886,13 +5903,13 @@
       <c r="H60" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="I60" s="58" t="s">
-        <v>269</v>
+      <c r="I60" s="55" t="s">
+        <v>267</v>
       </c>
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
     </row>
-    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="19">
         <v>54</v>
       </c>
@@ -5903,21 +5920,21 @@
       <c r="D61" s="21">
         <v>5141</v>
       </c>
-      <c r="E61" s="57" t="s">
-        <v>268</v>
+      <c r="E61" s="54" t="s">
+        <v>266</v>
       </c>
       <c r="F61" s="30" t="s">
         <v>122</v>
       </c>
       <c r="G61" s="30"/>
       <c r="H61" s="23"/>
-      <c r="I61" s="58" t="s">
-        <v>270</v>
+      <c r="I61" s="55" t="s">
+        <v>268</v>
       </c>
       <c r="J61" s="28"/>
       <c r="K61" s="28"/>
     </row>
-    <row r="62" spans="1:11" ht="360" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="319" x14ac:dyDescent="0.35">
       <c r="A62" s="19">
         <v>55</v>
       </c>
@@ -5928,48 +5945,48 @@
       <c r="D62" s="21">
         <v>59068</v>
       </c>
-      <c r="E62" s="79" t="s">
-        <v>287</v>
-      </c>
-      <c r="F62" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="G62" s="82" t="s">
+      <c r="E62" s="75" t="s">
         <v>284</v>
       </c>
+      <c r="F62" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="G62" s="76" t="s">
+        <v>285</v>
+      </c>
       <c r="H62" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="I62" s="60" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="I62" s="56" t="s">
+        <v>286</v>
       </c>
       <c r="J62" s="28"/>
       <c r="K62" s="28"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="54">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" s="51">
         <v>56</v>
       </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="55" t="s">
+      <c r="B63" s="51"/>
+      <c r="C63" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="D63" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E63" s="55" t="s">
+      <c r="E63" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54" t="s">
-        <v>281</v>
-      </c>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-    </row>
-    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+    </row>
+    <row r="64" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="19">
         <v>57</v>
       </c>
@@ -5983,18 +6000,18 @@
       <c r="E64" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F64" s="61" t="s">
-        <v>249</v>
-      </c>
-      <c r="G64" s="61"/>
+      <c r="F64" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="G64" s="57"/>
       <c r="H64" s="23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I64" s="19"/>
       <c r="J64" s="28"/>
       <c r="K64" s="28"/>
     </row>
-    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="19">
         <v>58</v>
       </c>
@@ -6008,10 +6025,10 @@
       <c r="E65" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="F65" s="62" t="s">
-        <v>250</v>
-      </c>
-      <c r="G65" s="62"/>
+      <c r="F65" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="G65" s="58"/>
       <c r="H65" s="30" t="s">
         <v>129</v>
       </c>
@@ -6019,7 +6036,7 @@
       <c r="J65" s="28"/>
       <c r="K65" s="28"/>
     </row>
-    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="19">
         <v>59</v>
       </c>
@@ -6033,16 +6050,16 @@
       <c r="E66" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="F66" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="G66" s="62"/>
+      <c r="F66" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="G66" s="58"/>
       <c r="H66" s="23"/>
       <c r="I66" s="19"/>
       <c r="J66" s="28"/>
       <c r="K66" s="28"/>
     </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="19">
         <v>60</v>
       </c>
@@ -6053,28 +6070,28 @@
       <c r="D67" s="21">
         <v>211</v>
       </c>
-      <c r="E67" s="63" t="s">
+      <c r="E67" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="F67" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="G67" s="62"/>
+      <c r="F67" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="G67" s="58"/>
       <c r="H67" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="I67" s="59" t="s">
-        <v>242</v>
+      <c r="I67" s="56" t="s">
+        <v>241</v>
       </c>
       <c r="J67" s="28"/>
       <c r="K67" s="28"/>
     </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="19">
         <v>66</v>
       </c>
       <c r="B68" s="19"/>
-      <c r="C68" s="64" t="s">
+      <c r="C68" s="60" t="s">
         <v>135</v>
       </c>
       <c r="D68" s="21">
@@ -6083,16 +6100,16 @@
       <c r="E68" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="G68" s="62"/>
+      <c r="F68" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="G68" s="58"/>
       <c r="H68" s="23"/>
       <c r="I68" s="19"/>
       <c r="J68" s="28"/>
       <c r="K68" s="28"/>
     </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="19">
         <v>67</v>
       </c>
@@ -6106,18 +6123,18 @@
       <c r="E69" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F69" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="G69" s="62"/>
+      <c r="F69" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="G69" s="58"/>
       <c r="H69" s="23"/>
-      <c r="I69" s="65" t="s">
+      <c r="I69" s="61" t="s">
         <v>139</v>
       </c>
       <c r="J69" s="28"/>
       <c r="K69" s="28"/>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="19">
         <v>68</v>
       </c>
@@ -6128,26 +6145,26 @@
       <c r="D70" s="21">
         <v>1346</v>
       </c>
-      <c r="E70" s="66" t="s">
+      <c r="E70" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="G70" s="62"/>
+      <c r="F70" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="G70" s="58"/>
       <c r="H70" s="23"/>
       <c r="I70" s="37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J70" s="28"/>
       <c r="K70" s="28"/>
     </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="19">
         <v>69</v>
       </c>
       <c r="B71" s="19"/>
-      <c r="C71" s="64" t="s">
+      <c r="C71" s="60" t="s">
         <v>141</v>
       </c>
       <c r="D71" s="21">
@@ -6156,10 +6173,10 @@
       <c r="E71" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="62" t="s">
-        <v>250</v>
-      </c>
-      <c r="G71" s="62"/>
+      <c r="F71" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="G71" s="58"/>
       <c r="H71" s="30" t="s">
         <v>143</v>
       </c>
@@ -6167,28 +6184,28 @@
       <c r="J71" s="28"/>
       <c r="K71" s="28"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="54">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" s="51">
         <v>70</v>
       </c>
-      <c r="B72" s="54"/>
-      <c r="C72" s="55" t="s">
+      <c r="B72" s="51"/>
+      <c r="C72" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="56" t="s">
+      <c r="D72" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E72" s="55" t="s">
+      <c r="E72" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-    </row>
-    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="19">
         <v>71</v>
       </c>
@@ -6205,34 +6222,34 @@
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
       <c r="H73" s="23"/>
-      <c r="I73" s="67" t="s">
+      <c r="I73" s="63" t="s">
         <v>233</v>
       </c>
       <c r="J73" s="28"/>
       <c r="K73" s="28"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="54">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" s="51">
         <v>72</v>
       </c>
-      <c r="B74" s="54"/>
-      <c r="C74" s="55" t="s">
+      <c r="B74" s="51"/>
+      <c r="C74" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="D74" s="56" t="s">
+      <c r="D74" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E74" s="55" t="s">
+      <c r="E74" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-    </row>
-    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+    </row>
+    <row r="75" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="19">
         <v>73</v>
       </c>
@@ -6243,13 +6260,13 @@
       <c r="D75" s="21">
         <v>5006</v>
       </c>
-      <c r="E75" s="63" t="s">
+      <c r="E75" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="F75" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="G75" s="62"/>
+      <c r="F75" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="G75" s="58"/>
       <c r="H75" s="30" t="s">
         <v>146</v>
       </c>
@@ -6259,28 +6276,28 @@
       <c r="J75" s="28"/>
       <c r="K75" s="28"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="54">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" s="51">
         <v>74</v>
       </c>
-      <c r="B76" s="54"/>
-      <c r="C76" s="55" t="s">
+      <c r="B76" s="51"/>
+      <c r="C76" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="D76" s="56" t="s">
+      <c r="D76" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E76" s="55" t="s">
+      <c r="E76" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-    </row>
-    <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+    </row>
+    <row r="77" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A77" s="19">
         <v>75</v>
       </c>
@@ -6291,44 +6308,44 @@
       <c r="D77" s="21">
         <v>7505</v>
       </c>
-      <c r="E77" s="65" t="s">
+      <c r="E77" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="F77" s="68" t="s">
+      <c r="F77" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="G77" s="68"/>
-      <c r="H77" s="69" t="s">
+      <c r="G77" s="64"/>
+      <c r="H77" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="I77" s="70" t="s">
+      <c r="I77" s="66" t="s">
         <v>237</v>
       </c>
       <c r="J77" s="28"/>
       <c r="K77" s="28"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="54">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" s="51">
         <v>76</v>
       </c>
-      <c r="B78" s="54"/>
-      <c r="C78" s="55" t="s">
+      <c r="B78" s="51"/>
+      <c r="C78" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="D78" s="56" t="s">
+      <c r="D78" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E78" s="55" t="s">
+      <c r="E78" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="54"/>
-    </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+    </row>
+    <row r="79" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="19">
         <v>77</v>
       </c>
@@ -6351,7 +6368,7 @@
       <c r="J79" s="28"/>
       <c r="K79" s="28"/>
     </row>
-    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="19">
         <v>78</v>
       </c>
@@ -6374,7 +6391,7 @@
       <c r="J80" s="28"/>
       <c r="K80" s="28"/>
     </row>
-    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="19">
         <v>79</v>
       </c>
@@ -6397,7 +6414,7 @@
       <c r="J81" s="28"/>
       <c r="K81" s="28"/>
     </row>
-    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="19">
         <v>80</v>
       </c>
@@ -6420,7 +6437,7 @@
       <c r="J82" s="28"/>
       <c r="K82" s="28"/>
     </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="19">
         <v>81</v>
       </c>
@@ -6431,12 +6448,12 @@
       <c r="D83" s="21">
         <v>62978</v>
       </c>
-      <c r="E83" s="65" t="s">
+      <c r="E83" s="61" t="s">
         <v>155</v>
       </c>
       <c r="F83" s="24"/>
       <c r="G83" s="24"/>
-      <c r="H83" s="48" t="s">
+      <c r="H83" s="46" t="s">
         <v>156</v>
       </c>
       <c r="I83" s="35" t="s">
@@ -6445,206 +6462,206 @@
       <c r="J83" s="28"/>
       <c r="K83" s="28"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="54">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" s="51">
         <v>82</v>
       </c>
-      <c r="B84" s="54"/>
-      <c r="C84" s="55" t="s">
+      <c r="B84" s="51"/>
+      <c r="C84" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="D84" s="56" t="s">
+      <c r="D84" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E84" s="55" t="s">
+      <c r="E84" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F84" s="54"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
-      <c r="J84" s="54"/>
-      <c r="K84" s="54"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E86" s="13" t="s">
         <v>157</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E88" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E89" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E90" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E91" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E92" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E93" s="2" t="s">
         <v>164</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E94" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H94" s="8"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E95" s="2" t="s">
         <v>166</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H95" s="8"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E96" s="2" t="s">
         <v>167</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H96" s="8"/>
     </row>
-    <row r="97" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E97" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H97" s="8"/>
     </row>
-    <row r="99" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E99" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G99" s="12"/>
       <c r="H99" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E100" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E101" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E102" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E103" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E105" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="106" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
     </row>
-    <row r="107" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E107" s="7" t="s">
         <v>176</v>
       </c>
@@ -6656,7 +6673,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E108" s="7" t="s">
         <v>179</v>
       </c>
@@ -6668,7 +6685,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="109" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E109" s="7" t="s">
         <v>181</v>
       </c>
@@ -6680,7 +6697,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="110" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E110" s="15" t="s">
         <v>183</v>
       </c>
@@ -6692,7 +6709,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="111" spans="5:8" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:8" ht="30" x14ac:dyDescent="0.35">
       <c r="E111" s="15" t="s">
         <v>185</v>
       </c>
@@ -6704,7 +6721,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="112" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E112" s="7" t="s">
         <v>187</v>
       </c>
@@ -6716,7 +6733,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="113" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E113" s="7" t="s">
         <v>189</v>
       </c>
@@ -6728,13 +6745,13 @@
         <v>188</v>
       </c>
     </row>
-    <row r="114" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E114" s="7"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
     </row>
-    <row r="115" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E115" s="8" t="s">
         <v>190</v>
       </c>
@@ -6746,7 +6763,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="116" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E116" s="8" t="s">
         <v>192</v>
       </c>
@@ -6758,7 +6775,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="117" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E117" s="8" t="s">
         <v>193</v>
       </c>
@@ -6770,42 +6787,42 @@
         <v>191</v>
       </c>
     </row>
-    <row r="118" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E118" s="8"/>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
     </row>
-    <row r="119" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E119" s="1" t="s">
         <v>194</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G119" s="12"/>
       <c r="H119" s="8"/>
     </row>
-    <row r="120" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E120" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G120" s="12"/>
       <c r="H120" s="8"/>
     </row>
-    <row r="121" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E121" s="1" t="s">
         <v>196</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G121" s="12"/>
       <c r="H121" s="8"/>
     </row>
-    <row r="122" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E122" s="1"/>
       <c r="H122" s="8"/>
     </row>
@@ -6827,33 +6844,33 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="58.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="C2" s="73" t="s">
         <v>276</v>
-      </c>
-      <c r="C1" s="78" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -6870,172 +6887,172 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="147.140625" customWidth="1"/>
+    <col min="1" max="1" width="147.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>229</v>
       </c>

--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -4425,8 +4425,8 @@
   <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopatkova\SVN\GitHub-UMR\tecto2umr\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="305">
   <si>
     <t>funktor</t>
   </si>
@@ -946,29 +941,6 @@
     <t>purpose</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>purpose</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> = intended event that results from the action</t>
-    </r>
-  </si>
-  <si>
     <t>CAUS</t>
   </si>
   <si>
@@ -1020,9 +992,6 @@
   </si>
   <si>
     <t>CNCS</t>
-  </si>
-  <si>
-    <t>concession</t>
   </si>
   <si>
     <t>COND</t>
@@ -1371,49 +1340,12 @@
     <t>CSQ</t>
   </si>
   <si>
-    <t>consecutive</t>
-  </si>
-  <si>
     <t>DISJ</t>
   </si>
   <si>
     <t>exclusive-disjunctive</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>TODO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - nebo obecnější</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  'or'</t>
-    </r>
-  </si>
-  <si>
     <t>GRAD</t>
   </si>
   <si>
@@ -1423,9 +1355,6 @@
     <t>have-cause-91</t>
   </si>
   <si>
-    <t>ARG1 for main clause, ARG2 for causative clause (with conjunction)</t>
-  </si>
-  <si>
     <t>APPS</t>
   </si>
   <si>
@@ -1438,80 +1367,6 @@
     <t>CM</t>
   </si>
   <si>
-    <t>CM -&gt; discourse-marker</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">lemma </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>#Neg 194x … jeho rodičem je vždy koord. uzel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (GRAD, ADVS n. CONJ) … </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>?? schova</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">t
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">??? další t_lemmata … spousty, teď neřešit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(schovat???)</t>
-    </r>
-  </si>
-  <si>
     <t>ATT</t>
   </si>
   <si>
@@ -1527,86 +1382,7 @@
     <t>RHEM</t>
   </si>
   <si>
-    <t xml:space="preserve"> #Neg -&gt;  attribute "polarity"
-jiné -&gt; tfa marker</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">lemma #Neg 27795x  -&gt;  attribute "polarity"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>??? další t_lemmata  … spousty, teď neřešit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>(schovat???)</t>
-    </r>
-  </si>
-  <si>
     <t>reason</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>reason</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> = motivation for the actor to initiate the action</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <t>quant</t>
@@ -1998,43 +1774,10 @@
     <t>gradation</t>
   </si>
   <si>
-    <r>
-      <t>TODO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> … ??? identity … ??? mod (neměla by tam být negace)</t>
-    </r>
-  </si>
-  <si>
     <t>math</t>
   </si>
   <si>
-    <r>
-      <t>NEW abstract concept</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, hyper-role …. should be refine later</t>
-    </r>
-  </si>
-  <si>
     <t>TODO … ZKONTROLOVAT, že pod tím nic nevisí (a případně smazat???)</t>
-  </si>
-  <si>
-    <t>NEW role, NOT in UMR, NEW to cover this nuance
-TODO … ZKONTROLOVAT, že pod tím nic nevisí (a případně smazat???)</t>
   </si>
   <si>
     <t>NOT in PDT-C</t>
@@ -2066,10 +1809,6 @@
     <t>NOT in UMR, NEW role (non-participant)</t>
   </si>
   <si>
-    <t>NOT in UMR, NEW keyword
-??? conflict (pokud existuje něco takového )</t>
-  </si>
-  <si>
     <t>role (NON-participant)</t>
   </si>
   <si>
@@ -2141,7 +1880,965 @@
 </t>
   </si>
   <si>
-    <t>better name to cover also REG</t>
+    <r>
+      <t xml:space="preserve">ID v PDT =  efektivní kořen </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>identifikačního výrazu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+   - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>vlastní jména</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (osob, zvířat, předmětů a jevů, typ. v nom) --&gt; name;  
+                                    (osoby se poznají podle atributu "is_name_of_person")
+   - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>metajazykové výrazy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (slovo mlčet.ID; nápis "Odejděte".ID)
+   - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>genitiv explikativní</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (otázka laickosti.ID, trest smrti.ID; období reformace.ID; umění knihtisku.ID; osoba V. Havla.ID)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TODO -  must be further refined
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>OK for names</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+How to identify non-names? 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>HŠ</t>
+  </si>
+  <si>
+    <r>
+      <t>TODO - possessor OR part
+TODO how directed??
+TODO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> příbuzenské vztahy --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>have-rel-role-91</t>
+    </r>
+  </si>
+  <si>
+    <t>name / mod</t>
+  </si>
+  <si>
+    <t>subrole (NE) / role (participant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predicative-noun </t>
+  </si>
+  <si>
+    <t>part-of-phraseme</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CONTRD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(subordinace)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> stejně jako CONFR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (koordinace)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+změna struktury (nově stejně jako koordinace):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>kořenem nově … contrast-91
+původní rodič … ARG1 (main clause)
+původní dítě … ARG2 (contrastive clause, 
+                     the one with the conjunction)</t>
+    </r>
+  </si>
+  <si>
+    <t>NOT in UMR, NEW keyword</t>
+  </si>
+  <si>
+    <t>#Forn</t>
+  </si>
+  <si>
+    <t>t_lemma</t>
+  </si>
+  <si>
+    <t>k čemu slouží</t>
+  </si>
+  <si>
+    <t>struktura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kořen pro cizojazyčnou frázi (která se neskloňuje), 
+</t>
+  </si>
+  <si>
+    <t>jednotlivé tokeny fráze na něm visí (seznam) s funktorem FPHR
+(FPHR nikdy nevisí na jiném t_lemmatu)</t>
+  </si>
+  <si>
+    <t>vlastn9 jm0no&lt;&lt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PDT:
+v textu obecné jméno + cizí fráze --&gt; vkládá se uzel #Forn.ID, (43 571x),
+teprve na něm visí FPHR 
+   koupili společnost.PAT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(#Forn.ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Electric.FPHR) (motors.FPHR) 
+v textu jen cizí fráze 
+    koupili #Forn.PAT (Electric.FPHR) (motors.FPHR) 
+UMR ... v případě s #Forn.ID  
+    - ztrácíme info, že je to cizí fráze (to asui nevadí?)
+    - !!! NE vždy jde o vlastní jméno ... např. nápis "Pull" </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>t_lemma uzlu s ID NENÍ #Forn:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+?? lze najít vlastní jména 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(asi ano v PDT, jinde ne?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID -&gt; name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+celý podstrom převést na op1, op2, … (tj. zrušit strukturu) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ostatní (mimo #Forn) --&gt; mod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">a ponechat strukturu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>t_lemma uzlu s ID JE #Forn … viz FPHR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>role (participant / NON-participant)
+role (NON-participant)</t>
+  </si>
+  <si>
+    <r>
+      <t>!! e-rodič uzlu FPHR má vždy t_lemma #Forn !!
+POKUD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> e-rodič uzlu FPHR (=#Forn)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> není ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6 443x)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1: t_lemma #Forn 
+        --&gt; foreign-phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (NEW abstract concept)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   2: FPHR --&gt; op1, op2, …. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     (7x má FPHR dítě
+     1x PAR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+POKUD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> e-rodič uzlu FPHR  (=#Forn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) je ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(13 449x):</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(uzlu #Forn) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(role) ... </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>??obecněji  mod</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> t_lemma #Forn --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (concept)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?? foreign-phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">FPHR --&gt; op1, op2, …. ATRIBUT místo uzlu
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2x má FPHR dítě - jednou chyba, 
+                                         podruhé číslovka jako součást jména --&gt; též op)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>regard</t>
+  </si>
+  <si>
+    <t>TODO - more then 2 ARGs (ca 40 cases)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">better name to cover also REG
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PDT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Byl odsouzen v souhlase s předpisy.CRIT;
+Sazby se účtují podle ujetých kilometrů.CRIT
+Podle náměstka.CRIT bude třeba svolat …
+Podle našich statistik.CRIT utratili návštěvníci 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Šárka: the same as CRIT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PDT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Zevnějškem.REG se sobě úplně podobali;
+rozlohou.REG malé Slovensko;
+specifikace z hlediska hořlavosti.REG;
+Marie, povoláním.REG učitelka</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PDT: Vyhrál, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>přestože/třebaže/třeba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nepatřil.CNCS mezi favority. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ač/Ačkoliv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> se mu tento požadavek jistě nepodaří prosadit, …;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ať/Byť</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> jsou sebemenší, jsou dobré.
+Dám jí to, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>i kdyby / i když</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to nechtěla.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">but-91 … generic for 
+    unexpected-co-ossurence-91 (proti očekávání … Přestože měla rýmu, šla do školy)
+    contrast-91 (nikdo nic nečekal … Petr je pracovitý, ale Valja je líná.)
+</t>
+  </si>
+  <si>
+    <t>ARG1 for resulting event, ARG2 for causative/reason clause (with conjunction)</t>
+  </si>
+  <si>
+    <t>ARG1 for resulting event (with conjunction), ARG2 for causative/reason clause (with conjunction)</t>
+  </si>
+  <si>
+    <r>
+      <t>concept-like (keyword, args) …</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TEDY to dopadne jako koordinace</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">concept (event, args) … 
+… </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TEDY to dopadne jako koordinace</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>nebo obecnější</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  'or'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">contrast-91 --&gt; but-91 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(zobecnění)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">but-91 … generic for 
+    unexpected-co-ossurence-91 (proti očekávání … Přestože měla rýmu, šla do školy)
+    contrast-91 (nikdo nic nečekal … Petr je pracovitý, ale Valja je líná.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2185,7 +2882,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">v … 6822x  --&gt; manner OK (podle manuálu má jít o sloveso)
+      <t xml:space="preserve">v … cca 6822x  --&gt; manner OK (podle manuálu má jít o sloveso)
 ALE data: 
 </t>
     </r>
@@ -2217,7 +2914,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> … 87 + 49 + 3x --&gt; </t>
+      <t xml:space="preserve"> …cca 179x --&gt; </t>
     </r>
     <r>
       <rPr>
@@ -2612,98 +3309,40 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ID v PDT =  efektivní kořen </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>identifikačního výrazu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+    <t>identity-91</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NOT in UMR, new role </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
-   - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>vlastní jména</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (osob, zvířat, předmětů a jevů, typ. v nom) --&gt; name;  
-                                    (osoby se poznají podle atributu "is_name_of_person")
-   - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>metajazykové výrazy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (slovo mlčet.ID; nápis "Odejděte".ID)
-   - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>genitiv explikativní</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (otázka laickosti.ID, trest smrti.ID; období reformace.ID; umění knihtisku.ID; osoba V. Havla.ID)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TODO -  must be further refined
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>OK for names</t>
+TODO … ?? chceme "zploštit" ?? </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT in UMR, new role</t>
     </r>
     <r>
       <rPr>
@@ -2714,58 +3353,9 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">
-How to identify non-names? 
-</t>
-    </r>
-  </si>
-  <si>
-    <t>HŠ</t>
-  </si>
-  <si>
-    <r>
-      <t>TODO - possessor OR part
-TODO how directed??
-TODO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> příbuzenské vztahy --&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>have-rel-role-91</t>
-    </r>
-  </si>
-  <si>
-    <t>name / mod</t>
-  </si>
-  <si>
-    <t>subrole (NE) / role (participant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predicative-noun </t>
-  </si>
-  <si>
-    <t>part-of-phraseme</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">NOT in UMR, new role … should be merged with the governing verb
-   BUT - problem with different types of coreference 
+      <t xml:space="preserve"> 
+TODO … should be merged with the governing verb
+BUT - problem with different types of coreference 
 </t>
     </r>
     <r>
@@ -2788,162 +3378,46 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NOT in UMR, new role 
-TODO … ?? chceme "zploštit" ?? </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CONTRD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(subordinace)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> stejně jako CONFR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (koordinace)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT in UMR, NEW  abstract concept</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
-změna struktury (nově stejně jako koordinace):
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>kořenem nově … contrast-91
-původní rodič … ARG1 (main clause)
-původní dítě … ARG2 (contrastive clause, 
-                     the one with the conjunction)</t>
-    </r>
-  </si>
-  <si>
-    <t>NOT in UMR, NEW keyword</t>
-  </si>
-  <si>
-    <t>#Forn</t>
-  </si>
-  <si>
-    <t>t_lemma</t>
-  </si>
-  <si>
-    <t>k čemu slouží</t>
-  </si>
-  <si>
-    <t>struktura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kořen pro cizojazyčnou frázi (která se neskloňuje), 
-</t>
-  </si>
-  <si>
-    <t>jednotlivé tokeny fráze na něm visí (seznam) s funktorem FPHR
-(FPHR nikdy nevisí na jiném t_lemmatu)</t>
-  </si>
-  <si>
-    <t>UMR</t>
-  </si>
-  <si>
-    <t>vlastn9 jm0no&lt;&lt;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PDT:
-v textu obecné jméno + cizí fráze --&gt; vkládá se uzel #Forn.ID, (43 571x),
-teprve na něm visí FPHR 
-   koupili společnost.PAT </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(#Forn.ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (Electric.FPHR) (motors.FPHR) 
-v textu jen cizí fráze 
-    koupili #Forn.PAT (Electric.FPHR) (motors.FPHR) 
-UMR ... v případě s #Forn.ID  
-    - ztrácíme info, že je to cizí fráze (to asui nevadí?)
-    - !!! NE vždy jde o vlastní jméno ... např. nápis "Pull" </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>t_lemma uzlu s ID NENÍ #Forn:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+??? TODO ne vše, co je #Forn ID, je vlastní jméno???
+TODO refinement needed !!!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOT in UMR, NEW abstract concept</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-?? lze najít vlastní jména 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(asi ano v PDT, jinde ne?)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2952,196 +3426,12 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID -&gt; name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-celý podstrom převést na op1, op2, … (tj. zrušit strukturu) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ostatní (mimo #Forn) --&gt; mod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">a ponechat strukturu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>t_lemma uzlu s ID JE #Forn … viz FPHR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>role (participant / NON-participant)
-role (NON-participant)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">hrana (e-child) rodič-COMPL --&gt; manner / mod
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>podle sempos rodiče:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   sempos:   v, adj.* --&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>manner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-                          n.*  --&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>mod</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>undef ... DODĚLAT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-(compl.rf šipka) COMPL --&gt; mod-of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NEBO mod, ale pak od substantiva 
-                                                       k doplňku!!)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-concept (abstract entity)
-role (foreign-phrase, ops)
-subrole (NE) / role (participant)
-concept (abstract entity)
-          /concept (abstract entity)
-??? (name/foreign-phrase, ops)</t>
+      <t>TODO …. should be refined later</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3185,68 +3475,34 @@
       <t>ID --&gt; name / mod
 #Forn --&gt; name 
                     / foreign-phrase
-FPHR --&gt; op1, op2, … ATRIBUTY ??</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>!! e-rodič uzlu FPHR má vždy t_lemma #Forn !!
-POKUD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> e-rodič uzlu FPHR (=#Forn)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> není ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(6 443x)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1: t_lemma #Forn 
-        --&gt; foreign-phrase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (NEW abstract concept)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   2: FPHR --&gt; op1, op2, …. 
+FPHR --&gt; op1, op2,  …</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">but-91 … generic for 
+    unexpected-co-ossurence-91 (proti očekávání … Přestože měla rýmu, šla do školy)
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>contrast-91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (nikdo nic nečekal … Petr je pracovitý, ale Valja je líná.)
 </t>
     </r>
     <r>
@@ -3255,125 +3511,33 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">     (7x má FPHR dítě
-     1x PAR</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-POKUD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> e-rodič uzlu FPHR  (=#Forn</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) je ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(13 449x):</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+      <t>contrast-91 --&gt; but-91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(uzlu #Forn) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">--&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">name </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(role) ... </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-                                        </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hrana (e-child) rodič-COMPL --&gt; manner / mod
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>podle sempos rodiče:</t>
     </r>
     <r>
       <rPr>
@@ -3382,158 +3546,621 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>??obecněji  mod</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> t_lemma #Forn --&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (concept)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-                                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>?? foreign-phrase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">FPHR --&gt; op1, op2, …. ATRIBUT místo uzlu
-       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(2x má FPHR dítě - jednou chyba, 
-                                         podruhé číslovka jako součást jména --&gt; též op)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>NOT in UMR, NEW  abstract concept
-??? TODO ne vše, co je #Forn ID, je vlastní jméno???
-TODO refinement needed !!!</t>
-  </si>
-  <si>
-    <t>regard</t>
-  </si>
-  <si>
-    <t>Šárka: the same as CRIT</t>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   sempos:   v, adj.* --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>manner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+                          n.*  --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>mod</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>undef ... neumím zpbrazit??</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+(compl.rf šipka) COMPL --&gt; mod-of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NEBO mod, ale pak od substantiva 
+                                                       k doplňku!!)</t>
+    </r>
+  </si>
+  <si>
+    <t>concept (event, args) … 
+… TEDY to dopadne jako apozice</t>
+  </si>
+  <si>
+    <t>t_lemma = #Neg
+--&gt; attribute polarity
+t_lemma jiné
+--&gt; conjuction-modifier</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+concept (abstract entity)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>attributes ??</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+subrole (NE) / role (participant)
+concept (abstract entity)
+          /concept (abstract entity)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>attributes ??</t>
+    </r>
+  </si>
+  <si>
+    <t>t_lemma = #Neg -&gt;  attribute "polarity"
+t_lemma -&gt; tfa-marker</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+NOT in UMR, new attribute ??</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>purpose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = intended event that results from the action</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = motivation for the actor to initiate the action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>purpose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = intended event that results from the action
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = motivation for the actor to initiate the action </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lemma #Neg 27795x  -&gt;  attribute "polarity"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+další t_lemmata  … spousty, teď neřešit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>48x … něco visí pod RHEM:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- 10x </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RHEM je ve skutečnosti negace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (vůbec ne, zdaleka ne, zdaleka nikoli) ... ???</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- 19x </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>pod RHEM je DPHR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; spojit s RHEM (přes podtržítko)?
+- 2x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pod RHEM je jeden.RSTR (v první řadě = zejména)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; spojit s RHEM
+- 7x spíše.RHEM  + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CPR/RESL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> … ??? CPR neumím :-(
+- 8x </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pod RHEM je EXT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(ale RHEM není "ne") ... ???
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+NOT in UMR, new attribute </t>
+  </si>
+  <si>
+    <t>TODO ... je-li tam CM (zejména, především, ...) nemusí jít o identitu --&gt; ?? jak zachytit
+(pomocí coref a subset-of relace ??)  
+TODO - more then 2 ARGs (how many cases)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jak poznat, co je v apozici a co ji modifikuje ??
+?? APPS více jak 2 výrazů ??? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lemma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>#Neg 194x … jeho rodičem je vždy koord. uzel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (GRAD, ADVS n. CONJ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">jiná t_lemmata … spousty, teď neřešit 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>12x … něco visí pod CM:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- 6x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pod CM je RSTR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (v první/neposlední řadě apod.; jinými slovy) --&gt; spojit s CM
+-1x "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nota bene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">" FPHR -&gt; klidně spojit do jediného CM uzlu (jako DPHR) 
+- 1x </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pod RHEM je EXT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(ale RHEM není "ne") ... ???
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1x CM je ve s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>kutečnosti negace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (zdaleka ne) ... ???</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- ??? jednak-jednak
+(1x akcie - chyba)</t>
+    </r>
+  </si>
+  <si>
+    <t>attribute
+attribute ?? … ALE 12x pod ním něco visí, viz sloupec G</t>
+  </si>
+  <si>
+    <t>attribute
+attribute ?? … ALE 48x pod ním něco visí, viz sloupec G</t>
+  </si>
+  <si>
+    <t>?? attribute … ALE 341 x pod ním něco visí</t>
+  </si>
+  <si>
+    <t>attribute OK</t>
+  </si>
+  <si>
+    <t>nikdy pod ním nic nevisí</t>
+  </si>
+  <si>
+    <t>?? attribute … ALE 72 x pod ním něco visí</t>
+  </si>
+  <si>
+    <t>?? attribute … ALE 103 x pod ním něco visí</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3790,8 +4417,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3830,12 +4463,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3865,12 +4492,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3885,6 +4506,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3931,9 +4558,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4025,7 +4652,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4037,7 +4664,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4061,7 +4688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4076,7 +4703,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4091,76 +4718,88 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="3" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="10" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="3" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="3" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="3" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="11" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="3" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="3" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Excel Built-in Check Cell" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
+    <cellStyle name="Kontrolní buňka" xfId="3" builtinId="23"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4425,64 +5064,64 @@
   <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="73.7265625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="53.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.81640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="23.26953125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="59.7265625" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="73.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="53.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="67" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="I1" s="69" t="s">
-        <v>253</v>
-      </c>
-      <c r="J1" s="70">
+      <c r="G1" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" s="62">
         <v>2014</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="59" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>0</v>
       </c>
@@ -4503,7 +5142,7 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>0</v>
       </c>
@@ -4524,7 +5163,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>0</v>
       </c>
@@ -4545,7 +5184,7 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>0</v>
       </c>
@@ -4566,7 +5205,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>0</v>
       </c>
@@ -4587,7 +5226,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>0</v>
       </c>
@@ -4602,7 +5241,7 @@
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:12" ht="94" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>1</v>
       </c>
@@ -4617,7 +5256,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="31" t="s">
@@ -4629,7 +5268,7 @@
       </c>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>2</v>
       </c>
@@ -4644,7 +5283,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="31" t="s">
@@ -4656,7 +5295,7 @@
       </c>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>3</v>
       </c>
@@ -4671,7 +5310,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="31" t="s">
@@ -4683,7 +5322,7 @@
       </c>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>4</v>
       </c>
@@ -4698,7 +5337,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G11" s="30"/>
       <c r="H11" s="31" t="s">
@@ -4714,7 +5353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>5</v>
       </c>
@@ -4726,15 +5365,15 @@
         <v>34902</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="23"/>
       <c r="I12" s="33" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="J12" s="28" t="s">
         <v>28</v>
@@ -4743,7 +5382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>6</v>
       </c>
@@ -4758,7 +5397,7 @@
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>7</v>
       </c>
@@ -4773,7 +5412,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="23"/>
@@ -4785,7 +5424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>8</v>
       </c>
@@ -4800,7 +5439,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="24"/>
@@ -4808,7 +5447,7 @@
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>9</v>
       </c>
@@ -4823,7 +5462,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="31" t="s">
@@ -4833,7 +5472,7 @@
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>10</v>
       </c>
@@ -4848,7 +5487,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="24"/>
@@ -4858,7 +5497,7 @@
       </c>
       <c r="K17" s="28"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>11</v>
       </c>
@@ -4873,7 +5512,7 @@
         <v>39</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="24"/>
@@ -4881,7 +5520,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>12</v>
       </c>
@@ -4896,7 +5535,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="23"/>
@@ -4904,7 +5543,7 @@
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>13</v>
       </c>
@@ -4919,7 +5558,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="23"/>
@@ -4927,7 +5566,7 @@
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>14</v>
       </c>
@@ -4942,7 +5581,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="23"/>
@@ -4950,7 +5589,7 @@
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>15</v>
       </c>
@@ -4965,7 +5604,7 @@
         <v>30</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="23"/>
@@ -4973,7 +5612,7 @@
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>16</v>
       </c>
@@ -4988,7 +5627,7 @@
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
     </row>
-    <row r="24" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>17</v>
       </c>
@@ -5003,7 +5642,7 @@
         <v>45</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="31" t="s">
@@ -5019,7 +5658,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>18</v>
       </c>
@@ -5034,7 +5673,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="31" t="s">
@@ -5048,7 +5687,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>19</v>
       </c>
@@ -5063,7 +5702,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G26" s="30"/>
       <c r="H26" s="31" t="s">
@@ -5077,7 +5716,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>20</v>
       </c>
@@ -5092,7 +5731,7 @@
         <v>60</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G27" s="30"/>
       <c r="H27" s="31" t="s">
@@ -5106,7 +5745,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>21</v>
       </c>
@@ -5121,7 +5760,7 @@
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>22</v>
       </c>
@@ -5134,11 +5773,11 @@
         <v>64</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G29" s="24"/>
       <c r="H29" s="31" t="s">
-        <v>65</v>
+        <v>292</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="28" t="s">
@@ -5146,72 +5785,75 @@
       </c>
       <c r="K29" s="28"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>23</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="21">
         <v>10757</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G30" s="30"/>
       <c r="H30" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="I30" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="I30" s="36"/>
       <c r="J30" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K30" s="28"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>24</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="21">
         <v>2713</v>
       </c>
-      <c r="E31" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="19"/>
+      <c r="E31" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>283</v>
+      </c>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>25</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="21">
         <v>7375</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G32" s="30"/>
       <c r="H32" s="24"/>
@@ -5219,13 +5861,13 @@
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>26</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D33" s="21">
         <v>2921</v>
@@ -5234,17 +5876,17 @@
         <v>64</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G33" s="30"/>
       <c r="H33" s="31" t="s">
-        <v>65</v>
+        <v>292</v>
       </c>
       <c r="I33" s="19"/>
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>27</v>
       </c>
@@ -5259,290 +5901,290 @@
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>28</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" s="21">
         <v>12042</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G35" s="30"/>
       <c r="H35" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I35" s="19"/>
       <c r="J35" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K35" s="28"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>29</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" s="21">
         <v>7271</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H36" s="23"/>
       <c r="I36" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K36" s="28"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>30</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D37" s="21">
         <v>4932</v>
       </c>
-      <c r="E37" s="62" t="s">
-        <v>287</v>
+      <c r="E37" s="36" t="s">
+        <v>264</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="37" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>31</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D38" s="21">
         <v>6449</v>
       </c>
-      <c r="E38" s="29" t="s">
-        <v>83</v>
+      <c r="E38" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G38" s="30"/>
       <c r="H38" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I38" s="19"/>
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>32</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39" s="21">
         <v>35669</v>
       </c>
-      <c r="E39" s="29" t="s">
-        <v>83</v>
+      <c r="E39" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G39" s="30"/>
       <c r="H39" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I39" s="19"/>
       <c r="J39" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K39" s="28"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>33</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D40" s="21">
         <v>31911</v>
       </c>
-      <c r="E40" s="29" t="s">
-        <v>88</v>
+      <c r="E40" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G40" s="30"/>
       <c r="H40" s="38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K40" s="28"/>
     </row>
-    <row r="41" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>34</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41" s="21">
         <v>8718</v>
       </c>
-      <c r="E41" s="29" t="s">
-        <v>91</v>
+      <c r="E41" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G41" s="30"/>
       <c r="H41" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="J41" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K41" s="28"/>
     </row>
-    <row r="42" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>35</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D42" s="41">
         <v>0</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G42" s="39"/>
       <c r="H42" s="39" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="I42" s="43" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="J42" s="39"/>
       <c r="K42" s="39"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>36</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D43" s="21">
         <v>10752</v>
       </c>
-      <c r="E43" s="62" t="s">
-        <v>287</v>
+      <c r="E43" s="36" t="s">
+        <v>264</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="H43" s="23"/>
-      <c r="I43" s="37" t="s">
-        <v>240</v>
+      <c r="I43" s="69" t="s">
+        <v>227</v>
       </c>
       <c r="J43" s="28"/>
       <c r="K43" s="28"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>37</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D44" s="21">
         <v>1617</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G44" s="19"/>
       <c r="H44" s="23"/>
       <c r="I44" s="37" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="J44" s="28"/>
       <c r="K44" s="28"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>38</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D45" s="21">
         <v>1488</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G45" s="30"/>
       <c r="H45" s="24"/>
@@ -5550,7 +6192,7 @@
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>39</v>
       </c>
@@ -5565,67 +6207,69 @@
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
     </row>
-    <row r="47" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>40</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D47" s="21">
         <v>15359</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G47" s="30"/>
       <c r="H47" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>41</v>
       </c>
       <c r="B48" s="44"/>
       <c r="C48" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D48" s="21">
         <v>656</v>
       </c>
-      <c r="E48" s="46" t="s">
-        <v>105</v>
+      <c r="E48" s="75" t="s">
+        <v>103</v>
       </c>
       <c r="F48" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="G48" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="H48" s="23"/>
+      <c r="H48" s="71" t="s">
+        <v>275</v>
+      </c>
       <c r="I48" s="19"/>
       <c r="J48" s="28"/>
       <c r="K48" s="28"/>
     </row>
-    <row r="49" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>42</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D49" s="21">
         <v>142</v>
@@ -5634,7 +6278,7 @@
         <v>22</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G49" s="30"/>
       <c r="H49" s="31" t="s">
@@ -5646,22 +6290,22 @@
       <c r="J49" s="28"/>
       <c r="K49" s="28"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>43</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D50" s="21">
         <v>989</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G50" s="30"/>
       <c r="H50" s="24"/>
@@ -5669,7 +6313,7 @@
       <c r="J50" s="28"/>
       <c r="K50" s="28"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="25">
         <v>44</v>
       </c>
@@ -5684,36 +6328,36 @@
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
     </row>
-    <row r="52" spans="1:11" ht="267" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="267" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>45</v>
       </c>
       <c r="B52" s="44"/>
       <c r="C52" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D52" s="21">
         <v>7069</v>
       </c>
       <c r="E52" s="46" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="G52" s="72" t="s">
-        <v>282</v>
+        <v>262</v>
+      </c>
+      <c r="G52" s="64" t="s">
+        <v>284</v>
       </c>
       <c r="H52" s="48" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="I52" s="32" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="J52" s="28"/>
       <c r="K52" s="28"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
         <v>44</v>
       </c>
@@ -5728,42 +6372,42 @@
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
     </row>
-    <row r="54" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>47</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D54" s="21">
         <v>30097</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G54" s="19"/>
       <c r="H54" s="23"/>
       <c r="I54" s="32" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="J54" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>48</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D55" s="21">
         <v>781</v>
@@ -5772,108 +6416,108 @@
         <v>22</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G55" s="30"/>
       <c r="H55" s="49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="28"/>
       <c r="K55" s="28"/>
     </row>
-    <row r="56" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>49</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D56" s="21">
         <v>38823</v>
       </c>
       <c r="E56" s="50" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G56" s="71" t="s">
-        <v>280</v>
+        <v>248</v>
+      </c>
+      <c r="G56" s="63" t="s">
+        <v>261</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="I56" s="32" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
     </row>
-    <row r="57" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>50</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D57" s="21">
         <v>5268</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G57" s="19"/>
       <c r="H57" s="23"/>
       <c r="I57" s="32" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="J57" s="28"/>
       <c r="K57" s="28"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>51</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D58" s="21">
         <v>493996</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G58" s="19"/>
       <c r="H58" s="24"/>
       <c r="I58" s="19"/>
       <c r="J58" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K58" s="28"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="51">
         <v>52</v>
       </c>
       <c r="B59" s="51"/>
       <c r="C59" s="52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D59" s="53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="51"/>
@@ -5882,321 +6526,324 @@
       <c r="J59" s="51"/>
       <c r="K59" s="51"/>
     </row>
-    <row r="60" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>53</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D60" s="21">
         <v>8959</v>
       </c>
       <c r="E60" s="54" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G60" s="19"/>
       <c r="H60" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="I60" s="55" t="s">
-        <v>267</v>
+        <v>121</v>
+      </c>
+      <c r="I60" s="73" t="s">
+        <v>279</v>
       </c>
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
     </row>
-    <row r="61" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>54</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D61" s="21">
         <v>5141</v>
       </c>
       <c r="E61" s="54" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" s="30"/>
       <c r="H61" s="23"/>
-      <c r="I61" s="55" t="s">
-        <v>268</v>
+      <c r="I61" s="73" t="s">
+        <v>278</v>
       </c>
       <c r="J61" s="28"/>
       <c r="K61" s="28"/>
     </row>
-    <row r="62" spans="1:11" ht="319" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="375" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>55</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D62" s="21">
         <v>59068</v>
       </c>
-      <c r="E62" s="75" t="s">
-        <v>284</v>
+      <c r="E62" s="67" t="s">
+        <v>282</v>
       </c>
       <c r="F62" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="G62" s="76" t="s">
-        <v>285</v>
+        <v>287</v>
+      </c>
+      <c r="G62" s="68" t="s">
+        <v>263</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="I62" s="56" t="s">
-        <v>286</v>
+        <v>260</v>
+      </c>
+      <c r="I62" s="74" t="s">
+        <v>280</v>
       </c>
       <c r="J62" s="28"/>
       <c r="K62" s="28"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="51">
         <v>56</v>
       </c>
       <c r="B63" s="51"/>
       <c r="C63" s="52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D63" s="53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E63" s="52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="51"/>
       <c r="H63" s="51"/>
       <c r="I63" s="51" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="J63" s="51"/>
       <c r="K63" s="51"/>
     </row>
-    <row r="64" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>57</v>
       </c>
       <c r="B64" s="19"/>
-      <c r="C64" s="20" t="s">
-        <v>126</v>
+      <c r="C64" s="71" t="s">
+        <v>124</v>
       </c>
       <c r="D64" s="21">
         <v>7134</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F64" s="57" t="s">
-        <v>248</v>
-      </c>
-      <c r="G64" s="57"/>
-      <c r="H64" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="I64" s="19"/>
+        <v>125</v>
+      </c>
+      <c r="F64" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="G64" s="55"/>
+      <c r="H64" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="I64" s="32" t="s">
+        <v>265</v>
+      </c>
       <c r="J64" s="28"/>
       <c r="K64" s="28"/>
     </row>
-    <row r="65" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>58</v>
       </c>
       <c r="B65" s="19"/>
-      <c r="C65" s="20" t="s">
-        <v>128</v>
+      <c r="C65" s="71" t="s">
+        <v>126</v>
       </c>
       <c r="D65" s="21">
         <v>99</v>
       </c>
-      <c r="E65" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F65" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="G65" s="58"/>
+      <c r="E65" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="G65" s="56"/>
       <c r="H65" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="I65" s="19"/>
+        <v>127</v>
+      </c>
       <c r="J65" s="28"/>
       <c r="K65" s="28"/>
     </row>
-    <row r="66" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>59</v>
       </c>
       <c r="B66" s="19"/>
-      <c r="C66" s="20" t="s">
-        <v>130</v>
+      <c r="C66" s="71" t="s">
+        <v>128</v>
       </c>
       <c r="D66" s="21">
         <v>76346</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="F66" s="58" t="s">
-        <v>250</v>
-      </c>
-      <c r="G66" s="58"/>
+        <v>129</v>
+      </c>
+      <c r="F66" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G66" s="56"/>
       <c r="H66" s="23"/>
       <c r="I66" s="19"/>
       <c r="J66" s="28"/>
       <c r="K66" s="28"/>
     </row>
-    <row r="67" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>60</v>
       </c>
       <c r="B67" s="19"/>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="72">
+        <v>211</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G67" s="56"/>
+      <c r="H67" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D67" s="21">
-        <v>211</v>
-      </c>
-      <c r="E67" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="F67" s="58" t="s">
-        <v>250</v>
-      </c>
-      <c r="G67" s="58"/>
-      <c r="H67" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="I67" s="56" t="s">
-        <v>241</v>
+      <c r="I67" s="37" t="s">
+        <v>252</v>
       </c>
       <c r="J67" s="28"/>
       <c r="K67" s="28"/>
     </row>
-    <row r="68" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>66</v>
       </c>
       <c r="B68" s="19"/>
-      <c r="C68" s="60" t="s">
-        <v>135</v>
+      <c r="C68" s="71" t="s">
+        <v>133</v>
       </c>
       <c r="D68" s="21">
         <v>3054</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="F68" s="58" t="s">
-        <v>250</v>
-      </c>
-      <c r="G68" s="58"/>
-      <c r="H68" s="23"/>
+        <v>138</v>
+      </c>
+      <c r="F68" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G68" s="56"/>
+      <c r="H68" s="30" t="s">
+        <v>271</v>
+      </c>
       <c r="I68" s="19"/>
       <c r="J68" s="28"/>
       <c r="K68" s="28"/>
     </row>
-    <row r="69" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>67</v>
       </c>
       <c r="B69" s="19"/>
-      <c r="C69" s="20" t="s">
-        <v>137</v>
+      <c r="C69" s="71" t="s">
+        <v>134</v>
       </c>
       <c r="D69" s="21">
         <v>4122</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="F69" s="58" t="s">
-        <v>250</v>
-      </c>
-      <c r="G69" s="58"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="61" t="s">
-        <v>139</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F69" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G69" s="56"/>
+      <c r="H69" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="I69" s="57"/>
       <c r="J69" s="28"/>
       <c r="K69" s="28"/>
     </row>
-    <row r="70" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>68</v>
       </c>
       <c r="B70" s="19"/>
-      <c r="C70" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D70" s="21">
+      <c r="C70" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="72">
         <v>1346</v>
       </c>
-      <c r="E70" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="F70" s="58" t="s">
-        <v>250</v>
-      </c>
-      <c r="G70" s="58"/>
+      <c r="E70" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="F70" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G70" s="56"/>
       <c r="H70" s="23"/>
       <c r="I70" s="37" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="J70" s="28"/>
       <c r="K70" s="28"/>
     </row>
-    <row r="71" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>69</v>
       </c>
       <c r="B71" s="19"/>
-      <c r="C71" s="60" t="s">
-        <v>141</v>
+      <c r="C71" s="71" t="s">
+        <v>137</v>
       </c>
       <c r="D71" s="21">
         <v>491</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="F71" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="G71" s="58"/>
+        <v>138</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="G71" s="56"/>
       <c r="H71" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="I71" s="19"/>
+        <v>270</v>
+      </c>
+      <c r="I71" s="57"/>
       <c r="J71" s="28"/>
       <c r="K71" s="28"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="51">
         <v>70</v>
       </c>
       <c r="B72" s="51"/>
       <c r="C72" s="52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E72" s="52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
@@ -6205,42 +6852,46 @@
       <c r="J72" s="51"/>
       <c r="K72" s="51"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>71</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D73" s="21">
         <v>18512</v>
       </c>
-      <c r="E73" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
+      <c r="E73" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="G73" s="70" t="s">
+        <v>296</v>
+      </c>
       <c r="H73" s="23"/>
-      <c r="I73" s="63" t="s">
-        <v>233</v>
+      <c r="I73" s="32" t="s">
+        <v>295</v>
       </c>
       <c r="J73" s="28"/>
       <c r="K73" s="28"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="51">
         <v>72</v>
       </c>
       <c r="B74" s="51"/>
       <c r="C74" s="52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D74" s="53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E74" s="52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
@@ -6249,46 +6900,46 @@
       <c r="J74" s="51"/>
       <c r="K74" s="51"/>
     </row>
-    <row r="75" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>73</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D75" s="21">
         <v>5006</v>
       </c>
-      <c r="E75" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="F75" s="58" t="s">
-        <v>250</v>
-      </c>
-      <c r="G75" s="58"/>
+      <c r="E75" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F75" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G75" s="56"/>
       <c r="H75" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="I75" s="32" t="s">
-        <v>235</v>
+        <v>141</v>
+      </c>
+      <c r="I75" s="73" t="s">
+        <v>281</v>
       </c>
       <c r="J75" s="28"/>
       <c r="K75" s="28"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="51">
         <v>74</v>
       </c>
       <c r="B76" s="51"/>
       <c r="C76" s="52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D76" s="53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E76" s="52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
@@ -6297,46 +6948,46 @@
       <c r="J76" s="51"/>
       <c r="K76" s="51"/>
     </row>
-    <row r="77" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>75</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D77" s="21">
         <v>7505</v>
       </c>
-      <c r="E77" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="F77" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="G77" s="64"/>
-      <c r="H77" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="I77" s="66" t="s">
-        <v>237</v>
+      <c r="E77" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="F77" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="G77" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="H77" s="23"/>
+      <c r="I77" s="80" t="s">
+        <v>294</v>
       </c>
       <c r="J77" s="28"/>
       <c r="K77" s="28"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="51">
         <v>76</v>
       </c>
       <c r="B78" s="51"/>
       <c r="C78" s="52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D78" s="53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E78" s="52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
@@ -6345,136 +6996,148 @@
       <c r="J78" s="51"/>
       <c r="K78" s="51"/>
     </row>
-    <row r="79" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>77</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D79" s="21">
         <v>7403</v>
       </c>
       <c r="E79" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="F79" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="G79" s="76"/>
       <c r="H79" s="23"/>
       <c r="I79" s="35" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J79" s="28"/>
       <c r="K79" s="28"/>
     </row>
-    <row r="80" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>78</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D80" s="21">
         <v>1199</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="F80" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="G80" s="76" t="s">
+        <v>302</v>
+      </c>
       <c r="H80" s="23"/>
       <c r="I80" s="35" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J80" s="28"/>
       <c r="K80" s="28"/>
     </row>
-    <row r="81" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>79</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D81" s="21">
         <v>5557</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="F81" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="G81" s="76"/>
       <c r="H81" s="23"/>
       <c r="I81" s="35" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J81" s="28"/>
       <c r="K81" s="28"/>
     </row>
-    <row r="82" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>80</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D82" s="21">
         <v>17898</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="F82" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="G82" s="76"/>
       <c r="H82" s="23"/>
       <c r="I82" s="35" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J82" s="28"/>
       <c r="K82" s="28"/>
     </row>
-    <row r="83" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>81</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D83" s="21">
         <v>62978</v>
       </c>
-      <c r="E83" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="I83" s="35" t="s">
-        <v>236</v>
+      <c r="E83" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="F83" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="G83" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="H83" s="23"/>
+      <c r="I83" s="33" t="s">
+        <v>289</v>
       </c>
       <c r="J83" s="28"/>
       <c r="K83" s="28"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="51">
         <v>82</v>
       </c>
       <c r="B84" s="51"/>
       <c r="C84" s="52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D84" s="53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E84" s="52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
@@ -6483,346 +7146,351 @@
       <c r="J84" s="51"/>
       <c r="K84" s="51"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E86" s="13" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H87" s="79" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E88" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E89" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E90" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E91" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E92" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E93" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E94" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E95" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E96" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E97" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E88" s="2" t="s">
+      <c r="F97" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H97" s="8"/>
+    </row>
+    <row r="99" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E99" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H88" s="8"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E89" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H89" s="8"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E90" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H90" s="8"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E91" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H91" s="8"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E92" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H92" s="8"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E93" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H93" s="8"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E94" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H94" s="8"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E95" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H95" s="8"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E96" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H96" s="8"/>
-    </row>
-    <row r="97" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E97" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H97" s="8"/>
-    </row>
-    <row r="99" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E99" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F99" s="9" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G99" s="12"/>
       <c r="H99" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="5:8" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E100" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="101" spans="5:8" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E101" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="102" spans="5:8" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="103" spans="5:8" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E103" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="105" spans="5:8" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E105" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="106" spans="5:8" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
     </row>
-    <row r="107" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E107" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="108" spans="5:8" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E108" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="109" spans="5:8" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E109" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="110" spans="5:8" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E110" s="15" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="111" spans="5:8" ht="30" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="5:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="E111" s="15" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="112" spans="5:8" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E112" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="113" spans="5:8" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E113" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="114" spans="5:8" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E114" s="7"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
     </row>
-    <row r="115" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E115" s="8" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="116" spans="5:8" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E116" s="8" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G116" s="8"/>
       <c r="H116" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="117" spans="5:8" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E117" s="8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="G117" s="8"/>
       <c r="H117" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="118" spans="5:8" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="118" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E118" s="8"/>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
     </row>
-    <row r="119" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E119" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G119" s="12"/>
       <c r="H119" s="8"/>
     </row>
-    <row r="120" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E120" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G120" s="12"/>
       <c r="H120" s="8"/>
     </row>
-    <row r="121" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E121" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G121" s="12"/>
       <c r="H121" s="8"/>
     </row>
-    <row r="122" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E122" s="1"/>
       <c r="H122" s="8"/>
     </row>
@@ -6844,33 +7512,33 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="58.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>273</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>276</v>
+        <v>253</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -6887,174 +7555,174 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="147.1796875" customWidth="1"/>
+    <col min="1" max="1" width="147.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">funktory!$G$1:$G$147</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="459">
   <si>
     <t>funktor</t>
   </si>
@@ -1418,39 +1418,21 @@
     <t>wiki</t>
   </si>
   <si>
-    <t>subrole for NE concepts (not relation)</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
-    <t>… attribute of quantity/quantity concepts (not relation)</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
     <t>range</t>
   </si>
   <si>
-    <t>??? date-entity role</t>
-  </si>
-  <si>
     <t>polite</t>
   </si>
   <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>attribute of ?event node</t>
-  </si>
-  <si>
     <t>aspect</t>
   </si>
   <si>
-    <t>attribute of event node</t>
-  </si>
-  <si>
     <t xml:space="preserve">attribute </t>
   </si>
   <si>
@@ -1463,13 +1445,7 @@
     <t>refer-person</t>
   </si>
   <si>
-    <t>attribute of entity  node</t>
-  </si>
-  <si>
     <t>refer-number</t>
-  </si>
-  <si>
-    <t>attribute of event node (modal)</t>
   </si>
   <si>
     <t>quot</t>
@@ -4290,6 +4266,764 @@
     </r>
   </si>
   <si>
+    <t>asi</t>
+  </si>
+  <si>
+    <t>možná</t>
+  </si>
+  <si>
+    <t>zřejmě</t>
+  </si>
+  <si>
+    <t>pravděpodobně</t>
+  </si>
+  <si>
+    <t>snad</t>
+  </si>
+  <si>
+    <t>určitě</t>
+  </si>
+  <si>
+    <t>prý</t>
+  </si>
+  <si>
+    <t>jistě</t>
+  </si>
+  <si>
+    <t>patrně</t>
+  </si>
+  <si>
+    <t>rozhodně</t>
+  </si>
+  <si>
+    <t>třeba</t>
+  </si>
+  <si>
+    <t>tak</t>
+  </si>
+  <si>
+    <t>možný</t>
+  </si>
+  <si>
+    <t>údajně</t>
+  </si>
+  <si>
+    <t>skutečně</t>
+  </si>
+  <si>
+    <t>bezpochyby</t>
+  </si>
+  <si>
+    <t>nutně</t>
+  </si>
+  <si>
+    <t>opravdu</t>
+  </si>
+  <si>
+    <t>bezesporu</t>
+  </si>
+  <si>
+    <t>spíše</t>
+  </si>
+  <si>
+    <t>vskutku</t>
+  </si>
+  <si>
+    <t>pochybně</t>
+  </si>
+  <si>
+    <t>potenciálně</t>
+  </si>
+  <si>
+    <t>stěží</t>
+  </si>
+  <si>
+    <t>těžko</t>
+  </si>
+  <si>
+    <t>nepochybně</t>
+  </si>
+  <si>
+    <t>pravděpodobnost</t>
+  </si>
+  <si>
+    <t>každopádně</t>
+  </si>
+  <si>
+    <t>řekněme</t>
+  </si>
+  <si>
+    <t>sporně</t>
+  </si>
+  <si>
+    <t>samozřejmě</t>
+  </si>
+  <si>
+    <t>zajisté</t>
+  </si>
+  <si>
+    <t>sotva</t>
+  </si>
+  <si>
+    <t>doopravdy</t>
+  </si>
+  <si>
+    <t>nepatrně</t>
+  </si>
+  <si>
+    <t>třebas</t>
+  </si>
+  <si>
+    <t>zjevný</t>
+  </si>
+  <si>
+    <t>nějak</t>
+  </si>
+  <si>
+    <t>očividně</t>
+  </si>
+  <si>
+    <t>případ</t>
+  </si>
+  <si>
+    <t>stoprocentně</t>
+  </si>
+  <si>
+    <t>zaručeně</t>
+  </si>
+  <si>
+    <t>zásada</t>
+  </si>
+  <si>
+    <t>údajný</t>
+  </si>
+  <si>
+    <t>zhruba</t>
+  </si>
+  <si>
+    <t>ani</t>
+  </si>
+  <si>
+    <t>evidentně</t>
+  </si>
+  <si>
+    <t>jednoznačně</t>
+  </si>
+  <si>
+    <t>jistota</t>
+  </si>
+  <si>
+    <t>potenciální</t>
+  </si>
+  <si>
+    <t>rádoby</t>
+  </si>
+  <si>
+    <t>bezpečně</t>
+  </si>
+  <si>
+    <t>klidný</t>
+  </si>
+  <si>
+    <t>nesporně</t>
+  </si>
+  <si>
+    <t>nevyhnutelný</t>
+  </si>
+  <si>
+    <t>nezbytně</t>
+  </si>
+  <si>
+    <t>odhad</t>
+  </si>
+  <si>
+    <t>podstata</t>
+  </si>
+  <si>
+    <t>přinejlepším</t>
+  </si>
+  <si>
+    <t>prostě</t>
+  </si>
+  <si>
+    <t>skutečný</t>
+  </si>
+  <si>
+    <t>stejný</t>
+  </si>
+  <si>
+    <t>teoretický</t>
+  </si>
+  <si>
+    <t>těžký</t>
+  </si>
+  <si>
+    <t>až</t>
+  </si>
+  <si>
+    <t>bezpodmínečně</t>
+  </si>
+  <si>
+    <t>bůhví</t>
+  </si>
+  <si>
+    <t>cožpak</t>
+  </si>
+  <si>
+    <t>dozajista</t>
+  </si>
+  <si>
+    <t>facto</t>
+  </si>
+  <si>
+    <t>jakoby</t>
+  </si>
+  <si>
+    <t>jasně</t>
+  </si>
+  <si>
+    <t>jasný</t>
+  </si>
+  <si>
+    <t>jenom</t>
+  </si>
+  <si>
+    <t>jistěže</t>
+  </si>
+  <si>
+    <t>jistý</t>
+  </si>
+  <si>
+    <t>kolem</t>
+  </si>
+  <si>
+    <t>málem</t>
+  </si>
+  <si>
+    <t>míra</t>
+  </si>
+  <si>
+    <t>neříkejme</t>
+  </si>
+  <si>
+    <t>nevyhnutelně</t>
+  </si>
+  <si>
+    <t>pravděpodobný</t>
+  </si>
+  <si>
+    <t>přibližně</t>
+  </si>
+  <si>
+    <t>případný</t>
+  </si>
+  <si>
+    <t>procento</t>
+  </si>
+  <si>
+    <t>taky</t>
+  </si>
+  <si>
+    <t>teda</t>
+  </si>
+  <si>
+    <t>určitost</t>
+  </si>
+  <si>
+    <t>určitý</t>
+  </si>
+  <si>
+    <t>viďte</t>
+  </si>
+  <si>
+    <t>vlastně</t>
+  </si>
+  <si>
+    <t>vůbec</t>
+  </si>
+  <si>
+    <t>zrovna</t>
+  </si>
+  <si>
+    <t>concept (keyword, ops)
+… the same structure</t>
+  </si>
+  <si>
+    <r>
+      <t>concept (discourse/keyword, args) 
+…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TEDY to dopadne jako koordinace</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">concept (event/keyword, args)
+… </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TEDY to dopadne jako koordinace</t>
+    </r>
+  </si>
+  <si>
+    <t>concept (abstract entity, ops)
+… the same structure</t>
+  </si>
+  <si>
+    <t>concept (event/keyword, args) 
+…  the same structure</t>
+  </si>
+  <si>
+    <t>concept (discourse/keyword, args) 
+…  the same structure</t>
+  </si>
+  <si>
+    <t>concept (discourse/keyword, ops) 
+… the same structure</t>
+  </si>
+  <si>
+    <t>concept (event, reif, args) 
+… the same structure</t>
+  </si>
+  <si>
+    <t>concept (event, reif, args) … 
+… TEDY to dopadne jako koordinace</t>
+  </si>
+  <si>
+    <t>concept (abstract event, args) … 
+… TEDY to dopadne jako apozice</t>
+  </si>
+  <si>
+    <t>concession</t>
+  </si>
+  <si>
+    <r>
+      <t>mod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>al-predicate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">intensifier, downtoner, or equal </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>… 3-3-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>intensifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> … serves as an abstract substitute for, e.g., very (part of the lexicon) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">include: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>imperative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">expressive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>interrogative</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(typically for main predicate) … </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3-3-2</t>
+    </r>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>!!!</t>
+  </si>
+  <si>
+    <t>modal-strength</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>undergoer</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>recipient</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>causer</t>
+  </si>
+  <si>
+    <t>experiencer</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>TODO - mod OR part or source or material
+?? how directed</t>
+  </si>
+  <si>
+    <t>?? MAT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?? ORIG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, HER, AUTH</t>
+    </r>
+  </si>
+  <si>
+    <t>CAUS (CSQ,REAS)</t>
+  </si>
+  <si>
+    <t>MANN (COMPL)</t>
+  </si>
+  <si>
+    <t>AIM, INTT</t>
+  </si>
+  <si>
+    <t>TWHEN, TFRWH, TOWH, TPAR, TSIN, TTILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+NEW: NOT in UMR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hrana (e-child) rodič-COMPL --&gt; manner / mod
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>podle sempos rodiče:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   sempos:   v, adj.* --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>manner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+                          n.*  --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>mod</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  undef = #EmpVerb </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">--&gt; manner
+                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(plus 2 divnosti)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+(compl.rf šipka) COMPL --&gt; mod-of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NEBO mod, ale pak od substantiva 
+                                                       k doplňku!!)</t>
+    </r>
+  </si>
+  <si>
+    <t>erodič ... 
+sempos = n</t>
+  </si>
+  <si>
+    <t>erodič ... 
+sempos = adj</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>based on</t>
+  </si>
+  <si>
+    <t>maybe, possibly</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>certainly, be sure, definitely</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>probably, likely</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>partial affirm+negation</t>
+  </si>
+  <si>
     <r>
       <t>výraz navazující na předchozí (</t>
     </r>
@@ -4311,7 +5045,16 @@
       </rPr>
       <t xml:space="preserve">
 vždy visí na kořeni (navazující) klauze, to ale může být leccos (funktor, sempos - typicky v, ale i další)
-echild uzlu PREC (103x) ... funktory: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>echild uzlu PREC (103x) ... funktory: 
 RSTR 86
 DPHR 7
 RHEM 7
@@ -4324,551 +5067,87 @@
     </r>
   </si>
   <si>
-    <t>asi</t>
-  </si>
-  <si>
-    <t>možná</t>
-  </si>
-  <si>
-    <t>zřejmě</t>
-  </si>
-  <si>
-    <t>pravděpodobně</t>
-  </si>
-  <si>
-    <t>snad</t>
-  </si>
-  <si>
-    <t>určitě</t>
-  </si>
-  <si>
-    <t>prý</t>
-  </si>
-  <si>
-    <t>jistě</t>
-  </si>
-  <si>
-    <t>patrně</t>
-  </si>
-  <si>
-    <t>rozhodně</t>
-  </si>
-  <si>
-    <t>třeba</t>
-  </si>
-  <si>
-    <t>tak</t>
-  </si>
-  <si>
-    <t>možný</t>
-  </si>
-  <si>
-    <t>údajně</t>
-  </si>
-  <si>
-    <t>skutečně</t>
-  </si>
-  <si>
-    <t>bezpochyby</t>
-  </si>
-  <si>
-    <t>nutně</t>
-  </si>
-  <si>
-    <t>opravdu</t>
-  </si>
-  <si>
-    <t>bezesporu</t>
-  </si>
-  <si>
-    <t>spíše</t>
-  </si>
-  <si>
-    <t>vskutku</t>
-  </si>
-  <si>
-    <t>pochybně</t>
-  </si>
-  <si>
-    <t>potenciálně</t>
-  </si>
-  <si>
-    <t>stěží</t>
-  </si>
-  <si>
-    <t>těžko</t>
-  </si>
-  <si>
-    <t>nepochybně</t>
-  </si>
-  <si>
-    <t>pravděpodobnost</t>
-  </si>
-  <si>
-    <t>každopádně</t>
-  </si>
-  <si>
-    <t>řekněme</t>
-  </si>
-  <si>
-    <t>sporně</t>
-  </si>
-  <si>
-    <t>samozřejmě</t>
-  </si>
-  <si>
-    <t>zajisté</t>
-  </si>
-  <si>
-    <t>sotva</t>
-  </si>
-  <si>
-    <t>doopravdy</t>
-  </si>
-  <si>
-    <t>nepatrně</t>
-  </si>
-  <si>
-    <t>třebas</t>
-  </si>
-  <si>
-    <t>zjevný</t>
-  </si>
-  <si>
-    <t>nějak</t>
-  </si>
-  <si>
-    <t>očividně</t>
-  </si>
-  <si>
-    <t>případ</t>
-  </si>
-  <si>
-    <t>stoprocentně</t>
-  </si>
-  <si>
-    <t>zaručeně</t>
-  </si>
-  <si>
-    <t>zásada</t>
-  </si>
-  <si>
-    <t>údajný</t>
-  </si>
-  <si>
-    <t>zhruba</t>
-  </si>
-  <si>
-    <t>ani</t>
-  </si>
-  <si>
-    <t>evidentně</t>
-  </si>
-  <si>
-    <t>jednoznačně</t>
-  </si>
-  <si>
-    <t>jistota</t>
-  </si>
-  <si>
-    <t>potenciální</t>
-  </si>
-  <si>
-    <t>rádoby</t>
-  </si>
-  <si>
-    <t>bezpečně</t>
-  </si>
-  <si>
-    <t>klidný</t>
-  </si>
-  <si>
-    <t>nesporně</t>
-  </si>
-  <si>
-    <t>nevyhnutelný</t>
-  </si>
-  <si>
-    <t>nezbytně</t>
-  </si>
-  <si>
-    <t>odhad</t>
-  </si>
-  <si>
-    <t>podstata</t>
-  </si>
-  <si>
-    <t>přinejlepším</t>
-  </si>
-  <si>
-    <t>prostě</t>
-  </si>
-  <si>
-    <t>skutečný</t>
-  </si>
-  <si>
-    <t>stejný</t>
-  </si>
-  <si>
-    <t>teoretický</t>
-  </si>
-  <si>
-    <t>těžký</t>
-  </si>
-  <si>
-    <t>až</t>
-  </si>
-  <si>
-    <t>bezpodmínečně</t>
-  </si>
-  <si>
-    <t>bůhví</t>
-  </si>
-  <si>
-    <t>cožpak</t>
-  </si>
-  <si>
-    <t>dozajista</t>
-  </si>
-  <si>
-    <t>facto</t>
-  </si>
-  <si>
-    <t>jakoby</t>
-  </si>
-  <si>
-    <t>jasně</t>
-  </si>
-  <si>
-    <t>jasný</t>
-  </si>
-  <si>
-    <t>jenom</t>
-  </si>
-  <si>
-    <t>jistěže</t>
-  </si>
-  <si>
-    <t>jistý</t>
-  </si>
-  <si>
-    <t>kolem</t>
-  </si>
-  <si>
-    <t>málem</t>
-  </si>
-  <si>
-    <t>míra</t>
-  </si>
-  <si>
-    <t>neříkejme</t>
-  </si>
-  <si>
-    <t>nevyhnutelně</t>
-  </si>
-  <si>
-    <t>pravděpodobný</t>
-  </si>
-  <si>
-    <t>přibližně</t>
-  </si>
-  <si>
-    <t>případný</t>
-  </si>
-  <si>
-    <t>procento</t>
-  </si>
-  <si>
-    <t>taky</t>
-  </si>
-  <si>
-    <t>teda</t>
-  </si>
-  <si>
-    <t>určitost</t>
-  </si>
-  <si>
-    <t>určitý</t>
-  </si>
-  <si>
-    <t>viďte</t>
-  </si>
-  <si>
-    <t>vlastně</t>
-  </si>
-  <si>
-    <t>vůbec</t>
-  </si>
-  <si>
-    <t>zrovna</t>
-  </si>
-  <si>
-    <t>concept (keyword, ops)
-… the same structure</t>
-  </si>
-  <si>
-    <r>
-      <t>concept (discourse/keyword, args) 
-…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> TEDY to dopadne jako koordinace</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">concept (event/keyword, args)
-… </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>TEDY to dopadne jako koordinace</t>
-    </r>
-  </si>
-  <si>
-    <t>concept (abstract entity, ops)
-… the same structure</t>
-  </si>
-  <si>
-    <t>concept (event/keyword, args) 
-…  the same structure</t>
-  </si>
-  <si>
-    <t>concept (discourse/keyword, args) 
-…  the same structure</t>
-  </si>
-  <si>
-    <t>concept (discourse/keyword, ops) 
-… the same structure</t>
-  </si>
-  <si>
-    <t>concept (event, reif, args) 
-… the same structure</t>
-  </si>
-  <si>
-    <t>concept (event, reif, args) … 
-… TEDY to dopadne jako koordinace</t>
-  </si>
-  <si>
-    <t>concept (abstract event, args) … 
-… TEDY to dopadne jako apozice</t>
-  </si>
-  <si>
-    <t>concession</t>
-  </si>
-  <si>
-    <r>
-      <t>mod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>al-predicate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">intensifier, downtoner, or equal </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>… 3-3-6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>intensifier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> … serves as an abstract substitute for, e.g., very (part of the lexicon) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">include: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>imperative</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">expressive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>interrogative</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(typically for main predicate) … </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>3-3-2</t>
-    </r>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>!!!</t>
-  </si>
-  <si>
-    <t>modal-strength</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t>undergoer</t>
-  </si>
-  <si>
-    <t>theme</t>
-  </si>
-  <si>
-    <t>recipient</t>
-  </si>
-  <si>
-    <t>force</t>
-  </si>
-  <si>
-    <t>causer</t>
-  </si>
-  <si>
-    <t>experiencer</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>ARG</t>
-  </si>
-  <si>
-    <t>TODO - mod OR part or source or material
-?? how directed</t>
-  </si>
-  <si>
-    <t>?? MAT</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">výraz vyjadřující </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>modalitu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (asi 1299x, možná 878x, zřejmě 469x, pravděpodobně 432x, snad 430x, určitě 388x, … celkem </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>93 t_lemmat)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>eparent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> uzlu PRED může být leccos (funktor, sempos)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>echild uzlu PREC (72x) ... funktory u slovesa (66x):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4876,45 +5155,96 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>?? ORIG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, HER, AUTH</t>
-    </r>
-  </si>
-  <si>
-    <t>CAUS (CSQ,REAS)</t>
-  </si>
-  <si>
-    <t>MANN (COMPL)</t>
-  </si>
-  <si>
-    <t>AIM, INTT</t>
-  </si>
-  <si>
-    <t>TWHEN, TFRWH, TOWH, TPAR, TSIN, TTILL</t>
-  </si>
-  <si>
-    <t>erodič ... sempos = v</t>
-  </si>
-  <si>
-    <t>erodič ... sempos = n ( ~ 'n.[dpq][eur][nao].*')</t>
-  </si>
-  <si>
-    <t>erodič ... sempos = adj</t>
-  </si>
-  <si>
-    <t>LINDAT/CLARIAH-CZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-NEW: NOT in UMR</t>
+      <t>EXT 40 ... zcela 17, téměř 8, velmi 5, dost 4, skoro 2, asi 1, docela 1, málo 1, mnohem 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">RSTR 22 ... velký (13), který (5), 99 (1) hraničící (1) jistý (1) každý (1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BEN 1 ... IGNOROVAT (umělý) kvůli cor ACT pro ně možná (vypadalo rozumně) dát ... a otevřít</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+CPR 1 ... CPR přesunout pod sloveso
+PAR 1 ... PAR přesunout pod sloveso
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RHEM 1 ... "jen stěží"</t>
+    </r>
+  </si>
+  <si>
+    <t>affirmative</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">modal-strength:
+FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">verbmod=ind, deontmod=decl </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">modal-polarity: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UNLESS combined with negation </t>
+    </r>
+  </si>
+  <si>
+    <t>?? kde se ztratila negace</t>
+  </si>
+  <si>
+    <t>?? or full</t>
   </si>
   <si>
     <r>
@@ -4925,12 +5255,23 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">… ALE 72 x pod ním něco visí, viz sloupec H
+      <t>… ALE 72 x pod ním něco visí, viz sloupec H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -4947,68 +5288,37 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>if eparent.gram/sempos = v</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-attribute modal-strenght 
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>pokud je erodič typu "event"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">              (zatím sempos = v, 4766x)
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>else</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-:modal-marker</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>pokud je erodič typu "event"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-                (zatím sempos = v, 4766x)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <b/>
+        <strike/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -5017,14 +5327,23 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
     NUTNO vytvořit tabulku 
-                                pro 93 t_lemmat.MOD
+                                pro 93 t_lemmat.MOD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -5060,254 +5379,354 @@
     </r>
   </si>
   <si>
-    <t>MOD … TODO</t>
-  </si>
-  <si>
-    <t>TODO … NUTNO vytvořit tabulku  pro 93 t_lemmat.MOD</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">výraz vyjadřující </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>modalitu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (asi 1299x, možná 878x, zřejmě 469x, pravděpodobně 432x, snad 430x, určitě 388x, … celkem </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>93 t_lemmat)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if eparent.gram/sempos = v</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+attribute modal-strenght</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(až v kombinaci s gramatémy)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>eparent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> uzlu PRED může být leccos (funktor, sempos)
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+:modal-marker</t>
+    </r>
+  </si>
+  <si>
+    <t>?? spíš RHEM</t>
+  </si>
+  <si>
+    <t>?? spíš EXT</t>
+  </si>
+  <si>
+    <t>attribute (?event node)</t>
+  </si>
+  <si>
+    <t>attribute (event node)</t>
+  </si>
+  <si>
+    <t>attribute (antity)</t>
+  </si>
+  <si>
+    <t>attribute (event node, modal)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ale KO, zda věta dává smysl i bez toho příklady:
+Země jako Kanada patří k těm, co …    OK
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>echild uzlu PREC (72x) ... funktory:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Úvěry poskytnuté (třebas.RHEM i.RHEM) velkým podnikům.ADDR …. KO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">??? t_lemma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>například, jako,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pokud je v apozici??</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>forma "zjevně"</t>
+  </si>
+  <si>
+    <t>"v žádném případě" --&gt; který případ … ?? kde se ztratila negace</t>
+  </si>
+  <si>
+    <t>negative (vždy  komb. negace)</t>
+  </si>
+  <si>
+    <t>?? or full 
+?? někde spíš EXT (jako "téměř", "víceméně")</t>
+  </si>
+  <si>
+    <t>VŠE (nehledě na rodiče)</t>
+  </si>
+  <si>
+    <t>?? možná EXT - nutně ko v datech</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TODO … NUTNO vytvořit tabulku </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pro 93 t_lemmat.MOD (částečně hotovo) a pak v kombinace s
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">verbmod --&gt; factmod </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (ind=asserted
+                               /cond=potential/irreal
+                                /imp=appeal(=required))
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>deontmod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (decl=nemodifikovaný
+                       /deb=nutnost
+                       /hrt=povinnost
+                       /vol=vůle,záměr
+                       /poss=možnost
+                       /perm=svolení
+                       /fac=schopnost) 
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sentmod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (enunc = oznam
+                     /excl = zvolací
+                     /desid = přací
+                     /imper = rozkaz
+                     /inter = tázací)
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>negací</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>#Neg.RHEM/CM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+            nebo atribut </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>negation=neg1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+                    (s poztivím lemmatem, NE pronom.)
+            nebo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">indeftype=negat
+                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(ANO neurč. pronom. n,adj,adv / neurč. kvant.adj )
+            nebo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>negované lemma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (krása nesmírná)
+            ?? JESTE NECO ??)
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">EXT 43 ... zcela 18, téměř 9, dost 5, velmi 5, skoro 2, asi 1, docela 1, málo 1, mnohem 1)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>RSTR 23
-BEN 2
-CPR 1
-MANN 1
-PAR 1
-RHEM 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">hrana (e-child) rodič-COMPL --&gt; manner / mod
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>podle sempos rodiče:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   sempos:   v, adj.* --&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>manner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-                          n.*  --&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>mod</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-                  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  undef = #EmpVerb </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">--&gt; manner
-                                   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(plus 2 divnosti)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-(compl.rf šipka) COMPL --&gt; mod-of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NEBO mod, ale pak od substantiva 
-                                                       k doplňku!!)</t>
     </r>
   </si>
 </sst>
@@ -5315,7 +5734,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5584,6 +6003,28 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -5715,7 +6156,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5958,13 +6399,7 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6033,8 +6468,28 @@
     <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="33" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6306,8 +6761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
@@ -6333,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>0</v>
@@ -6349,13 +6804,13 @@
         <v>3</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K1" s="54">
         <v>2014</v>
@@ -6363,7 +6818,7 @@
       <c r="L1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="85" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6509,7 +6964,7 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="25" t="s">
@@ -6537,7 +6992,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="25" t="s">
@@ -6565,7 +7020,7 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="25" t="s">
@@ -6593,7 +7048,7 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="25" t="s">
@@ -6624,15 +7079,15 @@
         <v>146</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="17"/>
       <c r="J12" s="26" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>28</v>
@@ -6673,7 +7128,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="17"/>
@@ -6701,7 +7156,7 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="13" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="18"/>
@@ -6725,7 +7180,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="25" t="s">
@@ -6751,7 +7206,7 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="13" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="18"/>
@@ -6777,7 +7232,7 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="13" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="18"/>
@@ -6801,7 +7256,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="17"/>
@@ -6825,7 +7280,7 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="17"/>
@@ -6849,7 +7304,7 @@
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="17"/>
@@ -6873,7 +7328,7 @@
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="17"/>
@@ -6913,7 +7368,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="25" t="s">
@@ -6945,7 +7400,7 @@
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="13" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="25" t="s">
@@ -6975,7 +7430,7 @@
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="25" t="s">
@@ -7005,7 +7460,7 @@
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H27" s="24"/>
       <c r="I27" s="25" t="s">
@@ -7049,11 +7504,11 @@
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="25" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="22" t="s">
@@ -7077,7 +7532,7 @@
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="25" t="s">
@@ -7105,13 +7560,13 @@
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="37" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I31" s="41" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
@@ -7132,7 +7587,7 @@
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="24" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="18"/>
@@ -7156,11 +7611,11 @@
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="25" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="22"/>
@@ -7198,7 +7653,7 @@
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="25" t="s">
@@ -7250,16 +7705,16 @@
         <v>4932</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F37" s="73" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G37" s="74" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="60"/>
@@ -7282,7 +7737,7 @@
       </c>
       <c r="F38" s="62"/>
       <c r="G38" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="25" t="s">
@@ -7308,7 +7763,7 @@
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="25" t="s">
@@ -7336,7 +7791,7 @@
       </c>
       <c r="F40" s="62"/>
       <c r="G40" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="30" t="s">
@@ -7364,21 +7819,21 @@
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="25" t="s">
         <v>90</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="K41" s="22" t="s">
         <v>89</v>
       </c>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" s="88" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" s="86" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31">
         <v>35</v>
       </c>
@@ -7390,15 +7845,15 @@
         <v>0</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="31" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H42" s="31"/>
       <c r="I42" s="31" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J42" s="35"/>
       <c r="K42" s="31"/>
@@ -7416,14 +7871,14 @@
         <v>10752</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F43" s="62"/>
       <c r="G43" s="67" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="60"/>
@@ -7445,10 +7900,10 @@
         <v>94</v>
       </c>
       <c r="F44" s="73" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G44" s="74" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="17"/>
@@ -7472,7 +7927,7 @@
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="24" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H45" s="24"/>
       <c r="I45" s="18"/>
@@ -7512,7 +7967,7 @@
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H47" s="24"/>
       <c r="I47" s="25" t="s">
@@ -7526,7 +7981,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A48" s="13">
         <v>41</v>
       </c>
@@ -7542,13 +7997,13 @@
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="37" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I48" s="62" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="22"/>
@@ -7570,7 +8025,7 @@
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H49" s="24"/>
       <c r="I49" s="25" t="s">
@@ -7598,7 +8053,7 @@
       </c>
       <c r="F50" s="75"/>
       <c r="G50" s="24" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H50" s="24"/>
       <c r="I50" s="18"/>
@@ -7634,20 +8089,20 @@
         <v>7069</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="24" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H52" s="38" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="I52" s="40" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
@@ -7684,12 +8139,12 @@
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="13" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="17"/>
       <c r="J54" s="26" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K54" s="22" t="s">
         <v>110</v>
@@ -7714,7 +8169,7 @@
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H55" s="24"/>
       <c r="I55" s="41" t="s">
@@ -7736,20 +8191,20 @@
         <v>38823</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="78" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H56" s="55" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="J56" s="26" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
@@ -7770,12 +8225,12 @@
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="17"/>
       <c r="J57" s="26" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
@@ -7796,7 +8251,7 @@
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="13" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="18"/>
@@ -7840,20 +8295,20 @@
         <v>8959</v>
       </c>
       <c r="E60" s="46" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F60" s="73" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G60" s="68" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="24" t="s">
         <v>120</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
@@ -7870,18 +8325,18 @@
         <v>5141</v>
       </c>
       <c r="E61" s="46" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F61" s="73" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G61" s="68" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H61" s="24"/>
       <c r="I61" s="17"/>
       <c r="J61" s="26" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
@@ -7898,22 +8353,22 @@
         <v>59068</v>
       </c>
       <c r="E62" s="58" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F62" s="73" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G62" s="47" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H62" s="59" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="J62" s="90" t="s">
-        <v>290</v>
+        <v>236</v>
+      </c>
+      <c r="J62" s="88" t="s">
+        <v>282</v>
       </c>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
@@ -7937,7 +8392,7 @@
       <c r="H63" s="43"/>
       <c r="I63" s="43"/>
       <c r="J63" s="43" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K63" s="43"/>
       <c r="L63" s="43"/>
@@ -7958,14 +8413,14 @@
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="47" t="s">
-        <v>398</v>
-      </c>
-      <c r="H64" s="83"/>
+        <v>389</v>
+      </c>
+      <c r="H64" s="82"/>
       <c r="I64" s="9" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
@@ -7986,7 +8441,7 @@
       </c>
       <c r="F65" s="29"/>
       <c r="G65" s="48" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="H65" s="67"/>
       <c r="I65" s="24" t="s">
@@ -8011,7 +8466,7 @@
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="48" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="H66" s="67"/>
       <c r="I66" s="17"/>
@@ -8034,10 +8489,10 @@
         <v>130</v>
       </c>
       <c r="F67" s="73" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G67" s="48" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="H67" s="67"/>
       <c r="I67" s="24" t="s">
@@ -8063,11 +8518,11 @@
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="48" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="H68" s="67"/>
       <c r="I68" s="24" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J68" s="13"/>
       <c r="K68" s="22"/>
@@ -8089,11 +8544,11 @@
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="48" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="H69" s="67"/>
       <c r="I69" s="46" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J69" s="49"/>
       <c r="K69" s="22"/>
@@ -8111,13 +8566,13 @@
         <v>1346</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F70" s="73" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G70" s="48" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="H70" s="67"/>
       <c r="I70" s="17"/>
@@ -8141,11 +8596,11 @@
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="37" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="H71" s="67"/>
       <c r="I71" s="24" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="J71" s="49"/>
       <c r="K71" s="22"/>
@@ -8185,18 +8640,18 @@
         <v>18512</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="37" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="H73" s="61" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="26" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
@@ -8235,20 +8690,20 @@
         <v>5006</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F75" s="72" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G75" s="48" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H75" s="48"/>
       <c r="I75" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="J75" s="89" t="s">
-        <v>289</v>
+      <c r="J75" s="87" t="s">
+        <v>281</v>
       </c>
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
@@ -8287,20 +8742,20 @@
         <v>7505</v>
       </c>
       <c r="E77" s="70" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F77" s="73" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G77" s="79" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H77" s="50" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I77" s="17"/>
-      <c r="J77" s="89" t="s">
-        <v>296</v>
+      <c r="J77" s="87" t="s">
+        <v>288</v>
       </c>
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
@@ -8339,17 +8794,17 @@
         <v>7403</v>
       </c>
       <c r="E79" s="65" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F79" s="73" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G79" s="71" t="s">
-        <v>288</v>
-      </c>
-      <c r="H79" s="85"/>
+        <v>280</v>
+      </c>
+      <c r="H79" s="83"/>
       <c r="I79" s="24" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="J79" s="71"/>
       <c r="K79" s="22"/>
@@ -8367,50 +8822,50 @@
         <v>1199</v>
       </c>
       <c r="E80" s="69" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F80" s="62"/>
-      <c r="G80" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="H80" s="83" t="s">
-        <v>266</v>
+      <c r="G80" s="84" t="s">
+        <v>272</v>
+      </c>
+      <c r="H80" s="82" t="s">
+        <v>258</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J80" s="71"/>
       <c r="K80" s="22"/>
       <c r="L80" s="22"/>
     </row>
-    <row r="81" spans="1:12" ht="208.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="356.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="13">
         <v>79</v>
       </c>
       <c r="B81" s="13"/>
-      <c r="C81" s="90" t="s">
-        <v>436</v>
+      <c r="C81" s="14" t="s">
+        <v>457</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="58" t="s">
+        <v>442</v>
+      </c>
+      <c r="F81" s="73" t="s">
+        <v>419</v>
+      </c>
+      <c r="G81" s="79" t="s">
+        <v>440</v>
+      </c>
+      <c r="H81" s="89" t="s">
+        <v>441</v>
+      </c>
+      <c r="I81" s="105" t="s">
         <v>434</v>
       </c>
-      <c r="F81" s="73" t="s">
-        <v>432</v>
-      </c>
-      <c r="G81" s="79" t="s">
-        <v>433</v>
-      </c>
-      <c r="H81" s="91" t="s">
-        <v>435</v>
-      </c>
-      <c r="I81" s="108" t="s">
-        <v>438</v>
-      </c>
-      <c r="J81" s="84" t="s">
-        <v>437</v>
-      </c>
-      <c r="K81" s="22"/>
+      <c r="J81" s="87" t="s">
+        <v>458</v>
+      </c>
+      <c r="K81" s="24"/>
       <c r="L81" s="22"/>
     </row>
     <row r="82" spans="1:12" ht="304.5" x14ac:dyDescent="0.35">
@@ -8425,22 +8880,22 @@
         <v>17898</v>
       </c>
       <c r="E82" s="64" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F82" s="73" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G82" s="79" t="s">
-        <v>291</v>
-      </c>
-      <c r="H82" s="91" t="s">
-        <v>294</v>
+        <v>283</v>
+      </c>
+      <c r="H82" s="89" t="s">
+        <v>286</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="J82" s="89" t="s">
-        <v>297</v>
+        <v>433</v>
+      </c>
+      <c r="J82" s="87" t="s">
+        <v>289</v>
       </c>
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
@@ -8457,22 +8912,22 @@
         <v>62978</v>
       </c>
       <c r="E83" s="70" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F83" s="73" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G83" s="79" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H83" s="81" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="I83" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="J83" s="89" t="s">
-        <v>296</v>
+        <v>277</v>
+      </c>
+      <c r="J83" s="87" t="s">
+        <v>288</v>
       </c>
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
@@ -8503,260 +8958,260 @@
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E86" s="99" t="s">
+      <c r="E86" s="97" t="s">
+        <v>402</v>
+      </c>
+      <c r="F86" s="96" t="s">
         <v>411</v>
       </c>
-      <c r="F86" s="98" t="s">
-        <v>420</v>
-      </c>
       <c r="G86" s="10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E87" s="99" t="s">
-        <v>412</v>
-      </c>
-      <c r="F87" s="98" t="s">
-        <v>420</v>
+      <c r="E87" s="97" t="s">
+        <v>403</v>
+      </c>
+      <c r="F87" s="96" t="s">
+        <v>411</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E88" s="99" t="s">
+      <c r="E88" s="97" t="s">
+        <v>404</v>
+      </c>
+      <c r="F88" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E89" s="97" t="s">
+        <v>405</v>
+      </c>
+      <c r="F89" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E90" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="F90" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E91" s="97" t="s">
+        <v>407</v>
+      </c>
+      <c r="F91" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E92" s="97" t="s">
+        <v>408</v>
+      </c>
+      <c r="F92" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E93" s="97" t="s">
+        <v>409</v>
+      </c>
+      <c r="F93" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E94" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="F94" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E95" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="F95" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C96" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E96" s="97" t="s">
+        <v>410</v>
+      </c>
+      <c r="F96" s="66" t="s">
         <v>413</v>
       </c>
-      <c r="F88" s="98" t="s">
-        <v>420</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E89" s="99" t="s">
+      <c r="G96" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="E97" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="F97" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="E98" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="F98" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="E99" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" s="96" t="s">
         <v>414</v>
       </c>
-      <c r="F89" s="98" t="s">
-        <v>420</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E90" s="99" t="s">
+      <c r="G99" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C100" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E100" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="F100" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="E101" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F101" s="96" t="s">
+        <v>97</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="E102" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" s="96" t="s">
         <v>415</v>
       </c>
-      <c r="F90" s="98" t="s">
-        <v>420</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E91" s="99" t="s">
+      <c r="G102" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="E103" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="F103" s="96" t="s">
         <v>416</v>
       </c>
-      <c r="F91" s="98" t="s">
-        <v>420</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E92" s="99" t="s">
+      <c r="G103" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="C104" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E104" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="F104" s="66" t="s">
+        <v>399</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="E105" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="F105" s="96" t="s">
         <v>417</v>
       </c>
-      <c r="F92" s="98" t="s">
-        <v>420</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E93" s="99" t="s">
+      <c r="G105" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H105" s="66" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="E106" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" s="96" t="s">
         <v>418</v>
       </c>
-      <c r="F93" s="98" t="s">
-        <v>420</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E94" s="99" t="s">
-        <v>89</v>
-      </c>
-      <c r="F94" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E95" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="F95" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C96" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E96" s="99" t="s">
-        <v>419</v>
-      </c>
-      <c r="F96" s="66" t="s">
-        <v>422</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E97" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="F97" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E98" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="F98" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E99" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="F99" s="98" t="s">
-        <v>423</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C100" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E100" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="F100" s="98" t="s">
-        <v>54</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E101" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="F101" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E102" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="F102" s="98" t="s">
-        <v>424</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E103" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="F103" s="98" t="s">
-        <v>425</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="104" spans="3:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="C104" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E104" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="F104" s="66" t="s">
-        <v>408</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E105" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="F105" s="98" t="s">
-        <v>426</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H105" s="66" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E106" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="F106" s="98" t="s">
-        <v>427</v>
-      </c>
       <c r="G106" s="10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E107" s="99" t="s">
+      <c r="E107" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="F107" s="98" t="s">
+      <c r="F107" s="96" t="s">
         <v>83</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.35">
@@ -8764,229 +9219,219 @@
       <c r="I108" s="66"/>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C109" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E109" s="98" t="s">
+      <c r="C109" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E109" s="96" t="s">
         <v>147</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I109" s="7"/>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C110" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E110" s="98" t="s">
+      <c r="C110" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E110" s="96" t="s">
         <v>148</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I110" s="7"/>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C111" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E111" s="98" t="s">
+      <c r="C111" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E111" s="96" t="s">
         <v>149</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I111" s="7"/>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C112" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E112" s="98" t="s">
+      <c r="C112" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E112" s="96" t="s">
         <v>150</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I112" s="7"/>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C113" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E113" s="98" t="s">
+      <c r="C113" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E113" s="96" t="s">
         <v>151</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I113" s="7"/>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C114" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E114" s="98" t="s">
+      <c r="C114" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E114" s="96" t="s">
         <v>152</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I114" s="7"/>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C115" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E115" s="98" t="s">
+      <c r="C115" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E115" s="96" t="s">
         <v>153</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I115" s="7"/>
     </row>
-    <row r="116" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C116" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E116" s="98" t="s">
+    <row r="116" spans="3:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E116" s="96" t="s">
         <v>154</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I116" s="7"/>
+        <v>209</v>
+      </c>
+      <c r="H116" s="110" t="s">
+        <v>450</v>
+      </c>
+      <c r="I116" s="111" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C117" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E117" s="98" t="s">
+      <c r="C117" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E117" s="96" t="s">
         <v>155</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I117" s="7"/>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C118" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E118" s="98" t="s">
+      <c r="C118" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E118" s="96" t="s">
         <v>156</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I118" s="7"/>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C119" s="98"/>
-      <c r="E119" s="98"/>
+      <c r="C119" s="96"/>
+      <c r="E119" s="96"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C120" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E120" s="98" t="s">
+      <c r="C120" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E120" s="96" t="s">
         <v>157</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="H120" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+    </row>
+    <row r="121" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C121" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E121" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="I120" s="7"/>
-    </row>
-    <row r="121" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C121" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E121" s="98" t="s">
+      <c r="G121" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+    </row>
+    <row r="122" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C122" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E122" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="G121" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H121" s="7" t="s">
+      <c r="G122" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+    </row>
+    <row r="123" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C123" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E123" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+    </row>
+    <row r="124" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C124" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E124" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="I121" s="7"/>
-    </row>
-    <row r="122" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C122" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E122" s="98" t="s">
-        <v>161</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I122" s="7"/>
-    </row>
-    <row r="123" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C123" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E123" s="98" t="s">
-        <v>84</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I123" s="7"/>
-    </row>
-    <row r="124" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C124" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E124" s="98" t="s">
-        <v>162</v>
-      </c>
       <c r="G124" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>160</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="H124" s="7"/>
       <c r="I124" s="7"/>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C125" s="98"/>
-      <c r="E125" s="98"/>
+      <c r="C125" s="96"/>
+      <c r="E125" s="96"/>
       <c r="F125" s="2"/>
       <c r="H125" s="4"/>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C126" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E126" s="98" t="s">
+      <c r="C126" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E126" s="96" t="s">
         <v>31</v>
       </c>
       <c r="F126" s="77"/>
       <c r="G126" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>163</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="H126" s="9"/>
       <c r="I126" s="9"/>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C127" s="98"/>
+      <c r="C127" s="96"/>
       <c r="E127" s="80"/>
       <c r="F127" s="77"/>
       <c r="G127" s="7"/>
@@ -8994,56 +9439,56 @@
       <c r="I127" s="9"/>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C128" s="98" t="s">
-        <v>408</v>
+      <c r="C128" s="96" t="s">
+        <v>399</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F128" s="56"/>
       <c r="G128" s="10" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H128" s="10"/>
       <c r="I128" s="7"/>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C129" s="98" t="s">
-        <v>408</v>
+      <c r="C129" s="96" t="s">
+        <v>399</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F129" s="56"/>
       <c r="G129" s="10" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H129" s="10"/>
       <c r="I129" s="7"/>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C130" s="98" t="s">
-        <v>408</v>
+      <c r="C130" s="96" t="s">
+        <v>399</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F130" s="56"/>
       <c r="G130" s="10" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H130" s="10"/>
       <c r="I130" s="7"/>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C131" s="98" t="s">
-        <v>408</v>
+      <c r="C131" s="96" t="s">
+        <v>399</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.35">
@@ -9052,158 +9497,144 @@
       <c r="H132" s="4"/>
     </row>
     <row r="133" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C133" s="100" t="s">
-        <v>409</v>
-      </c>
-      <c r="D133" s="101"/>
-      <c r="E133" s="102" t="s">
+      <c r="C133" s="98" t="s">
+        <v>400</v>
+      </c>
+      <c r="D133" s="99"/>
+      <c r="E133" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H133" s="90"/>
+      <c r="I133" s="90"/>
+    </row>
+    <row r="134" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C134" s="98" t="s">
+        <v>400</v>
+      </c>
+      <c r="D134" s="99"/>
+      <c r="E134" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="H134" s="90"/>
+      <c r="I134" s="90"/>
+    </row>
+    <row r="135" spans="3:9" s="94" customFormat="1" ht="44.5" x14ac:dyDescent="0.35">
+      <c r="C135" s="98" t="s">
+        <v>400</v>
+      </c>
+      <c r="D135" s="99"/>
+      <c r="E135" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="G133" s="5" t="s">
+      <c r="G135" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="H135" s="90" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C136" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="E136" s="94" t="s">
         <v>165</v>
       </c>
-      <c r="H133" s="92" t="s">
+      <c r="F136" s="94"/>
+      <c r="G136" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="H136" s="95" t="s">
+        <v>396</v>
+      </c>
+      <c r="I136" s="95" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="137" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C137" s="98" t="s">
+        <v>400</v>
+      </c>
+      <c r="D137" s="99"/>
+      <c r="E137" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="I133" s="92"/>
-    </row>
-    <row r="134" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C134" s="100" t="s">
-        <v>409</v>
-      </c>
-      <c r="D134" s="101"/>
-      <c r="E134" s="102" t="s">
+      <c r="G137" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="H137" s="90"/>
+      <c r="I137" s="90"/>
+    </row>
+    <row r="138" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C138" s="98" t="s">
+        <v>400</v>
+      </c>
+      <c r="D138" s="99"/>
+      <c r="E138" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="G134" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H134" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="I134" s="92"/>
-    </row>
-    <row r="135" spans="3:9" s="96" customFormat="1" ht="44.5" x14ac:dyDescent="0.35">
-      <c r="C135" s="100" t="s">
-        <v>409</v>
-      </c>
-      <c r="D135" s="101"/>
-      <c r="E135" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="G135" s="96" t="s">
-        <v>169</v>
-      </c>
-      <c r="H135" s="92" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C136" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="E136" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="F136" s="96"/>
-      <c r="G136" s="96" t="s">
-        <v>169</v>
-      </c>
-      <c r="H136" s="97" t="s">
-        <v>405</v>
-      </c>
-      <c r="I136" s="97" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="137" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C137" s="100" t="s">
-        <v>409</v>
-      </c>
-      <c r="D137" s="101"/>
-      <c r="E137" s="102" t="s">
-        <v>172</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H137" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="I137" s="92"/>
-    </row>
-    <row r="138" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C138" s="100" t="s">
-        <v>409</v>
-      </c>
-      <c r="D138" s="101"/>
-      <c r="E138" s="102" t="s">
-        <v>174</v>
-      </c>
       <c r="G138" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H138" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="I138" s="92"/>
+        <v>447</v>
+      </c>
+      <c r="H138" s="90"/>
+      <c r="I138" s="90"/>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C139" s="103"/>
-      <c r="D139" s="101"/>
-      <c r="E139" s="104"/>
+      <c r="C139" s="101"/>
+      <c r="D139" s="99"/>
+      <c r="E139" s="102"/>
       <c r="F139" s="6"/>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
     </row>
-    <row r="140" spans="3:9" s="94" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C140" s="100" t="s">
-        <v>409</v>
-      </c>
-      <c r="D140" s="105"/>
-      <c r="E140" s="106" t="s">
-        <v>410</v>
-      </c>
-      <c r="G140" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="H140" s="95" t="s">
-        <v>175</v>
-      </c>
-      <c r="I140" s="95"/>
-    </row>
-    <row r="141" spans="3:9" s="94" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C141" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="D141" s="93"/>
-      <c r="E141" s="94" t="s">
-        <v>404</v>
-      </c>
-      <c r="G141" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="H141" s="95" t="s">
-        <v>175</v>
-      </c>
-      <c r="I141" s="95"/>
-    </row>
-    <row r="142" spans="3:9" s="94" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C142" s="98" t="s">
-        <v>408</v>
-      </c>
-      <c r="D142" s="93"/>
-      <c r="E142" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="G142" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="H142" s="95" t="s">
-        <v>175</v>
-      </c>
-      <c r="I142" s="95"/>
+    <row r="140" spans="3:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C140" s="98" t="s">
+        <v>400</v>
+      </c>
+      <c r="D140" s="103"/>
+      <c r="E140" s="104" t="s">
+        <v>401</v>
+      </c>
+      <c r="G140" s="92" t="s">
+        <v>448</v>
+      </c>
+      <c r="H140" s="93"/>
+      <c r="I140" s="93"/>
+    </row>
+    <row r="141" spans="3:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C141" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="D141" s="91"/>
+      <c r="E141" s="92" t="s">
+        <v>395</v>
+      </c>
+      <c r="G141" s="92" t="s">
+        <v>448</v>
+      </c>
+      <c r="H141" s="93"/>
+      <c r="I141" s="93"/>
+    </row>
+    <row r="142" spans="3:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C142" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="D142" s="91"/>
+      <c r="E142" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="G142" s="92" t="s">
+        <v>448</v>
+      </c>
+      <c r="H142" s="93"/>
+      <c r="I142" s="93"/>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.35">
       <c r="E143" s="7"/>
@@ -9267,24 +9698,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="57" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -9295,1416 +9726,2129 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="3" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="18.36328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.08984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="1"/>
+    <col min="13" max="13" width="2.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="1"/>
+    <col min="15" max="15" width="16.7265625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" style="1"/>
+    <col min="18" max="18" width="2.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7265625" style="1"/>
+    <col min="20" max="20" width="14.1796875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.26953125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" s="106" customFormat="1" ht="73.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="106" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D1" s="106" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1" s="107" t="s">
+        <v>425</v>
+      </c>
+      <c r="J1" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="M1" s="107"/>
+      <c r="O1" s="106" t="s">
+        <v>422</v>
+      </c>
+      <c r="R1" s="107"/>
+      <c r="T1" s="106" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="56">
+        <v>1299</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="107"/>
+      <c r="J2" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="K2" s="56">
+        <v>157</v>
+      </c>
+      <c r="M2" s="107"/>
+      <c r="O2" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" s="56">
+        <v>53</v>
+      </c>
+      <c r="R2" s="107"/>
+      <c r="T2" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="U2" s="56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="56">
+        <v>878</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="107"/>
+      <c r="J3" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="K3" s="56">
+        <v>54</v>
+      </c>
+      <c r="M3" s="107"/>
+      <c r="O3" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="P3" s="56">
+        <v>32</v>
+      </c>
+      <c r="R3" s="107"/>
+      <c r="T3" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="U3" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="56">
+        <v>469</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="107"/>
+      <c r="J4" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4" s="56">
+        <v>44</v>
+      </c>
+      <c r="M4" s="107"/>
+      <c r="O4" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="P4" s="56">
+        <v>28</v>
+      </c>
+      <c r="R4" s="107"/>
+      <c r="T4" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="U4" s="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="56">
+        <v>432</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H5" s="107"/>
+      <c r="J5" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="K5" s="56">
+        <v>30</v>
+      </c>
+      <c r="M5" s="107"/>
+      <c r="O5" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="P5" s="56">
+        <v>17</v>
+      </c>
+      <c r="R5" s="107"/>
+      <c r="T5" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="U5" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="56">
+        <v>430</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="G6" s="56"/>
+      <c r="H6" s="107"/>
+      <c r="J6" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="K6" s="56">
+        <v>30</v>
+      </c>
+      <c r="M6" s="107"/>
+      <c r="O6" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="P6" s="56">
+        <v>14</v>
+      </c>
+      <c r="R6" s="107"/>
+      <c r="T6" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="U6" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" s="56">
+        <v>388</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="F7" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C1" t="s">
-        <v>410</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G7" s="56"/>
+      <c r="H7" s="107"/>
+      <c r="J7" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="K7" s="56">
+        <v>14</v>
+      </c>
+      <c r="M7" s="107"/>
+      <c r="O7" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="P7" s="56">
+        <v>11</v>
+      </c>
+      <c r="R7" s="107"/>
+      <c r="T7" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="U7" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="56">
+        <v>377</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G8" s="56"/>
+      <c r="H8" s="107"/>
+      <c r="J8" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="K8" s="56">
+        <v>12</v>
+      </c>
+      <c r="M8" s="107"/>
+      <c r="O8" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="P8" s="56">
+        <v>11</v>
+      </c>
+      <c r="R8" s="107"/>
+      <c r="T8" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="U8" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="56">
+        <v>220</v>
+      </c>
+      <c r="C9" s="56" t="s">
         <v>429</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D9" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E9" s="56"/>
+      <c r="F9" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G9" s="56"/>
+      <c r="H9" s="107"/>
+      <c r="J9" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="K9" s="56">
+        <v>10</v>
+      </c>
+      <c r="M9" s="107"/>
+      <c r="O9" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="P9" s="56">
+        <v>9</v>
+      </c>
+      <c r="R9" s="107"/>
+      <c r="T9" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="U9" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="56">
+        <v>187</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E10" s="56"/>
+      <c r="F10" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="G10" s="56"/>
+      <c r="H10" s="107"/>
+      <c r="J10" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="K10" s="56">
+        <v>8</v>
+      </c>
+      <c r="M10" s="107"/>
+      <c r="O10" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="P10" s="56">
+        <v>9</v>
+      </c>
+      <c r="R10" s="107"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" s="56">
+        <v>115</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G11" s="56"/>
+      <c r="H11" s="107"/>
+      <c r="J11" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="K11" s="56">
+        <v>4</v>
+      </c>
+      <c r="M11" s="107"/>
+      <c r="O11" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="P11" s="56">
+        <v>7</v>
+      </c>
+      <c r="R11" s="107"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" s="56">
+        <v>110</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E12" s="56"/>
+      <c r="F12" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="G12" s="56"/>
+      <c r="H12" s="107"/>
+      <c r="J12" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="K12" s="56">
+        <v>4</v>
+      </c>
+      <c r="M12" s="107"/>
+      <c r="O12" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="P12" s="56">
+        <v>7</v>
+      </c>
+      <c r="R12" s="107"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13" s="56">
+        <v>81</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E13" s="56"/>
+      <c r="F13" s="1" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="82" t="s">
+      <c r="G13" s="56"/>
+      <c r="H13" s="107"/>
+      <c r="J13" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="K13" s="56">
+        <v>4</v>
+      </c>
+      <c r="M13" s="107"/>
+      <c r="O13" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="P13" s="56">
+        <v>4</v>
+      </c>
+      <c r="R13" s="107"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" s="56">
+        <v>51</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E14" s="56"/>
+      <c r="F14" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="107"/>
+      <c r="J14" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="K14" s="56">
+        <v>3</v>
+      </c>
+      <c r="M14" s="107"/>
+      <c r="O14" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="P14" s="56">
+        <v>4</v>
+      </c>
+      <c r="R14" s="107"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="B15" s="56">
+        <v>44</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E15" s="56"/>
+      <c r="F15" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="G15" s="56"/>
+      <c r="H15" s="107"/>
+      <c r="J15" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="K15" s="56">
+        <v>3</v>
+      </c>
+      <c r="M15" s="107"/>
+      <c r="O15" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="P15" s="56">
+        <v>3</v>
+      </c>
+      <c r="R15" s="107"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="56">
+        <v>40</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E16" s="56"/>
+      <c r="F16" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G16" s="56"/>
+      <c r="H16" s="107"/>
+      <c r="J16" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="K16" s="56">
+        <v>3</v>
+      </c>
+      <c r="M16" s="107"/>
+      <c r="O16" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="P16" s="56">
+        <v>2</v>
+      </c>
+      <c r="R16" s="107"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="56">
+        <v>37</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E17" s="56"/>
+      <c r="F17" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="107"/>
+      <c r="J17" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="K17" s="56">
+        <v>2</v>
+      </c>
+      <c r="M17" s="107"/>
+      <c r="O17" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="P17" s="56">
+        <v>2</v>
+      </c>
+      <c r="R17" s="107"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="56" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" s="56">
+        <v>36</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G18" s="56"/>
+      <c r="H18" s="107"/>
+      <c r="J18" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="K18" s="56">
+        <v>2</v>
+      </c>
+      <c r="M18" s="107"/>
+      <c r="O18" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="P18" s="56">
+        <v>2</v>
+      </c>
+      <c r="R18" s="107"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="56">
+        <v>29</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G19" s="56"/>
+      <c r="H19" s="107"/>
+      <c r="J19" s="56" t="s">
+        <v>351</v>
+      </c>
+      <c r="K19" s="56">
+        <v>2</v>
+      </c>
+      <c r="M19" s="107"/>
+      <c r="O19" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="P19" s="56">
+        <v>1</v>
+      </c>
+      <c r="R19" s="107"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="56">
+        <v>24</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E20" s="56"/>
+      <c r="F20" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="107"/>
+      <c r="J20" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="K20" s="56">
+        <v>1</v>
+      </c>
+      <c r="M20" s="107"/>
+      <c r="O20" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="P20" s="56">
+        <v>1</v>
+      </c>
+      <c r="R20" s="107"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" s="56">
+        <v>22</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E21" s="56"/>
+      <c r="F21" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G21" s="56"/>
+      <c r="H21" s="107"/>
+      <c r="J21" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="K21" s="56">
+        <v>1</v>
+      </c>
+      <c r="M21" s="107"/>
+      <c r="O21" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="P21" s="56">
+        <v>1</v>
+      </c>
+      <c r="R21" s="107"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="B22" s="56">
+        <v>22</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E22" s="56"/>
+      <c r="F22" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G22" s="56"/>
+      <c r="H22" s="107"/>
+      <c r="J22" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="K22" s="56">
+        <v>1</v>
+      </c>
+      <c r="M22" s="107"/>
+      <c r="O22" s="56" t="s">
+        <v>361</v>
+      </c>
+      <c r="P22" s="56">
+        <v>1</v>
+      </c>
+      <c r="R22" s="107"/>
+    </row>
+    <row r="23" spans="1:18" ht="18.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="B23" s="56">
+        <v>20</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="109" t="s">
+        <v>438</v>
+      </c>
+      <c r="G23" s="56"/>
+      <c r="H23" s="107"/>
+      <c r="J23" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="K23" s="56">
+        <v>1</v>
+      </c>
+      <c r="M23" s="107"/>
+      <c r="O23" s="56" t="s">
+        <v>367</v>
+      </c>
+      <c r="P23" s="56">
+        <v>1</v>
+      </c>
+      <c r="R23" s="107"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" s="56">
+        <v>19</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E24" s="56"/>
+      <c r="F24" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="G24" s="56"/>
+      <c r="H24" s="107"/>
+      <c r="J24" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="K24" s="56">
+        <v>1</v>
+      </c>
+      <c r="M24" s="107"/>
+      <c r="O24" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="P24" s="56">
+        <v>1</v>
+      </c>
+      <c r="R24" s="107"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" s="56">
+        <v>19</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="E25" s="56"/>
+      <c r="F25" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="G25" s="56"/>
+      <c r="H25" s="107"/>
+      <c r="J25" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="K25" s="56">
+        <v>1</v>
+      </c>
+      <c r="M25" s="107"/>
+      <c r="O25" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="P25" s="56">
+        <v>1</v>
+      </c>
+      <c r="R25" s="107"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" s="56">
+        <v>19</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="G26" s="56"/>
+      <c r="H26" s="107"/>
+      <c r="J26" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="K26" s="56">
+        <v>1</v>
+      </c>
+      <c r="M26" s="107"/>
+      <c r="O26" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="P26" s="56">
+        <v>1</v>
+      </c>
+      <c r="R26" s="107"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27" s="56">
+        <v>17</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E27" s="56"/>
+      <c r="F27" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G27" s="56"/>
+      <c r="H27" s="107"/>
+      <c r="J27" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="K27" s="56">
+        <v>1</v>
+      </c>
+      <c r="M27" s="107"/>
+      <c r="O27" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="P27" s="56">
+        <v>1</v>
+      </c>
+      <c r="R27" s="107"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28" s="56">
+        <v>16</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G28" s="56"/>
+      <c r="H28" s="107"/>
+      <c r="J28" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="K28" s="56">
+        <v>1</v>
+      </c>
+      <c r="M28" s="107"/>
+      <c r="O28" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="P28" s="56">
+        <v>1</v>
+      </c>
+      <c r="R28" s="107"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="B29" s="56">
+        <v>14</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E29" s="56"/>
+      <c r="F29" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G29" s="56"/>
+      <c r="H29" s="107"/>
+      <c r="J29" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="K29" s="56">
+        <v>1</v>
+      </c>
+      <c r="M29" s="107"/>
+      <c r="O29" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="B2" s="82">
-        <v>1299</v>
-      </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="G2" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="H2" s="82">
-        <v>157</v>
-      </c>
-      <c r="L2" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="M2" s="82">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="R2" s="82">
+      <c r="P29" s="56">
+        <v>1</v>
+      </c>
+      <c r="R29" s="107"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30" s="56">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="82" t="s">
+      <c r="C30" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E30" s="109" t="s">
+        <v>439</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G30" s="56"/>
+      <c r="H30" s="107"/>
+      <c r="J30" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="K30" s="56">
+        <v>1</v>
+      </c>
+      <c r="M30" s="107"/>
+      <c r="O30" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="P30" s="56">
+        <v>1</v>
+      </c>
+      <c r="R30" s="107"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="56" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" s="56">
+        <v>14</v>
+      </c>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="109" t="s">
+        <v>438</v>
+      </c>
+      <c r="G31" s="56"/>
+      <c r="H31" s="107"/>
+      <c r="J31" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="K31" s="56">
+        <v>1</v>
+      </c>
+      <c r="M31" s="107"/>
+      <c r="O31" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="P31" s="56">
+        <v>1</v>
+      </c>
+      <c r="R31" s="107"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="B32" s="56">
+        <v>12</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E32" s="56"/>
+      <c r="F32" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G32" s="56"/>
+      <c r="H32" s="107"/>
+      <c r="J32" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="K32" s="56">
+        <v>1</v>
+      </c>
+      <c r="M32" s="107"/>
+      <c r="O32" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="82">
-        <v>878</v>
-      </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="G3" s="82" t="s">
-        <v>301</v>
-      </c>
-      <c r="H3" s="82">
-        <v>54</v>
-      </c>
-      <c r="L3" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="M3" s="82">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="82" t="s">
-        <v>301</v>
-      </c>
-      <c r="R3" s="82">
+      <c r="P32" s="56">
+        <v>1</v>
+      </c>
+      <c r="R32" s="107"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="B33" s="56">
+        <v>12</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E33" s="56"/>
+      <c r="F33" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G33" s="56"/>
+      <c r="H33" s="107"/>
+      <c r="J33" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="K33" s="56">
+        <v>1</v>
+      </c>
+      <c r="M33" s="107"/>
+      <c r="O33" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="P33" s="56">
+        <v>1</v>
+      </c>
+      <c r="R33" s="107"/>
+    </row>
+    <row r="34" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" s="56">
+        <v>10</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="E34" s="109" t="s">
+        <v>439</v>
+      </c>
+      <c r="F34" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="G34" s="56"/>
+      <c r="H34" s="107"/>
+      <c r="M34" s="107"/>
+      <c r="O34" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="P34" s="56">
+        <v>1</v>
+      </c>
+      <c r="R34" s="107"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="B35" s="56">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" s="82">
-        <v>469</v>
-      </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="G4" s="82" t="s">
-        <v>312</v>
-      </c>
-      <c r="H4" s="82">
-        <v>44</v>
-      </c>
-      <c r="L4" s="82" t="s">
-        <v>301</v>
-      </c>
-      <c r="M4" s="82">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="R4" s="82">
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="109" t="s">
+        <v>443</v>
+      </c>
+      <c r="G35" s="56"/>
+      <c r="H35" s="107"/>
+      <c r="M35" s="107"/>
+      <c r="O35" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="P35" s="56">
+        <v>1</v>
+      </c>
+      <c r="R35" s="107"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="B36" s="56">
+        <v>6</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="109" t="s">
+        <v>444</v>
+      </c>
+      <c r="G36" s="56"/>
+      <c r="H36" s="107"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="B37" s="56">
+        <v>6</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E37" s="109" t="s">
+        <v>443</v>
+      </c>
+      <c r="G37" s="56"/>
+      <c r="H37" s="107"/>
+      <c r="O37" s="108"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" s="56">
+        <v>6</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E38" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G38" s="56"/>
+      <c r="H38" s="107"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="B39" s="56">
+        <v>5</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D39" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="107"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40" s="56">
+        <v>5</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D40" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="107"/>
+    </row>
+    <row r="41" spans="1:18" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="B41" s="56">
+        <v>5</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D41" s="112" t="s">
+        <v>453</v>
+      </c>
+      <c r="E41" s="109" t="s">
+        <v>452</v>
+      </c>
+      <c r="G41" s="56"/>
+      <c r="H41" s="107"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="B42" s="56">
+        <v>5</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D42" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E42" s="56"/>
+      <c r="F42" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G42" s="56"/>
+      <c r="H42" s="107"/>
+    </row>
+    <row r="43" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="B43" s="56">
+        <v>5</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D43" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E43" s="56"/>
+      <c r="F43" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G43" s="56"/>
+      <c r="H43" s="107"/>
+    </row>
+    <row r="44" spans="1:18" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="B44" s="56">
+        <v>5</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D44" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="E44" s="109" t="s">
+        <v>454</v>
+      </c>
+      <c r="G44" s="56"/>
+      <c r="H44" s="107"/>
+    </row>
+    <row r="45" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="B45" s="56">
+        <v>4</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="D45" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="107"/>
+    </row>
+    <row r="46" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="B46" s="56">
+        <v>4</v>
+      </c>
+      <c r="C46" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D46" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E46" s="109" t="s">
+        <v>443</v>
+      </c>
+      <c r="G46" s="56"/>
+      <c r="H46" s="107"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="B47" s="56">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" s="82">
-        <v>432</v>
-      </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="G5" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="H5" s="82">
-        <v>30</v>
-      </c>
-      <c r="L5" s="82" t="s">
-        <v>322</v>
-      </c>
-      <c r="M5" s="82">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="82" t="s">
-        <v>311</v>
-      </c>
-      <c r="R5" s="82">
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="109" t="s">
+        <v>443</v>
+      </c>
+      <c r="G47" s="56"/>
+      <c r="H47" s="107"/>
+    </row>
+    <row r="48" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="B48" s="56">
+        <v>3</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D48" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E48" s="56"/>
+      <c r="F48" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G48" s="56"/>
+      <c r="H48" s="107"/>
+    </row>
+    <row r="49" spans="1:8" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="B49" s="56">
+        <v>3</v>
+      </c>
+      <c r="C49" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D49" s="112" t="s">
+        <v>453</v>
+      </c>
+      <c r="E49" s="56"/>
+      <c r="F49" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G49" s="56"/>
+      <c r="H49" s="107"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="B50" s="56">
+        <v>3</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D50" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E50" s="56"/>
+      <c r="F50" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G50" s="56"/>
+      <c r="H50" s="107"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="B51" s="56">
+        <v>3</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="D51" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E51" s="56"/>
+      <c r="F51" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="G51" s="56"/>
+      <c r="H51" s="107"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="B52" s="56">
+        <v>3</v>
+      </c>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="107"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="B53" s="56">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="B6" s="82">
-        <v>430</v>
-      </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="G6" s="82" t="s">
-        <v>311</v>
-      </c>
-      <c r="H6" s="82">
-        <v>30</v>
-      </c>
-      <c r="L6" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="M6" s="82">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="82" t="s">
-        <v>317</v>
-      </c>
-      <c r="R6" s="82">
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="107"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="B54" s="56">
+        <v>2</v>
+      </c>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="107"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="56" t="s">
+        <v>344</v>
+      </c>
+      <c r="B55" s="56">
+        <v>2</v>
+      </c>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="107"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="B56" s="56">
+        <v>2</v>
+      </c>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="107"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="56" t="s">
+        <v>346</v>
+      </c>
+      <c r="B57" s="56">
+        <v>2</v>
+      </c>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="107"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="B58" s="56">
+        <v>2</v>
+      </c>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="107"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="B59" s="56">
+        <v>2</v>
+      </c>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="107"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="B60" s="56">
+        <v>2</v>
+      </c>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="107"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="B61" s="56">
+        <v>2</v>
+      </c>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="107"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="56" t="s">
+        <v>351</v>
+      </c>
+      <c r="B62" s="56">
+        <v>2</v>
+      </c>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="107"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="B63" s="56">
+        <v>2</v>
+      </c>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="107"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="B64" s="56">
+        <v>2</v>
+      </c>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="107"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="B65" s="56">
+        <v>2</v>
+      </c>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="107"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="B66" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="82" t="s">
-        <v>305</v>
-      </c>
-      <c r="B7" s="82">
-        <v>388</v>
-      </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="G7" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="H7" s="82">
-        <v>14</v>
-      </c>
-      <c r="L7" s="82" t="s">
-        <v>305</v>
-      </c>
-      <c r="M7" s="82">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="R7" s="82">
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="107"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="56" t="s">
+        <v>356</v>
+      </c>
+      <c r="B67" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="82" t="s">
-        <v>306</v>
-      </c>
-      <c r="B8" s="82">
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="107"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="B68" s="56">
+        <v>1</v>
+      </c>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="107"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="B69" s="56">
+        <v>1</v>
+      </c>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="107"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="B70" s="56">
+        <v>1</v>
+      </c>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="107"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="B71" s="56">
+        <v>1</v>
+      </c>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="107"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="56" t="s">
+        <v>361</v>
+      </c>
+      <c r="B72" s="56">
+        <v>1</v>
+      </c>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="107"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="B73" s="56">
+        <v>1</v>
+      </c>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="107"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="B74" s="56">
+        <v>1</v>
+      </c>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="107"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="B75" s="56">
+        <v>1</v>
+      </c>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="107"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="B76" s="56">
+        <v>1</v>
+      </c>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="107"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="B77" s="56">
+        <v>1</v>
+      </c>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="107"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="56" t="s">
+        <v>367</v>
+      </c>
+      <c r="B78" s="56">
+        <v>1</v>
+      </c>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="107"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="B79" s="56">
+        <v>1</v>
+      </c>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="107"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="56" t="s">
+        <v>369</v>
+      </c>
+      <c r="B80" s="56">
+        <v>1</v>
+      </c>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="107"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="B81" s="56">
+        <v>1</v>
+      </c>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="107"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="B82" s="56">
+        <v>1</v>
+      </c>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="107"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="B83" s="56">
+        <v>1</v>
+      </c>
+      <c r="C83" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D83" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E83" s="56"/>
+      <c r="F83" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G83" s="56"/>
+      <c r="H83" s="107"/>
+    </row>
+    <row r="84" spans="1:8" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="B84" s="56">
+        <v>1</v>
+      </c>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="G84" s="56"/>
+      <c r="H84" s="107"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="B85" s="56">
+        <v>1</v>
+      </c>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="107"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="B86" s="56">
+        <v>1</v>
+      </c>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="107"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="B87" s="56">
+        <v>1</v>
+      </c>
+      <c r="C87" s="56"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="56"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="107"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="56" t="s">
         <v>377</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="G8" s="82" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" s="82">
-        <v>12</v>
-      </c>
-      <c r="L8" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="M8" s="82">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="82" t="s">
-        <v>306</v>
-      </c>
-      <c r="R8" s="82">
+      <c r="B88" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="82" t="s">
-        <v>307</v>
-      </c>
-      <c r="B9" s="82">
-        <v>220</v>
-      </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="G9" s="82" t="s">
-        <v>328</v>
-      </c>
-      <c r="H9" s="82">
-        <v>10</v>
-      </c>
-      <c r="L9" s="82" t="s">
-        <v>317</v>
-      </c>
-      <c r="M9" s="82">
-        <v>9</v>
-      </c>
-      <c r="Q9" s="82" t="s">
-        <v>310</v>
-      </c>
-      <c r="R9" s="82">
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="107"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="B89" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="B10" s="82">
-        <v>187</v>
-      </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="G10" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="H10" s="82">
-        <v>8</v>
-      </c>
-      <c r="L10" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="M10" s="82">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="82">
-        <v>115</v>
-      </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="G11" s="82" t="s">
-        <v>307</v>
-      </c>
-      <c r="H11" s="82">
-        <v>4</v>
-      </c>
-      <c r="L11" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="M11" s="82">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="82" t="s">
-        <v>310</v>
-      </c>
-      <c r="B12" s="82">
-        <v>110</v>
-      </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="G12" s="82" t="s">
-        <v>337</v>
-      </c>
-      <c r="H12" s="82">
-        <v>4</v>
-      </c>
-      <c r="L12" s="82" t="s">
-        <v>320</v>
-      </c>
-      <c r="M12" s="82">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="82" t="s">
-        <v>311</v>
-      </c>
-      <c r="B13" s="82">
-        <v>81</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="G13" s="82" t="s">
-        <v>343</v>
-      </c>
-      <c r="H13" s="82">
-        <v>4</v>
-      </c>
-      <c r="L13" s="82" t="s">
-        <v>329</v>
-      </c>
-      <c r="M13" s="82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="82" t="s">
-        <v>312</v>
-      </c>
-      <c r="B14" s="82">
-        <v>51</v>
-      </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="G14" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="H14" s="82">
-        <v>3</v>
-      </c>
-      <c r="L14" s="82" t="s">
-        <v>311</v>
-      </c>
-      <c r="M14" s="82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="82" t="s">
-        <v>313</v>
-      </c>
-      <c r="B15" s="82">
-        <v>44</v>
-      </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="G15" s="82" t="s">
-        <v>319</v>
-      </c>
-      <c r="H15" s="82">
-        <v>3</v>
-      </c>
-      <c r="L15" s="82" t="s">
-        <v>307</v>
-      </c>
-      <c r="M15" s="82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="B16" s="82">
-        <v>40</v>
-      </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="G16" s="82" t="s">
-        <v>344</v>
-      </c>
-      <c r="H16" s="82">
-        <v>3</v>
-      </c>
-      <c r="L16" s="82" t="s">
-        <v>316</v>
-      </c>
-      <c r="M16" s="82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="82" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" s="82">
-        <v>37</v>
-      </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="G17" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="H17" s="82">
-        <v>2</v>
-      </c>
-      <c r="L17" s="82" t="s">
-        <v>306</v>
-      </c>
-      <c r="M17" s="82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="82" t="s">
-        <v>316</v>
-      </c>
-      <c r="B18" s="82">
-        <v>36</v>
-      </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="G18" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="H18" s="82">
-        <v>2</v>
-      </c>
-      <c r="L18" s="82" t="s">
-        <v>313</v>
-      </c>
-      <c r="M18" s="82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="82" t="s">
-        <v>317</v>
-      </c>
-      <c r="B19" s="82">
-        <v>29</v>
-      </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="G19" s="82" t="s">
-        <v>360</v>
-      </c>
-      <c r="H19" s="82">
-        <v>2</v>
-      </c>
-      <c r="L19" s="82" t="s">
-        <v>315</v>
-      </c>
-      <c r="M19" s="82">
+      <c r="C89" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D89" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E89" s="56"/>
+      <c r="F89" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G89" s="56"/>
+      <c r="H89" s="107"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="B90" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="B20" s="82">
-        <v>24</v>
-      </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="G20" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="H20" s="82">
+      <c r="C90" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D90" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E90" s="56"/>
+      <c r="F90" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G90" s="56"/>
+      <c r="H90" s="107"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="B91" s="56">
         <v>1</v>
       </c>
-      <c r="L20" s="82" t="s">
-        <v>366</v>
-      </c>
-      <c r="M20" s="82">
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="107"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="B92" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="82" t="s">
-        <v>319</v>
-      </c>
-      <c r="B21" s="82">
-        <v>22</v>
-      </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="G21" s="82" t="s">
-        <v>375</v>
-      </c>
-      <c r="H21" s="82">
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="107"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="56" t="s">
+        <v>382</v>
+      </c>
+      <c r="B93" s="56">
         <v>1</v>
       </c>
-      <c r="L21" s="82" t="s">
-        <v>346</v>
-      </c>
-      <c r="M21" s="82">
+      <c r="C93" s="56"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="107"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="B94" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="82" t="s">
-        <v>320</v>
-      </c>
-      <c r="B22" s="82">
-        <v>22</v>
-      </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="G22" s="82" t="s">
-        <v>325</v>
-      </c>
-      <c r="H22" s="82">
-        <v>1</v>
-      </c>
-      <c r="L22" s="82" t="s">
-        <v>370</v>
-      </c>
-      <c r="M22" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="B23" s="82">
-        <v>20</v>
-      </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="G23" s="82" t="s">
-        <v>379</v>
-      </c>
-      <c r="H23" s="82">
-        <v>1</v>
-      </c>
-      <c r="L23" s="82" t="s">
-        <v>376</v>
-      </c>
-      <c r="M23" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="82" t="s">
-        <v>322</v>
-      </c>
-      <c r="B24" s="82">
-        <v>19</v>
-      </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="G24" s="82" t="s">
-        <v>356</v>
-      </c>
-      <c r="H24" s="82">
-        <v>1</v>
-      </c>
-      <c r="L24" s="82" t="s">
-        <v>325</v>
-      </c>
-      <c r="M24" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="82" t="s">
-        <v>323</v>
-      </c>
-      <c r="B25" s="82">
-        <v>19</v>
-      </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="G25" s="82" t="s">
-        <v>317</v>
-      </c>
-      <c r="H25" s="82">
-        <v>1</v>
-      </c>
-      <c r="L25" s="82" t="s">
-        <v>356</v>
-      </c>
-      <c r="M25" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="82" t="s">
-        <v>324</v>
-      </c>
-      <c r="B26" s="82">
-        <v>19</v>
-      </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="G26" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="H26" s="82">
-        <v>1</v>
-      </c>
-      <c r="L26" s="82" t="s">
-        <v>321</v>
-      </c>
-      <c r="M26" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="82" t="s">
-        <v>325</v>
-      </c>
-      <c r="B27" s="82">
-        <v>17</v>
-      </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="G27" s="82" t="s">
-        <v>326</v>
-      </c>
-      <c r="H27" s="82">
-        <v>1</v>
-      </c>
-      <c r="L27" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="M27" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="82" t="s">
-        <v>326</v>
-      </c>
-      <c r="B28" s="82">
-        <v>16</v>
-      </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="G28" s="82" t="s">
-        <v>381</v>
-      </c>
-      <c r="H28" s="82">
-        <v>1</v>
-      </c>
-      <c r="L28" s="82" t="s">
-        <v>328</v>
-      </c>
-      <c r="M28" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="82" t="s">
-        <v>327</v>
-      </c>
-      <c r="B29" s="82">
-        <v>14</v>
-      </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="G29" s="82" t="s">
-        <v>383</v>
-      </c>
-      <c r="H29" s="82">
-        <v>1</v>
-      </c>
-      <c r="L29" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="M29" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="82" t="s">
-        <v>328</v>
-      </c>
-      <c r="B30" s="82">
-        <v>14</v>
-      </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="G30" s="82" t="s">
-        <v>359</v>
-      </c>
-      <c r="H30" s="82">
-        <v>1</v>
-      </c>
-      <c r="L30" s="82" t="s">
-        <v>319</v>
-      </c>
-      <c r="M30" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="82" t="s">
-        <v>329</v>
-      </c>
-      <c r="B31" s="82">
-        <v>14</v>
-      </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="G31" s="82" t="s">
-        <v>306</v>
-      </c>
-      <c r="H31" s="82">
-        <v>1</v>
-      </c>
-      <c r="L31" s="82" t="s">
-        <v>362</v>
-      </c>
-      <c r="M31" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="82" t="s">
-        <v>330</v>
-      </c>
-      <c r="B32" s="82">
-        <v>12</v>
-      </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="G32" s="82" t="s">
-        <v>313</v>
-      </c>
-      <c r="H32" s="82">
-        <v>1</v>
-      </c>
-      <c r="L32" s="82" t="s">
-        <v>310</v>
-      </c>
-      <c r="M32" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="82" t="s">
-        <v>331</v>
-      </c>
-      <c r="B33" s="82">
-        <v>12</v>
-      </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="G33" s="82" t="s">
-        <v>388</v>
-      </c>
-      <c r="H33" s="82">
-        <v>1</v>
-      </c>
-      <c r="L33" s="82" t="s">
-        <v>331</v>
-      </c>
-      <c r="M33" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="82" t="s">
-        <v>332</v>
-      </c>
-      <c r="B34" s="82">
-        <v>10</v>
-      </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="L34" s="82" t="s">
-        <v>341</v>
-      </c>
-      <c r="M34" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="82" t="s">
-        <v>333</v>
-      </c>
-      <c r="B35" s="82">
-        <v>6</v>
-      </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="L35" s="82" t="s">
-        <v>344</v>
-      </c>
-      <c r="M35" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="82" t="s">
-        <v>334</v>
-      </c>
-      <c r="B36" s="82">
-        <v>6</v>
-      </c>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="82" t="s">
-        <v>335</v>
-      </c>
-      <c r="B37" s="82">
-        <v>6</v>
-      </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="L37" s="107" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="82" t="s">
-        <v>336</v>
-      </c>
-      <c r="B38" s="82">
-        <v>6</v>
-      </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="82" t="s">
-        <v>337</v>
-      </c>
-      <c r="B39" s="82">
-        <v>5</v>
-      </c>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="82" t="s">
-        <v>338</v>
-      </c>
-      <c r="B40" s="82">
-        <v>5</v>
-      </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="82" t="s">
-        <v>339</v>
-      </c>
-      <c r="B41" s="82">
-        <v>5</v>
-      </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="82" t="s">
-        <v>340</v>
-      </c>
-      <c r="B42" s="82">
-        <v>5</v>
-      </c>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="82" t="s">
-        <v>341</v>
-      </c>
-      <c r="B43" s="82">
-        <v>5</v>
-      </c>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="82" t="s">
-        <v>342</v>
-      </c>
-      <c r="B44" s="82">
-        <v>5</v>
-      </c>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="82" t="s">
-        <v>343</v>
-      </c>
-      <c r="B45" s="82">
-        <v>4</v>
-      </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="82" t="s">
-        <v>344</v>
-      </c>
-      <c r="B46" s="82">
-        <v>4</v>
-      </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="82" t="s">
-        <v>345</v>
-      </c>
-      <c r="B47" s="82">
-        <v>3</v>
-      </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="82" t="s">
-        <v>346</v>
-      </c>
-      <c r="B48" s="82">
-        <v>3</v>
-      </c>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="B49" s="82">
-        <v>3</v>
-      </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="82" t="s">
-        <v>348</v>
-      </c>
-      <c r="B50" s="82">
-        <v>3</v>
-      </c>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="B51" s="82">
-        <v>3</v>
-      </c>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="B52" s="82">
-        <v>3</v>
-      </c>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="82" t="s">
-        <v>351</v>
-      </c>
-      <c r="B53" s="82">
-        <v>2</v>
-      </c>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="82" t="s">
-        <v>352</v>
-      </c>
-      <c r="B54" s="82">
-        <v>2</v>
-      </c>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="82" t="s">
-        <v>353</v>
-      </c>
-      <c r="B55" s="82">
-        <v>2</v>
-      </c>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="B56" s="82">
-        <v>2</v>
-      </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="82" t="s">
-        <v>355</v>
-      </c>
-      <c r="B57" s="82">
-        <v>2</v>
-      </c>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="82" t="s">
-        <v>356</v>
-      </c>
-      <c r="B58" s="82">
-        <v>2</v>
-      </c>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="82" t="s">
-        <v>357</v>
-      </c>
-      <c r="B59" s="82">
-        <v>2</v>
-      </c>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="82" t="s">
-        <v>358</v>
-      </c>
-      <c r="B60" s="82">
-        <v>2</v>
-      </c>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="82" t="s">
-        <v>359</v>
-      </c>
-      <c r="B61" s="82">
-        <v>2</v>
-      </c>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="82" t="s">
-        <v>360</v>
-      </c>
-      <c r="B62" s="82">
-        <v>2</v>
-      </c>
-      <c r="C62" s="82"/>
-      <c r="D62" s="82"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="82" t="s">
-        <v>361</v>
-      </c>
-      <c r="B63" s="82">
-        <v>2</v>
-      </c>
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="82" t="s">
-        <v>362</v>
-      </c>
-      <c r="B64" s="82">
-        <v>2</v>
-      </c>
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="82" t="s">
-        <v>363</v>
-      </c>
-      <c r="B65" s="82">
-        <v>2</v>
-      </c>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="82" t="s">
-        <v>364</v>
-      </c>
-      <c r="B66" s="82">
-        <v>1</v>
-      </c>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="B67" s="82">
-        <v>1</v>
-      </c>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="82" t="s">
-        <v>366</v>
-      </c>
-      <c r="B68" s="82">
-        <v>1</v>
-      </c>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="82" t="s">
-        <v>367</v>
-      </c>
-      <c r="B69" s="82">
-        <v>1</v>
-      </c>
-      <c r="C69" s="82"/>
-      <c r="D69" s="82"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="82" t="s">
-        <v>368</v>
-      </c>
-      <c r="B70" s="82">
-        <v>1</v>
-      </c>
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="82" t="s">
-        <v>369</v>
-      </c>
-      <c r="B71" s="82">
-        <v>1</v>
-      </c>
-      <c r="C71" s="82"/>
-      <c r="D71" s="82"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="82" t="s">
-        <v>370</v>
-      </c>
-      <c r="B72" s="82">
-        <v>1</v>
-      </c>
-      <c r="C72" s="82"/>
-      <c r="D72" s="82"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="82" t="s">
-        <v>371</v>
-      </c>
-      <c r="B73" s="82">
-        <v>1</v>
-      </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="82"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="82" t="s">
-        <v>372</v>
-      </c>
-      <c r="B74" s="82">
-        <v>1</v>
-      </c>
-      <c r="C74" s="82"/>
-      <c r="D74" s="82"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="82" t="s">
-        <v>373</v>
-      </c>
-      <c r="B75" s="82">
-        <v>1</v>
-      </c>
-      <c r="C75" s="82"/>
-      <c r="D75" s="82"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="82" t="s">
-        <v>374</v>
-      </c>
-      <c r="B76" s="82">
-        <v>1</v>
-      </c>
-      <c r="C76" s="82"/>
-      <c r="D76" s="82"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="82" t="s">
-        <v>375</v>
-      </c>
-      <c r="B77" s="82">
-        <v>1</v>
-      </c>
-      <c r="C77" s="82"/>
-      <c r="D77" s="82"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="82" t="s">
-        <v>376</v>
-      </c>
-      <c r="B78" s="82">
-        <v>1</v>
-      </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="82"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="82" t="s">
-        <v>377</v>
-      </c>
-      <c r="B79" s="82">
-        <v>1</v>
-      </c>
-      <c r="C79" s="82"/>
-      <c r="D79" s="82"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="82" t="s">
-        <v>378</v>
-      </c>
-      <c r="B80" s="82">
-        <v>1</v>
-      </c>
-      <c r="C80" s="82"/>
-      <c r="D80" s="82"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="82" t="s">
-        <v>379</v>
-      </c>
-      <c r="B81" s="82">
-        <v>1</v>
-      </c>
-      <c r="C81" s="82"/>
-      <c r="D81" s="82"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="82" t="s">
-        <v>380</v>
-      </c>
-      <c r="B82" s="82">
-        <v>1</v>
-      </c>
-      <c r="C82" s="82"/>
-      <c r="D82" s="82"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="82" t="s">
-        <v>381</v>
-      </c>
-      <c r="B83" s="82">
-        <v>1</v>
-      </c>
-      <c r="C83" s="82"/>
-      <c r="D83" s="82"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="82" t="s">
-        <v>382</v>
-      </c>
-      <c r="B84" s="82">
-        <v>1</v>
-      </c>
-      <c r="C84" s="82"/>
-      <c r="D84" s="82"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="82" t="s">
-        <v>383</v>
-      </c>
-      <c r="B85" s="82">
-        <v>1</v>
-      </c>
-      <c r="C85" s="82"/>
-      <c r="D85" s="82"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="82" t="s">
-        <v>384</v>
-      </c>
-      <c r="B86" s="82">
-        <v>1</v>
-      </c>
-      <c r="C86" s="82"/>
-      <c r="D86" s="82"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="82" t="s">
-        <v>385</v>
-      </c>
-      <c r="B87" s="82">
-        <v>1</v>
-      </c>
-      <c r="C87" s="82"/>
-      <c r="D87" s="82"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="82" t="s">
-        <v>386</v>
-      </c>
-      <c r="B88" s="82">
-        <v>1</v>
-      </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="82" t="s">
-        <v>387</v>
-      </c>
-      <c r="B89" s="82">
-        <v>1</v>
-      </c>
-      <c r="C89" s="82"/>
-      <c r="D89" s="82"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="82" t="s">
-        <v>388</v>
-      </c>
-      <c r="B90" s="82">
-        <v>1</v>
-      </c>
-      <c r="C90" s="82"/>
-      <c r="D90" s="82"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="B91" s="82">
-        <v>1</v>
-      </c>
-      <c r="C91" s="82"/>
-      <c r="D91" s="82"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="B92" s="82">
-        <v>1</v>
-      </c>
-      <c r="C92" s="82"/>
-      <c r="D92" s="82"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="B93" s="82">
-        <v>1</v>
-      </c>
-      <c r="C93" s="82"/>
-      <c r="D93" s="82"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="B94" s="82">
-        <v>1</v>
-      </c>
-      <c r="C94" s="82"/>
-      <c r="D94" s="82"/>
-    </row>
+      <c r="C94" s="56"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="107"/>
+    </row>
+    <row r="95" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L37" r:id="rId1" display="https://lindat.cz/sites/default/files/2021-01/lindat_clariah_flyer.pdf"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10723,167 +11867,167 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="460">
   <si>
     <t>funktor</t>
   </si>
@@ -1042,9 +1042,6 @@
   </si>
   <si>
     <t>CPR</t>
-  </si>
-  <si>
-    <t>TODO</t>
   </si>
   <si>
     <t>compared-to</t>
@@ -5728,6 +5725,13 @@
             ?? JESTE NECO ??)
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO - must be further inspected and refined
+</t>
+  </si>
+  <si>
+    <t>comparison</t>
   </si>
 </sst>
 </file>
@@ -6156,7 +6160,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6237,9 +6241,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6490,6 +6491,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6761,68 +6768,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" style="76" customWidth="1"/>
-    <col min="7" max="7" width="33.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="41.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="73.7265625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="53.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.81640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="23.26953125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="59.7265625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="75" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="41.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="73.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="53.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="59.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="51" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="I1" s="53" t="s">
+      <c r="H1" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="I1" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="K1" s="54">
+      <c r="J1" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="53">
         <v>2014</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="85" t="s">
+      <c r="M1" s="84" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -6844,7 +6851,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>0</v>
       </c>
@@ -6866,7 +6873,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>0</v>
       </c>
@@ -6888,7 +6895,7 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>0</v>
       </c>
@@ -6910,7 +6917,7 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>0</v>
       </c>
@@ -6932,7 +6939,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>0</v>
       </c>
@@ -6948,7 +6955,7 @@
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:13" ht="94" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>1</v>
       </c>
@@ -6964,7 +6971,7 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="25" t="s">
@@ -6976,7 +6983,7 @@
       </c>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>2</v>
       </c>
@@ -6992,7 +6999,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="25" t="s">
@@ -7004,7 +7011,7 @@
       </c>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>3</v>
       </c>
@@ -7020,7 +7027,7 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="25" t="s">
@@ -7032,7 +7039,7 @@
       </c>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>4</v>
       </c>
@@ -7048,7 +7055,7 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="25" t="s">
@@ -7064,7 +7071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>5</v>
       </c>
@@ -7076,18 +7083,18 @@
         <v>34902</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>211</v>
+        <v>145</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>210</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="17"/>
       <c r="J12" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>28</v>
@@ -7096,7 +7103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>6</v>
       </c>
@@ -7112,7 +7119,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>7</v>
       </c>
@@ -7128,7 +7135,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="17"/>
@@ -7140,7 +7147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>8</v>
       </c>
@@ -7156,7 +7163,7 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="18"/>
@@ -7164,7 +7171,7 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>9</v>
       </c>
@@ -7180,7 +7187,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="25" t="s">
@@ -7190,7 +7197,7 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>10</v>
       </c>
@@ -7206,7 +7213,7 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="18"/>
@@ -7216,7 +7223,7 @@
       </c>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>11</v>
       </c>
@@ -7232,7 +7239,7 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="18"/>
@@ -7240,7 +7247,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>12</v>
       </c>
@@ -7256,7 +7263,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="17"/>
@@ -7264,7 +7271,7 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>13</v>
       </c>
@@ -7280,7 +7287,7 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="17"/>
@@ -7288,7 +7295,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>14</v>
       </c>
@@ -7304,7 +7311,7 @@
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="17"/>
@@ -7312,7 +7319,7 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>15</v>
       </c>
@@ -7328,7 +7335,7 @@
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="17"/>
@@ -7336,7 +7343,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>16</v>
       </c>
@@ -7352,7 +7359,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>17</v>
       </c>
@@ -7368,7 +7375,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="25" t="s">
@@ -7384,7 +7391,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>18</v>
       </c>
@@ -7400,7 +7407,7 @@
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="25" t="s">
@@ -7414,7 +7421,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>19</v>
       </c>
@@ -7430,7 +7437,7 @@
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="25" t="s">
@@ -7444,7 +7451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>20</v>
       </c>
@@ -7460,7 +7467,7 @@
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H27" s="24"/>
       <c r="I27" s="25" t="s">
@@ -7474,7 +7481,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>21</v>
       </c>
@@ -7490,7 +7497,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>22</v>
       </c>
@@ -7504,11 +7511,11 @@
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="22" t="s">
@@ -7516,7 +7523,7 @@
       </c>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>23</v>
       </c>
@@ -7532,19 +7539,19 @@
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="29"/>
+      <c r="J30" s="28"/>
       <c r="K30" s="22" t="s">
         <v>66</v>
       </c>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>24</v>
       </c>
@@ -7555,23 +7562,23 @@
       <c r="D31" s="15">
         <v>2713</v>
       </c>
-      <c r="E31" s="42" t="s">
-        <v>124</v>
+      <c r="E31" s="41" t="s">
+        <v>123</v>
       </c>
       <c r="F31" s="14"/>
-      <c r="G31" s="37" t="s">
-        <v>385</v>
+      <c r="G31" s="36" t="s">
+        <v>384</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="I31" s="41" t="s">
-        <v>253</v>
+        <v>243</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>252</v>
       </c>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>25</v>
       </c>
@@ -7587,7 +7594,7 @@
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="18"/>
@@ -7595,7 +7602,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>26</v>
       </c>
@@ -7611,17 +7618,17 @@
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>27</v>
       </c>
@@ -7637,7 +7644,7 @@
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>28</v>
       </c>
@@ -7653,7 +7660,7 @@
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="25" t="s">
@@ -7665,7 +7672,7 @@
       </c>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>29</v>
       </c>
@@ -7676,258 +7683,260 @@
       <c r="D36" s="15">
         <v>7271</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="112" t="s">
+        <v>459</v>
+      </c>
+      <c r="F36" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="G36" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="K36" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>78</v>
-      </c>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>30</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="15">
         <v>4932</v>
       </c>
-      <c r="E37" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="F37" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="G37" s="74" t="s">
-        <v>209</v>
+      <c r="E37" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" s="73" t="s">
+        <v>208</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I37" s="17"/>
-      <c r="J37" s="60"/>
+      <c r="J37" s="59"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>31</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="15">
         <v>6449</v>
       </c>
-      <c r="E38" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="62"/>
+      <c r="E38" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="61"/>
       <c r="G38" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>32</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="15">
         <v>35669</v>
       </c>
-      <c r="E39" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="62"/>
+      <c r="E39" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="61"/>
       <c r="G39" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>33</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" s="15">
         <v>31911</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="61"/>
+      <c r="G40" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="H40" s="24"/>
+      <c r="I40" s="29" t="s">
         <v>86</v>
-      </c>
-      <c r="F40" s="62"/>
-      <c r="G40" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="30" t="s">
-        <v>87</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>34</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="15">
         <v>8718</v>
       </c>
-      <c r="E41" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="62"/>
+      <c r="E41" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="61"/>
       <c r="G41" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J41" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L41" s="22"/>
+    </row>
+    <row r="42" spans="1:12" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>35</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="J41" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="L41" s="22"/>
-    </row>
-    <row r="42" spans="1:12" s="86" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="31">
-        <v>35</v>
-      </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="33">
+      <c r="D42" s="32">
         <v>0</v>
       </c>
-      <c r="E42" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31" t="s">
+      <c r="E42" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F42" s="34"/>
+      <c r="G42" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="J42" s="35"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-    </row>
-    <row r="43" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H42" s="30"/>
+      <c r="I42" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="J42" s="34"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+    </row>
+    <row r="43" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>36</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="15">
         <v>10752</v>
       </c>
-      <c r="E43" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="F43" s="62"/>
-      <c r="G43" s="67" t="s">
-        <v>260</v>
+      <c r="E43" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="F43" s="61"/>
+      <c r="G43" s="66" t="s">
+        <v>259</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I43" s="17"/>
-      <c r="J43" s="60"/>
+      <c r="J43" s="59"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>37</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="15">
         <v>1617</v>
       </c>
-      <c r="E44" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="73" t="s">
+      <c r="E44" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" s="73" t="s">
         <v>263</v>
-      </c>
-      <c r="G44" s="74" t="s">
-        <v>264</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="17"/>
-      <c r="J44" s="69"/>
+      <c r="J44" s="68"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>38</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="15">
         <v>1488</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H45" s="24"/>
       <c r="I45" s="18"/>
@@ -7935,7 +7944,7 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>39</v>
       </c>
@@ -7951,71 +7960,71 @@
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
     </row>
-    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>40</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="15">
         <v>15359</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H47" s="24"/>
       <c r="I47" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="L47" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="L47" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>41</v>
       </c>
-      <c r="B48" s="36"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D48" s="15">
         <v>656</v>
       </c>
-      <c r="E48" s="64" t="s">
-        <v>103</v>
+      <c r="E48" s="63" t="s">
+        <v>102</v>
       </c>
       <c r="F48" s="14"/>
-      <c r="G48" s="37" t="s">
-        <v>386</v>
-      </c>
-      <c r="H48" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="I48" s="62" t="s">
-        <v>249</v>
+      <c r="G48" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="I48" s="61" t="s">
+        <v>248</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>42</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49" s="15">
         <v>142</v>
@@ -8025,7 +8034,7 @@
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H49" s="24"/>
       <c r="I49" s="25" t="s">
@@ -8037,23 +8046,23 @@
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>43</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" s="15">
         <v>989</v>
       </c>
-      <c r="E50" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="75"/>
+      <c r="E50" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="74"/>
       <c r="G50" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H50" s="24"/>
       <c r="I50" s="18"/>
@@ -8061,7 +8070,7 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>44</v>
       </c>
@@ -8077,37 +8086,37 @@
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
     </row>
-    <row r="52" spans="1:12" ht="267" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="267" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>45</v>
       </c>
-      <c r="B52" s="36"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52" s="15">
         <v>7069</v>
       </c>
-      <c r="E52" s="38" t="s">
-        <v>215</v>
+      <c r="E52" s="37" t="s">
+        <v>214</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="H52" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="I52" s="40" t="s">
-        <v>250</v>
+        <v>237</v>
+      </c>
+      <c r="H52" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="I52" s="39" t="s">
+        <v>249</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>44</v>
       </c>
@@ -8123,43 +8132,43 @@
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
     </row>
-    <row r="54" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>47</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D54" s="15">
         <v>30097</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="17"/>
       <c r="J54" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K54" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="L54" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="L54" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>48</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D55" s="15">
         <v>781</v>
@@ -8169,1505 +8178,1505 @@
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H55" s="24"/>
-      <c r="I55" s="41" t="s">
-        <v>113</v>
+      <c r="I55" s="40" t="s">
+        <v>112</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:12" ht="174" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>49</v>
       </c>
       <c r="B56" s="13"/>
-      <c r="C56" s="14" t="s">
-        <v>114</v>
+      <c r="C56" s="113" t="s">
+        <v>113</v>
       </c>
       <c r="D56" s="15">
         <v>38823</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" s="14"/>
+      <c r="G56" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="78" t="s">
-        <v>225</v>
-      </c>
-      <c r="H56" s="55" t="s">
-        <v>237</v>
+      <c r="H56" s="54" t="s">
+        <v>236</v>
       </c>
       <c r="I56" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J56" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="J56" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>50</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D57" s="15">
         <v>5268</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="17"/>
       <c r="J57" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>51</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" s="15">
         <v>493996</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="18"/>
       <c r="J58" s="13"/>
       <c r="K58" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="43">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="42">
         <v>52</v>
       </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F59" s="44"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-    </row>
-    <row r="60" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B59" s="42"/>
+      <c r="C59" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F59" s="43"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+    </row>
+    <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>53</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D60" s="15">
         <v>8959</v>
       </c>
-      <c r="E60" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="F60" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="G60" s="68" t="s">
-        <v>265</v>
+      <c r="E60" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="F60" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="G60" s="67" t="s">
+        <v>264</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>54</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D61" s="15">
         <v>5141</v>
       </c>
-      <c r="E61" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="F61" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="G61" s="68" t="s">
-        <v>265</v>
+      <c r="E61" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="G61" s="67" t="s">
+        <v>264</v>
       </c>
       <c r="H61" s="24"/>
       <c r="I61" s="17"/>
       <c r="J61" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12" ht="319" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" ht="375" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>55</v>
       </c>
       <c r="B62" s="13"/>
-      <c r="C62" s="14" t="s">
-        <v>122</v>
+      <c r="C62" s="113" t="s">
+        <v>121</v>
       </c>
       <c r="D62" s="15">
         <v>59068</v>
       </c>
-      <c r="E62" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="F62" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="G62" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="H62" s="59" t="s">
-        <v>239</v>
+      <c r="E62" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="F62" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="G62" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="H62" s="58" t="s">
+        <v>238</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="J62" s="88" t="s">
-        <v>282</v>
+        <v>235</v>
+      </c>
+      <c r="J62" s="87" t="s">
+        <v>281</v>
       </c>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="43">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="42">
         <v>56</v>
       </c>
-      <c r="B63" s="43"/>
-      <c r="C63" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D63" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E63" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F63" s="44"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-    </row>
-    <row r="64" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B63" s="42"/>
+      <c r="C63" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" s="43"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+    </row>
+    <row r="64" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>57</v>
       </c>
       <c r="B64" s="13"/>
-      <c r="C64" s="62" t="s">
-        <v>123</v>
+      <c r="C64" s="61" t="s">
+        <v>122</v>
       </c>
       <c r="D64" s="15">
         <v>7134</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F64" s="23"/>
-      <c r="G64" s="47" t="s">
-        <v>389</v>
-      </c>
-      <c r="H64" s="82"/>
+      <c r="G64" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="H64" s="81"/>
       <c r="I64" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
     </row>
-    <row r="65" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>58</v>
       </c>
       <c r="B65" s="13"/>
-      <c r="C65" s="62" t="s">
-        <v>125</v>
+      <c r="C65" s="61" t="s">
+        <v>124</v>
       </c>
       <c r="D65" s="15">
         <v>99</v>
       </c>
-      <c r="E65" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="48" t="s">
-        <v>388</v>
-      </c>
-      <c r="H65" s="67"/>
+      <c r="E65" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="28"/>
+      <c r="G65" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="H65" s="66"/>
       <c r="I65" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
     </row>
-    <row r="66" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>59</v>
       </c>
       <c r="B66" s="13"/>
-      <c r="C66" s="62" t="s">
-        <v>127</v>
+      <c r="C66" s="61" t="s">
+        <v>126</v>
       </c>
       <c r="D66" s="15">
         <v>76346</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F66" s="23"/>
-      <c r="G66" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="H66" s="67"/>
+      <c r="G66" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="H66" s="66"/>
       <c r="I66" s="17"/>
       <c r="J66" s="13"/>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
     </row>
-    <row r="67" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>60</v>
       </c>
       <c r="B67" s="13"/>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="62">
+        <v>211</v>
+      </c>
+      <c r="E67" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D67" s="63">
-        <v>211</v>
-      </c>
-      <c r="E67" s="29" t="s">
+      <c r="F67" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="G67" s="47" t="s">
+        <v>386</v>
+      </c>
+      <c r="H67" s="66"/>
+      <c r="I67" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="G67" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="H67" s="67"/>
-      <c r="I67" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="J67" s="69"/>
+      <c r="J67" s="68"/>
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
     </row>
-    <row r="68" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>66</v>
       </c>
       <c r="B68" s="13"/>
-      <c r="C68" s="62" t="s">
-        <v>132</v>
+      <c r="C68" s="61" t="s">
+        <v>131</v>
       </c>
       <c r="D68" s="15">
         <v>3054</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F68" s="14"/>
-      <c r="G68" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="H68" s="67"/>
+      <c r="G68" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="H68" s="66"/>
       <c r="I68" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J68" s="13"/>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
     </row>
-    <row r="69" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>67</v>
       </c>
       <c r="B69" s="13"/>
-      <c r="C69" s="62" t="s">
-        <v>133</v>
+      <c r="C69" s="61" t="s">
+        <v>132</v>
       </c>
       <c r="D69" s="15">
         <v>4122</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F69" s="14"/>
-      <c r="G69" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="H69" s="67"/>
-      <c r="I69" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="J69" s="49"/>
+      <c r="G69" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="H69" s="66"/>
+      <c r="I69" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="J69" s="48"/>
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>68</v>
       </c>
       <c r="B70" s="13"/>
-      <c r="C70" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="63">
+      <c r="C70" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="62">
         <v>1346</v>
       </c>
-      <c r="E70" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="F70" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="G70" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="H70" s="67"/>
+      <c r="E70" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="F70" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="G70" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="H70" s="66"/>
       <c r="I70" s="17"/>
-      <c r="J70" s="69"/>
+      <c r="J70" s="68"/>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
     </row>
-    <row r="71" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>69</v>
       </c>
       <c r="B71" s="13"/>
-      <c r="C71" s="62" t="s">
-        <v>136</v>
+      <c r="C71" s="61" t="s">
+        <v>135</v>
       </c>
       <c r="D71" s="15">
         <v>491</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F71" s="23"/>
-      <c r="G71" s="37" t="s">
-        <v>392</v>
-      </c>
-      <c r="H71" s="67"/>
+      <c r="G71" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="H71" s="66"/>
       <c r="I71" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="J71" s="49"/>
+        <v>245</v>
+      </c>
+      <c r="J71" s="48"/>
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="43">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="42">
         <v>70</v>
       </c>
-      <c r="B72" s="43"/>
-      <c r="C72" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E72" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F72" s="44"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-    </row>
-    <row r="73" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B72" s="42"/>
+      <c r="C72" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" s="43"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+    </row>
+    <row r="73" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>71</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D73" s="15">
         <v>18512</v>
       </c>
-      <c r="E73" s="42" t="s">
-        <v>251</v>
+      <c r="E73" s="41" t="s">
+        <v>250</v>
       </c>
       <c r="F73" s="14"/>
-      <c r="G73" s="37" t="s">
-        <v>393</v>
-      </c>
-      <c r="H73" s="61" t="s">
-        <v>269</v>
+      <c r="G73" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="H73" s="60" t="s">
+        <v>268</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="43">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="42">
         <v>72</v>
       </c>
-      <c r="B74" s="43"/>
-      <c r="C74" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D74" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E74" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F74" s="44"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-    </row>
-    <row r="75" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B74" s="42"/>
+      <c r="C74" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" s="43"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+    </row>
+    <row r="75" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>73</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D75" s="15">
         <v>5006</v>
       </c>
-      <c r="E75" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="F75" s="72" t="s">
-        <v>263</v>
-      </c>
-      <c r="G75" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="H75" s="48"/>
+      <c r="E75" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="F75" s="71" t="s">
+        <v>262</v>
+      </c>
+      <c r="G75" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="H75" s="47"/>
       <c r="I75" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="J75" s="87" t="s">
-        <v>281</v>
+        <v>139</v>
+      </c>
+      <c r="J75" s="86" t="s">
+        <v>280</v>
       </c>
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="43">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="42">
         <v>74</v>
       </c>
-      <c r="B76" s="43"/>
-      <c r="C76" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D76" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E76" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F76" s="44"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-    </row>
-    <row r="77" spans="1:12" ht="261" x14ac:dyDescent="0.35">
+      <c r="B76" s="42"/>
+      <c r="C76" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F76" s="43"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+    </row>
+    <row r="77" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>75</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D77" s="15">
         <v>7505</v>
       </c>
-      <c r="E77" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="F77" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="G77" s="79" t="s">
-        <v>285</v>
-      </c>
-      <c r="H77" s="50" t="s">
+      <c r="E77" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="F77" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="G77" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="H77" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I77" s="17"/>
+      <c r="J77" s="86" t="s">
         <v>287</v>
-      </c>
-      <c r="I77" s="17"/>
-      <c r="J77" s="87" t="s">
-        <v>288</v>
       </c>
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="43">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="42">
         <v>76</v>
       </c>
-      <c r="B78" s="43"/>
-      <c r="C78" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D78" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E78" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F78" s="44"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-    </row>
-    <row r="79" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B78" s="42"/>
+      <c r="C78" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F78" s="43"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+    </row>
+    <row r="79" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>77</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D79" s="15">
         <v>7403</v>
       </c>
-      <c r="E79" s="65" t="s">
+      <c r="E79" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="F79" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="G79" s="70" t="s">
         <v>279</v>
       </c>
-      <c r="F79" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="G79" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="H79" s="83"/>
+      <c r="H79" s="82"/>
       <c r="I79" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="J79" s="71"/>
+        <v>274</v>
+      </c>
+      <c r="J79" s="70"/>
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
     </row>
-    <row r="80" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>78</v>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D80" s="15">
         <v>1199</v>
       </c>
-      <c r="E80" s="69" t="s">
-        <v>274</v>
-      </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="84" t="s">
-        <v>272</v>
-      </c>
-      <c r="H80" s="82" t="s">
-        <v>258</v>
+      <c r="E80" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="F80" s="61"/>
+      <c r="G80" s="83" t="s">
+        <v>271</v>
+      </c>
+      <c r="H80" s="81" t="s">
+        <v>257</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="J80" s="71"/>
+        <v>277</v>
+      </c>
+      <c r="J80" s="70"/>
       <c r="K80" s="22"/>
       <c r="L80" s="22"/>
     </row>
-    <row r="81" spans="1:12" ht="356.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="356.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>79</v>
       </c>
       <c r="B81" s="13"/>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="113" t="s">
+        <v>456</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="57" t="s">
+        <v>441</v>
+      </c>
+      <c r="F81" s="72" t="s">
+        <v>418</v>
+      </c>
+      <c r="G81" s="78" t="s">
+        <v>439</v>
+      </c>
+      <c r="H81" s="88" t="s">
+        <v>440</v>
+      </c>
+      <c r="I81" s="104" t="s">
+        <v>433</v>
+      </c>
+      <c r="J81" s="86" t="s">
         <v>457</v>
-      </c>
-      <c r="D81" s="13"/>
-      <c r="E81" s="58" t="s">
-        <v>442</v>
-      </c>
-      <c r="F81" s="73" t="s">
-        <v>419</v>
-      </c>
-      <c r="G81" s="79" t="s">
-        <v>440</v>
-      </c>
-      <c r="H81" s="89" t="s">
-        <v>441</v>
-      </c>
-      <c r="I81" s="105" t="s">
-        <v>434</v>
-      </c>
-      <c r="J81" s="87" t="s">
-        <v>458</v>
       </c>
       <c r="K81" s="24"/>
       <c r="L81" s="22"/>
     </row>
-    <row r="82" spans="1:12" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>80</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D82" s="15">
         <v>17898</v>
       </c>
-      <c r="E82" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="F82" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="G82" s="79" t="s">
-        <v>283</v>
-      </c>
-      <c r="H82" s="89" t="s">
-        <v>286</v>
+      <c r="E82" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="F82" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="G82" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="H82" s="88" t="s">
+        <v>285</v>
       </c>
       <c r="I82" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="J82" s="87" t="s">
-        <v>289</v>
+        <v>432</v>
+      </c>
+      <c r="J82" s="86" t="s">
+        <v>288</v>
       </c>
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
     </row>
-    <row r="83" spans="1:12" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>81</v>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D83" s="15">
         <v>62978</v>
       </c>
-      <c r="E83" s="70" t="s">
-        <v>273</v>
-      </c>
-      <c r="F83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="G83" s="79" t="s">
-        <v>284</v>
-      </c>
-      <c r="H83" s="81" t="s">
-        <v>290</v>
+      <c r="E83" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="F83" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="G83" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="H83" s="80" t="s">
+        <v>289</v>
       </c>
       <c r="I83" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="J83" s="87" t="s">
-        <v>288</v>
+        <v>276</v>
+      </c>
+      <c r="J83" s="86" t="s">
+        <v>287</v>
       </c>
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="43">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="42">
         <v>82</v>
       </c>
-      <c r="B84" s="43"/>
-      <c r="C84" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E84" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F84" s="44"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="43"/>
-      <c r="K84" s="43"/>
-      <c r="L84" s="43"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B84" s="42"/>
+      <c r="C84" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F84" s="43"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E86" s="97" t="s">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E86" s="96" t="s">
+        <v>401</v>
+      </c>
+      <c r="F86" s="95" t="s">
+        <v>410</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E87" s="96" t="s">
         <v>402</v>
       </c>
-      <c r="F86" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="G86" s="10" t="s">
+      <c r="F87" s="95" t="s">
+        <v>410</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E88" s="96" t="s">
+        <v>403</v>
+      </c>
+      <c r="F88" s="95" t="s">
+        <v>410</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E89" s="96" t="s">
+        <v>404</v>
+      </c>
+      <c r="F89" s="95" t="s">
+        <v>410</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E90" s="96" t="s">
+        <v>405</v>
+      </c>
+      <c r="F90" s="95" t="s">
+        <v>410</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E91" s="96" t="s">
+        <v>406</v>
+      </c>
+      <c r="F91" s="95" t="s">
+        <v>410</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E92" s="96" t="s">
+        <v>407</v>
+      </c>
+      <c r="F92" s="95" t="s">
+        <v>410</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E93" s="96" t="s">
+        <v>408</v>
+      </c>
+      <c r="F93" s="95" t="s">
+        <v>410</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E94" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="F94" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E95" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="F95" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C96" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E96" s="96" t="s">
+        <v>409</v>
+      </c>
+      <c r="F96" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E97" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="F97" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E98" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="F98" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E99" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" s="95" t="s">
+        <v>413</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C100" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E100" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="F100" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E101" s="96" t="s">
+        <v>97</v>
+      </c>
+      <c r="F101" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E102" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" s="95" t="s">
+        <v>414</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E103" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="F103" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C104" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E104" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="F104" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E105" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="F105" s="95" t="s">
+        <v>416</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H105" s="65" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E106" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" s="95" t="s">
+        <v>417</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E107" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="F107" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F108" s="2"/>
+      <c r="I108" s="65"/>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C109" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E109" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I109" s="7"/>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C110" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E110" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I110" s="7"/>
+    </row>
+    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C111" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E111" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I111" s="7"/>
+    </row>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C112" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E112" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I112" s="7"/>
+    </row>
+    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C113" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E113" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I113" s="7"/>
+    </row>
+    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C114" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E114" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I114" s="7"/>
+    </row>
+    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C115" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E115" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I115" s="7"/>
+    </row>
+    <row r="116" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="E116" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H116" s="109" t="s">
+        <v>449</v>
+      </c>
+      <c r="I116" s="110" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C117" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E117" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I117" s="7"/>
+    </row>
+    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C118" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E118" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I118" s="7"/>
+    </row>
+    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C119" s="95"/>
+      <c r="E119" s="95"/>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C120" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E120" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="G120" s="10" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E87" s="97" t="s">
-        <v>403</v>
-      </c>
-      <c r="F87" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E88" s="97" t="s">
-        <v>404</v>
-      </c>
-      <c r="F88" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E89" s="97" t="s">
-        <v>405</v>
-      </c>
-      <c r="F89" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E90" s="97" t="s">
-        <v>406</v>
-      </c>
-      <c r="F90" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E91" s="97" t="s">
-        <v>407</v>
-      </c>
-      <c r="F91" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E92" s="97" t="s">
-        <v>408</v>
-      </c>
-      <c r="F92" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E93" s="97" t="s">
-        <v>409</v>
-      </c>
-      <c r="F93" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E94" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="F94" s="96" t="s">
-        <v>88</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E95" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="F95" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C96" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E96" s="97" t="s">
-        <v>410</v>
-      </c>
-      <c r="F96" s="66" t="s">
-        <v>413</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E97" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="F97" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E98" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="F98" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E99" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="F99" s="96" t="s">
-        <v>414</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C100" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E100" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="F100" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E101" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="F101" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E102" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="F102" s="96" t="s">
-        <v>415</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E103" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="F103" s="96" t="s">
-        <v>416</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="104" spans="3:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="C104" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E104" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="F104" s="66" t="s">
-        <v>399</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E105" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="F105" s="96" t="s">
-        <v>417</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="H105" s="66" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E106" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="F106" s="96" t="s">
-        <v>418</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E107" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="F107" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="F108" s="2"/>
-      <c r="I108" s="66"/>
-    </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C109" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E109" s="96" t="s">
-        <v>147</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I109" s="7"/>
-    </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C110" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E110" s="96" t="s">
-        <v>148</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I110" s="7"/>
-    </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C111" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E111" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I111" s="7"/>
-    </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C112" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E112" s="96" t="s">
-        <v>150</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I112" s="7"/>
-    </row>
-    <row r="113" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C113" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E113" s="96" t="s">
-        <v>151</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I113" s="7"/>
-    </row>
-    <row r="114" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C114" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E114" s="96" t="s">
-        <v>152</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I114" s="7"/>
-    </row>
-    <row r="115" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C115" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E115" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I115" s="7"/>
-    </row>
-    <row r="116" spans="3:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="E116" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H116" s="110" t="s">
-        <v>450</v>
-      </c>
-      <c r="I116" s="111" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="117" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C117" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E117" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I117" s="7"/>
-    </row>
-    <row r="118" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C118" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E118" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I118" s="7"/>
-    </row>
-    <row r="119" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C119" s="96"/>
-      <c r="E119" s="96"/>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C120" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E120" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
     </row>
-    <row r="121" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C121" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E121" s="96" t="s">
-        <v>158</v>
+    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C121" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E121" s="95" t="s">
+        <v>157</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
     </row>
-    <row r="122" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C122" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E122" s="96" t="s">
-        <v>159</v>
+    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C122" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E122" s="95" t="s">
+        <v>158</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
     </row>
-    <row r="123" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C123" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E123" s="96" t="s">
-        <v>84</v>
+    <row r="123" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C123" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E123" s="95" t="s">
+        <v>83</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
     </row>
-    <row r="124" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C124" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E124" s="96" t="s">
-        <v>160</v>
+    <row r="124" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C124" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E124" s="95" t="s">
+        <v>159</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
     </row>
-    <row r="125" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C125" s="96"/>
-      <c r="E125" s="96"/>
+    <row r="125" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C125" s="95"/>
+      <c r="E125" s="95"/>
       <c r="F125" s="2"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C126" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="E126" s="96" t="s">
+    <row r="126" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C126" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E126" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="F126" s="77"/>
+      <c r="F126" s="76"/>
       <c r="G126" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
     </row>
-    <row r="127" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C127" s="96"/>
-      <c r="E127" s="80"/>
-      <c r="F127" s="77"/>
+    <row r="127" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C127" s="95"/>
+      <c r="E127" s="79"/>
+      <c r="F127" s="76"/>
       <c r="G127" s="7"/>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
     </row>
-    <row r="128" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C128" s="96" t="s">
-        <v>399</v>
+    <row r="128" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C128" s="95" t="s">
+        <v>398</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F128" s="56"/>
+        <v>168</v>
+      </c>
+      <c r="F128" s="55"/>
       <c r="G128" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H128" s="10"/>
       <c r="I128" s="7"/>
     </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C129" s="96" t="s">
-        <v>399</v>
+    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C129" s="95" t="s">
+        <v>398</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F129" s="56"/>
+        <v>169</v>
+      </c>
+      <c r="F129" s="55"/>
       <c r="G129" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H129" s="10"/>
       <c r="I129" s="7"/>
     </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C130" s="96" t="s">
-        <v>399</v>
+    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C130" s="95" t="s">
+        <v>398</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F130" s="56"/>
+        <v>170</v>
+      </c>
+      <c r="F130" s="55"/>
       <c r="G130" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H130" s="10"/>
       <c r="I130" s="7"/>
     </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C131" s="96" t="s">
-        <v>399</v>
+    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C131" s="95" t="s">
+        <v>398</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F132" s="2"/>
       <c r="G132" s="8"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C133" s="98" t="s">
-        <v>400</v>
-      </c>
-      <c r="D133" s="99"/>
-      <c r="E133" s="100" t="s">
+    <row r="133" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C133" s="97" t="s">
+        <v>399</v>
+      </c>
+      <c r="D133" s="98"/>
+      <c r="E133" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="H133" s="89"/>
+      <c r="I133" s="89"/>
+    </row>
+    <row r="134" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="97" t="s">
+        <v>399</v>
+      </c>
+      <c r="D134" s="98"/>
+      <c r="E134" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="G133" s="5" t="s">
+      <c r="G134" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="H133" s="90"/>
-      <c r="I133" s="90"/>
-    </row>
-    <row r="134" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C134" s="98" t="s">
-        <v>400</v>
-      </c>
-      <c r="D134" s="99"/>
-      <c r="E134" s="100" t="s">
+      <c r="H134" s="89"/>
+      <c r="I134" s="89"/>
+    </row>
+    <row r="135" spans="3:9" s="93" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="C135" s="97" t="s">
+        <v>399</v>
+      </c>
+      <c r="D135" s="98"/>
+      <c r="E135" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="G135" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="G134" s="5" t="s">
+      <c r="H135" s="89" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C136" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="E136" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="F136" s="93"/>
+      <c r="G136" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="H136" s="94" t="s">
+        <v>395</v>
+      </c>
+      <c r="I136" s="94" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="137" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="97" t="s">
+        <v>399</v>
+      </c>
+      <c r="D137" s="98"/>
+      <c r="E137" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="G137" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="H134" s="90"/>
-      <c r="I134" s="90"/>
-    </row>
-    <row r="135" spans="3:9" s="94" customFormat="1" ht="44.5" x14ac:dyDescent="0.35">
-      <c r="C135" s="98" t="s">
-        <v>400</v>
-      </c>
-      <c r="D135" s="99"/>
-      <c r="E135" s="100" t="s">
-        <v>164</v>
-      </c>
-      <c r="G135" s="94" t="s">
-        <v>163</v>
-      </c>
-      <c r="H135" s="90" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C136" s="96" t="s">
+      <c r="H137" s="89"/>
+      <c r="I137" s="89"/>
+    </row>
+    <row r="138" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="97" t="s">
         <v>399</v>
       </c>
-      <c r="E136" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="F136" s="94"/>
-      <c r="G136" s="94" t="s">
-        <v>163</v>
-      </c>
-      <c r="H136" s="95" t="s">
-        <v>396</v>
-      </c>
-      <c r="I136" s="95" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="137" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C137" s="98" t="s">
-        <v>400</v>
-      </c>
-      <c r="D137" s="99"/>
-      <c r="E137" s="100" t="s">
+      <c r="D138" s="98"/>
+      <c r="E138" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="G137" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="H137" s="90"/>
-      <c r="I137" s="90"/>
-    </row>
-    <row r="138" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C138" s="98" t="s">
-        <v>400</v>
-      </c>
-      <c r="D138" s="99"/>
-      <c r="E138" s="100" t="s">
-        <v>167</v>
-      </c>
       <c r="G138" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="H138" s="90"/>
-      <c r="I138" s="90"/>
-    </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C139" s="101"/>
-      <c r="D139" s="99"/>
-      <c r="E139" s="102"/>
+        <v>446</v>
+      </c>
+      <c r="H138" s="89"/>
+      <c r="I138" s="89"/>
+    </row>
+    <row r="139" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C139" s="100"/>
+      <c r="D139" s="98"/>
+      <c r="E139" s="101"/>
       <c r="F139" s="6"/>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
     </row>
-    <row r="140" spans="3:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C140" s="98" t="s">
+    <row r="140" spans="3:9" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="97" t="s">
+        <v>399</v>
+      </c>
+      <c r="D140" s="102"/>
+      <c r="E140" s="103" t="s">
         <v>400</v>
       </c>
-      <c r="D140" s="103"/>
-      <c r="E140" s="104" t="s">
-        <v>401</v>
-      </c>
-      <c r="G140" s="92" t="s">
-        <v>448</v>
-      </c>
-      <c r="H140" s="93"/>
-      <c r="I140" s="93"/>
-    </row>
-    <row r="141" spans="3:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C141" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="D141" s="91"/>
-      <c r="E141" s="92" t="s">
-        <v>395</v>
-      </c>
-      <c r="G141" s="92" t="s">
-        <v>448</v>
-      </c>
-      <c r="H141" s="93"/>
-      <c r="I141" s="93"/>
-    </row>
-    <row r="142" spans="3:9" s="92" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C142" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="D142" s="91"/>
-      <c r="E142" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="G142" s="92" t="s">
-        <v>448</v>
-      </c>
-      <c r="H142" s="93"/>
-      <c r="I142" s="93"/>
-    </row>
-    <row r="143" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="G140" s="91" t="s">
+        <v>447</v>
+      </c>
+      <c r="H140" s="92"/>
+      <c r="I140" s="92"/>
+    </row>
+    <row r="141" spans="3:9" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="D141" s="90"/>
+      <c r="E141" s="91" t="s">
+        <v>394</v>
+      </c>
+      <c r="G141" s="91" t="s">
+        <v>447</v>
+      </c>
+      <c r="H141" s="92"/>
+      <c r="I141" s="92"/>
+    </row>
+    <row r="142" spans="3:9" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="95" t="s">
+        <v>398</v>
+      </c>
+      <c r="D142" s="90"/>
+      <c r="E142" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="G142" s="91" t="s">
+        <v>447</v>
+      </c>
+      <c r="H142" s="92"/>
+      <c r="I142" s="92"/>
+    </row>
+    <row r="143" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
     </row>
-    <row r="144" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E144" s="1"/>
-      <c r="F144" s="56"/>
+      <c r="F144" s="55"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
       <c r="I144" s="7"/>
     </row>
-    <row r="145" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E145" s="1"/>
-      <c r="F145" s="56"/>
+      <c r="F145" s="55"/>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
       <c r="I145" s="7"/>
     </row>
-    <row r="146" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E146" s="1"/>
-      <c r="F146" s="56"/>
+      <c r="F146" s="55"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
       <c r="I146" s="7"/>
     </row>
-    <row r="147" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E147" s="1"/>
       <c r="G147" s="10"/>
     </row>
-    <row r="148" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E148" s="1"/>
       <c r="G148" s="10"/>
     </row>
@@ -9689,33 +9698,33 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="58.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="57" t="s">
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>233</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -9732,2120 +9741,2120 @@
       <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1"/>
     <col min="8" max="8" width="3" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="1"/>
-    <col min="10" max="10" width="18.36328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.08984375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="1"/>
-    <col min="13" max="13" width="2.81640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="1"/>
-    <col min="15" max="15" width="16.7265625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1796875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" style="1"/>
-    <col min="18" max="18" width="2.81640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.7265625" style="1"/>
-    <col min="20" max="20" width="14.1796875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.26953125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="8.7109375" style="1"/>
+    <col min="10" max="10" width="18.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="2.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1"/>
+    <col min="15" max="15" width="16.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" style="1"/>
+    <col min="18" max="18" width="2.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="1"/>
+    <col min="20" max="20" width="14.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="106" customFormat="1" ht="73.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:21" s="105" customFormat="1" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="105" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1" s="106" t="s">
+        <v>424</v>
+      </c>
+      <c r="J1" s="105" t="s">
+        <v>420</v>
+      </c>
+      <c r="M1" s="106"/>
+      <c r="O1" s="105" t="s">
+        <v>421</v>
+      </c>
+      <c r="R1" s="106"/>
+      <c r="T1" s="105" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="55">
+        <v>1299</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="G2" s="55"/>
+      <c r="H2" s="106"/>
+      <c r="J2" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="K2" s="55">
+        <v>157</v>
+      </c>
+      <c r="M2" s="106"/>
+      <c r="O2" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="P2" s="55">
+        <v>53</v>
+      </c>
+      <c r="R2" s="106"/>
+      <c r="T2" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="U2" s="55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="55">
+        <v>878</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="G3" s="55"/>
+      <c r="H3" s="106"/>
+      <c r="J3" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="K3" s="55">
+        <v>54</v>
+      </c>
+      <c r="M3" s="106"/>
+      <c r="O3" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="P3" s="55">
+        <v>32</v>
+      </c>
+      <c r="R3" s="106"/>
+      <c r="T3" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="U3" s="55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="55">
+        <v>469</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G4" s="55"/>
+      <c r="H4" s="106"/>
+      <c r="J4" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" s="55">
+        <v>44</v>
+      </c>
+      <c r="M4" s="106"/>
+      <c r="O4" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="P4" s="55">
+        <v>28</v>
+      </c>
+      <c r="R4" s="106"/>
+      <c r="T4" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="U4" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="55">
+        <v>432</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H5" s="106"/>
+      <c r="J5" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="K5" s="55">
+        <v>30</v>
+      </c>
+      <c r="M5" s="106"/>
+      <c r="O5" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="P5" s="55">
+        <v>17</v>
+      </c>
+      <c r="R5" s="106"/>
+      <c r="T5" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="U5" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="55">
+        <v>430</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="106"/>
+      <c r="J6" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="K6" s="55">
+        <v>30</v>
+      </c>
+      <c r="M6" s="106"/>
+      <c r="O6" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="P6" s="55">
+        <v>14</v>
+      </c>
+      <c r="R6" s="106"/>
+      <c r="T6" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="U6" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="55">
+        <v>388</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G7" s="55"/>
+      <c r="H7" s="106"/>
+      <c r="J7" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="K7" s="55">
+        <v>14</v>
+      </c>
+      <c r="M7" s="106"/>
+      <c r="O7" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="P7" s="55">
+        <v>11</v>
+      </c>
+      <c r="R7" s="106"/>
+      <c r="T7" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="U7" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="55">
+        <v>377</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="F8" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G8" s="55"/>
+      <c r="H8" s="106"/>
+      <c r="J8" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="K8" s="55">
+        <v>12</v>
+      </c>
+      <c r="M8" s="106"/>
+      <c r="O8" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="P8" s="55">
+        <v>11</v>
+      </c>
+      <c r="R8" s="106"/>
+      <c r="T8" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="U8" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="55">
+        <v>220</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="H9" s="106"/>
+      <c r="J9" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="K9" s="55">
+        <v>10</v>
+      </c>
+      <c r="M9" s="106"/>
+      <c r="O9" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="P9" s="55">
+        <v>9</v>
+      </c>
+      <c r="R9" s="106"/>
+      <c r="T9" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="U9" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="55">
+        <v>187</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E10" s="55"/>
+      <c r="F10" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G10" s="55"/>
+      <c r="H10" s="106"/>
+      <c r="J10" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="K10" s="55">
+        <v>8</v>
+      </c>
+      <c r="M10" s="106"/>
+      <c r="O10" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="P10" s="55">
+        <v>9</v>
+      </c>
+      <c r="R10" s="106"/>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" s="55">
+        <v>115</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="F11" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G11" s="55"/>
+      <c r="H11" s="106"/>
+      <c r="J11" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="K11" s="55">
+        <v>4</v>
+      </c>
+      <c r="M11" s="106"/>
+      <c r="O11" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="P11" s="55">
+        <v>7</v>
+      </c>
+      <c r="R11" s="106"/>
+    </row>
+    <row r="12" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" s="55">
+        <v>110</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E12" s="55"/>
+      <c r="F12" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="106"/>
+      <c r="J12" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="K12" s="55">
+        <v>4</v>
+      </c>
+      <c r="M12" s="106"/>
+      <c r="O12" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="P12" s="55">
+        <v>7</v>
+      </c>
+      <c r="R12" s="106"/>
+    </row>
+    <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="55">
+        <v>81</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E13" s="55"/>
+      <c r="F13" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="106"/>
+      <c r="J13" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="K13" s="55">
+        <v>4</v>
+      </c>
+      <c r="M13" s="106"/>
+      <c r="O13" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="P13" s="55">
+        <v>4</v>
+      </c>
+      <c r="R13" s="106"/>
+    </row>
+    <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" s="55">
+        <v>51</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="G14" s="55"/>
+      <c r="H14" s="106"/>
+      <c r="J14" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="K14" s="55">
+        <v>3</v>
+      </c>
+      <c r="M14" s="106"/>
+      <c r="O14" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="P14" s="55">
+        <v>4</v>
+      </c>
+      <c r="R14" s="106"/>
+    </row>
+    <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="55">
+        <v>44</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="G15" s="55"/>
+      <c r="H15" s="106"/>
+      <c r="J15" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="K15" s="55">
+        <v>3</v>
+      </c>
+      <c r="M15" s="106"/>
+      <c r="O15" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="P15" s="55">
+        <v>3</v>
+      </c>
+      <c r="R15" s="106"/>
+    </row>
+    <row r="16" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" s="55">
+        <v>40</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G16" s="55"/>
+      <c r="H16" s="106"/>
+      <c r="J16" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="K16" s="55">
+        <v>3</v>
+      </c>
+      <c r="M16" s="106"/>
+      <c r="O16" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="P16" s="55">
+        <v>2</v>
+      </c>
+      <c r="R16" s="106"/>
+    </row>
+    <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="55">
+        <v>37</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G17" s="55"/>
+      <c r="H17" s="106"/>
+      <c r="J17" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="K17" s="55">
+        <v>2</v>
+      </c>
+      <c r="M17" s="106"/>
+      <c r="O17" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="P17" s="55">
+        <v>2</v>
+      </c>
+      <c r="R17" s="106"/>
+    </row>
+    <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="55">
+        <v>36</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="106"/>
+      <c r="J18" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="K18" s="55">
+        <v>2</v>
+      </c>
+      <c r="M18" s="106"/>
+      <c r="O18" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="P18" s="55">
+        <v>2</v>
+      </c>
+      <c r="R18" s="106"/>
+    </row>
+    <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" s="55">
+        <v>29</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="106"/>
+      <c r="J19" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="K19" s="55">
+        <v>2</v>
+      </c>
+      <c r="M19" s="106"/>
+      <c r="O19" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="P19" s="55">
+        <v>1</v>
+      </c>
+      <c r="R19" s="106"/>
+    </row>
+    <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20" s="55">
+        <v>24</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G20" s="55"/>
+      <c r="H20" s="106"/>
+      <c r="J20" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="K20" s="55">
+        <v>1</v>
+      </c>
+      <c r="M20" s="106"/>
+      <c r="O20" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="P20" s="55">
+        <v>1</v>
+      </c>
+      <c r="R20" s="106"/>
+    </row>
+    <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" s="55">
+        <v>22</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E21" s="55"/>
+      <c r="F21" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G21" s="55"/>
+      <c r="H21" s="106"/>
+      <c r="J21" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="K21" s="55">
+        <v>1</v>
+      </c>
+      <c r="M21" s="106"/>
+      <c r="O21" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="P21" s="55">
+        <v>1</v>
+      </c>
+      <c r="R21" s="106"/>
+    </row>
+    <row r="22" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" s="55">
+        <v>22</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E22" s="55"/>
+      <c r="F22" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G22" s="55"/>
+      <c r="H22" s="106"/>
+      <c r="J22" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="K22" s="55">
+        <v>1</v>
+      </c>
+      <c r="M22" s="106"/>
+      <c r="O22" s="55" t="s">
+        <v>360</v>
+      </c>
+      <c r="P22" s="55">
+        <v>1</v>
+      </c>
+      <c r="R22" s="106"/>
+    </row>
+    <row r="23" spans="1:18" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="55">
+        <v>20</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="108" t="s">
+        <v>437</v>
+      </c>
+      <c r="G23" s="55"/>
+      <c r="H23" s="106"/>
+      <c r="J23" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="K23" s="55">
+        <v>1</v>
+      </c>
+      <c r="M23" s="106"/>
+      <c r="O23" s="55" t="s">
+        <v>366</v>
+      </c>
+      <c r="P23" s="55">
+        <v>1</v>
+      </c>
+      <c r="R23" s="106"/>
+    </row>
+    <row r="24" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="55">
+        <v>19</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="G24" s="55"/>
+      <c r="H24" s="106"/>
+      <c r="J24" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="K24" s="55">
+        <v>1</v>
+      </c>
+      <c r="M24" s="106"/>
+      <c r="O24" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="P24" s="55">
+        <v>1</v>
+      </c>
+      <c r="R24" s="106"/>
+    </row>
+    <row r="25" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="55">
+        <v>19</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>430</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="95" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" s="55"/>
+      <c r="H25" s="106"/>
+      <c r="J25" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="K25" s="55">
+        <v>1</v>
+      </c>
+      <c r="M25" s="106"/>
+      <c r="O25" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="P25" s="55">
+        <v>1</v>
+      </c>
+      <c r="R25" s="106"/>
+    </row>
+    <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="B26" s="55">
+        <v>19</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>430</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="95" t="s">
+        <v>431</v>
+      </c>
+      <c r="G26" s="55"/>
+      <c r="H26" s="106"/>
+      <c r="J26" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="K26" s="55">
+        <v>1</v>
+      </c>
+      <c r="M26" s="106"/>
+      <c r="O26" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="P26" s="55">
+        <v>1</v>
+      </c>
+      <c r="R26" s="106"/>
+    </row>
+    <row r="27" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" s="55">
+        <v>17</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G27" s="55"/>
+      <c r="H27" s="106"/>
+      <c r="J27" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="K27" s="55">
+        <v>1</v>
+      </c>
+      <c r="M27" s="106"/>
+      <c r="O27" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="P27" s="55">
+        <v>1</v>
+      </c>
+      <c r="R27" s="106"/>
+    </row>
+    <row r="28" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" s="55">
+        <v>16</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G28" s="55"/>
+      <c r="H28" s="106"/>
+      <c r="J28" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="K28" s="55">
+        <v>1</v>
+      </c>
+      <c r="M28" s="106"/>
+      <c r="O28" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="P28" s="55">
+        <v>1</v>
+      </c>
+      <c r="R28" s="106"/>
+    </row>
+    <row r="29" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="B29" s="55">
+        <v>14</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E29" s="55"/>
+      <c r="F29" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G29" s="55"/>
+      <c r="H29" s="106"/>
+      <c r="J29" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="K29" s="55">
+        <v>1</v>
+      </c>
+      <c r="M29" s="106"/>
+      <c r="O29" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="P29" s="55">
+        <v>1</v>
+      </c>
+      <c r="R29" s="106"/>
+    </row>
+    <row r="30" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" s="55">
+        <v>14</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E30" s="108" t="s">
+        <v>438</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G30" s="55"/>
+      <c r="H30" s="106"/>
+      <c r="J30" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="K30" s="55">
+        <v>1</v>
+      </c>
+      <c r="M30" s="106"/>
+      <c r="O30" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="P30" s="55">
+        <v>1</v>
+      </c>
+      <c r="R30" s="106"/>
+    </row>
+    <row r="31" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="B31" s="55">
+        <v>14</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="108" t="s">
+        <v>437</v>
+      </c>
+      <c r="G31" s="55"/>
+      <c r="H31" s="106"/>
+      <c r="J31" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="K31" s="55">
+        <v>1</v>
+      </c>
+      <c r="M31" s="106"/>
+      <c r="O31" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="P31" s="55">
+        <v>1</v>
+      </c>
+      <c r="R31" s="106"/>
+    </row>
+    <row r="32" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="B32" s="55">
+        <v>12</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E32" s="55"/>
+      <c r="F32" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G32" s="55"/>
+      <c r="H32" s="106"/>
+      <c r="J32" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="K32" s="55">
+        <v>1</v>
+      </c>
+      <c r="M32" s="106"/>
+      <c r="O32" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="P32" s="55">
+        <v>1</v>
+      </c>
+      <c r="R32" s="106"/>
+    </row>
+    <row r="33" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="B33" s="55">
+        <v>12</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G33" s="55"/>
+      <c r="H33" s="106"/>
+      <c r="J33" s="55" t="s">
+        <v>378</v>
+      </c>
+      <c r="K33" s="55">
+        <v>1</v>
+      </c>
+      <c r="M33" s="106"/>
+      <c r="O33" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="P33" s="55">
+        <v>1</v>
+      </c>
+      <c r="R33" s="106"/>
+    </row>
+    <row r="34" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="B34" s="55">
+        <v>10</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>430</v>
+      </c>
+      <c r="E34" s="108" t="s">
+        <v>438</v>
+      </c>
+      <c r="F34" s="95" t="s">
+        <v>431</v>
+      </c>
+      <c r="G34" s="55"/>
+      <c r="H34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="O34" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="P34" s="55">
+        <v>1</v>
+      </c>
+      <c r="R34" s="106"/>
+    </row>
+    <row r="35" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="B35" s="55">
+        <v>6</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="108" t="s">
+        <v>442</v>
+      </c>
+      <c r="G35" s="55"/>
+      <c r="H35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="O35" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="P35" s="55">
+        <v>1</v>
+      </c>
+      <c r="R35" s="106"/>
+    </row>
+    <row r="36" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="B36" s="55">
+        <v>6</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G36" s="55"/>
+      <c r="H36" s="106"/>
+    </row>
+    <row r="37" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" s="55">
+        <v>6</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E37" s="108" t="s">
+        <v>442</v>
+      </c>
+      <c r="G37" s="55"/>
+      <c r="H37" s="106"/>
+      <c r="O37" s="107"/>
+    </row>
+    <row r="38" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="55" t="s">
+        <v>326</v>
+      </c>
+      <c r="B38" s="55">
+        <v>6</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E38" s="55" t="s">
+        <v>450</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G38" s="55"/>
+      <c r="H38" s="106"/>
+    </row>
+    <row r="39" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="B39" s="55">
+        <v>5</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="106"/>
+    </row>
+    <row r="40" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="B40" s="55">
+        <v>5</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="106"/>
+    </row>
+    <row r="41" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="B41" s="55">
+        <v>5</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D41" s="111" t="s">
+        <v>452</v>
+      </c>
+      <c r="E41" s="108" t="s">
+        <v>451</v>
+      </c>
+      <c r="G41" s="55"/>
+      <c r="H41" s="106"/>
+    </row>
+    <row r="42" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="B42" s="55">
+        <v>5</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E42" s="55"/>
+      <c r="F42" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G42" s="55"/>
+      <c r="H42" s="106"/>
+    </row>
+    <row r="43" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="B43" s="55">
+        <v>5</v>
+      </c>
+      <c r="C43" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E43" s="55"/>
+      <c r="F43" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G43" s="55"/>
+      <c r="H43" s="106"/>
+    </row>
+    <row r="44" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="B44" s="55">
+        <v>5</v>
+      </c>
+      <c r="C44" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D44" s="55" t="s">
+        <v>430</v>
+      </c>
+      <c r="E44" s="108" t="s">
+        <v>453</v>
+      </c>
+      <c r="G44" s="55"/>
+      <c r="H44" s="106"/>
+    </row>
+    <row r="45" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="B45" s="55">
+        <v>4</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="106"/>
+    </row>
+    <row r="46" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="B46" s="55">
+        <v>4</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E46" s="108" t="s">
+        <v>442</v>
+      </c>
+      <c r="G46" s="55"/>
+      <c r="H46" s="106"/>
+    </row>
+    <row r="47" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="55" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" s="55">
+        <v>3</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="108" t="s">
+        <v>442</v>
+      </c>
+      <c r="G47" s="55"/>
+      <c r="H47" s="106"/>
+    </row>
+    <row r="48" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="B48" s="55">
+        <v>3</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E48" s="55"/>
+      <c r="F48" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G48" s="55"/>
+      <c r="H48" s="106"/>
+    </row>
+    <row r="49" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="B49" s="55">
+        <v>3</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D49" s="111" t="s">
+        <v>452</v>
+      </c>
+      <c r="E49" s="55"/>
+      <c r="F49" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G49" s="55"/>
+      <c r="H49" s="106"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="B50" s="55">
+        <v>3</v>
+      </c>
+      <c r="C50" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E50" s="55"/>
+      <c r="F50" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G50" s="55"/>
+      <c r="H50" s="106"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="B51" s="55">
+        <v>3</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E51" s="55"/>
+      <c r="F51" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="G51" s="55"/>
+      <c r="H51" s="106"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="B52" s="55">
+        <v>3</v>
+      </c>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="106"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="B53" s="55">
+        <v>2</v>
+      </c>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="106"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="B54" s="55">
+        <v>2</v>
+      </c>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="106"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="55" t="s">
+        <v>343</v>
+      </c>
+      <c r="B55" s="55">
+        <v>2</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="106"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="B56" s="55">
+        <v>2</v>
+      </c>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="106"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="55" t="s">
+        <v>345</v>
+      </c>
+      <c r="B57" s="55">
+        <v>2</v>
+      </c>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="106"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="B58" s="55">
+        <v>2</v>
+      </c>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="106"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="55" t="s">
+        <v>347</v>
+      </c>
+      <c r="B59" s="55">
+        <v>2</v>
+      </c>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="106"/>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" s="55">
+        <v>2</v>
+      </c>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="106"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="B61" s="55">
+        <v>2</v>
+      </c>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="106"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="B62" s="55">
+        <v>2</v>
+      </c>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="106"/>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="55" t="s">
+        <v>351</v>
+      </c>
+      <c r="B63" s="55">
+        <v>2</v>
+      </c>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="106"/>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="B64" s="55">
+        <v>2</v>
+      </c>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="106"/>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="B65" s="55">
+        <v>2</v>
+      </c>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="106"/>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="B66" s="55">
+        <v>1</v>
+      </c>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="106"/>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="55" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" s="55">
+        <v>1</v>
+      </c>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="106"/>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="B68" s="55">
+        <v>1</v>
+      </c>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="106"/>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="B69" s="55">
+        <v>1</v>
+      </c>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="106"/>
+    </row>
+    <row r="70" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="B70" s="55">
+        <v>1</v>
+      </c>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="106"/>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="B71" s="55">
+        <v>1</v>
+      </c>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="106"/>
+    </row>
+    <row r="72" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="55" t="s">
+        <v>360</v>
+      </c>
+      <c r="B72" s="55">
+        <v>1</v>
+      </c>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="106"/>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="B73" s="55">
+        <v>1</v>
+      </c>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="106"/>
+    </row>
+    <row r="74" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="B74" s="55">
+        <v>1</v>
+      </c>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="106"/>
+    </row>
+    <row r="75" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="55" t="s">
+        <v>363</v>
+      </c>
+      <c r="B75" s="55">
+        <v>1</v>
+      </c>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="106"/>
+    </row>
+    <row r="76" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="B76" s="55">
+        <v>1</v>
+      </c>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="106"/>
+    </row>
+    <row r="77" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="B77" s="55">
+        <v>1</v>
+      </c>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="106"/>
+    </row>
+    <row r="78" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="55" t="s">
+        <v>366</v>
+      </c>
+      <c r="B78" s="55">
+        <v>1</v>
+      </c>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="106"/>
+    </row>
+    <row r="79" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="B79" s="55">
+        <v>1</v>
+      </c>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="106"/>
+    </row>
+    <row r="80" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="B80" s="55">
+        <v>1</v>
+      </c>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="106"/>
+    </row>
+    <row r="81" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="B81" s="55">
+        <v>1</v>
+      </c>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="106"/>
+    </row>
+    <row r="82" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="55" t="s">
+        <v>370</v>
+      </c>
+      <c r="B82" s="55">
+        <v>1</v>
+      </c>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="106"/>
+    </row>
+    <row r="83" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="B83" s="55">
+        <v>1</v>
+      </c>
+      <c r="C83" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D83" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E83" s="55"/>
+      <c r="F83" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G83" s="55"/>
+      <c r="H83" s="106"/>
+    </row>
+    <row r="84" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="B84" s="55">
+        <v>1</v>
+      </c>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55" t="s">
         <v>455</v>
       </c>
-      <c r="C1" s="106" t="s">
-        <v>436</v>
-      </c>
-      <c r="D1" s="106" t="s">
-        <v>437</v>
-      </c>
-      <c r="F1" s="107" t="s">
-        <v>425</v>
-      </c>
-      <c r="J1" s="106" t="s">
-        <v>421</v>
-      </c>
-      <c r="M1" s="107"/>
-      <c r="O1" s="106" t="s">
-        <v>422</v>
-      </c>
-      <c r="R1" s="107"/>
-      <c r="T1" s="106" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="56">
-        <v>1299</v>
-      </c>
-      <c r="C2" s="56" t="s">
+      <c r="G84" s="55"/>
+      <c r="H84" s="106"/>
+    </row>
+    <row r="85" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="B85" s="55">
+        <v>1</v>
+      </c>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="106"/>
+    </row>
+    <row r="86" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="55" t="s">
+        <v>374</v>
+      </c>
+      <c r="B86" s="55">
+        <v>1</v>
+      </c>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="106"/>
+    </row>
+    <row r="87" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="55" t="s">
+        <v>375</v>
+      </c>
+      <c r="B87" s="55">
+        <v>1</v>
+      </c>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="106"/>
+    </row>
+    <row r="88" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="B88" s="55">
+        <v>1</v>
+      </c>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="106"/>
+    </row>
+    <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="B89" s="55">
+        <v>1</v>
+      </c>
+      <c r="C89" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D89" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E89" s="55"/>
+      <c r="F89" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D2" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="96" t="s">
-        <v>426</v>
-      </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="107"/>
-      <c r="J2" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="K2" s="56">
-        <v>157</v>
-      </c>
-      <c r="M2" s="107"/>
-      <c r="O2" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="P2" s="56">
-        <v>53</v>
-      </c>
-      <c r="R2" s="107"/>
-      <c r="T2" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="U2" s="56">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="56" t="s">
-        <v>292</v>
-      </c>
-      <c r="B3" s="56">
-        <v>878</v>
-      </c>
-      <c r="C3" s="56" t="s">
+      <c r="G89" s="55"/>
+      <c r="H89" s="106"/>
+    </row>
+    <row r="90" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="55" t="s">
+        <v>378</v>
+      </c>
+      <c r="B90" s="55">
+        <v>1</v>
+      </c>
+      <c r="C90" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D90" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="E90" s="55"/>
+      <c r="F90" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="96" t="s">
-        <v>426</v>
-      </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="107"/>
-      <c r="J3" s="56" t="s">
-        <v>292</v>
-      </c>
-      <c r="K3" s="56">
-        <v>54</v>
-      </c>
-      <c r="M3" s="107"/>
-      <c r="O3" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="P3" s="56">
-        <v>32</v>
-      </c>
-      <c r="R3" s="107"/>
-      <c r="T3" s="56" t="s">
-        <v>292</v>
-      </c>
-      <c r="U3" s="56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="B4" s="56">
-        <v>469</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="107"/>
-      <c r="J4" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="K4" s="56">
-        <v>44</v>
-      </c>
-      <c r="M4" s="107"/>
-      <c r="O4" s="56" t="s">
-        <v>292</v>
-      </c>
-      <c r="P4" s="56">
-        <v>28</v>
-      </c>
-      <c r="R4" s="107"/>
-      <c r="T4" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="U4" s="56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="56" t="s">
-        <v>294</v>
-      </c>
-      <c r="B5" s="56">
-        <v>432</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H5" s="107"/>
-      <c r="J5" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="K5" s="56">
-        <v>30</v>
-      </c>
-      <c r="M5" s="107"/>
-      <c r="O5" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="P5" s="56">
-        <v>17</v>
-      </c>
-      <c r="R5" s="107"/>
-      <c r="T5" s="56" t="s">
-        <v>302</v>
-      </c>
-      <c r="U5" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="56" t="s">
-        <v>295</v>
-      </c>
-      <c r="B6" s="56">
-        <v>430</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>427</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="96" t="s">
-        <v>426</v>
-      </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="107"/>
-      <c r="J6" s="56" t="s">
-        <v>302</v>
-      </c>
-      <c r="K6" s="56">
-        <v>30</v>
-      </c>
-      <c r="M6" s="107"/>
-      <c r="O6" s="56" t="s">
-        <v>294</v>
-      </c>
-      <c r="P6" s="56">
-        <v>14</v>
-      </c>
-      <c r="R6" s="107"/>
-      <c r="T6" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="U6" s="56">
+      <c r="G90" s="55"/>
+      <c r="H90" s="106"/>
+    </row>
+    <row r="91" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="55" t="s">
+        <v>379</v>
+      </c>
+      <c r="B91" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="B7" s="56">
-        <v>388</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="107"/>
-      <c r="J7" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="K7" s="56">
-        <v>14</v>
-      </c>
-      <c r="M7" s="107"/>
-      <c r="O7" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="P7" s="56">
-        <v>11</v>
-      </c>
-      <c r="R7" s="107"/>
-      <c r="T7" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="U7" s="56">
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="106"/>
+    </row>
+    <row r="92" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="B92" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="B8" s="56">
-        <v>377</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="107"/>
-      <c r="J8" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="K8" s="56">
-        <v>12</v>
-      </c>
-      <c r="M8" s="107"/>
-      <c r="O8" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="P8" s="56">
-        <v>11</v>
-      </c>
-      <c r="R8" s="107"/>
-      <c r="T8" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="U8" s="56">
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="106"/>
+    </row>
+    <row r="93" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="B93" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="56" t="s">
-        <v>298</v>
-      </c>
-      <c r="B9" s="56">
-        <v>220</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="107"/>
-      <c r="J9" s="56" t="s">
-        <v>319</v>
-      </c>
-      <c r="K9" s="56">
-        <v>10</v>
-      </c>
-      <c r="M9" s="107"/>
-      <c r="O9" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="P9" s="56">
-        <v>9</v>
-      </c>
-      <c r="R9" s="107"/>
-      <c r="T9" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="U9" s="56">
+      <c r="C93" s="55"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="55"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="106"/>
+    </row>
+    <row r="94" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="55" t="s">
+        <v>382</v>
+      </c>
+      <c r="B94" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="B10" s="56">
-        <v>187</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="107"/>
-      <c r="J10" s="56" t="s">
-        <v>294</v>
-      </c>
-      <c r="K10" s="56">
-        <v>8</v>
-      </c>
-      <c r="M10" s="107"/>
-      <c r="O10" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="P10" s="56">
-        <v>9</v>
-      </c>
-      <c r="R10" s="107"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="56" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="56">
-        <v>115</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="107"/>
-      <c r="J11" s="56" t="s">
-        <v>298</v>
-      </c>
-      <c r="K11" s="56">
-        <v>4</v>
-      </c>
-      <c r="M11" s="107"/>
-      <c r="O11" s="56" t="s">
-        <v>305</v>
-      </c>
-      <c r="P11" s="56">
-        <v>7</v>
-      </c>
-      <c r="R11" s="107"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="B12" s="56">
-        <v>110</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>427</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="96" t="s">
-        <v>426</v>
-      </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="107"/>
-      <c r="J12" s="56" t="s">
-        <v>328</v>
-      </c>
-      <c r="K12" s="56">
-        <v>4</v>
-      </c>
-      <c r="M12" s="107"/>
-      <c r="O12" s="56" t="s">
-        <v>311</v>
-      </c>
-      <c r="P12" s="56">
-        <v>7</v>
-      </c>
-      <c r="R12" s="107"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="56" t="s">
-        <v>302</v>
-      </c>
-      <c r="B13" s="56">
-        <v>81</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="107"/>
-      <c r="J13" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="K13" s="56">
-        <v>4</v>
-      </c>
-      <c r="M13" s="107"/>
-      <c r="O13" s="56" t="s">
-        <v>320</v>
-      </c>
-      <c r="P13" s="56">
-        <v>4</v>
-      </c>
-      <c r="R13" s="107"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="B14" s="56">
-        <v>51</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>427</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="96" t="s">
-        <v>426</v>
-      </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="107"/>
-      <c r="J14" s="56" t="s">
-        <v>340</v>
-      </c>
-      <c r="K14" s="56">
-        <v>3</v>
-      </c>
-      <c r="M14" s="107"/>
-      <c r="O14" s="56" t="s">
-        <v>302</v>
-      </c>
-      <c r="P14" s="56">
-        <v>4</v>
-      </c>
-      <c r="R14" s="107"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="56" t="s">
-        <v>304</v>
-      </c>
-      <c r="B15" s="56">
-        <v>44</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>427</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="96" t="s">
-        <v>426</v>
-      </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="107"/>
-      <c r="J15" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="K15" s="56">
-        <v>3</v>
-      </c>
-      <c r="M15" s="107"/>
-      <c r="O15" s="56" t="s">
-        <v>298</v>
-      </c>
-      <c r="P15" s="56">
-        <v>3</v>
-      </c>
-      <c r="R15" s="107"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="56" t="s">
-        <v>305</v>
-      </c>
-      <c r="B16" s="56">
-        <v>40</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="107"/>
-      <c r="J16" s="56" t="s">
-        <v>335</v>
-      </c>
-      <c r="K16" s="56">
-        <v>3</v>
-      </c>
-      <c r="M16" s="107"/>
-      <c r="O16" s="56" t="s">
-        <v>307</v>
-      </c>
-      <c r="P16" s="56">
-        <v>2</v>
-      </c>
-      <c r="R16" s="107"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="B17" s="56">
-        <v>37</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="107"/>
-      <c r="J17" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="K17" s="56">
-        <v>2</v>
-      </c>
-      <c r="M17" s="107"/>
-      <c r="O17" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="P17" s="56">
-        <v>2</v>
-      </c>
-      <c r="R17" s="107"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="56" t="s">
-        <v>307</v>
-      </c>
-      <c r="B18" s="56">
-        <v>36</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="107"/>
-      <c r="J18" s="56" t="s">
-        <v>341</v>
-      </c>
-      <c r="K18" s="56">
-        <v>2</v>
-      </c>
-      <c r="M18" s="107"/>
-      <c r="O18" s="56" t="s">
-        <v>304</v>
-      </c>
-      <c r="P18" s="56">
-        <v>2</v>
-      </c>
-      <c r="R18" s="107"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="B19" s="56">
-        <v>29</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="107"/>
-      <c r="J19" s="56" t="s">
-        <v>351</v>
-      </c>
-      <c r="K19" s="56">
-        <v>2</v>
-      </c>
-      <c r="M19" s="107"/>
-      <c r="O19" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="P19" s="56">
-        <v>1</v>
-      </c>
-      <c r="R19" s="107"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="B20" s="56">
-        <v>24</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="107"/>
-      <c r="J20" s="56" t="s">
-        <v>309</v>
-      </c>
-      <c r="K20" s="56">
-        <v>1</v>
-      </c>
-      <c r="M20" s="107"/>
-      <c r="O20" s="56" t="s">
-        <v>357</v>
-      </c>
-      <c r="P20" s="56">
-        <v>1</v>
-      </c>
-      <c r="R20" s="107"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="B21" s="56">
-        <v>22</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="107"/>
-      <c r="J21" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="K21" s="56">
-        <v>1</v>
-      </c>
-      <c r="M21" s="107"/>
-      <c r="O21" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="P21" s="56">
-        <v>1</v>
-      </c>
-      <c r="R21" s="107"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="56" t="s">
-        <v>311</v>
-      </c>
-      <c r="B22" s="56">
-        <v>22</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="107"/>
-      <c r="J22" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="K22" s="56">
-        <v>1</v>
-      </c>
-      <c r="M22" s="107"/>
-      <c r="O22" s="56" t="s">
-        <v>361</v>
-      </c>
-      <c r="P22" s="56">
-        <v>1</v>
-      </c>
-      <c r="R22" s="107"/>
-    </row>
-    <row r="23" spans="1:18" ht="18.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="B23" s="56">
-        <v>20</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="109" t="s">
-        <v>438</v>
-      </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="107"/>
-      <c r="J23" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="K23" s="56">
-        <v>1</v>
-      </c>
-      <c r="M23" s="107"/>
-      <c r="O23" s="56" t="s">
-        <v>367</v>
-      </c>
-      <c r="P23" s="56">
-        <v>1</v>
-      </c>
-      <c r="R23" s="107"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="B24" s="56">
-        <v>19</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>427</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="96" t="s">
-        <v>426</v>
-      </c>
-      <c r="G24" s="56"/>
-      <c r="H24" s="107"/>
-      <c r="J24" s="56" t="s">
-        <v>347</v>
-      </c>
-      <c r="K24" s="56">
-        <v>1</v>
-      </c>
-      <c r="M24" s="107"/>
-      <c r="O24" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="P24" s="56">
-        <v>1</v>
-      </c>
-      <c r="R24" s="107"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="56" t="s">
-        <v>314</v>
-      </c>
-      <c r="B25" s="56">
-        <v>19</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>431</v>
-      </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="96" t="s">
-        <v>432</v>
-      </c>
-      <c r="G25" s="56"/>
-      <c r="H25" s="107"/>
-      <c r="J25" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="K25" s="56">
-        <v>1</v>
-      </c>
-      <c r="M25" s="107"/>
-      <c r="O25" s="56" t="s">
-        <v>347</v>
-      </c>
-      <c r="P25" s="56">
-        <v>1</v>
-      </c>
-      <c r="R25" s="107"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="56" t="s">
-        <v>315</v>
-      </c>
-      <c r="B26" s="56">
-        <v>19</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="D26" s="56" t="s">
-        <v>431</v>
-      </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="96" t="s">
-        <v>432</v>
-      </c>
-      <c r="G26" s="56"/>
-      <c r="H26" s="107"/>
-      <c r="J26" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="K26" s="56">
-        <v>1</v>
-      </c>
-      <c r="M26" s="107"/>
-      <c r="O26" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="P26" s="56">
-        <v>1</v>
-      </c>
-      <c r="R26" s="107"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="B27" s="56">
-        <v>17</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D27" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G27" s="56"/>
-      <c r="H27" s="107"/>
-      <c r="J27" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="K27" s="56">
-        <v>1</v>
-      </c>
-      <c r="M27" s="107"/>
-      <c r="O27" s="56" t="s">
-        <v>341</v>
-      </c>
-      <c r="P27" s="56">
-        <v>1</v>
-      </c>
-      <c r="R27" s="107"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="B28" s="56">
-        <v>16</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="107"/>
-      <c r="J28" s="56" t="s">
-        <v>372</v>
-      </c>
-      <c r="K28" s="56">
-        <v>1</v>
-      </c>
-      <c r="M28" s="107"/>
-      <c r="O28" s="56" t="s">
-        <v>319</v>
-      </c>
-      <c r="P28" s="56">
-        <v>1</v>
-      </c>
-      <c r="R28" s="107"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="B29" s="56">
-        <v>14</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D29" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G29" s="56"/>
-      <c r="H29" s="107"/>
-      <c r="J29" s="56" t="s">
-        <v>374</v>
-      </c>
-      <c r="K29" s="56">
-        <v>1</v>
-      </c>
-      <c r="M29" s="107"/>
-      <c r="O29" s="56" t="s">
-        <v>300</v>
-      </c>
-      <c r="P29" s="56">
-        <v>1</v>
-      </c>
-      <c r="R29" s="107"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="56" t="s">
-        <v>319</v>
-      </c>
-      <c r="B30" s="56">
-        <v>14</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E30" s="109" t="s">
-        <v>439</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G30" s="56"/>
-      <c r="H30" s="107"/>
-      <c r="J30" s="56" t="s">
-        <v>350</v>
-      </c>
-      <c r="K30" s="56">
-        <v>1</v>
-      </c>
-      <c r="M30" s="107"/>
-      <c r="O30" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="P30" s="56">
-        <v>1</v>
-      </c>
-      <c r="R30" s="107"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="56" t="s">
-        <v>320</v>
-      </c>
-      <c r="B31" s="56">
-        <v>14</v>
-      </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="109" t="s">
-        <v>438</v>
-      </c>
-      <c r="G31" s="56"/>
-      <c r="H31" s="107"/>
-      <c r="J31" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="K31" s="56">
-        <v>1</v>
-      </c>
-      <c r="M31" s="107"/>
-      <c r="O31" s="56" t="s">
-        <v>353</v>
-      </c>
-      <c r="P31" s="56">
-        <v>1</v>
-      </c>
-      <c r="R31" s="107"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="56" t="s">
-        <v>321</v>
-      </c>
-      <c r="B32" s="56">
-        <v>12</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G32" s="56"/>
-      <c r="H32" s="107"/>
-      <c r="J32" s="56" t="s">
-        <v>304</v>
-      </c>
-      <c r="K32" s="56">
-        <v>1</v>
-      </c>
-      <c r="M32" s="107"/>
-      <c r="O32" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="P32" s="56">
-        <v>1</v>
-      </c>
-      <c r="R32" s="107"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="B33" s="56">
-        <v>12</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G33" s="56"/>
-      <c r="H33" s="107"/>
-      <c r="J33" s="56" t="s">
-        <v>379</v>
-      </c>
-      <c r="K33" s="56">
-        <v>1</v>
-      </c>
-      <c r="M33" s="107"/>
-      <c r="O33" s="56" t="s">
-        <v>322</v>
-      </c>
-      <c r="P33" s="56">
-        <v>1</v>
-      </c>
-      <c r="R33" s="107"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="B34" s="56">
-        <v>10</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>431</v>
-      </c>
-      <c r="E34" s="109" t="s">
-        <v>439</v>
-      </c>
-      <c r="F34" s="96" t="s">
-        <v>432</v>
-      </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="107"/>
-      <c r="M34" s="107"/>
-      <c r="O34" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="P34" s="56">
-        <v>1</v>
-      </c>
-      <c r="R34" s="107"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="56" t="s">
-        <v>324</v>
-      </c>
-      <c r="B35" s="56">
-        <v>6</v>
-      </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="109" t="s">
-        <v>443</v>
-      </c>
-      <c r="G35" s="56"/>
-      <c r="H35" s="107"/>
-      <c r="M35" s="107"/>
-      <c r="O35" s="56" t="s">
-        <v>335</v>
-      </c>
-      <c r="P35" s="56">
-        <v>1</v>
-      </c>
-      <c r="R35" s="107"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="B36" s="56">
-        <v>6</v>
-      </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="109" t="s">
-        <v>444</v>
-      </c>
-      <c r="G36" s="56"/>
-      <c r="H36" s="107"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="B37" s="56">
-        <v>6</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E37" s="109" t="s">
-        <v>443</v>
-      </c>
-      <c r="G37" s="56"/>
-      <c r="H37" s="107"/>
-      <c r="O37" s="108"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="56" t="s">
-        <v>327</v>
-      </c>
-      <c r="B38" s="56">
-        <v>6</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D38" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E38" s="56" t="s">
-        <v>451</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G38" s="56"/>
-      <c r="H38" s="107"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="56" t="s">
-        <v>328</v>
-      </c>
-      <c r="B39" s="56">
-        <v>5</v>
-      </c>
-      <c r="C39" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D39" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="107"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="B40" s="56">
-        <v>5</v>
-      </c>
-      <c r="C40" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D40" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="107"/>
-    </row>
-    <row r="41" spans="1:18" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="56" t="s">
-        <v>330</v>
-      </c>
-      <c r="B41" s="56">
-        <v>5</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D41" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="E41" s="109" t="s">
-        <v>452</v>
-      </c>
-      <c r="G41" s="56"/>
-      <c r="H41" s="107"/>
-    </row>
-    <row r="42" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="56" t="s">
-        <v>331</v>
-      </c>
-      <c r="B42" s="56">
-        <v>5</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D42" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G42" s="56"/>
-      <c r="H42" s="107"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="B43" s="56">
-        <v>5</v>
-      </c>
-      <c r="C43" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G43" s="56"/>
-      <c r="H43" s="107"/>
-    </row>
-    <row r="44" spans="1:18" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="56" t="s">
-        <v>333</v>
-      </c>
-      <c r="B44" s="56">
-        <v>5</v>
-      </c>
-      <c r="C44" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>431</v>
-      </c>
-      <c r="E44" s="109" t="s">
-        <v>454</v>
-      </c>
-      <c r="G44" s="56"/>
-      <c r="H44" s="107"/>
-    </row>
-    <row r="45" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="B45" s="56">
-        <v>4</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>427</v>
-      </c>
-      <c r="D45" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="107"/>
-    </row>
-    <row r="46" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="56" t="s">
-        <v>335</v>
-      </c>
-      <c r="B46" s="56">
-        <v>4</v>
-      </c>
-      <c r="C46" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="D46" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E46" s="109" t="s">
-        <v>443</v>
-      </c>
-      <c r="G46" s="56"/>
-      <c r="H46" s="107"/>
-    </row>
-    <row r="47" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="56" t="s">
-        <v>336</v>
-      </c>
-      <c r="B47" s="56">
-        <v>3</v>
-      </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="109" t="s">
-        <v>443</v>
-      </c>
-      <c r="G47" s="56"/>
-      <c r="H47" s="107"/>
-    </row>
-    <row r="48" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="B48" s="56">
-        <v>3</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D48" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E48" s="56"/>
-      <c r="F48" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G48" s="56"/>
-      <c r="H48" s="107"/>
-    </row>
-    <row r="49" spans="1:8" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="56" t="s">
-        <v>338</v>
-      </c>
-      <c r="B49" s="56">
-        <v>3</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D49" s="112" t="s">
-        <v>453</v>
-      </c>
-      <c r="E49" s="56"/>
-      <c r="F49" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G49" s="56"/>
-      <c r="H49" s="107"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="56" t="s">
-        <v>339</v>
-      </c>
-      <c r="B50" s="56">
-        <v>3</v>
-      </c>
-      <c r="C50" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D50" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E50" s="56"/>
-      <c r="F50" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G50" s="56"/>
-      <c r="H50" s="107"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="56" t="s">
-        <v>340</v>
-      </c>
-      <c r="B51" s="56">
-        <v>3</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>427</v>
-      </c>
-      <c r="D51" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E51" s="56"/>
-      <c r="F51" s="96" t="s">
-        <v>426</v>
-      </c>
-      <c r="G51" s="56"/>
-      <c r="H51" s="107"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="56" t="s">
-        <v>341</v>
-      </c>
-      <c r="B52" s="56">
-        <v>3</v>
-      </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="107"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="56" t="s">
-        <v>342</v>
-      </c>
-      <c r="B53" s="56">
-        <v>2</v>
-      </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="107"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="56" t="s">
-        <v>343</v>
-      </c>
-      <c r="B54" s="56">
-        <v>2</v>
-      </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="107"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="56" t="s">
-        <v>344</v>
-      </c>
-      <c r="B55" s="56">
-        <v>2</v>
-      </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="107"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="56" t="s">
-        <v>345</v>
-      </c>
-      <c r="B56" s="56">
-        <v>2</v>
-      </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="107"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="56" t="s">
-        <v>346</v>
-      </c>
-      <c r="B57" s="56">
-        <v>2</v>
-      </c>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="107"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="56" t="s">
-        <v>347</v>
-      </c>
-      <c r="B58" s="56">
-        <v>2</v>
-      </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="107"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="56" t="s">
-        <v>348</v>
-      </c>
-      <c r="B59" s="56">
-        <v>2</v>
-      </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="107"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="56" t="s">
-        <v>349</v>
-      </c>
-      <c r="B60" s="56">
-        <v>2</v>
-      </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="107"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="56" t="s">
-        <v>350</v>
-      </c>
-      <c r="B61" s="56">
-        <v>2</v>
-      </c>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="107"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="56" t="s">
-        <v>351</v>
-      </c>
-      <c r="B62" s="56">
-        <v>2</v>
-      </c>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="107"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="56" t="s">
-        <v>352</v>
-      </c>
-      <c r="B63" s="56">
-        <v>2</v>
-      </c>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="107"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="56" t="s">
-        <v>353</v>
-      </c>
-      <c r="B64" s="56">
-        <v>2</v>
-      </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="107"/>
-    </row>
-    <row r="65" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="B65" s="56">
-        <v>2</v>
-      </c>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="107"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="56" t="s">
-        <v>355</v>
-      </c>
-      <c r="B66" s="56">
-        <v>1</v>
-      </c>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="107"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="56" t="s">
-        <v>356</v>
-      </c>
-      <c r="B67" s="56">
-        <v>1</v>
-      </c>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="107"/>
-    </row>
-    <row r="68" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="56" t="s">
-        <v>357</v>
-      </c>
-      <c r="B68" s="56">
-        <v>1</v>
-      </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="107"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="56" t="s">
-        <v>358</v>
-      </c>
-      <c r="B69" s="56">
-        <v>1</v>
-      </c>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="107"/>
-    </row>
-    <row r="70" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="56" t="s">
-        <v>359</v>
-      </c>
-      <c r="B70" s="56">
-        <v>1</v>
-      </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="107"/>
-    </row>
-    <row r="71" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="56" t="s">
-        <v>360</v>
-      </c>
-      <c r="B71" s="56">
-        <v>1</v>
-      </c>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="107"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="56" t="s">
-        <v>361</v>
-      </c>
-      <c r="B72" s="56">
-        <v>1</v>
-      </c>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="107"/>
-    </row>
-    <row r="73" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="56" t="s">
-        <v>362</v>
-      </c>
-      <c r="B73" s="56">
-        <v>1</v>
-      </c>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="107"/>
-    </row>
-    <row r="74" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="56" t="s">
-        <v>363</v>
-      </c>
-      <c r="B74" s="56">
-        <v>1</v>
-      </c>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="107"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="56" t="s">
-        <v>364</v>
-      </c>
-      <c r="B75" s="56">
-        <v>1</v>
-      </c>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="107"/>
-    </row>
-    <row r="76" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="56" t="s">
-        <v>365</v>
-      </c>
-      <c r="B76" s="56">
-        <v>1</v>
-      </c>
-      <c r="C76" s="56"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="107"/>
-    </row>
-    <row r="77" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="B77" s="56">
-        <v>1</v>
-      </c>
-      <c r="C77" s="56"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="107"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="56" t="s">
-        <v>367</v>
-      </c>
-      <c r="B78" s="56">
-        <v>1</v>
-      </c>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="107"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="56" t="s">
-        <v>368</v>
-      </c>
-      <c r="B79" s="56">
-        <v>1</v>
-      </c>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="107"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="56" t="s">
-        <v>369</v>
-      </c>
-      <c r="B80" s="56">
-        <v>1</v>
-      </c>
-      <c r="C80" s="56"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="107"/>
-    </row>
-    <row r="81" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="B81" s="56">
-        <v>1</v>
-      </c>
-      <c r="C81" s="56"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="107"/>
-    </row>
-    <row r="82" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="56" t="s">
-        <v>371</v>
-      </c>
-      <c r="B82" s="56">
-        <v>1</v>
-      </c>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="107"/>
-    </row>
-    <row r="83" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="56" t="s">
-        <v>372</v>
-      </c>
-      <c r="B83" s="56">
-        <v>1</v>
-      </c>
-      <c r="C83" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="D83" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E83" s="56"/>
-      <c r="F83" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G83" s="56"/>
-      <c r="H83" s="107"/>
-    </row>
-    <row r="84" spans="1:8" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="56" t="s">
-        <v>373</v>
-      </c>
-      <c r="B84" s="56">
-        <v>1</v>
-      </c>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56" t="s">
-        <v>456</v>
-      </c>
-      <c r="G84" s="56"/>
-      <c r="H84" s="107"/>
-    </row>
-    <row r="85" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="56" t="s">
-        <v>374</v>
-      </c>
-      <c r="B85" s="56">
-        <v>1</v>
-      </c>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="107"/>
-    </row>
-    <row r="86" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="56" t="s">
-        <v>375</v>
-      </c>
-      <c r="B86" s="56">
-        <v>1</v>
-      </c>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="107"/>
-    </row>
-    <row r="87" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="56" t="s">
-        <v>376</v>
-      </c>
-      <c r="B87" s="56">
-        <v>1</v>
-      </c>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="107"/>
-    </row>
-    <row r="88" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="56" t="s">
-        <v>377</v>
-      </c>
-      <c r="B88" s="56">
-        <v>1</v>
-      </c>
-      <c r="C88" s="56"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="107"/>
-    </row>
-    <row r="89" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="56" t="s">
-        <v>378</v>
-      </c>
-      <c r="B89" s="56">
-        <v>1</v>
-      </c>
-      <c r="C89" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D89" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E89" s="56"/>
-      <c r="F89" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G89" s="56"/>
-      <c r="H89" s="107"/>
-    </row>
-    <row r="90" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="56" t="s">
-        <v>379</v>
-      </c>
-      <c r="B90" s="56">
-        <v>1</v>
-      </c>
-      <c r="C90" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D90" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="E90" s="56"/>
-      <c r="F90" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G90" s="56"/>
-      <c r="H90" s="107"/>
-    </row>
-    <row r="91" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="56" t="s">
-        <v>380</v>
-      </c>
-      <c r="B91" s="56">
-        <v>1</v>
-      </c>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="107"/>
-    </row>
-    <row r="92" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="56" t="s">
-        <v>381</v>
-      </c>
-      <c r="B92" s="56">
-        <v>1</v>
-      </c>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="107"/>
-    </row>
-    <row r="93" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="56" t="s">
-        <v>382</v>
-      </c>
-      <c r="B93" s="56">
-        <v>1</v>
-      </c>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="107"/>
-    </row>
-    <row r="94" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="56" t="s">
-        <v>383</v>
-      </c>
-      <c r="B94" s="56">
-        <v>1</v>
-      </c>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="107"/>
-    </row>
-    <row r="95" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="106"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11860,174 +11869,174 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="147.1796875" customWidth="1"/>
+    <col min="1" max="1" width="147.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopatkova\SVN\GitHub-UMR\tecto2umr\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
@@ -15,12 +10,14 @@
     <sheet name="funktory" sheetId="1" r:id="rId1"/>
     <sheet name="zástupná lemmata" sheetId="3" r:id="rId2"/>
     <sheet name="MOD" sheetId="4" r:id="rId3"/>
-    <sheet name="APP" sheetId="2" r:id="rId4"/>
+    <sheet name="modalita" sheetId="6" r:id="rId4"/>
+    <sheet name="negace" sheetId="5" r:id="rId5"/>
+    <sheet name="APP" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">funktory!$G$1:$G$147</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="509">
   <si>
     <t>funktor</t>
   </si>
@@ -5064,45 +5061,267 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">výraz vyjadřující </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>modalitu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (asi 1299x, možná 878x, zřejmě 469x, pravděpodobně 432x, snad 430x, určitě 388x, … celkem </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>93 t_lemmat)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t>affirmative</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">modal-strength:
+FOR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">verbmod=ind, deontmod=decl </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">modal-polarity: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UNLESS combined with negation </t>
+    </r>
+  </si>
+  <si>
+    <t>?? kde se ztratila negace</t>
+  </si>
+  <si>
+    <t>?? or full</t>
+  </si>
+  <si>
+    <t>?? spíš RHEM</t>
+  </si>
+  <si>
+    <t>?? spíš EXT</t>
+  </si>
+  <si>
+    <t>attribute (?event node)</t>
+  </si>
+  <si>
+    <t>attribute (event node)</t>
+  </si>
+  <si>
+    <t>attribute (antity)</t>
+  </si>
+  <si>
+    <t>attribute (event node, modal)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ale KO, zda věta dává smysl i bez toho příklady:
+Země jako Kanada patří k těm, co …    OK
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Úvěry poskytnuté (třebas.RHEM i.RHEM) velkým podnikům.ADDR …. KO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">??? t_lemma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>například, jako,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pokud je v apozici??</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>forma "zjevně"</t>
+  </si>
+  <si>
+    <t>"v žádném případě" --&gt; který případ … ?? kde se ztratila negace</t>
+  </si>
+  <si>
+    <t>negative (vždy  komb. negace)</t>
+  </si>
+  <si>
+    <t>?? or full 
+?? někde spíš EXT (jako "téměř", "víceméně")</t>
+  </si>
+  <si>
+    <t>VŠE (nehledě na rodiče)</t>
+  </si>
+  <si>
+    <t>?? možná EXT - nutně ko v datech</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO - must be further inspected and refined
+</t>
+  </si>
+  <si>
+    <t>comparison</t>
+  </si>
+  <si>
+    <t>Zachycení negace:</t>
+  </si>
+  <si>
+    <t>JEŠTĚ NĚCO ??</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">negované lemma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(krása nesmírná)</t>
+    </r>
+  </si>
+  <si>
+    <t>NEplatí pro pronominální sempos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANO pro neurč. pronom. n,adj,adv / neurč. kvant.adj </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">atribut </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>indeftype=negat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> … s "normalizovaným" lemmatem</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">atribut </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>negation=neg1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> … s pozitivím lemmatem</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>t_lemma #Neg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> u funktorů RHEM (27 836x) / CM (414x) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sempos erodiče: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -5111,33 +5330,40 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>eparent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> uzlu PRED může být leccos (funktor, sempos)
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>v … 28 000x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+undef ... 148x
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>echild uzlu PREC (72x) ... funktory u slovesa (66x):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n.denot … 77x
+n.denot.neg … 12x
+n.pron.def.demon ... 2x
+n.quant.def … 2x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -5148,17 +5374,20 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>EXT 40 ... zcela 17, téměř 8, velmi 5, dost 4, skoro 2, asi 1, docela 1, málo 1, mnohem 1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>adj.denot … 5x
+adj.quant.def ... 3x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -5166,31 +5395,271 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>adv.denot.ngrad.nneg …  1x</t>
+    </r>
+  </si>
+  <si>
+    <t>sentmod</t>
+  </si>
+  <si>
+    <t>deontmod</t>
+  </si>
+  <si>
+    <t>asserted</t>
+  </si>
+  <si>
+    <t>( = indicative)</t>
+  </si>
+  <si>
+    <t>(= conditional)</t>
+  </si>
+  <si>
+    <t>potential</t>
+  </si>
+  <si>
+    <t>appeal</t>
+  </si>
+  <si>
+    <t>(= impertative) = required</t>
+  </si>
+  <si>
+    <t>decl</t>
+  </si>
+  <si>
+    <t>deb</t>
+  </si>
+  <si>
+    <t>(= nutnost)</t>
+  </si>
+  <si>
+    <t>muset</t>
+  </si>
+  <si>
+    <t>hrt</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>(= nemodifikovaný)</t>
+  </si>
+  <si>
+    <t>(= povinnost)</t>
+  </si>
+  <si>
+    <t>(= vůle,záměr)</t>
+  </si>
+  <si>
+    <t>(= možnost)</t>
+  </si>
+  <si>
+    <t>(= svolení)</t>
+  </si>
+  <si>
+    <t>fac</t>
+  </si>
+  <si>
+    <t>(= schopnost)</t>
+  </si>
+  <si>
+    <t>(= oznam)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To nejsou.excl špatně rozdané karty! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">excl </t>
+  </si>
+  <si>
+    <t>desid</t>
+  </si>
+  <si>
+    <t>Ať si oddychne!</t>
+  </si>
+  <si>
+    <t>Jaké to bylo.inter?</t>
+  </si>
+  <si>
+    <t>Neptejte se.imper mě, co se stalo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imper </t>
+  </si>
+  <si>
+    <t>(= zvolací)</t>
+  </si>
+  <si>
+    <t>(= přací)</t>
+  </si>
+  <si>
+    <t>(= rozkaz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inter </t>
+  </si>
+  <si>
+    <t>(= tázací)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enunc </t>
+  </si>
+  <si>
+    <t>irreal</t>
+  </si>
+  <si>
+    <t>(PDT 3.0 &lt;-- PDT 2.0)</t>
+  </si>
+  <si>
+    <t>factmod &lt;-- verbmod</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">modal-strength:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">RSTR 22 ... velký (13), který (5), 99 (1) hraničící (1) jistý (1) každý (1)
+      <t xml:space="preserve">UNLESS combined </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TODO … NUTNO vytvořit tabulku </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pro 93 t_lemmat.MOD (částečně hotovo) a pak v kombinace s
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>verbmod --&gt; factmod ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>deontmod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sentmod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+a v kombinaci s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>negací!!!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>BEN 1 ... IGNOROVAT (umělý) kvůli cor ACT pro ně možná (vypadalo rozumně) dát ... a otevřít</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if eparent.gram/sempos = v</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-CPR 1 ... CPR přesunout pod sloveso
-PAR 1 ... PAR přesunout pod sloveso
+attribute modal-strenght</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
 </t>
     </r>
     <r>
@@ -5199,54 +5668,63 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>RHEM 1 ... "jen stěží"</t>
-    </r>
-  </si>
-  <si>
-    <t>affirmative</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">modal-strength:
-FOR </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">verbmod=ind, deontmod=decl </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">modal-polarity: 
+      <t>(až v kombinaci s gramatémy)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">UNLESS combined with negation </t>
-    </r>
-  </si>
-  <si>
-    <t>?? kde se ztratila negace</t>
-  </si>
-  <si>
-    <t>?? or full</t>
-  </si>
-  <si>
-    <r>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">
-attribute 
+:modal-marker</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -5346,6 +5824,7 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -5354,11 +5833,13 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(cca 700)</t>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(cca 700)
+   (n 400x, adj 232x, 29x)</t>
     </r>
     <r>
       <rPr>
@@ -5368,131 +5849,138 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
-   (n 400x, adj 232x, 29x)
 --&gt; modal-marker (nová role)
-erodič typu undef 185x, z tojo 
+erodič typu undef 185x, z toho 
 176x #EmptyVerb
-(9xd divnosti - zkratka, procenta)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>if eparent.gram/sempos = v</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-attribute modal-strenght</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(až v kombinaci s gramatémy)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
+(9x divnosti - zkratka, procenta)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">výraz vyjadřující </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>modalitu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (asi 1299x, možná 878x, zřejmě 469x, pravděpodobně 432x, snad 430x, určitě 388x, … celkem </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>93 t_lemmat)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>else</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>eparent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> uzlu MOD může být leccos (funktor, sempos)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>echild uzlu MOD (72x) ... funktory (u slovesa, 66x):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
-:modal-marker</t>
-    </r>
-  </si>
-  <si>
-    <t>?? spíš RHEM</t>
-  </si>
-  <si>
-    <t>?? spíš EXT</t>
-  </si>
-  <si>
-    <t>attribute (?event node)</t>
-  </si>
-  <si>
-    <t>attribute (event node)</t>
-  </si>
-  <si>
-    <t>attribute (antity)</t>
-  </si>
-  <si>
-    <t>attribute (event node, modal)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ale KO, zda věta dává smysl i bez toho příklady:
-Země jako Kanada patří k těm, co …    OK
 </t>
     </r>
     <r>
       <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Úvěry poskytnuté (třebas.RHEM i.RHEM) velkým podnikům.ADDR …. KO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">??? t_lemma </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">EXT 40 ... </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>například, jako,</t>
+      <t xml:space="preserve">zcela 17, téměř 8, velmi 5, dost 4, skoro 2, asi 1, docela 1, málo 1, mnohem 1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>... spojit s uzlem MOD (přes podtržítko??)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">RSTR 22 ... velký (13) ... ?? jako EXT ... </t>
     </r>
     <r>
       <rPr>
@@ -5501,45 +5989,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> pokud je v apozici??</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>forma "zjevně"</t>
-  </si>
-  <si>
-    <t>"v žádném případě" --&gt; který případ … ?? kde se ztratila negace</t>
-  </si>
-  <si>
-    <t>negative (vždy  komb. negace)</t>
-  </si>
-  <si>
-    <t>?? or full 
-?? někde spíš EXT (jako "téměř", "víceméně")</t>
-  </si>
-  <si>
-    <t>VŠE (nehledě na rodiče)</t>
-  </si>
-  <si>
-    <t>?? možná EXT - nutně ko v datech</t>
-  </si>
-  <si>
-    <t>MOD</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TODO … NUTNO vytvořit tabulku </t>
+      <t>11x s největší pravděpodobností, 1x s velkou pravd., 1x s větší pravd.</t>
     </r>
     <r>
       <rPr>
@@ -5548,18 +5998,40 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">pro 93 t_lemmat.MOD (částečně hotovo) a pak v kombinace s
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">
+                   který (5) ... v každém/žádném.(=který.RSTR) případě; se vší.(=který.RSTR) pravděpodobností
+                    99 (1) ... na 99.RSTR procent
+                    hraničící (1) ... s pravděpodobností.MOD hraničící.RSTR s jistotou.PAT
+                    jistý (1) ... a do jisté.RSTR míry.MOD (je).PRED nejasnost.PAT
+                    každý (1) ... v každém případě.MOD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BEN 1 ... IGNOROVAT (umělý) kvůli cor ACT pro ně možná (vypadalo rozumně) dát ... a otevřít</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">verbmod --&gt; factmod </t>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CPR 1 ... CPR přesunout pod sloveso
+PAR 1 ... PAR přesunout pod sloveso</t>
     </r>
     <r>
       <rPr>
@@ -5568,177 +6040,24 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (ind=asserted
-                               /cond=potential/irreal
-                                /imp=appeal(=required))
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>deontmod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (decl=nemodifikovaný
-                       /deb=nutnost
-                       /hrt=povinnost
-                       /vol=vůle,záměr
-                       /poss=možnost
-                       /perm=svolení
-                       /fac=schopnost) 
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>sentmod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (enunc = oznam
-                     /excl = zvolací
-                     /desid = přací
-                     /imper = rozkaz
-                     /inter = tázací)
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>negací</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>#Neg.RHEM/CM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-            nebo atribut </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>negation=neg1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-                    (s poztivím lemmatem, NE pronom.)
-            nebo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">indeftype=negat
-                     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(ANO neurč. pronom. n,adj,adv / neurč. kvant.adj )
-            nebo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>negované lemma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (krása nesmírná)
-            ?? JESTE NECO ??)
+      <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO - must be further inspected and refined
-</t>
-  </si>
-  <si>
-    <t>comparison</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RHEM 1 ... "jen stěží"</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6029,6 +6348,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -6160,7 +6491,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6469,9 +6800,6 @@
     <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6499,12 +6827,32 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Excel Built-in Check Cell" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
+    <cellStyle name="Kontrolní buňka" xfId="3" builtinId="23"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6769,8 +7117,8 @@
   <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7683,8 +8031,8 @@
       <c r="D36" s="15">
         <v>7271</v>
       </c>
-      <c r="E36" s="112" t="s">
-        <v>459</v>
+      <c r="E36" s="111" t="s">
+        <v>454</v>
       </c>
       <c r="F36" s="72" t="s">
         <v>262</v>
@@ -7695,7 +8043,7 @@
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
       <c r="J36" s="26" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K36" s="22" t="s">
         <v>77</v>
@@ -8193,7 +8541,7 @@
         <v>49</v>
       </c>
       <c r="B56" s="13"/>
-      <c r="C56" s="113" t="s">
+      <c r="C56" s="112" t="s">
         <v>113</v>
       </c>
       <c r="D56" s="15">
@@ -8355,7 +8703,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="13"/>
-      <c r="C62" s="113" t="s">
+      <c r="C62" s="112" t="s">
         <v>121</v>
       </c>
       <c r="D62" s="15">
@@ -8847,32 +9195,32 @@
       <c r="K80" s="22"/>
       <c r="L80" s="22"/>
     </row>
-    <row r="81" spans="1:12" ht="356.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>79</v>
       </c>
       <c r="B81" s="13"/>
-      <c r="C81" s="113" t="s">
-        <v>456</v>
+      <c r="C81" s="14" t="s">
+        <v>452</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="57" t="s">
-        <v>441</v>
+        <v>505</v>
       </c>
       <c r="F81" s="72" t="s">
         <v>418</v>
       </c>
       <c r="G81" s="78" t="s">
-        <v>439</v>
+        <v>506</v>
       </c>
       <c r="H81" s="88" t="s">
-        <v>440</v>
-      </c>
-      <c r="I81" s="104" t="s">
-        <v>433</v>
+        <v>507</v>
+      </c>
+      <c r="I81" s="120" t="s">
+        <v>508</v>
       </c>
       <c r="J81" s="86" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
       <c r="K81" s="24"/>
       <c r="L81" s="22"/>
@@ -9318,11 +9666,11 @@
       <c r="G116" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H116" s="109" t="s">
-        <v>449</v>
-      </c>
-      <c r="I116" s="110" t="s">
-        <v>448</v>
+      <c r="H116" s="108" t="s">
+        <v>445</v>
+      </c>
+      <c r="I116" s="109" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
@@ -9514,7 +9862,7 @@
         <v>160</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H133" s="89"/>
       <c r="I133" s="89"/>
@@ -9528,7 +9876,7 @@
         <v>161</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H134" s="89"/>
       <c r="I134" s="89"/>
@@ -9575,7 +9923,7 @@
         <v>165</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H137" s="89"/>
       <c r="I137" s="89"/>
@@ -9589,7 +9937,7 @@
         <v>166</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H138" s="89"/>
       <c r="I138" s="89"/>
@@ -9612,7 +9960,7 @@
         <v>400</v>
       </c>
       <c r="G140" s="91" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H140" s="92"/>
       <c r="I140" s="92"/>
@@ -9626,7 +9974,7 @@
         <v>394</v>
       </c>
       <c r="G141" s="91" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H141" s="92"/>
       <c r="I141" s="92"/>
@@ -9640,7 +9988,7 @@
         <v>167</v>
       </c>
       <c r="G142" s="91" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H142" s="92"/>
       <c r="I142" s="92"/>
@@ -9737,8 +10085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9767,28 +10115,28 @@
     <col min="22" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="105" customFormat="1" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
-        <v>454</v>
-      </c>
-      <c r="C1" s="105" t="s">
+    <row r="1" spans="1:21" s="104" customFormat="1" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="104" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="104" t="s">
         <v>435</v>
       </c>
-      <c r="D1" s="105" t="s">
-        <v>436</v>
-      </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="105" t="s">
         <v>424</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="104" t="s">
         <v>420</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="O1" s="105" t="s">
+      <c r="M1" s="105"/>
+      <c r="O1" s="104" t="s">
         <v>421</v>
       </c>
-      <c r="R1" s="106"/>
-      <c r="T1" s="105" t="s">
+      <c r="R1" s="105"/>
+      <c r="T1" s="104" t="s">
         <v>421</v>
       </c>
     </row>
@@ -9803,28 +10151,28 @@
         <v>426</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E2" s="55"/>
       <c r="F2" s="95" t="s">
         <v>425</v>
       </c>
       <c r="G2" s="55"/>
-      <c r="H2" s="106"/>
+      <c r="H2" s="105"/>
       <c r="J2" s="55" t="s">
         <v>290</v>
       </c>
       <c r="K2" s="55">
         <v>157</v>
       </c>
-      <c r="M2" s="106"/>
+      <c r="M2" s="105"/>
       <c r="O2" s="55" t="s">
         <v>290</v>
       </c>
       <c r="P2" s="55">
         <v>53</v>
       </c>
-      <c r="R2" s="106"/>
+      <c r="R2" s="105"/>
       <c r="T2" s="55" t="s">
         <v>290</v>
       </c>
@@ -9843,28 +10191,28 @@
         <v>426</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E3" s="55"/>
       <c r="F3" s="95" t="s">
         <v>425</v>
       </c>
       <c r="G3" s="55"/>
-      <c r="H3" s="106"/>
+      <c r="H3" s="105"/>
       <c r="J3" s="55" t="s">
         <v>291</v>
       </c>
       <c r="K3" s="55">
         <v>54</v>
       </c>
-      <c r="M3" s="106"/>
+      <c r="M3" s="105"/>
       <c r="O3" s="55" t="s">
         <v>294</v>
       </c>
       <c r="P3" s="55">
         <v>32</v>
       </c>
-      <c r="R3" s="106"/>
+      <c r="R3" s="105"/>
       <c r="T3" s="55" t="s">
         <v>291</v>
       </c>
@@ -9883,28 +10231,28 @@
         <v>422</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E4" s="55"/>
       <c r="F4" s="1" t="s">
         <v>429</v>
       </c>
       <c r="G4" s="55"/>
-      <c r="H4" s="106"/>
+      <c r="H4" s="105"/>
       <c r="J4" s="55" t="s">
         <v>302</v>
       </c>
       <c r="K4" s="55">
         <v>44</v>
       </c>
-      <c r="M4" s="106"/>
+      <c r="M4" s="105"/>
       <c r="O4" s="55" t="s">
         <v>291</v>
       </c>
       <c r="P4" s="55">
         <v>28</v>
       </c>
-      <c r="R4" s="106"/>
+      <c r="R4" s="105"/>
       <c r="T4" s="55" t="s">
         <v>294</v>
       </c>
@@ -9923,27 +10271,27 @@
         <v>422</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E5" s="55"/>
       <c r="F5" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H5" s="106"/>
+      <c r="H5" s="105"/>
       <c r="J5" s="55" t="s">
         <v>294</v>
       </c>
       <c r="K5" s="55">
         <v>30</v>
       </c>
-      <c r="M5" s="106"/>
+      <c r="M5" s="105"/>
       <c r="O5" s="55" t="s">
         <v>312</v>
       </c>
       <c r="P5" s="55">
         <v>17</v>
       </c>
-      <c r="R5" s="106"/>
+      <c r="R5" s="105"/>
       <c r="T5" s="55" t="s">
         <v>301</v>
       </c>
@@ -9962,28 +10310,28 @@
         <v>426</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E6" s="55"/>
       <c r="F6" s="95" t="s">
         <v>425</v>
       </c>
       <c r="G6" s="55"/>
-      <c r="H6" s="106"/>
+      <c r="H6" s="105"/>
       <c r="J6" s="55" t="s">
         <v>301</v>
       </c>
       <c r="K6" s="55">
         <v>30</v>
       </c>
-      <c r="M6" s="106"/>
+      <c r="M6" s="105"/>
       <c r="O6" s="55" t="s">
         <v>293</v>
       </c>
       <c r="P6" s="55">
         <v>14</v>
       </c>
-      <c r="R6" s="106"/>
+      <c r="R6" s="105"/>
       <c r="T6" s="55" t="s">
         <v>307</v>
       </c>
@@ -10002,28 +10350,28 @@
         <v>428</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E7" s="55"/>
       <c r="F7" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G7" s="55"/>
-      <c r="H7" s="106"/>
+      <c r="H7" s="105"/>
       <c r="J7" s="55" t="s">
         <v>292</v>
       </c>
       <c r="K7" s="55">
         <v>14</v>
       </c>
-      <c r="M7" s="106"/>
+      <c r="M7" s="105"/>
       <c r="O7" s="55" t="s">
         <v>295</v>
       </c>
       <c r="P7" s="55">
         <v>11</v>
       </c>
-      <c r="R7" s="106"/>
+      <c r="R7" s="105"/>
       <c r="T7" s="55" t="s">
         <v>298</v>
       </c>
@@ -10042,28 +10390,28 @@
         <v>422</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E8" s="55"/>
       <c r="F8" s="1" t="s">
         <v>429</v>
       </c>
       <c r="G8" s="55"/>
-      <c r="H8" s="106"/>
+      <c r="H8" s="105"/>
       <c r="J8" s="55" t="s">
         <v>295</v>
       </c>
       <c r="K8" s="55">
         <v>12</v>
       </c>
-      <c r="M8" s="106"/>
+      <c r="M8" s="105"/>
       <c r="O8" s="55" t="s">
         <v>292</v>
       </c>
       <c r="P8" s="55">
         <v>11</v>
       </c>
-      <c r="R8" s="106"/>
+      <c r="R8" s="105"/>
       <c r="T8" s="55" t="s">
         <v>296</v>
       </c>
@@ -10082,28 +10430,28 @@
         <v>428</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E9" s="55"/>
       <c r="F9" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G9" s="55"/>
-      <c r="H9" s="106"/>
+      <c r="H9" s="105"/>
       <c r="J9" s="55" t="s">
         <v>318</v>
       </c>
       <c r="K9" s="55">
         <v>10</v>
       </c>
-      <c r="M9" s="106"/>
+      <c r="M9" s="105"/>
       <c r="O9" s="55" t="s">
         <v>307</v>
       </c>
       <c r="P9" s="55">
         <v>9</v>
       </c>
-      <c r="R9" s="106"/>
+      <c r="R9" s="105"/>
       <c r="T9" s="55" t="s">
         <v>300</v>
       </c>
@@ -10122,28 +10470,28 @@
         <v>422</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="1" t="s">
         <v>429</v>
       </c>
       <c r="G10" s="55"/>
-      <c r="H10" s="106"/>
+      <c r="H10" s="105"/>
       <c r="J10" s="55" t="s">
         <v>293</v>
       </c>
       <c r="K10" s="55">
         <v>8</v>
       </c>
-      <c r="M10" s="106"/>
+      <c r="M10" s="105"/>
       <c r="O10" s="55" t="s">
         <v>298</v>
       </c>
       <c r="P10" s="55">
         <v>9</v>
       </c>
-      <c r="R10" s="106"/>
+      <c r="R10" s="105"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="55" t="s">
@@ -10156,28 +10504,28 @@
         <v>428</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E11" s="55"/>
       <c r="F11" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G11" s="55"/>
-      <c r="H11" s="106"/>
+      <c r="H11" s="105"/>
       <c r="J11" s="55" t="s">
         <v>297</v>
       </c>
       <c r="K11" s="55">
         <v>4</v>
       </c>
-      <c r="M11" s="106"/>
+      <c r="M11" s="105"/>
       <c r="O11" s="55" t="s">
         <v>304</v>
       </c>
       <c r="P11" s="55">
         <v>7</v>
       </c>
-      <c r="R11" s="106"/>
+      <c r="R11" s="105"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="55" t="s">
@@ -10190,28 +10538,28 @@
         <v>426</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E12" s="55"/>
       <c r="F12" s="95" t="s">
         <v>425</v>
       </c>
       <c r="G12" s="55"/>
-      <c r="H12" s="106"/>
+      <c r="H12" s="105"/>
       <c r="J12" s="55" t="s">
         <v>327</v>
       </c>
       <c r="K12" s="55">
         <v>4</v>
       </c>
-      <c r="M12" s="106"/>
+      <c r="M12" s="105"/>
       <c r="O12" s="55" t="s">
         <v>310</v>
       </c>
       <c r="P12" s="55">
         <v>7</v>
       </c>
-      <c r="R12" s="106"/>
+      <c r="R12" s="105"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
@@ -10224,28 +10572,28 @@
         <v>422</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E13" s="55"/>
       <c r="F13" s="1" t="s">
         <v>429</v>
       </c>
       <c r="G13" s="55"/>
-      <c r="H13" s="106"/>
+      <c r="H13" s="105"/>
       <c r="J13" s="55" t="s">
         <v>333</v>
       </c>
       <c r="K13" s="55">
         <v>4</v>
       </c>
-      <c r="M13" s="106"/>
+      <c r="M13" s="105"/>
       <c r="O13" s="55" t="s">
         <v>319</v>
       </c>
       <c r="P13" s="55">
         <v>4</v>
       </c>
-      <c r="R13" s="106"/>
+      <c r="R13" s="105"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
@@ -10258,28 +10606,28 @@
         <v>426</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="95" t="s">
         <v>425</v>
       </c>
       <c r="G14" s="55"/>
-      <c r="H14" s="106"/>
+      <c r="H14" s="105"/>
       <c r="J14" s="55" t="s">
         <v>339</v>
       </c>
       <c r="K14" s="55">
         <v>3</v>
       </c>
-      <c r="M14" s="106"/>
+      <c r="M14" s="105"/>
       <c r="O14" s="55" t="s">
         <v>301</v>
       </c>
       <c r="P14" s="55">
         <v>4</v>
       </c>
-      <c r="R14" s="106"/>
+      <c r="R14" s="105"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="55" t="s">
@@ -10292,28 +10640,28 @@
         <v>426</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="95" t="s">
         <v>425</v>
       </c>
       <c r="G15" s="55"/>
-      <c r="H15" s="106"/>
+      <c r="H15" s="105"/>
       <c r="J15" s="55" t="s">
         <v>309</v>
       </c>
       <c r="K15" s="55">
         <v>3</v>
       </c>
-      <c r="M15" s="106"/>
+      <c r="M15" s="105"/>
       <c r="O15" s="55" t="s">
         <v>297</v>
       </c>
       <c r="P15" s="55">
         <v>3</v>
       </c>
-      <c r="R15" s="106"/>
+      <c r="R15" s="105"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55" t="s">
@@ -10326,28 +10674,28 @@
         <v>428</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E16" s="55"/>
       <c r="F16" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G16" s="55"/>
-      <c r="H16" s="106"/>
+      <c r="H16" s="105"/>
       <c r="J16" s="55" t="s">
         <v>334</v>
       </c>
       <c r="K16" s="55">
         <v>3</v>
       </c>
-      <c r="M16" s="106"/>
+      <c r="M16" s="105"/>
       <c r="O16" s="55" t="s">
         <v>306</v>
       </c>
       <c r="P16" s="55">
         <v>2</v>
       </c>
-      <c r="R16" s="106"/>
+      <c r="R16" s="105"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
@@ -10360,28 +10708,28 @@
         <v>428</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E17" s="55"/>
       <c r="F17" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G17" s="55"/>
-      <c r="H17" s="106"/>
+      <c r="H17" s="105"/>
       <c r="J17" s="55" t="s">
         <v>298</v>
       </c>
       <c r="K17" s="55">
         <v>2</v>
       </c>
-      <c r="M17" s="106"/>
+      <c r="M17" s="105"/>
       <c r="O17" s="55" t="s">
         <v>296</v>
       </c>
       <c r="P17" s="55">
         <v>2</v>
       </c>
-      <c r="R17" s="106"/>
+      <c r="R17" s="105"/>
     </row>
     <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
@@ -10394,28 +10742,28 @@
         <v>428</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G18" s="55"/>
-      <c r="H18" s="106"/>
+      <c r="H18" s="105"/>
       <c r="J18" s="55" t="s">
         <v>340</v>
       </c>
       <c r="K18" s="55">
         <v>2</v>
       </c>
-      <c r="M18" s="106"/>
+      <c r="M18" s="105"/>
       <c r="O18" s="55" t="s">
         <v>303</v>
       </c>
       <c r="P18" s="55">
         <v>2</v>
       </c>
-      <c r="R18" s="106"/>
+      <c r="R18" s="105"/>
     </row>
     <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
@@ -10428,28 +10776,28 @@
         <v>428</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E19" s="55"/>
       <c r="F19" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G19" s="55"/>
-      <c r="H19" s="106"/>
+      <c r="H19" s="105"/>
       <c r="J19" s="55" t="s">
         <v>350</v>
       </c>
       <c r="K19" s="55">
         <v>2</v>
       </c>
-      <c r="M19" s="106"/>
+      <c r="M19" s="105"/>
       <c r="O19" s="55" t="s">
         <v>305</v>
       </c>
       <c r="P19" s="55">
         <v>1</v>
       </c>
-      <c r="R19" s="106"/>
+      <c r="R19" s="105"/>
     </row>
     <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="55" t="s">
@@ -10462,28 +10810,28 @@
         <v>428</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E20" s="55"/>
       <c r="F20" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G20" s="55"/>
-      <c r="H20" s="106"/>
+      <c r="H20" s="105"/>
       <c r="J20" s="55" t="s">
         <v>308</v>
       </c>
       <c r="K20" s="55">
         <v>1</v>
       </c>
-      <c r="M20" s="106"/>
+      <c r="M20" s="105"/>
       <c r="O20" s="55" t="s">
         <v>356</v>
       </c>
       <c r="P20" s="55">
         <v>1</v>
       </c>
-      <c r="R20" s="106"/>
+      <c r="R20" s="105"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55" t="s">
@@ -10496,28 +10844,28 @@
         <v>422</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E21" s="55"/>
       <c r="F21" s="1" t="s">
         <v>423</v>
       </c>
       <c r="G21" s="55"/>
-      <c r="H21" s="106"/>
+      <c r="H21" s="105"/>
       <c r="J21" s="55" t="s">
         <v>365</v>
       </c>
       <c r="K21" s="55">
         <v>1</v>
       </c>
-      <c r="M21" s="106"/>
+      <c r="M21" s="105"/>
       <c r="O21" s="55" t="s">
         <v>336</v>
       </c>
       <c r="P21" s="55">
         <v>1</v>
       </c>
-      <c r="R21" s="106"/>
+      <c r="R21" s="105"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="55" t="s">
@@ -10530,28 +10878,28 @@
         <v>428</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E22" s="55"/>
       <c r="F22" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G22" s="55"/>
-      <c r="H22" s="106"/>
+      <c r="H22" s="105"/>
       <c r="J22" s="55" t="s">
         <v>315</v>
       </c>
       <c r="K22" s="55">
         <v>1</v>
       </c>
-      <c r="M22" s="106"/>
+      <c r="M22" s="105"/>
       <c r="O22" s="55" t="s">
         <v>360</v>
       </c>
       <c r="P22" s="55">
         <v>1</v>
       </c>
-      <c r="R22" s="106"/>
+      <c r="R22" s="105"/>
     </row>
     <row r="23" spans="1:18" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="55" t="s">
@@ -10562,25 +10910,25 @@
       </c>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
-      <c r="E23" s="108" t="s">
-        <v>437</v>
+      <c r="E23" s="107" t="s">
+        <v>436</v>
       </c>
       <c r="G23" s="55"/>
-      <c r="H23" s="106"/>
+      <c r="H23" s="105"/>
       <c r="J23" s="55" t="s">
         <v>369</v>
       </c>
       <c r="K23" s="55">
         <v>1</v>
       </c>
-      <c r="M23" s="106"/>
+      <c r="M23" s="105"/>
       <c r="O23" s="55" t="s">
         <v>366</v>
       </c>
       <c r="P23" s="55">
         <v>1</v>
       </c>
-      <c r="R23" s="106"/>
+      <c r="R23" s="105"/>
     </row>
     <row r="24" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="55" t="s">
@@ -10593,28 +10941,28 @@
         <v>426</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E24" s="55"/>
       <c r="F24" s="95" t="s">
         <v>425</v>
       </c>
       <c r="G24" s="55"/>
-      <c r="H24" s="106"/>
+      <c r="H24" s="105"/>
       <c r="J24" s="55" t="s">
         <v>346</v>
       </c>
       <c r="K24" s="55">
         <v>1</v>
       </c>
-      <c r="M24" s="106"/>
+      <c r="M24" s="105"/>
       <c r="O24" s="55" t="s">
         <v>315</v>
       </c>
       <c r="P24" s="55">
         <v>1</v>
       </c>
-      <c r="R24" s="106"/>
+      <c r="R24" s="105"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="55" t="s">
@@ -10634,21 +10982,21 @@
         <v>431</v>
       </c>
       <c r="G25" s="55"/>
-      <c r="H25" s="106"/>
+      <c r="H25" s="105"/>
       <c r="J25" s="55" t="s">
         <v>307</v>
       </c>
       <c r="K25" s="55">
         <v>1</v>
       </c>
-      <c r="M25" s="106"/>
+      <c r="M25" s="105"/>
       <c r="O25" s="55" t="s">
         <v>346</v>
       </c>
       <c r="P25" s="55">
         <v>1</v>
       </c>
-      <c r="R25" s="106"/>
+      <c r="R25" s="105"/>
     </row>
     <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="55" t="s">
@@ -10668,21 +11016,21 @@
         <v>431</v>
       </c>
       <c r="G26" s="55"/>
-      <c r="H26" s="106"/>
+      <c r="H26" s="105"/>
       <c r="J26" s="55" t="s">
         <v>311</v>
       </c>
       <c r="K26" s="55">
         <v>1</v>
       </c>
-      <c r="M26" s="106"/>
+      <c r="M26" s="105"/>
       <c r="O26" s="55" t="s">
         <v>311</v>
       </c>
       <c r="P26" s="55">
         <v>1</v>
       </c>
-      <c r="R26" s="106"/>
+      <c r="R26" s="105"/>
     </row>
     <row r="27" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="55" t="s">
@@ -10695,28 +11043,28 @@
         <v>428</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E27" s="55"/>
       <c r="F27" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G27" s="55"/>
-      <c r="H27" s="106"/>
+      <c r="H27" s="105"/>
       <c r="J27" s="55" t="s">
         <v>316</v>
       </c>
       <c r="K27" s="55">
         <v>1</v>
       </c>
-      <c r="M27" s="106"/>
+      <c r="M27" s="105"/>
       <c r="O27" s="55" t="s">
         <v>340</v>
       </c>
       <c r="P27" s="55">
         <v>1</v>
       </c>
-      <c r="R27" s="106"/>
+      <c r="R27" s="105"/>
     </row>
     <row r="28" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="55" t="s">
@@ -10729,28 +11077,28 @@
         <v>422</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="1" t="s">
         <v>423</v>
       </c>
       <c r="G28" s="55"/>
-      <c r="H28" s="106"/>
+      <c r="H28" s="105"/>
       <c r="J28" s="55" t="s">
         <v>371</v>
       </c>
       <c r="K28" s="55">
         <v>1</v>
       </c>
-      <c r="M28" s="106"/>
+      <c r="M28" s="105"/>
       <c r="O28" s="55" t="s">
         <v>318</v>
       </c>
       <c r="P28" s="55">
         <v>1</v>
       </c>
-      <c r="R28" s="106"/>
+      <c r="R28" s="105"/>
     </row>
     <row r="29" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="55" t="s">
@@ -10763,28 +11111,28 @@
         <v>428</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G29" s="55"/>
-      <c r="H29" s="106"/>
+      <c r="H29" s="105"/>
       <c r="J29" s="55" t="s">
         <v>373</v>
       </c>
       <c r="K29" s="55">
         <v>1</v>
       </c>
-      <c r="M29" s="106"/>
+      <c r="M29" s="105"/>
       <c r="O29" s="55" t="s">
         <v>299</v>
       </c>
       <c r="P29" s="55">
         <v>1</v>
       </c>
-      <c r="R29" s="106"/>
+      <c r="R29" s="105"/>
     </row>
     <row r="30" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="55" t="s">
@@ -10797,30 +11145,30 @@
         <v>422</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>434</v>
-      </c>
-      <c r="E30" s="108" t="s">
-        <v>438</v>
+        <v>433</v>
+      </c>
+      <c r="E30" s="107" t="s">
+        <v>437</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>423</v>
       </c>
       <c r="G30" s="55"/>
-      <c r="H30" s="106"/>
+      <c r="H30" s="105"/>
       <c r="J30" s="55" t="s">
         <v>349</v>
       </c>
       <c r="K30" s="55">
         <v>1</v>
       </c>
-      <c r="M30" s="106"/>
+      <c r="M30" s="105"/>
       <c r="O30" s="55" t="s">
         <v>309</v>
       </c>
       <c r="P30" s="55">
         <v>1</v>
       </c>
-      <c r="R30" s="106"/>
+      <c r="R30" s="105"/>
     </row>
     <row r="31" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="55" t="s">
@@ -10831,25 +11179,25 @@
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
-      <c r="E31" s="108" t="s">
-        <v>437</v>
+      <c r="E31" s="107" t="s">
+        <v>436</v>
       </c>
       <c r="G31" s="55"/>
-      <c r="H31" s="106"/>
+      <c r="H31" s="105"/>
       <c r="J31" s="55" t="s">
         <v>296</v>
       </c>
       <c r="K31" s="55">
         <v>1</v>
       </c>
-      <c r="M31" s="106"/>
+      <c r="M31" s="105"/>
       <c r="O31" s="55" t="s">
         <v>352</v>
       </c>
       <c r="P31" s="55">
         <v>1</v>
       </c>
-      <c r="R31" s="106"/>
+      <c r="R31" s="105"/>
     </row>
     <row r="32" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55" t="s">
@@ -10862,28 +11210,28 @@
         <v>428</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E32" s="55"/>
       <c r="F32" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G32" s="55"/>
-      <c r="H32" s="106"/>
+      <c r="H32" s="105"/>
       <c r="J32" s="55" t="s">
         <v>303</v>
       </c>
       <c r="K32" s="55">
         <v>1</v>
       </c>
-      <c r="M32" s="106"/>
+      <c r="M32" s="105"/>
       <c r="O32" s="55" t="s">
         <v>300</v>
       </c>
       <c r="P32" s="55">
         <v>1</v>
       </c>
-      <c r="R32" s="106"/>
+      <c r="R32" s="105"/>
     </row>
     <row r="33" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="55" t="s">
@@ -10896,28 +11244,28 @@
         <v>428</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G33" s="55"/>
-      <c r="H33" s="106"/>
+      <c r="H33" s="105"/>
       <c r="J33" s="55" t="s">
         <v>378</v>
       </c>
       <c r="K33" s="55">
         <v>1</v>
       </c>
-      <c r="M33" s="106"/>
+      <c r="M33" s="105"/>
       <c r="O33" s="55" t="s">
         <v>321</v>
       </c>
       <c r="P33" s="55">
         <v>1</v>
       </c>
-      <c r="R33" s="106"/>
+      <c r="R33" s="105"/>
     </row>
     <row r="34" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="55" t="s">
@@ -10932,22 +11280,22 @@
       <c r="D34" s="55" t="s">
         <v>430</v>
       </c>
-      <c r="E34" s="108" t="s">
-        <v>438</v>
+      <c r="E34" s="107" t="s">
+        <v>437</v>
       </c>
       <c r="F34" s="95" t="s">
         <v>431</v>
       </c>
       <c r="G34" s="55"/>
-      <c r="H34" s="106"/>
-      <c r="M34" s="106"/>
+      <c r="H34" s="105"/>
+      <c r="M34" s="105"/>
       <c r="O34" s="55" t="s">
         <v>331</v>
       </c>
       <c r="P34" s="55">
         <v>1</v>
       </c>
-      <c r="R34" s="106"/>
+      <c r="R34" s="105"/>
     </row>
     <row r="35" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="55" t="s">
@@ -10958,19 +11306,19 @@
       </c>
       <c r="C35" s="55"/>
       <c r="D35" s="55"/>
-      <c r="E35" s="108" t="s">
-        <v>442</v>
+      <c r="E35" s="107" t="s">
+        <v>438</v>
       </c>
       <c r="G35" s="55"/>
-      <c r="H35" s="106"/>
-      <c r="M35" s="106"/>
+      <c r="H35" s="105"/>
+      <c r="M35" s="105"/>
       <c r="O35" s="55" t="s">
         <v>334</v>
       </c>
       <c r="P35" s="55">
         <v>1</v>
       </c>
-      <c r="R35" s="106"/>
+      <c r="R35" s="105"/>
     </row>
     <row r="36" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="55" t="s">
@@ -10981,11 +11329,11 @@
       </c>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
-      <c r="E36" s="108" t="s">
-        <v>443</v>
+      <c r="E36" s="107" t="s">
+        <v>439</v>
       </c>
       <c r="G36" s="55"/>
-      <c r="H36" s="106"/>
+      <c r="H36" s="105"/>
     </row>
     <row r="37" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="55" t="s">
@@ -10998,14 +11346,14 @@
         <v>422</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>434</v>
-      </c>
-      <c r="E37" s="108" t="s">
-        <v>442</v>
+        <v>433</v>
+      </c>
+      <c r="E37" s="107" t="s">
+        <v>438</v>
       </c>
       <c r="G37" s="55"/>
-      <c r="H37" s="106"/>
-      <c r="O37" s="107"/>
+      <c r="H37" s="105"/>
+      <c r="O37" s="106"/>
     </row>
     <row r="38" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55" t="s">
@@ -11018,16 +11366,16 @@
         <v>428</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E38" s="55" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G38" s="55"/>
-      <c r="H38" s="106"/>
+      <c r="H38" s="105"/>
     </row>
     <row r="39" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="55" t="s">
@@ -11040,11 +11388,11 @@
         <v>428</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E39" s="55"/>
       <c r="G39" s="55"/>
-      <c r="H39" s="106"/>
+      <c r="H39" s="105"/>
     </row>
     <row r="40" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="55" t="s">
@@ -11057,11 +11405,11 @@
         <v>428</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E40" s="55"/>
       <c r="G40" s="55"/>
-      <c r="H40" s="106"/>
+      <c r="H40" s="105"/>
     </row>
     <row r="41" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="55" t="s">
@@ -11073,14 +11421,14 @@
       <c r="C41" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="D41" s="111" t="s">
-        <v>452</v>
-      </c>
-      <c r="E41" s="108" t="s">
-        <v>451</v>
+      <c r="D41" s="110" t="s">
+        <v>448</v>
+      </c>
+      <c r="E41" s="107" t="s">
+        <v>447</v>
       </c>
       <c r="G41" s="55"/>
-      <c r="H41" s="106"/>
+      <c r="H41" s="105"/>
     </row>
     <row r="42" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="55" t="s">
@@ -11093,14 +11441,14 @@
         <v>428</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E42" s="55"/>
       <c r="F42" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G42" s="55"/>
-      <c r="H42" s="106"/>
+      <c r="H42" s="105"/>
     </row>
     <row r="43" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="55" t="s">
@@ -11113,14 +11461,14 @@
         <v>428</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E43" s="55"/>
       <c r="F43" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G43" s="55"/>
-      <c r="H43" s="106"/>
+      <c r="H43" s="105"/>
     </row>
     <row r="44" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="55" t="s">
@@ -11135,11 +11483,11 @@
       <c r="D44" s="55" t="s">
         <v>430</v>
       </c>
-      <c r="E44" s="108" t="s">
-        <v>453</v>
+      <c r="E44" s="107" t="s">
+        <v>449</v>
       </c>
       <c r="G44" s="55"/>
-      <c r="H44" s="106"/>
+      <c r="H44" s="105"/>
     </row>
     <row r="45" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="55" t="s">
@@ -11152,11 +11500,11 @@
         <v>426</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E45" s="55"/>
       <c r="G45" s="55"/>
-      <c r="H45" s="106"/>
+      <c r="H45" s="105"/>
     </row>
     <row r="46" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="55" t="s">
@@ -11169,13 +11517,13 @@
         <v>422</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>434</v>
-      </c>
-      <c r="E46" s="108" t="s">
-        <v>442</v>
+        <v>433</v>
+      </c>
+      <c r="E46" s="107" t="s">
+        <v>438</v>
       </c>
       <c r="G46" s="55"/>
-      <c r="H46" s="106"/>
+      <c r="H46" s="105"/>
     </row>
     <row r="47" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="55" t="s">
@@ -11186,11 +11534,11 @@
       </c>
       <c r="C47" s="55"/>
       <c r="D47" s="55"/>
-      <c r="E47" s="108" t="s">
-        <v>442</v>
+      <c r="E47" s="107" t="s">
+        <v>438</v>
       </c>
       <c r="G47" s="55"/>
-      <c r="H47" s="106"/>
+      <c r="H47" s="105"/>
     </row>
     <row r="48" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="55" t="s">
@@ -11203,14 +11551,14 @@
         <v>428</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E48" s="55"/>
       <c r="F48" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G48" s="55"/>
-      <c r="H48" s="106"/>
+      <c r="H48" s="105"/>
     </row>
     <row r="49" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="55" t="s">
@@ -11222,15 +11570,15 @@
       <c r="C49" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="D49" s="111" t="s">
-        <v>452</v>
+      <c r="D49" s="110" t="s">
+        <v>448</v>
       </c>
       <c r="E49" s="55"/>
       <c r="F49" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G49" s="55"/>
-      <c r="H49" s="106"/>
+      <c r="H49" s="105"/>
     </row>
     <row r="50" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="55" t="s">
@@ -11243,14 +11591,14 @@
         <v>428</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E50" s="55"/>
       <c r="F50" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G50" s="55"/>
-      <c r="H50" s="106"/>
+      <c r="H50" s="105"/>
     </row>
     <row r="51" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="55" t="s">
@@ -11263,14 +11611,14 @@
         <v>426</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E51" s="55"/>
       <c r="F51" s="95" t="s">
         <v>425</v>
       </c>
       <c r="G51" s="55"/>
-      <c r="H51" s="106"/>
+      <c r="H51" s="105"/>
     </row>
     <row r="52" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="55" t="s">
@@ -11283,7 +11631,7 @@
       <c r="D52" s="55"/>
       <c r="E52" s="55"/>
       <c r="G52" s="55"/>
-      <c r="H52" s="106"/>
+      <c r="H52" s="105"/>
     </row>
     <row r="53" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="55" t="s">
@@ -11296,7 +11644,7 @@
       <c r="D53" s="55"/>
       <c r="E53" s="55"/>
       <c r="G53" s="55"/>
-      <c r="H53" s="106"/>
+      <c r="H53" s="105"/>
     </row>
     <row r="54" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="55" t="s">
@@ -11309,7 +11657,7 @@
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
       <c r="G54" s="55"/>
-      <c r="H54" s="106"/>
+      <c r="H54" s="105"/>
     </row>
     <row r="55" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="55" t="s">
@@ -11322,7 +11670,7 @@
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
       <c r="G55" s="55"/>
-      <c r="H55" s="106"/>
+      <c r="H55" s="105"/>
     </row>
     <row r="56" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="55" t="s">
@@ -11335,7 +11683,7 @@
       <c r="D56" s="55"/>
       <c r="E56" s="55"/>
       <c r="G56" s="55"/>
-      <c r="H56" s="106"/>
+      <c r="H56" s="105"/>
     </row>
     <row r="57" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="55" t="s">
@@ -11348,7 +11696,7 @@
       <c r="D57" s="55"/>
       <c r="E57" s="55"/>
       <c r="G57" s="55"/>
-      <c r="H57" s="106"/>
+      <c r="H57" s="105"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="55" t="s">
@@ -11361,7 +11709,7 @@
       <c r="D58" s="55"/>
       <c r="E58" s="55"/>
       <c r="G58" s="55"/>
-      <c r="H58" s="106"/>
+      <c r="H58" s="105"/>
     </row>
     <row r="59" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="55" t="s">
@@ -11374,7 +11722,7 @@
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
       <c r="G59" s="55"/>
-      <c r="H59" s="106"/>
+      <c r="H59" s="105"/>
     </row>
     <row r="60" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="55" t="s">
@@ -11387,7 +11735,7 @@
       <c r="D60" s="55"/>
       <c r="E60" s="55"/>
       <c r="G60" s="55"/>
-      <c r="H60" s="106"/>
+      <c r="H60" s="105"/>
     </row>
     <row r="61" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="55" t="s">
@@ -11400,7 +11748,7 @@
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
       <c r="G61" s="55"/>
-      <c r="H61" s="106"/>
+      <c r="H61" s="105"/>
     </row>
     <row r="62" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="55" t="s">
@@ -11413,7 +11761,7 @@
       <c r="D62" s="55"/>
       <c r="E62" s="55"/>
       <c r="G62" s="55"/>
-      <c r="H62" s="106"/>
+      <c r="H62" s="105"/>
     </row>
     <row r="63" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="55" t="s">
@@ -11426,7 +11774,7 @@
       <c r="D63" s="55"/>
       <c r="E63" s="55"/>
       <c r="G63" s="55"/>
-      <c r="H63" s="106"/>
+      <c r="H63" s="105"/>
     </row>
     <row r="64" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="55" t="s">
@@ -11439,7 +11787,7 @@
       <c r="D64" s="55"/>
       <c r="E64" s="55"/>
       <c r="G64" s="55"/>
-      <c r="H64" s="106"/>
+      <c r="H64" s="105"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="55" t="s">
@@ -11452,7 +11800,7 @@
       <c r="D65" s="55"/>
       <c r="E65" s="55"/>
       <c r="G65" s="55"/>
-      <c r="H65" s="106"/>
+      <c r="H65" s="105"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55" t="s">
@@ -11465,7 +11813,7 @@
       <c r="D66" s="55"/>
       <c r="E66" s="55"/>
       <c r="G66" s="55"/>
-      <c r="H66" s="106"/>
+      <c r="H66" s="105"/>
     </row>
     <row r="67" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="55" t="s">
@@ -11478,7 +11826,7 @@
       <c r="D67" s="55"/>
       <c r="E67" s="55"/>
       <c r="G67" s="55"/>
-      <c r="H67" s="106"/>
+      <c r="H67" s="105"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="55" t="s">
@@ -11491,7 +11839,7 @@
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
       <c r="G68" s="55"/>
-      <c r="H68" s="106"/>
+      <c r="H68" s="105"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="55" t="s">
@@ -11504,7 +11852,7 @@
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
       <c r="G69" s="55"/>
-      <c r="H69" s="106"/>
+      <c r="H69" s="105"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="55" t="s">
@@ -11517,7 +11865,7 @@
       <c r="D70" s="55"/>
       <c r="E70" s="55"/>
       <c r="G70" s="55"/>
-      <c r="H70" s="106"/>
+      <c r="H70" s="105"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="55" t="s">
@@ -11530,7 +11878,7 @@
       <c r="D71" s="55"/>
       <c r="E71" s="55"/>
       <c r="G71" s="55"/>
-      <c r="H71" s="106"/>
+      <c r="H71" s="105"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="55" t="s">
@@ -11543,7 +11891,7 @@
       <c r="D72" s="55"/>
       <c r="E72" s="55"/>
       <c r="G72" s="55"/>
-      <c r="H72" s="106"/>
+      <c r="H72" s="105"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="55" t="s">
@@ -11556,7 +11904,7 @@
       <c r="D73" s="55"/>
       <c r="E73" s="55"/>
       <c r="G73" s="55"/>
-      <c r="H73" s="106"/>
+      <c r="H73" s="105"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="55" t="s">
@@ -11569,7 +11917,7 @@
       <c r="D74" s="55"/>
       <c r="E74" s="55"/>
       <c r="G74" s="55"/>
-      <c r="H74" s="106"/>
+      <c r="H74" s="105"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55" t="s">
@@ -11582,7 +11930,7 @@
       <c r="D75" s="55"/>
       <c r="E75" s="55"/>
       <c r="G75" s="55"/>
-      <c r="H75" s="106"/>
+      <c r="H75" s="105"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="55" t="s">
@@ -11595,7 +11943,7 @@
       <c r="D76" s="55"/>
       <c r="E76" s="55"/>
       <c r="G76" s="55"/>
-      <c r="H76" s="106"/>
+      <c r="H76" s="105"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="55" t="s">
@@ -11608,7 +11956,7 @@
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
       <c r="G77" s="55"/>
-      <c r="H77" s="106"/>
+      <c r="H77" s="105"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="55" t="s">
@@ -11621,7 +11969,7 @@
       <c r="D78" s="55"/>
       <c r="E78" s="55"/>
       <c r="G78" s="55"/>
-      <c r="H78" s="106"/>
+      <c r="H78" s="105"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55" t="s">
@@ -11634,7 +11982,7 @@
       <c r="D79" s="55"/>
       <c r="E79" s="55"/>
       <c r="G79" s="55"/>
-      <c r="H79" s="106"/>
+      <c r="H79" s="105"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="55" t="s">
@@ -11647,7 +11995,7 @@
       <c r="D80" s="55"/>
       <c r="E80" s="55"/>
       <c r="G80" s="55"/>
-      <c r="H80" s="106"/>
+      <c r="H80" s="105"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="55" t="s">
@@ -11660,7 +12008,7 @@
       <c r="D81" s="55"/>
       <c r="E81" s="55"/>
       <c r="G81" s="55"/>
-      <c r="H81" s="106"/>
+      <c r="H81" s="105"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="55" t="s">
@@ -11673,7 +12021,7 @@
       <c r="D82" s="55"/>
       <c r="E82" s="55"/>
       <c r="G82" s="55"/>
-      <c r="H82" s="106"/>
+      <c r="H82" s="105"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="55" t="s">
@@ -11686,14 +12034,14 @@
         <v>422</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E83" s="55"/>
       <c r="F83" s="1" t="s">
         <v>423</v>
       </c>
       <c r="G83" s="55"/>
-      <c r="H83" s="106"/>
+      <c r="H83" s="105"/>
     </row>
     <row r="84" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="55" t="s">
@@ -11705,10 +12053,10 @@
       <c r="C84" s="55"/>
       <c r="D84" s="55"/>
       <c r="E84" s="55" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G84" s="55"/>
-      <c r="H84" s="106"/>
+      <c r="H84" s="105"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="55" t="s">
@@ -11721,7 +12069,7 @@
       <c r="D85" s="55"/>
       <c r="E85" s="55"/>
       <c r="G85" s="55"/>
-      <c r="H85" s="106"/>
+      <c r="H85" s="105"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="55" t="s">
@@ -11734,7 +12082,7 @@
       <c r="D86" s="55"/>
       <c r="E86" s="55"/>
       <c r="G86" s="55"/>
-      <c r="H86" s="106"/>
+      <c r="H86" s="105"/>
     </row>
     <row r="87" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="55" t="s">
@@ -11747,7 +12095,7 @@
       <c r="D87" s="55"/>
       <c r="E87" s="55"/>
       <c r="G87" s="55"/>
-      <c r="H87" s="106"/>
+      <c r="H87" s="105"/>
     </row>
     <row r="88" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="55" t="s">
@@ -11760,7 +12108,7 @@
       <c r="D88" s="55"/>
       <c r="E88" s="55"/>
       <c r="G88" s="55"/>
-      <c r="H88" s="106"/>
+      <c r="H88" s="105"/>
     </row>
     <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="55" t="s">
@@ -11773,14 +12121,14 @@
         <v>428</v>
       </c>
       <c r="D89" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E89" s="55"/>
       <c r="F89" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G89" s="55"/>
-      <c r="H89" s="106"/>
+      <c r="H89" s="105"/>
     </row>
     <row r="90" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="55" t="s">
@@ -11793,14 +12141,14 @@
         <v>428</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E90" s="55"/>
       <c r="F90" s="1" t="s">
         <v>427</v>
       </c>
       <c r="G90" s="55"/>
-      <c r="H90" s="106"/>
+      <c r="H90" s="105"/>
     </row>
     <row r="91" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="55" t="s">
@@ -11813,7 +12161,7 @@
       <c r="D91" s="55"/>
       <c r="E91" s="55"/>
       <c r="G91" s="55"/>
-      <c r="H91" s="106"/>
+      <c r="H91" s="105"/>
     </row>
     <row r="92" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="55" t="s">
@@ -11826,7 +12174,7 @@
       <c r="D92" s="55"/>
       <c r="E92" s="55"/>
       <c r="G92" s="55"/>
-      <c r="H92" s="106"/>
+      <c r="H92" s="105"/>
     </row>
     <row r="93" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="55" t="s">
@@ -11839,7 +12187,7 @@
       <c r="D93" s="55"/>
       <c r="E93" s="55"/>
       <c r="G93" s="55"/>
-      <c r="H93" s="106"/>
+      <c r="H93" s="105"/>
     </row>
     <row r="94" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="55" t="s">
@@ -11852,7 +12200,7 @@
       <c r="D94" s="55"/>
       <c r="E94" s="55"/>
       <c r="G94" s="55"/>
-      <c r="H94" s="106"/>
+      <c r="H94" s="105"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -11862,6 +12210,402 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="56" customFormat="1" ht="94.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="95" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="95" t="s">
+        <v>502</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>500</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4" s="119" t="s">
+        <v>430</v>
+      </c>
+      <c r="E4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="95" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="118"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="117" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>472</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="117" t="s">
+        <v>465</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E8" t="s">
+        <v>474</v>
+      </c>
+      <c r="F8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="117" t="s">
+        <v>465</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>476</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="117" t="s">
+        <v>465</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>477</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="117" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="117" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>478</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="117" t="s">
+        <v>465</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="118"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="117" t="s">
+        <v>464</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>499</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="117" t="s">
+        <v>464</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F16" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="117" t="s">
+        <v>464</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E17" t="s">
+        <v>495</v>
+      </c>
+      <c r="F17" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="117" t="s">
+        <v>464</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E18" t="s">
+        <v>496</v>
+      </c>
+      <c r="F18" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="117" t="s">
+        <v>464</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E19" t="s">
+        <v>498</v>
+      </c>
+      <c r="F19" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="74.140625" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="56" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="114" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" s="116" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="113" t="s">
+        <v>460</v>
+      </c>
+      <c r="C4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="114" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="115" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>

--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="557">
   <si>
     <t>funktor</t>
   </si>
@@ -3294,36 +3294,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>role (NON participant)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>… ALE 341 x pod ním něco visí</t>
-    </r>
-  </si>
-  <si>
     <t>TODO …. should be refined later</t>
   </si>
   <si>
@@ -3333,23 +3303,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">attribute
-?? subrole
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>… ALE 48x pod ním něco visí, viz sloupec H</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -3576,193 +3529,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (1x) ... "stejně tak" --&gt; spojit s PREC (přes podtržítko)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">lemma </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>#Neg 194x … jeho rodičem je vždy koord. uzel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (GRAD, ADVS n. CONJ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">jiná t_lemmata </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">… spousty:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Většinou lze spojit přes podtržítka (tj. jakoby jedno lemma) n. přes op:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>12x … něco visí pod CM:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-- 6x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> pod CM je RSTR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (v první/neposlední řadě apod.; jinými slovy) --&gt; spojit s CM
--1x "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>nota bene</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">" FPHR -&gt; klidně spojit do jediného CM uzlu (jako DPHR) 
-- 1x </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">pod RHEM je EXT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(ale RHEM není "ne") ... ???
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1x CM je ve s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>kutečnosti negace</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (zdaleka ne) ... ???</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-- ??? jednak-jednak
-(1x akcie - chyba)</t>
     </r>
   </si>
   <si>
@@ -5195,64 +4961,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">UNLESS combined </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">attribute </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>… ALE 72 x pod ním něco visí, viz sloupec H</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-??? role (NON-participant)</t>
     </r>
   </si>
   <si>
@@ -5693,47 +5401,6 @@
     <t>#Unsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>if t_lemma = #Neg</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
---&gt; attribute polarity
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>if t_lemma jiné</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
---&gt; clausal marker</t>
-    </r>
-  </si>
-  <si>
     <t>effect</t>
   </si>
   <si>
@@ -5851,212 +5518,178 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">attribute
-?? subrole </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(jako name, tj. bez vlastního uzlu)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+    <t xml:space="preserve">clausal-marker  
+</t>
+  </si>
+  <si>
+    <r>
+      <t>subtype: attitude-marker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (semantic modification)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TODO …. should be refined later, 
+perhaps using discourse roles?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (ale anotátoři už měli zohlednit, jestli spíš neoznačit význam (příčina, přípustka, ...))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TODO …. most chases can be merged into one subrole (as one t_lemma OR via ops) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>subtype: discourse-marker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (structure modification)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TODO … NUTNO vytvořit tabulku </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pro 93 t_lemmat.MOD (částečně hotovo) a pak v kombinace s
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>verbmod --&gt; factmod ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>deontmod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sentmod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+a v kombinaci s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">negací!!!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>subtype: modal-marker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (structure modification)
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>… ALE 12x pod ním něco visí, viz sloupec H …. co s tím??</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">clausal-marker  
-</t>
-  </si>
-  <si>
-    <r>
-      <t>subtype: attitude-marker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (semantic modification)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TODO …. should be refined later, 
-perhaps using discourse roles?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (ale anotátoři už měli zohlednit, jestli spíš neoznačit význam (příčina, přípustka, ...))
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">TODO …. most chases can be merged into one subrole (as one t_lemma OR via ops) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>subtype: discourse-marker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (structure modification)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TODO … NUTNO vytvořit tabulku </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">pro 93 t_lemmat.MOD (částečně hotovo) a pak v kombinace s
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>verbmod --&gt; factmod ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>deontmod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ,
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>sentmod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-a v kombinaci s </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">negací!!!
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>subtype: modal-marker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (structure modification)
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -6079,47 +5712,6 @@
         <family val="2"/>
       </rPr>
       <t>(semantic modification)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>if t_lemma = #Neg</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-attribute polarity
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>if t_lemma jiné</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-clausal-marker</t>
     </r>
   </si>
   <si>
@@ -6299,12 +5891,848 @@
       <t>attributes ??</t>
     </r>
   </si>
+  <si>
+    <t>UMR: compared-to but only as ARG4 role of  have-degree-91 predicate</t>
+  </si>
+  <si>
+    <t>ADVS … 2 obsahy, které nejsou v souladu (ale, avšak, jenže, leč, nicméně, …  aniž, ...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rodič ADVS --&gt; attribute … k sourozenci, viz sloupec H </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ADVS:
+1. atribut P sourozence se sempos v/adj, 
+   - pokud je #Neg i v/adj za ADVS
+   (asi i přeskočit #PersPron, #NewNod, aktant, přísl., koord.spojku se spol. rozvitím, přísl,...; i když je daleko vepředu (neproj.))
+   - ALE i pokud oba před ADVS  (a nic jiného tam není)
+ 2. atribut L sourozence se sempos  v/adj, 
+   - pokud je  #Neg i v/adj před ADVS
+   - ALE i pokud oba za ADVS (a nic jiného tam není)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Nejel jsem domů.ADVS ... , ale na služební cestu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>… ASI chyba v pořadí uzlů??</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Nechtěl jsem žádné výhody , ale.ADVS slušné jednání </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>… koord. substantiv (ne sloves) … méně, ale ne ojedinělé!!!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Není</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>jenom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oslava , posezení , ale k tomu i drobet práce . --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nejen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oslava</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lemma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>#Neg 194x … jeho rodičem je vždy koord. uzel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ADVS 91x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">atribut prvního P (n. L) sourozence se sempos  v/adj, který je na stejné straně od ADVS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(hl. slovosled; i pro koord. slovesa)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+POKUD jde o koord. substantiv</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ???</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+----------------------------------------
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>GRAD 65x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ... kombinuje se s jenom.CM, jen.CM, pouze.CA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(sourozenci, občas mezi nimi ještě jiný uzel, to asi nevadí)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, patří asi k sobě
+----------------------------------------</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+CONJ 37x 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">atribut prvního P (n. L) sourozence se sempos  v/adj, který je na stejné straně od CONJ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(hl. slovosled; i pro koord. slovesa)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>----------------------------------------</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">jiná t_lemmata než #Neg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>… spousty, ponechat 
+----------------------------------------</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>12x … něco visí pod CM:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- 6x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pod CM je RSTR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (v první/neposlední řadě apod.; jinými slovy) --&gt; spojit s CM
+-1x "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nota bene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">" FPHR -&gt; klidně spojit do jediného CM uzlu (jako DPHR) 
+- 1x </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pod RHEM je EXT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(ale RHEM není "ne") ... ???
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1x CM je ve s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>kutečnosti negace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (zdaleka ne) ... ???</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- ??? jednak-jednak
+(1x akcie - chyba)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if t_lemma = #Neg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; attribute polarity pro ADVS
+--&gt; spojit s jenom apod. GRAD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if t_lemma jiné</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; clausal marker</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if t_lemma = #Neg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+attribute polarity
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if t_lemma jiné</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+clausal-marker</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">attribute k rodiči, pokud má sempos = v, adj, 2x n, adv
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">undef 148 #EmpVerb ???
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(adj.denot 3 … neschopný, 2x nespokojený)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n.denot 3 … 1x -ní (atribut k němu),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  1x patří k sourozenci "výlučně",  1x patří k slovesu nad ("být")
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n.denot.neg … 1x -ní (atribut k němu)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>adv.denot.ngrad.nneg 1 ...  1x deverbální (atribut k němu)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">subrole
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>… ALE 48x pod ním něco visí, viz sloupec H</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rodič ADVS --&gt; attribute … k sourozenci, viz sloupec H 
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(?? může jich být víc??)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+rodič GRAD --&gt; spojit s jen, jenom, pouze, výhradně</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (sourozenec, cca 2x jinde ve větě)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rodič CONJ --&gt; attribute … k sourozenci, viz sloupec H 
+subrole </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(jako name, tj. bez vlastního uzlu)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>… ALE 12x pod ním něco visí, viz sloupec H …. co s tím??</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>… ALE 72 x pod ním něco visí, viz sloupec H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+subrole (NON-participant)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>subrole (NON participant)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>… ALE 341 x pod ním něco visí</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="44">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6615,6 +7043,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -6746,7 +7180,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -7103,6 +7537,9 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
@@ -7372,12 +7809,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="3.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
@@ -7394,7 +7831,7 @@
     <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19">
         <v>0</v>
       </c>
@@ -7433,7 +7870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -7455,7 +7892,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>0</v>
       </c>
@@ -7477,7 +7914,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>0</v>
       </c>
@@ -7499,7 +7936,7 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>0</v>
       </c>
@@ -7521,7 +7958,7 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>0</v>
       </c>
@@ -7543,7 +7980,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>0</v>
       </c>
@@ -7559,7 +7996,7 @@
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:13" ht="112.5">
+    <row r="8" spans="1:13" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>1</v>
       </c>
@@ -7587,7 +8024,7 @@
       </c>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:13" ht="150">
+    <row r="9" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>2</v>
       </c>
@@ -7615,7 +8052,7 @@
       </c>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:13" ht="30">
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>3</v>
       </c>
@@ -7643,7 +8080,7 @@
       </c>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:13" ht="60">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>4</v>
       </c>
@@ -7675,7 +8112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>5</v>
       </c>
@@ -7687,7 +8124,7 @@
         <v>34902</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F12" s="71" t="s">
         <v>258</v>
@@ -7698,7 +8135,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="17"/>
       <c r="J12" s="26" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>28</v>
@@ -7707,7 +8144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>6</v>
       </c>
@@ -7723,7 +8160,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>7</v>
       </c>
@@ -7751,7 +8188,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>8</v>
       </c>
@@ -7775,7 +8212,7 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>9</v>
       </c>
@@ -7801,7 +8238,7 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>10</v>
       </c>
@@ -7827,7 +8264,7 @@
       </c>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>11</v>
       </c>
@@ -7851,7 +8288,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>12</v>
       </c>
@@ -7875,7 +8312,7 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>13</v>
       </c>
@@ -7899,7 +8336,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>14</v>
       </c>
@@ -7923,7 +8360,7 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>15</v>
       </c>
@@ -7947,7 +8384,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>16</v>
       </c>
@@ -7963,7 +8400,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="1:12" ht="75">
+    <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>17</v>
       </c>
@@ -7995,7 +8432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>18</v>
       </c>
@@ -8025,7 +8462,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="48.75" customHeight="1">
+    <row r="26" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>19</v>
       </c>
@@ -8052,10 +8489,10 @@
         <v>57</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>20</v>
       </c>
@@ -8085,7 +8522,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>21</v>
       </c>
@@ -8101,7 +8538,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="1:12" ht="30">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>22</v>
       </c>
@@ -8127,7 +8564,7 @@
       </c>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1">
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>23</v>
       </c>
@@ -8155,7 +8592,7 @@
       </c>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" ht="96" customHeight="1">
+    <row r="31" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>24</v>
       </c>
@@ -8171,7 +8608,7 @@
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="36" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>241</v>
@@ -8182,7 +8619,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>25</v>
       </c>
@@ -8206,7 +8643,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" ht="33" customHeight="1">
+    <row r="33" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>26</v>
       </c>
@@ -8232,7 +8669,7 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>27</v>
       </c>
@@ -8248,7 +8685,7 @@
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>28</v>
       </c>
@@ -8276,7 +8713,7 @@
       </c>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" ht="120">
+    <row r="36" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>29</v>
       </c>
@@ -8288,7 +8725,7 @@
         <v>7271</v>
       </c>
       <c r="E36" s="106" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F36" s="71" t="s">
         <v>258</v>
@@ -8297,16 +8734,18 @@
         <v>207</v>
       </c>
       <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
+      <c r="I36" s="17" t="s">
+        <v>546</v>
+      </c>
       <c r="J36" s="26" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="K36" s="22" t="s">
         <v>76</v>
       </c>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" ht="79.5" customHeight="1">
+    <row r="37" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>30</v>
       </c>
@@ -8317,7 +8756,7 @@
       <c r="D37" s="15">
         <v>4932</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="41" t="s">
         <v>238</v>
       </c>
       <c r="F37" s="71" t="s">
@@ -8327,14 +8766,14 @@
         <v>207</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="59"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>31</v>
       </c>
@@ -8360,7 +8799,7 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>32</v>
       </c>
@@ -8388,7 +8827,7 @@
       </c>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>33</v>
       </c>
@@ -8416,7 +8855,7 @@
       </c>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" ht="30">
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>34</v>
       </c>
@@ -8446,7 +8885,7 @@
       </c>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" s="81" customFormat="1">
+    <row r="42" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>35</v>
       </c>
@@ -8472,7 +8911,7 @@
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
     </row>
-    <row r="43" spans="1:12" ht="80.25" customHeight="1">
+    <row r="43" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>36</v>
       </c>
@@ -8483,7 +8922,7 @@
       <c r="D43" s="15">
         <v>10752</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="41" t="s">
         <v>238</v>
       </c>
       <c r="F43" s="28" t="s">
@@ -8500,7 +8939,7 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>37</v>
       </c>
@@ -8526,7 +8965,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>38</v>
       </c>
@@ -8550,7 +8989,7 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>39</v>
       </c>
@@ -8566,7 +9005,7 @@
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
     </row>
-    <row r="47" spans="1:12" ht="30">
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>40</v>
       </c>
@@ -8596,7 +9035,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="126.75" customHeight="1">
+    <row r="48" spans="1:12" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>41</v>
       </c>
@@ -8612,7 +9051,7 @@
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="36" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H48" s="37" t="s">
         <v>226</v>
@@ -8624,7 +9063,7 @@
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:12" ht="45">
+    <row r="49" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>42</v>
       </c>
@@ -8652,7 +9091,7 @@
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>43</v>
       </c>
@@ -8676,7 +9115,7 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>44</v>
       </c>
@@ -8692,7 +9131,7 @@
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
     </row>
-    <row r="52" spans="1:12" ht="409.5">
+    <row r="52" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>45</v>
       </c>
@@ -8711,7 +9150,7 @@
         <v>236</v>
       </c>
       <c r="H52" s="37" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I52" s="39" t="s">
         <v>247</v>
@@ -8722,7 +9161,7 @@
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>44</v>
       </c>
@@ -8738,7 +9177,7 @@
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
     </row>
-    <row r="54" spans="1:12" ht="45">
+    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>47</v>
       </c>
@@ -8768,7 +9207,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>48</v>
       </c>
@@ -8794,7 +9233,7 @@
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:12" ht="186.75" customHeight="1">
+    <row r="56" spans="1:12" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>49</v>
       </c>
@@ -8824,7 +9263,7 @@
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:12" ht="30">
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>50</v>
       </c>
@@ -8845,12 +9284,12 @@
       <c r="H57" s="13"/>
       <c r="I57" s="17"/>
       <c r="J57" s="26" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>51</v>
       </c>
@@ -8876,7 +9315,7 @@
       </c>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>52</v>
       </c>
@@ -8898,7 +9337,7 @@
       <c r="K59" s="42"/>
       <c r="L59" s="42"/>
     </row>
-    <row r="60" spans="1:12" ht="60">
+    <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>53</v>
       </c>
@@ -8928,7 +9367,7 @@
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>54</v>
       </c>
@@ -8956,7 +9395,7 @@
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12" ht="375">
+    <row r="62" spans="1:12" ht="375" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>55</v>
       </c>
@@ -8974,7 +9413,7 @@
         <v>261</v>
       </c>
       <c r="G62" s="46" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H62" s="58" t="s">
         <v>237</v>
@@ -8983,12 +9422,12 @@
         <v>234</v>
       </c>
       <c r="J62" s="83" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>56</v>
       </c>
@@ -9012,7 +9451,7 @@
       <c r="K63" s="42"/>
       <c r="L63" s="42"/>
     </row>
-    <row r="64" spans="1:12" ht="75">
+    <row r="64" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>57</v>
       </c>
@@ -9028,9 +9467,11 @@
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="46" t="s">
-        <v>375</v>
-      </c>
-      <c r="H64" s="77"/>
+        <v>372</v>
+      </c>
+      <c r="H64" s="77" t="s">
+        <v>547</v>
+      </c>
       <c r="I64" s="9" t="s">
         <v>242</v>
       </c>
@@ -9040,7 +9481,7 @@
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
     </row>
-    <row r="65" spans="1:12" ht="30">
+    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>58</v>
       </c>
@@ -9056,7 +9497,7 @@
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="47" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H65" s="66"/>
       <c r="I65" s="24" t="s">
@@ -9065,7 +9506,7 @@
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
     </row>
-    <row r="66" spans="1:12" ht="30">
+    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>59</v>
       </c>
@@ -9081,7 +9522,7 @@
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="47" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H66" s="66"/>
       <c r="I66" s="17"/>
@@ -9089,7 +9530,7 @@
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
     </row>
-    <row r="67" spans="1:12" ht="30">
+    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>60</v>
       </c>
@@ -9107,7 +9548,7 @@
         <v>258</v>
       </c>
       <c r="G67" s="47" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H67" s="66"/>
       <c r="I67" s="24" t="s">
@@ -9117,7 +9558,7 @@
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
     </row>
-    <row r="68" spans="1:12" ht="30">
+    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>66</v>
       </c>
@@ -9133,7 +9574,7 @@
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="47" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H68" s="66"/>
       <c r="I68" s="24" t="s">
@@ -9143,7 +9584,7 @@
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
     </row>
-    <row r="69" spans="1:12" ht="30">
+    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>67</v>
       </c>
@@ -9159,7 +9600,7 @@
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="47" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H69" s="66"/>
       <c r="I69" s="45" t="s">
@@ -9169,7 +9610,7 @@
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:12" ht="30">
+    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>68</v>
       </c>
@@ -9187,7 +9628,7 @@
         <v>258</v>
       </c>
       <c r="G70" s="47" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H70" s="66"/>
       <c r="I70" s="17"/>
@@ -9195,7 +9636,7 @@
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
     </row>
-    <row r="71" spans="1:12" ht="30">
+    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>69</v>
       </c>
@@ -9211,7 +9652,7 @@
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="36" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H71" s="66"/>
       <c r="I71" s="24" t="s">
@@ -9221,7 +9662,7 @@
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
         <v>70</v>
       </c>
@@ -9243,7 +9684,7 @@
       <c r="K72" s="42"/>
       <c r="L72" s="42"/>
     </row>
-    <row r="73" spans="1:12" ht="75">
+    <row r="73" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>71</v>
       </c>
@@ -9259,7 +9700,7 @@
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="36" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H73" s="60" t="s">
         <v>263</v>
@@ -9271,7 +9712,7 @@
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="42">
         <v>72</v>
       </c>
@@ -9293,7 +9734,7 @@
       <c r="K74" s="42"/>
       <c r="L74" s="42"/>
     </row>
-    <row r="75" spans="1:12" ht="30">
+    <row r="75" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>73</v>
       </c>
@@ -9311,19 +9752,19 @@
         <v>258</v>
       </c>
       <c r="G75" s="47" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H75" s="47"/>
       <c r="I75" s="24" t="s">
         <v>138</v>
       </c>
       <c r="J75" s="82" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="42">
         <v>74</v>
       </c>
@@ -9345,7 +9786,7 @@
       <c r="K76" s="42"/>
       <c r="L76" s="42"/>
     </row>
-    <row r="77" spans="1:12" ht="270">
+    <row r="77" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>75</v>
       </c>
@@ -9357,25 +9798,27 @@
         <v>7505</v>
       </c>
       <c r="E77" s="69" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="F77" s="71" t="s">
         <v>262</v>
       </c>
       <c r="G77" s="74" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="H77" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="I77" s="17"/>
+        <v>550</v>
+      </c>
+      <c r="I77" s="122" t="s">
+        <v>549</v>
+      </c>
       <c r="J77" s="82" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="42">
         <v>76</v>
       </c>
@@ -9390,14 +9833,16 @@
         <v>116</v>
       </c>
       <c r="F78" s="121"/>
-      <c r="G78" s="42"/>
+      <c r="G78" s="42" t="s">
+        <v>548</v>
+      </c>
       <c r="H78" s="42"/>
       <c r="I78" s="42"/>
       <c r="J78" s="42"/>
       <c r="K78" s="42"/>
       <c r="L78" s="42"/>
     </row>
-    <row r="79" spans="1:12" ht="30">
+    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>77</v>
       </c>
@@ -9409,25 +9854,25 @@
         <v>7403</v>
       </c>
       <c r="E79" s="64" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F79" s="28" t="s">
         <v>258</v>
       </c>
       <c r="G79" s="70" t="s">
-        <v>270</v>
+        <v>556</v>
       </c>
       <c r="H79" s="78"/>
       <c r="I79" s="24" t="s">
         <v>267</v>
       </c>
       <c r="J79" s="70" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
     </row>
-    <row r="80" spans="1:12" ht="75">
+    <row r="80" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>78</v>
       </c>
@@ -9455,37 +9900,37 @@
       <c r="K80" s="22"/>
       <c r="L80" s="22"/>
     </row>
-    <row r="81" spans="1:12" ht="315">
+    <row r="81" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>79</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="14" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="57" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F81" s="28" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G81" s="74" t="s">
-        <v>487</v>
+        <v>555</v>
       </c>
       <c r="H81" s="84" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I81" s="115" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J81" s="82" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="K81" s="24"/>
       <c r="L81" s="22"/>
     </row>
-    <row r="82" spans="1:12" ht="315">
+    <row r="82" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>80</v>
       </c>
@@ -9497,27 +9942,27 @@
         <v>17898</v>
       </c>
       <c r="E82" s="63" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F82" s="28" t="s">
         <v>258</v>
       </c>
       <c r="G82" s="74" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="H82" s="84" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I82" s="120" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="J82" s="82" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
     </row>
-    <row r="83" spans="1:12" ht="315">
+    <row r="83" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>81</v>
       </c>
@@ -9529,27 +9974,27 @@
         <v>62978</v>
       </c>
       <c r="E83" s="69" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="F83" s="28" t="s">
         <v>262</v>
       </c>
       <c r="G83" s="74" t="s">
+        <v>553</v>
+      </c>
+      <c r="H83" s="76" t="s">
         <v>273</v>
-      </c>
-      <c r="H83" s="76" t="s">
-        <v>276</v>
       </c>
       <c r="I83" s="24" t="s">
         <v>268</v>
       </c>
       <c r="J83" s="82" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="42">
         <v>82</v>
       </c>
@@ -9571,95 +10016,95 @@
       <c r="K84" s="42"/>
       <c r="L84" s="42"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E86" s="92" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F86" s="91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E87" s="92" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F87" s="91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E88" s="92" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F88" s="91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E89" s="92" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F89" s="91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E90" s="92" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F90" s="91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E91" s="92" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F91" s="91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E92" s="92" t="s">
+        <v>391</v>
+      </c>
+      <c r="F92" s="91" t="s">
         <v>394</v>
-      </c>
-      <c r="F92" s="91" t="s">
-        <v>397</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E93" s="92" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F93" s="91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E94" s="92" t="s">
         <v>87</v>
       </c>
@@ -9670,7 +10115,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E95" s="92" t="s">
         <v>72</v>
       </c>
@@ -9681,21 +10126,21 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C96" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E96" s="92" t="s">
+        <v>393</v>
+      </c>
+      <c r="F96" s="65" t="s">
         <v>396</v>
-      </c>
-      <c r="F96" s="65" t="s">
-        <v>399</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="3:9">
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E97" s="92" t="s">
         <v>59</v>
       </c>
@@ -9706,7 +10151,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="98" spans="3:9">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E98" s="92" t="s">
         <v>45</v>
       </c>
@@ -9717,20 +10162,20 @@
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="3:9">
+    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E99" s="92" t="s">
         <v>22</v>
       </c>
       <c r="F99" s="91" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="3:9">
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C100" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E100" s="92" t="s">
         <v>55</v>
@@ -9742,7 +10187,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="3:9">
+    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E101" s="92" t="s">
         <v>96</v>
       </c>
@@ -9753,37 +10198,37 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="3:9">
+    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E102" s="92" t="s">
         <v>65</v>
       </c>
       <c r="F102" s="91" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="3:9">
+    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E103" s="92" t="s">
         <v>84</v>
       </c>
       <c r="F103" s="91" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="3:9" ht="30">
+    <row r="104" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C104" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E104" s="92" t="s">
         <v>144</v>
       </c>
       <c r="F104" s="65" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>209</v>
@@ -9792,12 +10237,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="3:9">
+    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E105" s="92" t="s">
         <v>63</v>
       </c>
       <c r="F105" s="91" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>209</v>
@@ -9806,18 +10251,18 @@
         <v>251</v>
       </c>
     </row>
-    <row r="106" spans="3:9">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E106" s="92" t="s">
         <v>30</v>
       </c>
       <c r="F106" s="91" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="3:9">
+    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E107" s="92" t="s">
         <v>79</v>
       </c>
@@ -9828,12 +10273,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="3:9">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I108" s="65"/>
     </row>
-    <row r="109" spans="3:9">
+    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C109" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E109" s="91" t="s">
         <v>145</v>
@@ -9843,9 +10288,9 @@
       </c>
       <c r="I109" s="7"/>
     </row>
-    <row r="110" spans="3:9">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C110" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E110" s="91" t="s">
         <v>146</v>
@@ -9855,9 +10300,9 @@
       </c>
       <c r="I110" s="7"/>
     </row>
-    <row r="111" spans="3:9">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C111" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E111" s="91" t="s">
         <v>147</v>
@@ -9867,9 +10312,9 @@
       </c>
       <c r="I111" s="7"/>
     </row>
-    <row r="112" spans="3:9">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C112" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E112" s="91" t="s">
         <v>148</v>
@@ -9879,9 +10324,9 @@
       </c>
       <c r="I112" s="7"/>
     </row>
-    <row r="113" spans="3:9">
+    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C113" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E113" s="91" t="s">
         <v>149</v>
@@ -9891,9 +10336,9 @@
       </c>
       <c r="I113" s="7"/>
     </row>
-    <row r="114" spans="3:9">
+    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C114" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E114" s="91" t="s">
         <v>150</v>
@@ -9903,9 +10348,9 @@
       </c>
       <c r="I114" s="7"/>
     </row>
-    <row r="115" spans="3:9">
+    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C115" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E115" s="91" t="s">
         <v>151</v>
@@ -9915,7 +10360,7 @@
       </c>
       <c r="I115" s="7"/>
     </row>
-    <row r="116" spans="3:9" ht="45">
+    <row r="116" spans="3:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E116" s="91" t="s">
         <v>152</v>
       </c>
@@ -9923,15 +10368,15 @@
         <v>207</v>
       </c>
       <c r="H116" s="103" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I116" s="104" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="117" spans="3:9">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C117" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E117" s="91" t="s">
         <v>153</v>
@@ -9941,9 +10386,9 @@
       </c>
       <c r="I117" s="7"/>
     </row>
-    <row r="118" spans="3:9">
+    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C118" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E118" s="91" t="s">
         <v>154</v>
@@ -9953,13 +10398,13 @@
       </c>
       <c r="I118" s="7"/>
     </row>
-    <row r="119" spans="3:9">
+    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C119" s="91"/>
       <c r="E119" s="91"/>
     </row>
-    <row r="120" spans="3:9">
+    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C120" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E120" s="91" t="s">
         <v>155</v>
@@ -9970,9 +10415,9 @@
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
     </row>
-    <row r="121" spans="3:9">
+    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C121" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E121" s="91" t="s">
         <v>156</v>
@@ -9983,9 +10428,9 @@
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
     </row>
-    <row r="122" spans="3:9">
+    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C122" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E122" s="91" t="s">
         <v>157</v>
@@ -9996,9 +10441,9 @@
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
     </row>
-    <row r="123" spans="3:9">
+    <row r="123" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C123" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E123" s="91" t="s">
         <v>82</v>
@@ -10009,9 +10454,9 @@
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
     </row>
-    <row r="124" spans="3:9">
+    <row r="124" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C124" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E124" s="91" t="s">
         <v>158</v>
@@ -10022,14 +10467,14 @@
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
     </row>
-    <row r="125" spans="3:9">
+    <row r="125" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C125" s="91"/>
       <c r="E125" s="91"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="3:9">
+    <row r="126" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C126" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E126" s="91" t="s">
         <v>31</v>
@@ -10041,7 +10486,7 @@
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
     </row>
-    <row r="127" spans="3:9">
+    <row r="127" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C127" s="91"/>
       <c r="E127" s="75"/>
       <c r="F127" s="6"/>
@@ -10049,9 +10494,9 @@
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
     </row>
-    <row r="128" spans="3:9">
+    <row r="128" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C128" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>167</v>
@@ -10063,9 +10508,9 @@
       <c r="H128" s="10"/>
       <c r="I128" s="7"/>
     </row>
-    <row r="129" spans="3:9">
+    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C129" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>168</v>
@@ -10077,9 +10522,9 @@
       <c r="H129" s="10"/>
       <c r="I129" s="7"/>
     </row>
-    <row r="130" spans="3:9">
+    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C130" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>169</v>
@@ -10091,52 +10536,52 @@
       <c r="H130" s="10"/>
       <c r="I130" s="7"/>
     </row>
-    <row r="131" spans="3:9">
+    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C131" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G131" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="132" spans="3:9">
+    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G132" s="8"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="3:9" s="5" customFormat="1">
+    <row r="133" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C133" s="93" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D133" s="94"/>
       <c r="E133" s="95" t="s">
         <v>159</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H133" s="85"/>
       <c r="I133" s="85"/>
     </row>
-    <row r="134" spans="3:9" s="5" customFormat="1">
+    <row r="134" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C134" s="93" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D134" s="94"/>
       <c r="E134" s="95" t="s">
         <v>160</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H134" s="85"/>
       <c r="I134" s="85"/>
     </row>
-    <row r="135" spans="3:9" s="89" customFormat="1" ht="45.75">
+    <row r="135" spans="3:9" s="89" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="C135" s="93" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D135" s="94"/>
       <c r="E135" s="95" t="s">
@@ -10146,12 +10591,12 @@
         <v>161</v>
       </c>
       <c r="H135" s="85" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="136" spans="3:9">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C136" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E136" s="89" t="s">
         <v>163</v>
@@ -10161,41 +10606,41 @@
         <v>161</v>
       </c>
       <c r="H136" s="90" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I136" s="90" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="137" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="93" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="137" spans="3:9" s="5" customFormat="1">
-      <c r="C137" s="93" t="s">
-        <v>386</v>
       </c>
       <c r="D137" s="94"/>
       <c r="E137" s="95" t="s">
         <v>164</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H137" s="85"/>
       <c r="I137" s="85"/>
     </row>
-    <row r="138" spans="3:9" s="5" customFormat="1">
+    <row r="138" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C138" s="93" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D138" s="94"/>
       <c r="E138" s="95" t="s">
         <v>165</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H138" s="85"/>
       <c r="I138" s="85"/>
     </row>
-    <row r="139" spans="3:9">
+    <row r="139" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C139" s="96"/>
       <c r="D139" s="94"/>
       <c r="E139" s="97"/>
@@ -10204,80 +10649,80 @@
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
     </row>
-    <row r="140" spans="3:9" s="87" customFormat="1">
+    <row r="140" spans="3:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C140" s="93" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D140" s="98"/>
       <c r="E140" s="99" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G140" s="87" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H140" s="88"/>
       <c r="I140" s="88"/>
     </row>
-    <row r="141" spans="3:9" s="87" customFormat="1">
+    <row r="141" spans="3:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C141" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D141" s="86"/>
       <c r="E141" s="87" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G141" s="87" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H141" s="88"/>
       <c r="I141" s="88"/>
     </row>
-    <row r="142" spans="3:9" s="87" customFormat="1">
+    <row r="142" spans="3:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C142" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D142" s="86"/>
       <c r="E142" s="87" t="s">
         <v>166</v>
       </c>
       <c r="G142" s="87" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H142" s="88"/>
       <c r="I142" s="88"/>
     </row>
-    <row r="143" spans="3:9">
+    <row r="143" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
     </row>
-    <row r="144" spans="3:9">
+    <row r="144" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
       <c r="I144" s="7"/>
     </row>
-    <row r="145" spans="5:9">
+    <row r="145" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
       <c r="I145" s="7"/>
     </row>
-    <row r="146" spans="5:9">
+    <row r="146" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
       <c r="I146" s="7"/>
     </row>
-    <row r="147" spans="5:9">
+    <row r="147" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E147" s="1"/>
       <c r="G147" s="10"/>
     </row>
-    <row r="148" spans="5:9">
+    <row r="148" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E148" s="1"/>
       <c r="G148" s="10"/>
     </row>
@@ -10299,7 +10744,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" customWidth="1"/>
@@ -10307,7 +10752,7 @@
     <col min="5" max="5" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="101"/>
       <c r="B1" s="56" t="s">
         <v>228</v>
@@ -10320,55 +10765,55 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1">
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10383,236 +10828,236 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D17" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="119" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C21" s="119"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D22" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D23" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D24" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D26" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D27" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D28" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D29" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D30" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D31" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D32" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -10634,7 +11079,7 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
@@ -10660,807 +11105,807 @@
     <col min="22" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="55" customFormat="1" ht="91.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:21" s="55" customFormat="1" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="118" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D1" s="118" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E1" s="118"/>
       <c r="F1" s="118" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G1" s="118"/>
       <c r="H1" s="118"/>
       <c r="I1" s="118"/>
       <c r="J1" s="118" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K1" s="118"/>
       <c r="L1" s="118"/>
       <c r="M1" s="118"/>
       <c r="N1" s="118"/>
       <c r="O1" s="118" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="P1" s="118"/>
       <c r="Q1" s="118"/>
       <c r="R1" s="118"/>
       <c r="S1" s="118"/>
       <c r="T1" s="118" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="U1" s="118"/>
     </row>
-    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B2" s="55">
         <v>1299</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E2" s="55"/>
       <c r="F2" s="91" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G2" s="55"/>
       <c r="H2" s="101"/>
       <c r="J2" s="85" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K2" s="85">
         <v>157</v>
       </c>
       <c r="M2" s="116"/>
       <c r="O2" s="85" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P2" s="85">
         <v>53</v>
       </c>
       <c r="R2" s="116"/>
       <c r="T2" s="85" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="U2" s="85">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B3" s="55">
         <v>878</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E3" s="55"/>
       <c r="F3" s="91" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G3" s="55"/>
       <c r="H3" s="101"/>
       <c r="J3" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K3" s="85">
         <v>54</v>
       </c>
       <c r="M3" s="116"/>
       <c r="O3" s="85" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P3" s="85">
         <v>32</v>
       </c>
       <c r="R3" s="116"/>
       <c r="T3" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="U3" s="85">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B4" s="55">
         <v>469</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E4" s="55"/>
       <c r="F4" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G4" s="55"/>
       <c r="H4" s="101"/>
       <c r="J4" s="85" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K4" s="85">
         <v>44</v>
       </c>
       <c r="M4" s="116"/>
       <c r="O4" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P4" s="85">
         <v>28</v>
       </c>
       <c r="R4" s="116"/>
       <c r="T4" s="85" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="U4" s="85">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B5" s="55">
         <v>432</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E5" s="55"/>
       <c r="F5" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H5" s="101"/>
       <c r="J5" s="85" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K5" s="85">
         <v>30</v>
       </c>
       <c r="M5" s="116"/>
       <c r="O5" s="85" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P5" s="85">
         <v>17</v>
       </c>
       <c r="R5" s="116"/>
       <c r="T5" s="85" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="U5" s="85">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B6" s="55">
         <v>430</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E6" s="55"/>
       <c r="F6" s="91" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G6" s="55"/>
       <c r="H6" s="101"/>
       <c r="J6" s="85" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K6" s="85">
         <v>30</v>
       </c>
       <c r="M6" s="116"/>
       <c r="O6" s="85" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P6" s="85">
         <v>14</v>
       </c>
       <c r="R6" s="116"/>
       <c r="T6" s="85" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="U6" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B7" s="55">
         <v>388</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E7" s="55"/>
       <c r="F7" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G7" s="55"/>
       <c r="H7" s="101"/>
       <c r="J7" s="85" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K7" s="85">
         <v>14</v>
       </c>
       <c r="M7" s="116"/>
       <c r="O7" s="85" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P7" s="85">
         <v>11</v>
       </c>
       <c r="R7" s="116"/>
       <c r="T7" s="85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="U7" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="55" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B8" s="55">
         <v>377</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E8" s="55"/>
       <c r="F8" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G8" s="55"/>
       <c r="H8" s="101"/>
       <c r="J8" s="85" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K8" s="85">
         <v>12</v>
       </c>
       <c r="M8" s="116"/>
       <c r="O8" s="85" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P8" s="85">
         <v>11</v>
       </c>
       <c r="R8" s="116"/>
       <c r="T8" s="85" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U8" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="55" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B9" s="55">
         <v>220</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E9" s="55"/>
       <c r="F9" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G9" s="55"/>
       <c r="H9" s="101"/>
       <c r="J9" s="85" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K9" s="85">
         <v>10</v>
       </c>
       <c r="M9" s="116"/>
       <c r="O9" s="85" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P9" s="85">
         <v>9</v>
       </c>
       <c r="R9" s="116"/>
       <c r="T9" s="85" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="U9" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="55" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B10" s="55">
         <v>187</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="101"/>
       <c r="J10" s="85" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K10" s="85">
         <v>8</v>
       </c>
       <c r="M10" s="116"/>
       <c r="O10" s="85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P10" s="85">
         <v>9</v>
       </c>
       <c r="R10" s="116"/>
     </row>
-    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="55" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B11" s="55">
         <v>115</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E11" s="55"/>
       <c r="F11" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G11" s="55"/>
       <c r="H11" s="101"/>
       <c r="J11" s="85" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K11" s="85">
         <v>4</v>
       </c>
       <c r="M11" s="116"/>
       <c r="O11" s="85" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P11" s="85">
         <v>7</v>
       </c>
       <c r="R11" s="116"/>
     </row>
-    <row r="12" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="55" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B12" s="55">
         <v>110</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E12" s="55"/>
       <c r="F12" s="91" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G12" s="55"/>
       <c r="H12" s="101"/>
       <c r="J12" s="85" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K12" s="85">
         <v>4</v>
       </c>
       <c r="M12" s="116"/>
       <c r="O12" s="85" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P12" s="85">
         <v>7</v>
       </c>
       <c r="R12" s="116"/>
     </row>
-    <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B13" s="55">
         <v>81</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E13" s="55"/>
       <c r="F13" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G13" s="55"/>
       <c r="H13" s="101"/>
       <c r="J13" s="85" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K13" s="85">
         <v>4</v>
       </c>
       <c r="M13" s="116"/>
       <c r="O13" s="85" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P13" s="85">
         <v>4</v>
       </c>
       <c r="R13" s="116"/>
     </row>
-    <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B14" s="55">
         <v>51</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="91" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G14" s="55"/>
       <c r="H14" s="101"/>
       <c r="J14" s="85" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K14" s="85">
         <v>3</v>
       </c>
       <c r="M14" s="116"/>
       <c r="O14" s="85" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P14" s="85">
         <v>4</v>
       </c>
       <c r="R14" s="116"/>
     </row>
-    <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="55" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B15" s="55">
         <v>44</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="91" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G15" s="55"/>
       <c r="H15" s="101"/>
       <c r="J15" s="85" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K15" s="85">
         <v>3</v>
       </c>
       <c r="M15" s="116"/>
       <c r="O15" s="85" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P15" s="85">
         <v>3</v>
       </c>
       <c r="R15" s="116"/>
     </row>
-    <row r="16" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B16" s="55">
         <v>40</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E16" s="55"/>
       <c r="F16" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G16" s="55"/>
       <c r="H16" s="101"/>
       <c r="J16" s="85" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K16" s="85">
         <v>3</v>
       </c>
       <c r="M16" s="116"/>
       <c r="O16" s="85" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P16" s="85">
         <v>2</v>
       </c>
       <c r="R16" s="116"/>
     </row>
-    <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B17" s="55">
         <v>37</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E17" s="55"/>
       <c r="F17" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G17" s="55"/>
       <c r="H17" s="101"/>
       <c r="J17" s="85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K17" s="85">
         <v>2</v>
       </c>
       <c r="M17" s="116"/>
       <c r="O17" s="85" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P17" s="85">
         <v>2</v>
       </c>
       <c r="R17" s="116"/>
     </row>
-    <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B18" s="55">
         <v>36</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G18" s="55"/>
       <c r="H18" s="101"/>
       <c r="J18" s="85" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K18" s="85">
         <v>2</v>
       </c>
       <c r="M18" s="116"/>
       <c r="O18" s="85" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P18" s="85">
         <v>2</v>
       </c>
       <c r="R18" s="116"/>
     </row>
-    <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B19" s="55">
         <v>29</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E19" s="55"/>
       <c r="F19" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G19" s="55"/>
       <c r="H19" s="101"/>
       <c r="J19" s="85" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K19" s="85">
         <v>2</v>
       </c>
       <c r="M19" s="116"/>
       <c r="O19" s="85" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P19" s="85">
         <v>1</v>
       </c>
       <c r="R19" s="116"/>
     </row>
-    <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="55" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B20" s="55">
         <v>24</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E20" s="55"/>
       <c r="F20" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G20" s="55"/>
       <c r="H20" s="101"/>
       <c r="J20" s="85" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K20" s="85">
         <v>1</v>
       </c>
       <c r="M20" s="116"/>
       <c r="O20" s="85" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P20" s="85">
         <v>1</v>
       </c>
       <c r="R20" s="116"/>
     </row>
-    <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B21" s="55">
         <v>22</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E21" s="55"/>
       <c r="F21" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G21" s="55"/>
       <c r="H21" s="101"/>
       <c r="J21" s="85" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K21" s="85">
         <v>1</v>
       </c>
       <c r="M21" s="116"/>
       <c r="O21" s="85" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P21" s="85">
         <v>1</v>
       </c>
       <c r="R21" s="116"/>
     </row>
-    <row r="22" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="55" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B22" s="55">
         <v>22</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E22" s="55"/>
       <c r="F22" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G22" s="55"/>
       <c r="H22" s="101"/>
       <c r="J22" s="85" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K22" s="85">
         <v>1</v>
       </c>
       <c r="M22" s="116"/>
       <c r="O22" s="85" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P22" s="85">
         <v>1</v>
       </c>
       <c r="R22" s="116"/>
     </row>
-    <row r="23" spans="1:18" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="23" spans="1:18" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="55" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B23" s="55">
         <v>20</v>
@@ -11468,268 +11913,268 @@
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
       <c r="E23" s="102" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G23" s="55"/>
       <c r="H23" s="101"/>
       <c r="J23" s="85" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K23" s="85">
         <v>1</v>
       </c>
       <c r="M23" s="116"/>
       <c r="O23" s="85" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P23" s="85">
         <v>1</v>
       </c>
       <c r="R23" s="116"/>
     </row>
-    <row r="24" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="55" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B24" s="55">
         <v>19</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E24" s="55"/>
       <c r="F24" s="91" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G24" s="55"/>
       <c r="H24" s="101"/>
       <c r="J24" s="85" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K24" s="85">
         <v>1</v>
       </c>
       <c r="M24" s="116"/>
       <c r="O24" s="85" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P24" s="85">
         <v>1</v>
       </c>
       <c r="R24" s="116"/>
     </row>
-    <row r="25" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="55" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B25" s="55">
         <v>19</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="91" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G25" s="55"/>
       <c r="H25" s="101"/>
       <c r="J25" s="85" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K25" s="85">
         <v>1</v>
       </c>
       <c r="M25" s="116"/>
       <c r="O25" s="85" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P25" s="85">
         <v>1</v>
       </c>
       <c r="R25" s="116"/>
     </row>
-    <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="55" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B26" s="55">
         <v>19</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E26" s="55"/>
       <c r="F26" s="91" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G26" s="55"/>
       <c r="H26" s="101"/>
       <c r="J26" s="85" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K26" s="85">
         <v>1</v>
       </c>
       <c r="M26" s="116"/>
       <c r="O26" s="85" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P26" s="85">
         <v>1</v>
       </c>
       <c r="R26" s="116"/>
     </row>
-    <row r="27" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="55" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B27" s="55">
         <v>17</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E27" s="55"/>
       <c r="F27" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G27" s="55"/>
       <c r="H27" s="101"/>
       <c r="J27" s="85" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K27" s="85">
         <v>1</v>
       </c>
       <c r="M27" s="116"/>
       <c r="O27" s="85" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P27" s="85">
         <v>1</v>
       </c>
       <c r="R27" s="116"/>
     </row>
-    <row r="28" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="55" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B28" s="55">
         <v>16</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G28" s="55"/>
       <c r="H28" s="101"/>
       <c r="J28" s="85" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K28" s="85">
         <v>1</v>
       </c>
       <c r="M28" s="116"/>
       <c r="O28" s="85" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P28" s="85">
         <v>1</v>
       </c>
       <c r="R28" s="116"/>
     </row>
-    <row r="29" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="55" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B29" s="55">
         <v>14</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G29" s="55"/>
       <c r="H29" s="101"/>
       <c r="J29" s="85" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K29" s="85">
         <v>1</v>
       </c>
       <c r="M29" s="116"/>
       <c r="O29" s="85" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P29" s="85">
         <v>1</v>
       </c>
       <c r="R29" s="116"/>
     </row>
-    <row r="30" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="55" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B30" s="55">
         <v>14</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D30" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E30" s="102" t="s">
         <v>419</v>
       </c>
-      <c r="E30" s="102" t="s">
-        <v>422</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G30" s="55"/>
       <c r="H30" s="101"/>
       <c r="J30" s="85" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K30" s="85">
         <v>1</v>
       </c>
       <c r="M30" s="116"/>
       <c r="O30" s="85" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P30" s="85">
         <v>1</v>
       </c>
       <c r="R30" s="116"/>
     </row>
-    <row r="31" spans="1:18" ht="31.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="55" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B31" s="55">
         <v>14</v>
@@ -11737,126 +12182,126 @@
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
       <c r="E31" s="102" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G31" s="55"/>
       <c r="H31" s="101"/>
       <c r="J31" s="85" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K31" s="85">
         <v>1</v>
       </c>
       <c r="M31" s="116"/>
       <c r="O31" s="85" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P31" s="85">
         <v>1</v>
       </c>
       <c r="R31" s="116"/>
     </row>
-    <row r="32" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B32" s="55">
         <v>12</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E32" s="55"/>
       <c r="F32" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G32" s="55"/>
       <c r="H32" s="101"/>
       <c r="J32" s="85" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K32" s="85">
         <v>1</v>
       </c>
       <c r="M32" s="116"/>
       <c r="O32" s="85" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P32" s="85">
         <v>1</v>
       </c>
       <c r="R32" s="116"/>
     </row>
-    <row r="33" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="55" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B33" s="55">
         <v>12</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G33" s="55"/>
       <c r="H33" s="101"/>
       <c r="J33" s="85" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K33" s="85">
         <v>1</v>
       </c>
       <c r="M33" s="116"/>
       <c r="O33" s="85" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P33" s="85">
         <v>1</v>
       </c>
       <c r="R33" s="116"/>
     </row>
-    <row r="34" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="55" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B34" s="55">
         <v>10</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E34" s="102" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F34" s="91" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G34" s="55"/>
       <c r="H34" s="101"/>
       <c r="M34" s="116"/>
       <c r="O34" s="85" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P34" s="85">
         <v>1</v>
       </c>
       <c r="R34" s="116"/>
     </row>
-    <row r="35" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="55" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B35" s="55">
         <v>6</v>
@@ -11864,22 +12309,22 @@
       <c r="C35" s="55"/>
       <c r="D35" s="55"/>
       <c r="E35" s="102" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G35" s="55"/>
       <c r="H35" s="101"/>
       <c r="M35" s="116"/>
       <c r="O35" s="85" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P35" s="85">
         <v>1</v>
       </c>
       <c r="R35" s="116"/>
     </row>
-    <row r="36" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="55" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B36" s="55">
         <v>6</v>
@@ -11887,204 +12332,204 @@
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="102" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G36" s="55"/>
       <c r="H36" s="101"/>
     </row>
-    <row r="37" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="55" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B37" s="55">
         <v>6</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E37" s="102" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G37" s="55"/>
       <c r="H37" s="101"/>
       <c r="O37" s="117"/>
     </row>
-    <row r="38" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B38" s="55">
         <v>6</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E38" s="55" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G38" s="55"/>
       <c r="H38" s="101"/>
     </row>
-    <row r="39" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="55" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B39" s="55">
         <v>5</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E39" s="55"/>
       <c r="G39" s="55"/>
       <c r="H39" s="101"/>
     </row>
-    <row r="40" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="55" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B40" s="55">
         <v>5</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E40" s="55"/>
       <c r="G40" s="55"/>
       <c r="H40" s="101"/>
     </row>
-    <row r="41" spans="1:18" ht="46.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B41" s="55">
         <v>5</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D41" s="105" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E41" s="102" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G41" s="55"/>
       <c r="H41" s="101"/>
     </row>
-    <row r="42" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="55" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B42" s="55">
         <v>5</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E42" s="55"/>
       <c r="F42" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G42" s="55"/>
       <c r="H42" s="101"/>
     </row>
-    <row r="43" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="55" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B43" s="55">
         <v>5</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E43" s="55"/>
       <c r="F43" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G43" s="55"/>
       <c r="H43" s="101"/>
     </row>
-    <row r="44" spans="1:18" ht="46.5" thickTop="1" thickBot="1">
+    <row r="44" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="55" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B44" s="55">
         <v>5</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E44" s="102" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G44" s="55"/>
       <c r="H44" s="101"/>
     </row>
-    <row r="45" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="55" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B45" s="55">
         <v>4</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E45" s="55"/>
       <c r="G45" s="55"/>
       <c r="H45" s="101"/>
     </row>
-    <row r="46" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="55" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B46" s="55">
         <v>4</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E46" s="102" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G46" s="55"/>
       <c r="H46" s="101"/>
     </row>
-    <row r="47" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="55" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B47" s="55">
         <v>3</v>
@@ -12092,94 +12537,94 @@
       <c r="C47" s="55"/>
       <c r="D47" s="55"/>
       <c r="E47" s="102" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G47" s="55"/>
       <c r="H47" s="101"/>
     </row>
-    <row r="48" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="55" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B48" s="55">
         <v>3</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E48" s="55"/>
       <c r="F48" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G48" s="55"/>
       <c r="H48" s="101"/>
     </row>
-    <row r="49" spans="1:8" ht="46.5" thickTop="1" thickBot="1">
+    <row r="49" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="55" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B49" s="55">
         <v>3</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D49" s="105" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E49" s="55"/>
       <c r="F49" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G49" s="55"/>
       <c r="H49" s="101"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="50" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="55" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B50" s="55">
         <v>3</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E50" s="55"/>
       <c r="F50" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G50" s="55"/>
       <c r="H50" s="101"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="51" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="55" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B51" s="55">
         <v>3</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E51" s="55"/>
       <c r="F51" s="91" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G51" s="55"/>
       <c r="H51" s="101"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="55" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B52" s="55">
         <v>3</v>
@@ -12190,9 +12635,9 @@
       <c r="G52" s="55"/>
       <c r="H52" s="101"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="53" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="55" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B53" s="55">
         <v>2</v>
@@ -12203,9 +12648,9 @@
       <c r="G53" s="55"/>
       <c r="H53" s="101"/>
     </row>
-    <row r="54" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="54" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="55" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B54" s="55">
         <v>2</v>
@@ -12216,9 +12661,9 @@
       <c r="G54" s="55"/>
       <c r="H54" s="101"/>
     </row>
-    <row r="55" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="55" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B55" s="55">
         <v>2</v>
@@ -12229,9 +12674,9 @@
       <c r="G55" s="55"/>
       <c r="H55" s="101"/>
     </row>
-    <row r="56" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="56" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="55" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B56" s="55">
         <v>2</v>
@@ -12242,9 +12687,9 @@
       <c r="G56" s="55"/>
       <c r="H56" s="101"/>
     </row>
-    <row r="57" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="57" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="55" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B57" s="55">
         <v>2</v>
@@ -12255,9 +12700,9 @@
       <c r="G57" s="55"/>
       <c r="H57" s="101"/>
     </row>
-    <row r="58" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="58" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="55" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B58" s="55">
         <v>2</v>
@@ -12268,9 +12713,9 @@
       <c r="G58" s="55"/>
       <c r="H58" s="101"/>
     </row>
-    <row r="59" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="59" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="55" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B59" s="55">
         <v>2</v>
@@ -12281,9 +12726,9 @@
       <c r="G59" s="55"/>
       <c r="H59" s="101"/>
     </row>
-    <row r="60" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="60" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="55" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B60" s="55">
         <v>2</v>
@@ -12294,9 +12739,9 @@
       <c r="G60" s="55"/>
       <c r="H60" s="101"/>
     </row>
-    <row r="61" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="61" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="55" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B61" s="55">
         <v>2</v>
@@ -12307,9 +12752,9 @@
       <c r="G61" s="55"/>
       <c r="H61" s="101"/>
     </row>
-    <row r="62" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="62" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="55" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B62" s="55">
         <v>2</v>
@@ -12320,9 +12765,9 @@
       <c r="G62" s="55"/>
       <c r="H62" s="101"/>
     </row>
-    <row r="63" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="63" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="55" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B63" s="55">
         <v>2</v>
@@ -12333,9 +12778,9 @@
       <c r="G63" s="55"/>
       <c r="H63" s="101"/>
     </row>
-    <row r="64" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="64" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="55" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B64" s="55">
         <v>2</v>
@@ -12346,9 +12791,9 @@
       <c r="G64" s="55"/>
       <c r="H64" s="101"/>
     </row>
-    <row r="65" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="65" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="55" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B65" s="55">
         <v>2</v>
@@ -12359,9 +12804,9 @@
       <c r="G65" s="55"/>
       <c r="H65" s="101"/>
     </row>
-    <row r="66" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="66" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B66" s="55">
         <v>1</v>
@@ -12372,9 +12817,9 @@
       <c r="G66" s="55"/>
       <c r="H66" s="101"/>
     </row>
-    <row r="67" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="67" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="55" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B67" s="55">
         <v>1</v>
@@ -12385,9 +12830,9 @@
       <c r="G67" s="55"/>
       <c r="H67" s="101"/>
     </row>
-    <row r="68" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="68" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="55" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B68" s="55">
         <v>1</v>
@@ -12398,9 +12843,9 @@
       <c r="G68" s="55"/>
       <c r="H68" s="101"/>
     </row>
-    <row r="69" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="69" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="55" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B69" s="55">
         <v>1</v>
@@ -12411,9 +12856,9 @@
       <c r="G69" s="55"/>
       <c r="H69" s="101"/>
     </row>
-    <row r="70" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="70" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="55" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B70" s="55">
         <v>1</v>
@@ -12424,9 +12869,9 @@
       <c r="G70" s="55"/>
       <c r="H70" s="101"/>
     </row>
-    <row r="71" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="71" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="55" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B71" s="55">
         <v>1</v>
@@ -12437,9 +12882,9 @@
       <c r="G71" s="55"/>
       <c r="H71" s="101"/>
     </row>
-    <row r="72" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="72" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="55" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B72" s="55">
         <v>1</v>
@@ -12450,9 +12895,9 @@
       <c r="G72" s="55"/>
       <c r="H72" s="101"/>
     </row>
-    <row r="73" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="73" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="55" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B73" s="55">
         <v>1</v>
@@ -12463,9 +12908,9 @@
       <c r="G73" s="55"/>
       <c r="H73" s="101"/>
     </row>
-    <row r="74" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="74" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="55" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B74" s="55">
         <v>1</v>
@@ -12476,9 +12921,9 @@
       <c r="G74" s="55"/>
       <c r="H74" s="101"/>
     </row>
-    <row r="75" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="75" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B75" s="55">
         <v>1</v>
@@ -12489,9 +12934,9 @@
       <c r="G75" s="55"/>
       <c r="H75" s="101"/>
     </row>
-    <row r="76" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="76" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="55" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B76" s="55">
         <v>1</v>
@@ -12502,9 +12947,9 @@
       <c r="G76" s="55"/>
       <c r="H76" s="101"/>
     </row>
-    <row r="77" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="77" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="55" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B77" s="55">
         <v>1</v>
@@ -12515,9 +12960,9 @@
       <c r="G77" s="55"/>
       <c r="H77" s="101"/>
     </row>
-    <row r="78" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="78" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="55" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B78" s="55">
         <v>1</v>
@@ -12528,9 +12973,9 @@
       <c r="G78" s="55"/>
       <c r="H78" s="101"/>
     </row>
-    <row r="79" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="79" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B79" s="55">
         <v>1</v>
@@ -12541,9 +12986,9 @@
       <c r="G79" s="55"/>
       <c r="H79" s="101"/>
     </row>
-    <row r="80" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="80" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="55" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B80" s="55">
         <v>1</v>
@@ -12554,9 +12999,9 @@
       <c r="G80" s="55"/>
       <c r="H80" s="101"/>
     </row>
-    <row r="81" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="81" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="55" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B81" s="55">
         <v>1</v>
@@ -12567,9 +13012,9 @@
       <c r="G81" s="55"/>
       <c r="H81" s="101"/>
     </row>
-    <row r="82" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="82" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="55" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B82" s="55">
         <v>1</v>
@@ -12580,29 +13025,29 @@
       <c r="G82" s="55"/>
       <c r="H82" s="101"/>
     </row>
-    <row r="83" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="83" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="55" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B83" s="55">
         <v>1</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E83" s="55"/>
       <c r="F83" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G83" s="55"/>
       <c r="H83" s="101"/>
     </row>
-    <row r="84" spans="1:8" ht="31.5" thickTop="1" thickBot="1">
+    <row r="84" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="55" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B84" s="55">
         <v>1</v>
@@ -12610,14 +13055,14 @@
       <c r="C84" s="55"/>
       <c r="D84" s="55"/>
       <c r="E84" s="55" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G84" s="55"/>
       <c r="H84" s="101"/>
     </row>
-    <row r="85" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="85" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="55" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B85" s="55">
         <v>1</v>
@@ -12628,9 +13073,9 @@
       <c r="G85" s="55"/>
       <c r="H85" s="101"/>
     </row>
-    <row r="86" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="86" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="55" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B86" s="55">
         <v>1</v>
@@ -12641,9 +13086,9 @@
       <c r="G86" s="55"/>
       <c r="H86" s="101"/>
     </row>
-    <row r="87" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="87" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="55" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B87" s="55">
         <v>1</v>
@@ -12654,9 +13099,9 @@
       <c r="G87" s="55"/>
       <c r="H87" s="101"/>
     </row>
-    <row r="88" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="88" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="55" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B88" s="55">
         <v>1</v>
@@ -12667,49 +13112,49 @@
       <c r="G88" s="55"/>
       <c r="H88" s="101"/>
     </row>
-    <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="55" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B89" s="55">
         <v>1</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D89" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E89" s="55"/>
       <c r="F89" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G89" s="55"/>
       <c r="H89" s="101"/>
     </row>
-    <row r="90" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="90" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="55" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B90" s="55">
         <v>1</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E90" s="55"/>
       <c r="F90" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G90" s="55"/>
       <c r="H90" s="101"/>
     </row>
-    <row r="91" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="91" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="55" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B91" s="55">
         <v>1</v>
@@ -12720,9 +13165,9 @@
       <c r="G91" s="55"/>
       <c r="H91" s="101"/>
     </row>
-    <row r="92" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="92" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="55" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B92" s="55">
         <v>1</v>
@@ -12733,9 +13178,9 @@
       <c r="G92" s="55"/>
       <c r="H92" s="101"/>
     </row>
-    <row r="93" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="93" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="55" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B93" s="55">
         <v>1</v>
@@ -12746,9 +13191,9 @@
       <c r="G93" s="55"/>
       <c r="H93" s="101"/>
     </row>
-    <row r="94" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="94" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="55" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B94" s="55">
         <v>1</v>
@@ -12759,7 +13204,7 @@
       <c r="G94" s="55"/>
       <c r="H94" s="101"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" thickTop="1"/>
+    <row r="95" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12774,7 +13219,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
@@ -12784,86 +13229,86 @@
     <col min="6" max="6" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="56" customFormat="1" ht="94.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:6" s="56" customFormat="1" ht="94.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D1" s="100" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="91" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B2" s="55" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="91" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>415</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="91" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" s="114" t="s">
+        <v>414</v>
+      </c>
+      <c r="E4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="91" t="s">
+        <v>482</v>
+      </c>
+      <c r="B5" s="55" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>485</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>452</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C5" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
-        <v>485</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>483</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>415</v>
-      </c>
-      <c r="D4" s="114" t="s">
-        <v>417</v>
-      </c>
-      <c r="E4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="91" t="s">
-        <v>485</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>453</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="113"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
@@ -12871,129 +13316,129 @@
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="15.75" thickTop="1">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="112" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B7" s="55" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="112" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F8" t="s">
         <v>455</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>415</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="112" t="s">
-        <v>448</v>
-      </c>
-      <c r="B8" s="55" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="112" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" s="55" t="s">
         <v>456</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>409</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C9" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="112" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" s="55" t="s">
         <v>457</v>
       </c>
-      <c r="F8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="112" t="s">
-        <v>448</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>459</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>409</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E9" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="112" t="s">
-        <v>448</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>460</v>
-      </c>
       <c r="C10" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="112" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B11" s="55" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="112" t="s">
+        <v>445</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="112" t="s">
+        <v>445</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E13" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="112" t="s">
-        <v>448</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>461</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="112" t="s">
-        <v>448</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>467</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="113"/>
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
@@ -13001,101 +13446,101 @@
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickTop="1">
+    <row r="15" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="112" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="112" t="s">
+        <v>444</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F16" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="112" t="s">
+        <v>444</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="112" t="s">
-        <v>447</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C17" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E17" t="s">
+        <v>475</v>
+      </c>
+      <c r="F17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="112" t="s">
+        <v>444</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E18" t="s">
+        <v>476</v>
+      </c>
+      <c r="F18" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="112" t="s">
+        <v>444</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E19" t="s">
+        <v>478</v>
+      </c>
+      <c r="F19" t="s">
         <v>471</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>415</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E16" t="s">
-        <v>477</v>
-      </c>
-      <c r="F16" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="112" t="s">
-        <v>447</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E17" t="s">
-        <v>478</v>
-      </c>
-      <c r="F17" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="112" t="s">
-        <v>447</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>409</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E18" t="s">
-        <v>479</v>
-      </c>
-      <c r="F18" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="112" t="s">
-        <v>447</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E19" t="s">
-        <v>481</v>
-      </c>
-      <c r="F19" t="s">
-        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -13111,49 +13556,49 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74.140625" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="56" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="109" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="150.75" thickTop="1">
-      <c r="B2" s="109" t="s">
-        <v>445</v>
-      </c>
-      <c r="C2" s="111" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="108" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="109" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="110" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -13170,172 +13615,172 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>202</v>
       </c>

--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopatkova\SVN\GitHub-UMR\tecto2umr\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="557">
   <si>
     <t>funktor</t>
   </si>
@@ -3294,36 +3289,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>role (NON participant)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>… ALE 341 x pod ním něco visí</t>
-    </r>
-  </si>
-  <si>
     <t>TODO …. should be refined later</t>
   </si>
   <si>
@@ -3333,23 +3298,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">attribute
-?? subrole
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>… ALE 48x pod ním něco visí, viz sloupec H</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -3576,193 +3524,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (1x) ... "stejně tak" --&gt; spojit s PREC (přes podtržítko)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">lemma </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>#Neg 194x … jeho rodičem je vždy koord. uzel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (GRAD, ADVS n. CONJ) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">jiná t_lemmata </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">… spousty:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Většinou lze spojit přes podtržítka (tj. jakoby jedno lemma) n. přes op:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>12x … něco visí pod CM:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-- 6x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> pod CM je RSTR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (v první/neposlední řadě apod.; jinými slovy) --&gt; spojit s CM
--1x "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>nota bene</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">" FPHR -&gt; klidně spojit do jediného CM uzlu (jako DPHR) 
-- 1x </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">pod RHEM je EXT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(ale RHEM není "ne") ... ???
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>- 1x CM je ve s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>kutečnosti negace</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (zdaleka ne) ... ???</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-- ??? jednak-jednak
-(1x akcie - chyba)</t>
     </r>
   </si>
   <si>
@@ -5195,64 +4956,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">UNLESS combined </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">attribute </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>… ALE 72 x pod ním něco visí, viz sloupec H</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-??? role (NON-participant)</t>
     </r>
   </si>
   <si>
@@ -5693,47 +5396,6 @@
     <t>#Unsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>if t_lemma = #Neg</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
---&gt; attribute polarity
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>if t_lemma jiné</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
---&gt; clausal marker</t>
-    </r>
-  </si>
-  <si>
     <t>effect</t>
   </si>
   <si>
@@ -5851,212 +5513,178 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">attribute
-?? subrole </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(jako name, tj. bez vlastního uzlu)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+    <t xml:space="preserve">clausal-marker  
+</t>
+  </si>
+  <si>
+    <r>
+      <t>subtype: attitude-marker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (semantic modification)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TODO …. should be refined later, 
+perhaps using discourse roles?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (ale anotátoři už měli zohlednit, jestli spíš neoznačit význam (příčina, přípustka, ...))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TODO …. most chases can be merged into one subrole (as one t_lemma OR via ops) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>subtype: discourse-marker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (structure modification)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TODO … NUTNO vytvořit tabulku </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pro 93 t_lemmat.MOD (částečně hotovo) a pak v kombinace s
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>verbmod --&gt; factmod ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>deontmod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sentmod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+a v kombinaci s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">negací!!!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>subtype: modal-marker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (structure modification)
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>… ALE 12x pod ním něco visí, viz sloupec H …. co s tím??</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">clausal-marker  
-</t>
-  </si>
-  <si>
-    <r>
-      <t>subtype: attitude-marker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (semantic modification)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TODO …. should be refined later, 
-perhaps using discourse roles?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (ale anotátoři už měli zohlednit, jestli spíš neoznačit význam (příčina, přípustka, ...))
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">TODO …. most chases can be merged into one subrole (as one t_lemma OR via ops) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>subtype: discourse-marker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (structure modification)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TODO … NUTNO vytvořit tabulku </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">pro 93 t_lemmat.MOD (částečně hotovo) a pak v kombinace s
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>verbmod --&gt; factmod ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>deontmod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ,
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>sentmod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-a v kombinaci s </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">negací!!!
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>subtype: modal-marker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (structure modification)
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -6079,47 +5707,6 @@
         <family val="2"/>
       </rPr>
       <t>(semantic modification)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>if t_lemma = #Neg</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-attribute polarity
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>if t_lemma jiné</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-clausal-marker</t>
     </r>
   </si>
   <si>
@@ -6299,12 +5886,848 @@
       <t>attributes ??</t>
     </r>
   </si>
+  <si>
+    <t>UMR: compared-to but only as ARG4 role of  have-degree-91 predicate</t>
+  </si>
+  <si>
+    <t>ADVS … 2 obsahy, které nejsou v souladu (ale, avšak, jenže, leč, nicméně, …  aniž, ...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rodič ADVS --&gt; attribute … k sourozenci, viz sloupec H </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ADVS:
+1. atribut P sourozence se sempos v/adj, 
+   - pokud je #Neg i v/adj za ADVS
+   (asi i přeskočit #PersPron, #NewNod, aktant, přísl., koord.spojku se spol. rozvitím, přísl,...; i když je daleko vepředu (neproj.))
+   - ALE i pokud oba před ADVS  (a nic jiného tam není)
+ 2. atribut L sourozence se sempos  v/adj, 
+   - pokud je  #Neg i v/adj před ADVS
+   - ALE i pokud oba za ADVS (a nic jiného tam není)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Nejel jsem domů.ADVS ... , ale na služební cestu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>… ASI chyba v pořadí uzlů??</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Nechtěl jsem žádné výhody , ale.ADVS slušné jednání </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>… koord. substantiv (ne sloves) … méně, ale ne ojedinělé!!!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Není</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>jenom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oslava , posezení , ale k tomu i drobet práce . --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nejen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oslava</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lemma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>#Neg 194x … jeho rodičem je vždy koord. uzel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ADVS 91x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">atribut prvního P (n. L) sourozence se sempos  v/adj, který je na stejné straně od ADVS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(hl. slovosled; i pro koord. slovesa)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+POKUD jde o koord. substantiv</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ???</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+----------------------------------------
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>GRAD 65x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ... kombinuje se s jenom.CM, jen.CM, pouze.CA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(sourozenci, občas mezi nimi ještě jiný uzel, to asi nevadí)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, patří asi k sobě
+----------------------------------------</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+CONJ 37x 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">atribut prvního P (n. L) sourozence se sempos  v/adj, který je na stejné straně od CONJ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(hl. slovosled; i pro koord. slovesa)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>----------------------------------------</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">jiná t_lemmata než #Neg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>… spousty, ponechat 
+----------------------------------------</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>12x … něco visí pod CM:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- 6x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pod CM je RSTR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (v první/neposlední řadě apod.; jinými slovy) --&gt; spojit s CM
+-1x "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nota bene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">" FPHR -&gt; klidně spojit do jediného CM uzlu (jako DPHR) 
+- 1x </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pod RHEM je EXT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(ale RHEM není "ne") ... ???
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 1x CM je ve s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>kutečnosti negace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (zdaleka ne) ... ???</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- ??? jednak-jednak
+(1x akcie - chyba)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if t_lemma = #Neg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; attribute polarity pro ADVS
+--&gt; spojit s jenom apod. GRAD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if t_lemma jiné</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; clausal marker</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if t_lemma = #Neg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+attribute polarity
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if t_lemma jiné</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+clausal-marker</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">attribute k rodiči, pokud má sempos = v, adj, 2x n, adv
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">undef 148 #EmpVerb ???
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(adj.denot 3 … neschopný, 2x nespokojený)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n.denot 3 … 1x -ní (atribut k němu),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  1x patří k sourozenci "výlučně",  1x patří k slovesu nad ("být")
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n.denot.neg … 1x -ní (atribut k němu)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>adv.denot.ngrad.nneg 1 ...  1x deverbální (atribut k němu)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">subrole
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>… ALE 48x pod ním něco visí, viz sloupec H</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rodič ADVS --&gt; attribute … k sourozenci, viz sloupec H 
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(?? může jich být víc??)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+rodič GRAD --&gt; spojit s jen, jenom, pouze, výhradně</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (sourozenec, cca 2x jinde ve větě)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rodič CONJ --&gt; attribute … k sourozenci, viz sloupec H 
+subrole </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(jako name, tj. bez vlastního uzlu)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>… ALE 12x pod ním něco visí, viz sloupec H …. co s tím??</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>… ALE 72 x pod ním něco visí, viz sloupec H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+subrole (NON-participant)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>subrole (NON participant)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>… ALE 341 x pod ním něco visí</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="44">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6615,6 +7038,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -6746,7 +7175,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -7103,12 +7532,18 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Excel Built-in Check Cell" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
+    <cellStyle name="Kontrolní buňka" xfId="3" builtinId="23"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7372,12 +7807,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="3.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
@@ -7394,7 +7829,7 @@
     <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19">
         <v>0</v>
       </c>
@@ -7433,7 +7868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -7455,7 +7890,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>0</v>
       </c>
@@ -7477,7 +7912,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>0</v>
       </c>
@@ -7499,7 +7934,7 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>0</v>
       </c>
@@ -7521,7 +7956,7 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>0</v>
       </c>
@@ -7543,7 +7978,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>0</v>
       </c>
@@ -7559,7 +7994,7 @@
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:13" ht="112.5">
+    <row r="8" spans="1:13" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>1</v>
       </c>
@@ -7587,7 +8022,7 @@
       </c>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:13" ht="150">
+    <row r="9" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>2</v>
       </c>
@@ -7615,7 +8050,7 @@
       </c>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:13" ht="30">
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>3</v>
       </c>
@@ -7643,7 +8078,7 @@
       </c>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:13" ht="60">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>4</v>
       </c>
@@ -7675,7 +8110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>5</v>
       </c>
@@ -7687,7 +8122,7 @@
         <v>34902</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F12" s="71" t="s">
         <v>258</v>
@@ -7698,7 +8133,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="17"/>
       <c r="J12" s="26" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>28</v>
@@ -7707,7 +8142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>6</v>
       </c>
@@ -7723,7 +8158,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>7</v>
       </c>
@@ -7751,7 +8186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>8</v>
       </c>
@@ -7775,7 +8210,7 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>9</v>
       </c>
@@ -7801,7 +8236,7 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>10</v>
       </c>
@@ -7827,7 +8262,7 @@
       </c>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>11</v>
       </c>
@@ -7851,7 +8286,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>12</v>
       </c>
@@ -7875,7 +8310,7 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>13</v>
       </c>
@@ -7899,7 +8334,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>14</v>
       </c>
@@ -7923,7 +8358,7 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>15</v>
       </c>
@@ -7947,7 +8382,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>16</v>
       </c>
@@ -7963,7 +8398,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="1:12" ht="75">
+    <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>17</v>
       </c>
@@ -7995,7 +8430,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>18</v>
       </c>
@@ -8025,7 +8460,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="48.75" customHeight="1">
+    <row r="26" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>19</v>
       </c>
@@ -8052,10 +8487,10 @@
         <v>57</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>20</v>
       </c>
@@ -8085,7 +8520,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>21</v>
       </c>
@@ -8101,7 +8536,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="1:12" ht="30">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>22</v>
       </c>
@@ -8127,7 +8562,7 @@
       </c>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1">
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>23</v>
       </c>
@@ -8155,7 +8590,7 @@
       </c>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" ht="96" customHeight="1">
+    <row r="31" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>24</v>
       </c>
@@ -8171,7 +8606,7 @@
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="36" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>241</v>
@@ -8182,7 +8617,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>25</v>
       </c>
@@ -8206,7 +8641,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" ht="33" customHeight="1">
+    <row r="33" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>26</v>
       </c>
@@ -8232,7 +8667,7 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>27</v>
       </c>
@@ -8248,7 +8683,7 @@
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>28</v>
       </c>
@@ -8276,7 +8711,7 @@
       </c>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" ht="120">
+    <row r="36" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>29</v>
       </c>
@@ -8288,7 +8723,7 @@
         <v>7271</v>
       </c>
       <c r="E36" s="106" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F36" s="71" t="s">
         <v>258</v>
@@ -8297,16 +8732,18 @@
         <v>207</v>
       </c>
       <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
+      <c r="I36" s="17" t="s">
+        <v>546</v>
+      </c>
       <c r="J36" s="26" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="K36" s="22" t="s">
         <v>76</v>
       </c>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" ht="79.5" customHeight="1">
+    <row r="37" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>30</v>
       </c>
@@ -8317,7 +8754,7 @@
       <c r="D37" s="15">
         <v>4932</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="41" t="s">
         <v>238</v>
       </c>
       <c r="F37" s="71" t="s">
@@ -8327,14 +8764,14 @@
         <v>207</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="59"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>31</v>
       </c>
@@ -8360,7 +8797,7 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>32</v>
       </c>
@@ -8388,7 +8825,7 @@
       </c>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>33</v>
       </c>
@@ -8416,7 +8853,7 @@
       </c>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" ht="30">
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>34</v>
       </c>
@@ -8446,7 +8883,7 @@
       </c>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" s="81" customFormat="1">
+    <row r="42" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>35</v>
       </c>
@@ -8472,7 +8909,7 @@
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
     </row>
-    <row r="43" spans="1:12" ht="80.25" customHeight="1">
+    <row r="43" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>36</v>
       </c>
@@ -8483,7 +8920,7 @@
       <c r="D43" s="15">
         <v>10752</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="41" t="s">
         <v>238</v>
       </c>
       <c r="F43" s="28" t="s">
@@ -8500,7 +8937,7 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>37</v>
       </c>
@@ -8526,7 +8963,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>38</v>
       </c>
@@ -8550,7 +8987,7 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>39</v>
       </c>
@@ -8566,7 +9003,7 @@
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
     </row>
-    <row r="47" spans="1:12" ht="30">
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>40</v>
       </c>
@@ -8596,7 +9033,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="126.75" customHeight="1">
+    <row r="48" spans="1:12" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>41</v>
       </c>
@@ -8612,7 +9049,7 @@
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="36" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H48" s="37" t="s">
         <v>226</v>
@@ -8624,7 +9061,7 @@
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:12" ht="45">
+    <row r="49" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>42</v>
       </c>
@@ -8652,7 +9089,7 @@
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>43</v>
       </c>
@@ -8676,7 +9113,7 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>44</v>
       </c>
@@ -8692,7 +9129,7 @@
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
     </row>
-    <row r="52" spans="1:12" ht="409.5">
+    <row r="52" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>45</v>
       </c>
@@ -8711,7 +9148,7 @@
         <v>236</v>
       </c>
       <c r="H52" s="37" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I52" s="39" t="s">
         <v>247</v>
@@ -8722,7 +9159,7 @@
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>44</v>
       </c>
@@ -8738,7 +9175,7 @@
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
     </row>
-    <row r="54" spans="1:12" ht="45">
+    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>47</v>
       </c>
@@ -8768,7 +9205,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>48</v>
       </c>
@@ -8794,7 +9231,7 @@
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:12" ht="186.75" customHeight="1">
+    <row r="56" spans="1:12" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>49</v>
       </c>
@@ -8824,7 +9261,7 @@
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:12" ht="30">
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>50</v>
       </c>
@@ -8845,12 +9282,12 @@
       <c r="H57" s="13"/>
       <c r="I57" s="17"/>
       <c r="J57" s="26" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>51</v>
       </c>
@@ -8876,7 +9313,7 @@
       </c>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>52</v>
       </c>
@@ -8898,7 +9335,7 @@
       <c r="K59" s="42"/>
       <c r="L59" s="42"/>
     </row>
-    <row r="60" spans="1:12" ht="60">
+    <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>53</v>
       </c>
@@ -8928,7 +9365,7 @@
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>54</v>
       </c>
@@ -8956,7 +9393,7 @@
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12" ht="375">
+    <row r="62" spans="1:12" ht="375" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>55</v>
       </c>
@@ -8974,7 +9411,7 @@
         <v>261</v>
       </c>
       <c r="G62" s="46" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H62" s="58" t="s">
         <v>237</v>
@@ -8983,12 +9420,12 @@
         <v>234</v>
       </c>
       <c r="J62" s="83" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>56</v>
       </c>
@@ -9012,7 +9449,7 @@
       <c r="K63" s="42"/>
       <c r="L63" s="42"/>
     </row>
-    <row r="64" spans="1:12" ht="75">
+    <row r="64" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>57</v>
       </c>
@@ -9028,9 +9465,11 @@
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="46" t="s">
-        <v>375</v>
-      </c>
-      <c r="H64" s="77"/>
+        <v>372</v>
+      </c>
+      <c r="H64" s="77" t="s">
+        <v>547</v>
+      </c>
       <c r="I64" s="9" t="s">
         <v>242</v>
       </c>
@@ -9040,7 +9479,7 @@
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
     </row>
-    <row r="65" spans="1:12" ht="30">
+    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>58</v>
       </c>
@@ -9056,7 +9495,7 @@
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="47" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H65" s="66"/>
       <c r="I65" s="24" t="s">
@@ -9065,7 +9504,7 @@
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
     </row>
-    <row r="66" spans="1:12" ht="30">
+    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>59</v>
       </c>
@@ -9081,7 +9520,7 @@
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="47" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H66" s="66"/>
       <c r="I66" s="17"/>
@@ -9089,7 +9528,7 @@
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
     </row>
-    <row r="67" spans="1:12" ht="30">
+    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>60</v>
       </c>
@@ -9107,7 +9546,7 @@
         <v>258</v>
       </c>
       <c r="G67" s="47" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H67" s="66"/>
       <c r="I67" s="24" t="s">
@@ -9117,7 +9556,7 @@
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
     </row>
-    <row r="68" spans="1:12" ht="30">
+    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>66</v>
       </c>
@@ -9133,7 +9572,7 @@
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="47" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H68" s="66"/>
       <c r="I68" s="24" t="s">
@@ -9143,7 +9582,7 @@
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
     </row>
-    <row r="69" spans="1:12" ht="30">
+    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>67</v>
       </c>
@@ -9159,7 +9598,7 @@
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="47" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H69" s="66"/>
       <c r="I69" s="45" t="s">
@@ -9169,7 +9608,7 @@
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:12" ht="30">
+    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>68</v>
       </c>
@@ -9187,7 +9626,7 @@
         <v>258</v>
       </c>
       <c r="G70" s="47" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H70" s="66"/>
       <c r="I70" s="17"/>
@@ -9195,7 +9634,7 @@
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
     </row>
-    <row r="71" spans="1:12" ht="30">
+    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>69</v>
       </c>
@@ -9211,7 +9650,7 @@
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="36" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H71" s="66"/>
       <c r="I71" s="24" t="s">
@@ -9221,7 +9660,7 @@
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
         <v>70</v>
       </c>
@@ -9243,7 +9682,7 @@
       <c r="K72" s="42"/>
       <c r="L72" s="42"/>
     </row>
-    <row r="73" spans="1:12" ht="75">
+    <row r="73" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>71</v>
       </c>
@@ -9259,7 +9698,7 @@
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="36" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H73" s="60" t="s">
         <v>263</v>
@@ -9271,7 +9710,7 @@
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="42">
         <v>72</v>
       </c>
@@ -9293,7 +9732,7 @@
       <c r="K74" s="42"/>
       <c r="L74" s="42"/>
     </row>
-    <row r="75" spans="1:12" ht="30">
+    <row r="75" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>73</v>
       </c>
@@ -9311,19 +9750,19 @@
         <v>258</v>
       </c>
       <c r="G75" s="47" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H75" s="47"/>
       <c r="I75" s="24" t="s">
         <v>138</v>
       </c>
       <c r="J75" s="82" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="42">
         <v>74</v>
       </c>
@@ -9345,7 +9784,7 @@
       <c r="K76" s="42"/>
       <c r="L76" s="42"/>
     </row>
-    <row r="77" spans="1:12" ht="270">
+    <row r="77" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>75</v>
       </c>
@@ -9357,25 +9796,27 @@
         <v>7505</v>
       </c>
       <c r="E77" s="69" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="F77" s="71" t="s">
         <v>262</v>
       </c>
       <c r="G77" s="74" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="H77" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="I77" s="17"/>
+        <v>550</v>
+      </c>
+      <c r="I77" s="122" t="s">
+        <v>549</v>
+      </c>
       <c r="J77" s="82" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="42">
         <v>76</v>
       </c>
@@ -9390,14 +9831,16 @@
         <v>116</v>
       </c>
       <c r="F78" s="121"/>
-      <c r="G78" s="42"/>
+      <c r="G78" s="42" t="s">
+        <v>548</v>
+      </c>
       <c r="H78" s="42"/>
       <c r="I78" s="42"/>
       <c r="J78" s="42"/>
       <c r="K78" s="42"/>
       <c r="L78" s="42"/>
     </row>
-    <row r="79" spans="1:12" ht="30">
+    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>77</v>
       </c>
@@ -9409,25 +9852,25 @@
         <v>7403</v>
       </c>
       <c r="E79" s="64" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F79" s="28" t="s">
         <v>258</v>
       </c>
       <c r="G79" s="70" t="s">
-        <v>270</v>
+        <v>556</v>
       </c>
       <c r="H79" s="78"/>
       <c r="I79" s="24" t="s">
         <v>267</v>
       </c>
       <c r="J79" s="70" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
     </row>
-    <row r="80" spans="1:12" ht="75">
+    <row r="80" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>78</v>
       </c>
@@ -9455,37 +9898,37 @@
       <c r="K80" s="22"/>
       <c r="L80" s="22"/>
     </row>
-    <row r="81" spans="1:12" ht="315">
+    <row r="81" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>79</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="14" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="57" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F81" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="G81" s="74" t="s">
-        <v>487</v>
+        <v>402</v>
+      </c>
+      <c r="G81" s="123" t="s">
+        <v>555</v>
       </c>
       <c r="H81" s="84" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I81" s="115" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J81" s="82" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="K81" s="24"/>
       <c r="L81" s="22"/>
     </row>
-    <row r="82" spans="1:12" ht="315">
+    <row r="82" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>80</v>
       </c>
@@ -9497,27 +9940,27 @@
         <v>17898</v>
       </c>
       <c r="E82" s="63" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F82" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="G82" s="74" t="s">
-        <v>538</v>
+      <c r="G82" s="123" t="s">
+        <v>533</v>
       </c>
       <c r="H82" s="84" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I82" s="120" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="J82" s="82" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
     </row>
-    <row r="83" spans="1:12" ht="315">
+    <row r="83" spans="1:12" ht="315" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>81</v>
       </c>
@@ -9529,27 +9972,27 @@
         <v>62978</v>
       </c>
       <c r="E83" s="69" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="F83" s="28" t="s">
         <v>262</v>
       </c>
       <c r="G83" s="74" t="s">
+        <v>553</v>
+      </c>
+      <c r="H83" s="76" t="s">
         <v>273</v>
-      </c>
-      <c r="H83" s="76" t="s">
-        <v>276</v>
       </c>
       <c r="I83" s="24" t="s">
         <v>268</v>
       </c>
       <c r="J83" s="82" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="42">
         <v>82</v>
       </c>
@@ -9571,95 +10014,95 @@
       <c r="K84" s="42"/>
       <c r="L84" s="42"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E86" s="92" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F86" s="91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E87" s="92" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F87" s="91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E88" s="92" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F88" s="91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E89" s="92" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F89" s="91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E90" s="92" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F90" s="91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E91" s="92" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F91" s="91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E92" s="92" t="s">
+        <v>391</v>
+      </c>
+      <c r="F92" s="91" t="s">
         <v>394</v>
-      </c>
-      <c r="F92" s="91" t="s">
-        <v>397</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E93" s="92" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F93" s="91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E94" s="92" t="s">
         <v>87</v>
       </c>
@@ -9670,7 +10113,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E95" s="92" t="s">
         <v>72</v>
       </c>
@@ -9681,21 +10124,21 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C96" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E96" s="92" t="s">
+        <v>393</v>
+      </c>
+      <c r="F96" s="65" t="s">
         <v>396</v>
-      </c>
-      <c r="F96" s="65" t="s">
-        <v>399</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="3:9">
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E97" s="92" t="s">
         <v>59</v>
       </c>
@@ -9706,7 +10149,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="98" spans="3:9">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E98" s="92" t="s">
         <v>45</v>
       </c>
@@ -9717,20 +10160,20 @@
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="3:9">
+    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E99" s="92" t="s">
         <v>22</v>
       </c>
       <c r="F99" s="91" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="3:9">
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C100" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E100" s="92" t="s">
         <v>55</v>
@@ -9742,7 +10185,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="3:9">
+    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E101" s="92" t="s">
         <v>96</v>
       </c>
@@ -9753,37 +10196,37 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="3:9">
+    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E102" s="92" t="s">
         <v>65</v>
       </c>
       <c r="F102" s="91" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="3:9">
+    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E103" s="92" t="s">
         <v>84</v>
       </c>
       <c r="F103" s="91" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="3:9" ht="30">
+    <row r="104" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C104" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E104" s="92" t="s">
         <v>144</v>
       </c>
       <c r="F104" s="65" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>209</v>
@@ -9792,12 +10235,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="3:9">
+    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E105" s="92" t="s">
         <v>63</v>
       </c>
       <c r="F105" s="91" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>209</v>
@@ -9806,18 +10249,18 @@
         <v>251</v>
       </c>
     </row>
-    <row r="106" spans="3:9">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E106" s="92" t="s">
         <v>30</v>
       </c>
       <c r="F106" s="91" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="3:9">
+    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E107" s="92" t="s">
         <v>79</v>
       </c>
@@ -9828,12 +10271,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="3:9">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I108" s="65"/>
     </row>
-    <row r="109" spans="3:9">
+    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C109" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E109" s="91" t="s">
         <v>145</v>
@@ -9843,9 +10286,9 @@
       </c>
       <c r="I109" s="7"/>
     </row>
-    <row r="110" spans="3:9">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C110" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E110" s="91" t="s">
         <v>146</v>
@@ -9855,9 +10298,9 @@
       </c>
       <c r="I110" s="7"/>
     </row>
-    <row r="111" spans="3:9">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C111" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E111" s="91" t="s">
         <v>147</v>
@@ -9867,9 +10310,9 @@
       </c>
       <c r="I111" s="7"/>
     </row>
-    <row r="112" spans="3:9">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C112" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E112" s="91" t="s">
         <v>148</v>
@@ -9879,9 +10322,9 @@
       </c>
       <c r="I112" s="7"/>
     </row>
-    <row r="113" spans="3:9">
+    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C113" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E113" s="91" t="s">
         <v>149</v>
@@ -9891,9 +10334,9 @@
       </c>
       <c r="I113" s="7"/>
     </row>
-    <row r="114" spans="3:9">
+    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C114" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E114" s="91" t="s">
         <v>150</v>
@@ -9903,9 +10346,9 @@
       </c>
       <c r="I114" s="7"/>
     </row>
-    <row r="115" spans="3:9">
+    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C115" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E115" s="91" t="s">
         <v>151</v>
@@ -9915,7 +10358,7 @@
       </c>
       <c r="I115" s="7"/>
     </row>
-    <row r="116" spans="3:9" ht="45">
+    <row r="116" spans="3:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E116" s="91" t="s">
         <v>152</v>
       </c>
@@ -9923,15 +10366,15 @@
         <v>207</v>
       </c>
       <c r="H116" s="103" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I116" s="104" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="117" spans="3:9">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C117" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E117" s="91" t="s">
         <v>153</v>
@@ -9941,9 +10384,9 @@
       </c>
       <c r="I117" s="7"/>
     </row>
-    <row r="118" spans="3:9">
+    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C118" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E118" s="91" t="s">
         <v>154</v>
@@ -9953,13 +10396,13 @@
       </c>
       <c r="I118" s="7"/>
     </row>
-    <row r="119" spans="3:9">
+    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C119" s="91"/>
       <c r="E119" s="91"/>
     </row>
-    <row r="120" spans="3:9">
+    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C120" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E120" s="91" t="s">
         <v>155</v>
@@ -9970,9 +10413,9 @@
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
     </row>
-    <row r="121" spans="3:9">
+    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C121" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E121" s="91" t="s">
         <v>156</v>
@@ -9983,9 +10426,9 @@
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
     </row>
-    <row r="122" spans="3:9">
+    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C122" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E122" s="91" t="s">
         <v>157</v>
@@ -9996,9 +10439,9 @@
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
     </row>
-    <row r="123" spans="3:9">
+    <row r="123" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C123" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E123" s="91" t="s">
         <v>82</v>
@@ -10009,9 +10452,9 @@
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
     </row>
-    <row r="124" spans="3:9">
+    <row r="124" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C124" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E124" s="91" t="s">
         <v>158</v>
@@ -10022,14 +10465,14 @@
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
     </row>
-    <row r="125" spans="3:9">
+    <row r="125" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C125" s="91"/>
       <c r="E125" s="91"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="3:9">
+    <row r="126" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C126" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E126" s="91" t="s">
         <v>31</v>
@@ -10041,7 +10484,7 @@
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
     </row>
-    <row r="127" spans="3:9">
+    <row r="127" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C127" s="91"/>
       <c r="E127" s="75"/>
       <c r="F127" s="6"/>
@@ -10049,9 +10492,9 @@
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
     </row>
-    <row r="128" spans="3:9">
+    <row r="128" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C128" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>167</v>
@@ -10063,9 +10506,9 @@
       <c r="H128" s="10"/>
       <c r="I128" s="7"/>
     </row>
-    <row r="129" spans="3:9">
+    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C129" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>168</v>
@@ -10077,9 +10520,9 @@
       <c r="H129" s="10"/>
       <c r="I129" s="7"/>
     </row>
-    <row r="130" spans="3:9">
+    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C130" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>169</v>
@@ -10091,52 +10534,52 @@
       <c r="H130" s="10"/>
       <c r="I130" s="7"/>
     </row>
-    <row r="131" spans="3:9">
+    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C131" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G131" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="132" spans="3:9">
+    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G132" s="8"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="3:9" s="5" customFormat="1">
+    <row r="133" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C133" s="93" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D133" s="94"/>
       <c r="E133" s="95" t="s">
         <v>159</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H133" s="85"/>
       <c r="I133" s="85"/>
     </row>
-    <row r="134" spans="3:9" s="5" customFormat="1">
+    <row r="134" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C134" s="93" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D134" s="94"/>
       <c r="E134" s="95" t="s">
         <v>160</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H134" s="85"/>
       <c r="I134" s="85"/>
     </row>
-    <row r="135" spans="3:9" s="89" customFormat="1" ht="45.75">
+    <row r="135" spans="3:9" s="89" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="C135" s="93" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D135" s="94"/>
       <c r="E135" s="95" t="s">
@@ -10146,12 +10589,12 @@
         <v>161</v>
       </c>
       <c r="H135" s="85" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="136" spans="3:9">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C136" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E136" s="89" t="s">
         <v>163</v>
@@ -10161,41 +10604,41 @@
         <v>161</v>
       </c>
       <c r="H136" s="90" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I136" s="90" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="137" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="93" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="137" spans="3:9" s="5" customFormat="1">
-      <c r="C137" s="93" t="s">
-        <v>386</v>
       </c>
       <c r="D137" s="94"/>
       <c r="E137" s="95" t="s">
         <v>164</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H137" s="85"/>
       <c r="I137" s="85"/>
     </row>
-    <row r="138" spans="3:9" s="5" customFormat="1">
+    <row r="138" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C138" s="93" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D138" s="94"/>
       <c r="E138" s="95" t="s">
         <v>165</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H138" s="85"/>
       <c r="I138" s="85"/>
     </row>
-    <row r="139" spans="3:9">
+    <row r="139" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C139" s="96"/>
       <c r="D139" s="94"/>
       <c r="E139" s="97"/>
@@ -10204,80 +10647,80 @@
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
     </row>
-    <row r="140" spans="3:9" s="87" customFormat="1">
+    <row r="140" spans="3:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C140" s="93" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D140" s="98"/>
       <c r="E140" s="99" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G140" s="87" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H140" s="88"/>
       <c r="I140" s="88"/>
     </row>
-    <row r="141" spans="3:9" s="87" customFormat="1">
+    <row r="141" spans="3:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C141" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D141" s="86"/>
       <c r="E141" s="87" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G141" s="87" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H141" s="88"/>
       <c r="I141" s="88"/>
     </row>
-    <row r="142" spans="3:9" s="87" customFormat="1">
+    <row r="142" spans="3:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C142" s="91" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D142" s="86"/>
       <c r="E142" s="87" t="s">
         <v>166</v>
       </c>
       <c r="G142" s="87" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H142" s="88"/>
       <c r="I142" s="88"/>
     </row>
-    <row r="143" spans="3:9">
+    <row r="143" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
     </row>
-    <row r="144" spans="3:9">
+    <row r="144" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
       <c r="I144" s="7"/>
     </row>
-    <row r="145" spans="5:9">
+    <row r="145" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
       <c r="I145" s="7"/>
     </row>
-    <row r="146" spans="5:9">
+    <row r="146" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
       <c r="I146" s="7"/>
     </row>
-    <row r="147" spans="5:9">
+    <row r="147" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E147" s="1"/>
       <c r="G147" s="10"/>
     </row>
-    <row r="148" spans="5:9">
+    <row r="148" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E148" s="1"/>
       <c r="G148" s="10"/>
     </row>
@@ -10299,7 +10742,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" customWidth="1"/>
@@ -10307,7 +10750,7 @@
     <col min="5" max="5" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="101"/>
       <c r="B1" s="56" t="s">
         <v>228</v>
@@ -10320,55 +10763,55 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1">
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10383,236 +10826,236 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D17" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="119" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C21" s="119"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D22" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D23" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D24" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D26" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D27" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D28" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D29" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D30" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D31" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D32" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -10634,7 +11077,7 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
@@ -10660,807 +11103,807 @@
     <col min="22" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="55" customFormat="1" ht="91.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:21" s="55" customFormat="1" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="118" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D1" s="118" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E1" s="118"/>
       <c r="F1" s="118" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G1" s="118"/>
       <c r="H1" s="118"/>
       <c r="I1" s="118"/>
       <c r="J1" s="118" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K1" s="118"/>
       <c r="L1" s="118"/>
       <c r="M1" s="118"/>
       <c r="N1" s="118"/>
       <c r="O1" s="118" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="P1" s="118"/>
       <c r="Q1" s="118"/>
       <c r="R1" s="118"/>
       <c r="S1" s="118"/>
       <c r="T1" s="118" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="U1" s="118"/>
     </row>
-    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B2" s="55">
         <v>1299</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E2" s="55"/>
       <c r="F2" s="91" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G2" s="55"/>
       <c r="H2" s="101"/>
       <c r="J2" s="85" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K2" s="85">
         <v>157</v>
       </c>
       <c r="M2" s="116"/>
       <c r="O2" s="85" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P2" s="85">
         <v>53</v>
       </c>
       <c r="R2" s="116"/>
       <c r="T2" s="85" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="U2" s="85">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B3" s="55">
         <v>878</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E3" s="55"/>
       <c r="F3" s="91" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G3" s="55"/>
       <c r="H3" s="101"/>
       <c r="J3" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K3" s="85">
         <v>54</v>
       </c>
       <c r="M3" s="116"/>
       <c r="O3" s="85" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P3" s="85">
         <v>32</v>
       </c>
       <c r="R3" s="116"/>
       <c r="T3" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="U3" s="85">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B4" s="55">
         <v>469</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E4" s="55"/>
       <c r="F4" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G4" s="55"/>
       <c r="H4" s="101"/>
       <c r="J4" s="85" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K4" s="85">
         <v>44</v>
       </c>
       <c r="M4" s="116"/>
       <c r="O4" s="85" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P4" s="85">
         <v>28</v>
       </c>
       <c r="R4" s="116"/>
       <c r="T4" s="85" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="U4" s="85">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B5" s="55">
         <v>432</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E5" s="55"/>
       <c r="F5" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H5" s="101"/>
       <c r="J5" s="85" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K5" s="85">
         <v>30</v>
       </c>
       <c r="M5" s="116"/>
       <c r="O5" s="85" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P5" s="85">
         <v>17</v>
       </c>
       <c r="R5" s="116"/>
       <c r="T5" s="85" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="U5" s="85">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B6" s="55">
         <v>430</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E6" s="55"/>
       <c r="F6" s="91" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G6" s="55"/>
       <c r="H6" s="101"/>
       <c r="J6" s="85" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K6" s="85">
         <v>30</v>
       </c>
       <c r="M6" s="116"/>
       <c r="O6" s="85" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P6" s="85">
         <v>14</v>
       </c>
       <c r="R6" s="116"/>
       <c r="T6" s="85" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="U6" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B7" s="55">
         <v>388</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E7" s="55"/>
       <c r="F7" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G7" s="55"/>
       <c r="H7" s="101"/>
       <c r="J7" s="85" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K7" s="85">
         <v>14</v>
       </c>
       <c r="M7" s="116"/>
       <c r="O7" s="85" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P7" s="85">
         <v>11</v>
       </c>
       <c r="R7" s="116"/>
       <c r="T7" s="85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="U7" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="55" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B8" s="55">
         <v>377</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E8" s="55"/>
       <c r="F8" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G8" s="55"/>
       <c r="H8" s="101"/>
       <c r="J8" s="85" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K8" s="85">
         <v>12</v>
       </c>
       <c r="M8" s="116"/>
       <c r="O8" s="85" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P8" s="85">
         <v>11</v>
       </c>
       <c r="R8" s="116"/>
       <c r="T8" s="85" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U8" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="55" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B9" s="55">
         <v>220</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E9" s="55"/>
       <c r="F9" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G9" s="55"/>
       <c r="H9" s="101"/>
       <c r="J9" s="85" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K9" s="85">
         <v>10</v>
       </c>
       <c r="M9" s="116"/>
       <c r="O9" s="85" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P9" s="85">
         <v>9</v>
       </c>
       <c r="R9" s="116"/>
       <c r="T9" s="85" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="U9" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="55" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B10" s="55">
         <v>187</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="101"/>
       <c r="J10" s="85" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K10" s="85">
         <v>8</v>
       </c>
       <c r="M10" s="116"/>
       <c r="O10" s="85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P10" s="85">
         <v>9</v>
       </c>
       <c r="R10" s="116"/>
     </row>
-    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="55" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B11" s="55">
         <v>115</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E11" s="55"/>
       <c r="F11" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G11" s="55"/>
       <c r="H11" s="101"/>
       <c r="J11" s="85" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K11" s="85">
         <v>4</v>
       </c>
       <c r="M11" s="116"/>
       <c r="O11" s="85" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P11" s="85">
         <v>7</v>
       </c>
       <c r="R11" s="116"/>
     </row>
-    <row r="12" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="55" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B12" s="55">
         <v>110</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E12" s="55"/>
       <c r="F12" s="91" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G12" s="55"/>
       <c r="H12" s="101"/>
       <c r="J12" s="85" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K12" s="85">
         <v>4</v>
       </c>
       <c r="M12" s="116"/>
       <c r="O12" s="85" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P12" s="85">
         <v>7</v>
       </c>
       <c r="R12" s="116"/>
     </row>
-    <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B13" s="55">
         <v>81</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E13" s="55"/>
       <c r="F13" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G13" s="55"/>
       <c r="H13" s="101"/>
       <c r="J13" s="85" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K13" s="85">
         <v>4</v>
       </c>
       <c r="M13" s="116"/>
       <c r="O13" s="85" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P13" s="85">
         <v>4</v>
       </c>
       <c r="R13" s="116"/>
     </row>
-    <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B14" s="55">
         <v>51</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="91" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G14" s="55"/>
       <c r="H14" s="101"/>
       <c r="J14" s="85" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K14" s="85">
         <v>3</v>
       </c>
       <c r="M14" s="116"/>
       <c r="O14" s="85" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P14" s="85">
         <v>4</v>
       </c>
       <c r="R14" s="116"/>
     </row>
-    <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="55" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B15" s="55">
         <v>44</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="91" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G15" s="55"/>
       <c r="H15" s="101"/>
       <c r="J15" s="85" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K15" s="85">
         <v>3</v>
       </c>
       <c r="M15" s="116"/>
       <c r="O15" s="85" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P15" s="85">
         <v>3</v>
       </c>
       <c r="R15" s="116"/>
     </row>
-    <row r="16" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B16" s="55">
         <v>40</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E16" s="55"/>
       <c r="F16" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G16" s="55"/>
       <c r="H16" s="101"/>
       <c r="J16" s="85" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K16" s="85">
         <v>3</v>
       </c>
       <c r="M16" s="116"/>
       <c r="O16" s="85" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P16" s="85">
         <v>2</v>
       </c>
       <c r="R16" s="116"/>
     </row>
-    <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B17" s="55">
         <v>37</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E17" s="55"/>
       <c r="F17" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G17" s="55"/>
       <c r="H17" s="101"/>
       <c r="J17" s="85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K17" s="85">
         <v>2</v>
       </c>
       <c r="M17" s="116"/>
       <c r="O17" s="85" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P17" s="85">
         <v>2</v>
       </c>
       <c r="R17" s="116"/>
     </row>
-    <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B18" s="55">
         <v>36</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G18" s="55"/>
       <c r="H18" s="101"/>
       <c r="J18" s="85" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K18" s="85">
         <v>2</v>
       </c>
       <c r="M18" s="116"/>
       <c r="O18" s="85" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P18" s="85">
         <v>2</v>
       </c>
       <c r="R18" s="116"/>
     </row>
-    <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B19" s="55">
         <v>29</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E19" s="55"/>
       <c r="F19" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G19" s="55"/>
       <c r="H19" s="101"/>
       <c r="J19" s="85" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K19" s="85">
         <v>2</v>
       </c>
       <c r="M19" s="116"/>
       <c r="O19" s="85" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P19" s="85">
         <v>1</v>
       </c>
       <c r="R19" s="116"/>
     </row>
-    <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="55" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B20" s="55">
         <v>24</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E20" s="55"/>
       <c r="F20" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G20" s="55"/>
       <c r="H20" s="101"/>
       <c r="J20" s="85" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K20" s="85">
         <v>1</v>
       </c>
       <c r="M20" s="116"/>
       <c r="O20" s="85" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P20" s="85">
         <v>1</v>
       </c>
       <c r="R20" s="116"/>
     </row>
-    <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B21" s="55">
         <v>22</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E21" s="55"/>
       <c r="F21" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G21" s="55"/>
       <c r="H21" s="101"/>
       <c r="J21" s="85" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K21" s="85">
         <v>1</v>
       </c>
       <c r="M21" s="116"/>
       <c r="O21" s="85" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P21" s="85">
         <v>1</v>
       </c>
       <c r="R21" s="116"/>
     </row>
-    <row r="22" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="55" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B22" s="55">
         <v>22</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E22" s="55"/>
       <c r="F22" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G22" s="55"/>
       <c r="H22" s="101"/>
       <c r="J22" s="85" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K22" s="85">
         <v>1</v>
       </c>
       <c r="M22" s="116"/>
       <c r="O22" s="85" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P22" s="85">
         <v>1</v>
       </c>
       <c r="R22" s="116"/>
     </row>
-    <row r="23" spans="1:18" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="23" spans="1:18" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="55" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B23" s="55">
         <v>20</v>
@@ -11468,268 +11911,268 @@
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
       <c r="E23" s="102" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G23" s="55"/>
       <c r="H23" s="101"/>
       <c r="J23" s="85" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K23" s="85">
         <v>1</v>
       </c>
       <c r="M23" s="116"/>
       <c r="O23" s="85" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P23" s="85">
         <v>1</v>
       </c>
       <c r="R23" s="116"/>
     </row>
-    <row r="24" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="55" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B24" s="55">
         <v>19</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E24" s="55"/>
       <c r="F24" s="91" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G24" s="55"/>
       <c r="H24" s="101"/>
       <c r="J24" s="85" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K24" s="85">
         <v>1</v>
       </c>
       <c r="M24" s="116"/>
       <c r="O24" s="85" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P24" s="85">
         <v>1</v>
       </c>
       <c r="R24" s="116"/>
     </row>
-    <row r="25" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="55" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B25" s="55">
         <v>19</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="91" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G25" s="55"/>
       <c r="H25" s="101"/>
       <c r="J25" s="85" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K25" s="85">
         <v>1</v>
       </c>
       <c r="M25" s="116"/>
       <c r="O25" s="85" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P25" s="85">
         <v>1</v>
       </c>
       <c r="R25" s="116"/>
     </row>
-    <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="55" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B26" s="55">
         <v>19</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E26" s="55"/>
       <c r="F26" s="91" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G26" s="55"/>
       <c r="H26" s="101"/>
       <c r="J26" s="85" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K26" s="85">
         <v>1</v>
       </c>
       <c r="M26" s="116"/>
       <c r="O26" s="85" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P26" s="85">
         <v>1</v>
       </c>
       <c r="R26" s="116"/>
     </row>
-    <row r="27" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="55" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B27" s="55">
         <v>17</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E27" s="55"/>
       <c r="F27" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G27" s="55"/>
       <c r="H27" s="101"/>
       <c r="J27" s="85" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K27" s="85">
         <v>1</v>
       </c>
       <c r="M27" s="116"/>
       <c r="O27" s="85" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P27" s="85">
         <v>1</v>
       </c>
       <c r="R27" s="116"/>
     </row>
-    <row r="28" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="55" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B28" s="55">
         <v>16</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G28" s="55"/>
       <c r="H28" s="101"/>
       <c r="J28" s="85" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K28" s="85">
         <v>1</v>
       </c>
       <c r="M28" s="116"/>
       <c r="O28" s="85" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P28" s="85">
         <v>1</v>
       </c>
       <c r="R28" s="116"/>
     </row>
-    <row r="29" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="55" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B29" s="55">
         <v>14</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G29" s="55"/>
       <c r="H29" s="101"/>
       <c r="J29" s="85" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K29" s="85">
         <v>1</v>
       </c>
       <c r="M29" s="116"/>
       <c r="O29" s="85" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P29" s="85">
         <v>1</v>
       </c>
       <c r="R29" s="116"/>
     </row>
-    <row r="30" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="55" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B30" s="55">
         <v>14</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D30" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E30" s="102" t="s">
         <v>419</v>
       </c>
-      <c r="E30" s="102" t="s">
-        <v>422</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G30" s="55"/>
       <c r="H30" s="101"/>
       <c r="J30" s="85" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K30" s="85">
         <v>1</v>
       </c>
       <c r="M30" s="116"/>
       <c r="O30" s="85" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P30" s="85">
         <v>1</v>
       </c>
       <c r="R30" s="116"/>
     </row>
-    <row r="31" spans="1:18" ht="31.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="55" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B31" s="55">
         <v>14</v>
@@ -11737,126 +12180,126 @@
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
       <c r="E31" s="102" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G31" s="55"/>
       <c r="H31" s="101"/>
       <c r="J31" s="85" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K31" s="85">
         <v>1</v>
       </c>
       <c r="M31" s="116"/>
       <c r="O31" s="85" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P31" s="85">
         <v>1</v>
       </c>
       <c r="R31" s="116"/>
     </row>
-    <row r="32" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B32" s="55">
         <v>12</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E32" s="55"/>
       <c r="F32" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G32" s="55"/>
       <c r="H32" s="101"/>
       <c r="J32" s="85" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K32" s="85">
         <v>1</v>
       </c>
       <c r="M32" s="116"/>
       <c r="O32" s="85" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P32" s="85">
         <v>1</v>
       </c>
       <c r="R32" s="116"/>
     </row>
-    <row r="33" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="55" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B33" s="55">
         <v>12</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G33" s="55"/>
       <c r="H33" s="101"/>
       <c r="J33" s="85" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K33" s="85">
         <v>1</v>
       </c>
       <c r="M33" s="116"/>
       <c r="O33" s="85" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P33" s="85">
         <v>1</v>
       </c>
       <c r="R33" s="116"/>
     </row>
-    <row r="34" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="55" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B34" s="55">
         <v>10</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E34" s="102" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F34" s="91" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G34" s="55"/>
       <c r="H34" s="101"/>
       <c r="M34" s="116"/>
       <c r="O34" s="85" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P34" s="85">
         <v>1</v>
       </c>
       <c r="R34" s="116"/>
     </row>
-    <row r="35" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="55" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B35" s="55">
         <v>6</v>
@@ -11864,22 +12307,22 @@
       <c r="C35" s="55"/>
       <c r="D35" s="55"/>
       <c r="E35" s="102" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G35" s="55"/>
       <c r="H35" s="101"/>
       <c r="M35" s="116"/>
       <c r="O35" s="85" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P35" s="85">
         <v>1</v>
       </c>
       <c r="R35" s="116"/>
     </row>
-    <row r="36" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="55" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B36" s="55">
         <v>6</v>
@@ -11887,204 +12330,204 @@
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="102" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G36" s="55"/>
       <c r="H36" s="101"/>
     </row>
-    <row r="37" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="55" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B37" s="55">
         <v>6</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E37" s="102" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G37" s="55"/>
       <c r="H37" s="101"/>
       <c r="O37" s="117"/>
     </row>
-    <row r="38" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B38" s="55">
         <v>6</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E38" s="55" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G38" s="55"/>
       <c r="H38" s="101"/>
     </row>
-    <row r="39" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="55" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B39" s="55">
         <v>5</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E39" s="55"/>
       <c r="G39" s="55"/>
       <c r="H39" s="101"/>
     </row>
-    <row r="40" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="55" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B40" s="55">
         <v>5</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E40" s="55"/>
       <c r="G40" s="55"/>
       <c r="H40" s="101"/>
     </row>
-    <row r="41" spans="1:18" ht="46.5" thickTop="1" thickBot="1">
+    <row r="41" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B41" s="55">
         <v>5</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D41" s="105" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E41" s="102" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G41" s="55"/>
       <c r="H41" s="101"/>
     </row>
-    <row r="42" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="55" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B42" s="55">
         <v>5</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E42" s="55"/>
       <c r="F42" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G42" s="55"/>
       <c r="H42" s="101"/>
     </row>
-    <row r="43" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="55" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B43" s="55">
         <v>5</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E43" s="55"/>
       <c r="F43" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G43" s="55"/>
       <c r="H43" s="101"/>
     </row>
-    <row r="44" spans="1:18" ht="46.5" thickTop="1" thickBot="1">
+    <row r="44" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="55" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B44" s="55">
         <v>5</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E44" s="102" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G44" s="55"/>
       <c r="H44" s="101"/>
     </row>
-    <row r="45" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="55" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B45" s="55">
         <v>4</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E45" s="55"/>
       <c r="G45" s="55"/>
       <c r="H45" s="101"/>
     </row>
-    <row r="46" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="55" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B46" s="55">
         <v>4</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E46" s="102" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G46" s="55"/>
       <c r="H46" s="101"/>
     </row>
-    <row r="47" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="55" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B47" s="55">
         <v>3</v>
@@ -12092,94 +12535,94 @@
       <c r="C47" s="55"/>
       <c r="D47" s="55"/>
       <c r="E47" s="102" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G47" s="55"/>
       <c r="H47" s="101"/>
     </row>
-    <row r="48" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="55" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B48" s="55">
         <v>3</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E48" s="55"/>
       <c r="F48" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G48" s="55"/>
       <c r="H48" s="101"/>
     </row>
-    <row r="49" spans="1:8" ht="46.5" thickTop="1" thickBot="1">
+    <row r="49" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="55" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B49" s="55">
         <v>3</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D49" s="105" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E49" s="55"/>
       <c r="F49" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G49" s="55"/>
       <c r="H49" s="101"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="50" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="55" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B50" s="55">
         <v>3</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E50" s="55"/>
       <c r="F50" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G50" s="55"/>
       <c r="H50" s="101"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="51" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="55" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B51" s="55">
         <v>3</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E51" s="55"/>
       <c r="F51" s="91" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G51" s="55"/>
       <c r="H51" s="101"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="52" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="55" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B52" s="55">
         <v>3</v>
@@ -12190,9 +12633,9 @@
       <c r="G52" s="55"/>
       <c r="H52" s="101"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="53" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="55" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B53" s="55">
         <v>2</v>
@@ -12203,9 +12646,9 @@
       <c r="G53" s="55"/>
       <c r="H53" s="101"/>
     </row>
-    <row r="54" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="54" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="55" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B54" s="55">
         <v>2</v>
@@ -12216,9 +12659,9 @@
       <c r="G54" s="55"/>
       <c r="H54" s="101"/>
     </row>
-    <row r="55" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="55" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B55" s="55">
         <v>2</v>
@@ -12229,9 +12672,9 @@
       <c r="G55" s="55"/>
       <c r="H55" s="101"/>
     </row>
-    <row r="56" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="56" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="55" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B56" s="55">
         <v>2</v>
@@ -12242,9 +12685,9 @@
       <c r="G56" s="55"/>
       <c r="H56" s="101"/>
     </row>
-    <row r="57" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="57" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="55" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B57" s="55">
         <v>2</v>
@@ -12255,9 +12698,9 @@
       <c r="G57" s="55"/>
       <c r="H57" s="101"/>
     </row>
-    <row r="58" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="58" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="55" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B58" s="55">
         <v>2</v>
@@ -12268,9 +12711,9 @@
       <c r="G58" s="55"/>
       <c r="H58" s="101"/>
     </row>
-    <row r="59" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="59" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="55" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B59" s="55">
         <v>2</v>
@@ -12281,9 +12724,9 @@
       <c r="G59" s="55"/>
       <c r="H59" s="101"/>
     </row>
-    <row r="60" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="60" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="55" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B60" s="55">
         <v>2</v>
@@ -12294,9 +12737,9 @@
       <c r="G60" s="55"/>
       <c r="H60" s="101"/>
     </row>
-    <row r="61" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="61" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="55" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B61" s="55">
         <v>2</v>
@@ -12307,9 +12750,9 @@
       <c r="G61" s="55"/>
       <c r="H61" s="101"/>
     </row>
-    <row r="62" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="62" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="55" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B62" s="55">
         <v>2</v>
@@ -12320,9 +12763,9 @@
       <c r="G62" s="55"/>
       <c r="H62" s="101"/>
     </row>
-    <row r="63" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="63" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="55" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B63" s="55">
         <v>2</v>
@@ -12333,9 +12776,9 @@
       <c r="G63" s="55"/>
       <c r="H63" s="101"/>
     </row>
-    <row r="64" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="64" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="55" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B64" s="55">
         <v>2</v>
@@ -12346,9 +12789,9 @@
       <c r="G64" s="55"/>
       <c r="H64" s="101"/>
     </row>
-    <row r="65" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="65" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="55" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B65" s="55">
         <v>2</v>
@@ -12359,9 +12802,9 @@
       <c r="G65" s="55"/>
       <c r="H65" s="101"/>
     </row>
-    <row r="66" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="66" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B66" s="55">
         <v>1</v>
@@ -12372,9 +12815,9 @@
       <c r="G66" s="55"/>
       <c r="H66" s="101"/>
     </row>
-    <row r="67" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="67" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="55" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B67" s="55">
         <v>1</v>
@@ -12385,9 +12828,9 @@
       <c r="G67" s="55"/>
       <c r="H67" s="101"/>
     </row>
-    <row r="68" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="68" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="55" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B68" s="55">
         <v>1</v>
@@ -12398,9 +12841,9 @@
       <c r="G68" s="55"/>
       <c r="H68" s="101"/>
     </row>
-    <row r="69" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="69" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="55" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B69" s="55">
         <v>1</v>
@@ -12411,9 +12854,9 @@
       <c r="G69" s="55"/>
       <c r="H69" s="101"/>
     </row>
-    <row r="70" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="70" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="55" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B70" s="55">
         <v>1</v>
@@ -12424,9 +12867,9 @@
       <c r="G70" s="55"/>
       <c r="H70" s="101"/>
     </row>
-    <row r="71" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="71" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="55" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B71" s="55">
         <v>1</v>
@@ -12437,9 +12880,9 @@
       <c r="G71" s="55"/>
       <c r="H71" s="101"/>
     </row>
-    <row r="72" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="72" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="55" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B72" s="55">
         <v>1</v>
@@ -12450,9 +12893,9 @@
       <c r="G72" s="55"/>
       <c r="H72" s="101"/>
     </row>
-    <row r="73" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="73" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="55" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B73" s="55">
         <v>1</v>
@@ -12463,9 +12906,9 @@
       <c r="G73" s="55"/>
       <c r="H73" s="101"/>
     </row>
-    <row r="74" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="74" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="55" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B74" s="55">
         <v>1</v>
@@ -12476,9 +12919,9 @@
       <c r="G74" s="55"/>
       <c r="H74" s="101"/>
     </row>
-    <row r="75" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="75" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B75" s="55">
         <v>1</v>
@@ -12489,9 +12932,9 @@
       <c r="G75" s="55"/>
       <c r="H75" s="101"/>
     </row>
-    <row r="76" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="76" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="55" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B76" s="55">
         <v>1</v>
@@ -12502,9 +12945,9 @@
       <c r="G76" s="55"/>
       <c r="H76" s="101"/>
     </row>
-    <row r="77" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="77" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="55" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B77" s="55">
         <v>1</v>
@@ -12515,9 +12958,9 @@
       <c r="G77" s="55"/>
       <c r="H77" s="101"/>
     </row>
-    <row r="78" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="78" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="55" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B78" s="55">
         <v>1</v>
@@ -12528,9 +12971,9 @@
       <c r="G78" s="55"/>
       <c r="H78" s="101"/>
     </row>
-    <row r="79" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="79" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B79" s="55">
         <v>1</v>
@@ -12541,9 +12984,9 @@
       <c r="G79" s="55"/>
       <c r="H79" s="101"/>
     </row>
-    <row r="80" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="80" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="55" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B80" s="55">
         <v>1</v>
@@ -12554,9 +12997,9 @@
       <c r="G80" s="55"/>
       <c r="H80" s="101"/>
     </row>
-    <row r="81" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="81" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="55" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B81" s="55">
         <v>1</v>
@@ -12567,9 +13010,9 @@
       <c r="G81" s="55"/>
       <c r="H81" s="101"/>
     </row>
-    <row r="82" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="82" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="55" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B82" s="55">
         <v>1</v>
@@ -12580,29 +13023,29 @@
       <c r="G82" s="55"/>
       <c r="H82" s="101"/>
     </row>
-    <row r="83" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="83" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="55" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B83" s="55">
         <v>1</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E83" s="55"/>
       <c r="F83" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G83" s="55"/>
       <c r="H83" s="101"/>
     </row>
-    <row r="84" spans="1:8" ht="31.5" thickTop="1" thickBot="1">
+    <row r="84" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="55" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B84" s="55">
         <v>1</v>
@@ -12610,14 +13053,14 @@
       <c r="C84" s="55"/>
       <c r="D84" s="55"/>
       <c r="E84" s="55" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G84" s="55"/>
       <c r="H84" s="101"/>
     </row>
-    <row r="85" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="85" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="55" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B85" s="55">
         <v>1</v>
@@ -12628,9 +13071,9 @@
       <c r="G85" s="55"/>
       <c r="H85" s="101"/>
     </row>
-    <row r="86" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="86" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="55" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B86" s="55">
         <v>1</v>
@@ -12641,9 +13084,9 @@
       <c r="G86" s="55"/>
       <c r="H86" s="101"/>
     </row>
-    <row r="87" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="87" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="55" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B87" s="55">
         <v>1</v>
@@ -12654,9 +13097,9 @@
       <c r="G87" s="55"/>
       <c r="H87" s="101"/>
     </row>
-    <row r="88" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="88" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="55" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B88" s="55">
         <v>1</v>
@@ -12667,49 +13110,49 @@
       <c r="G88" s="55"/>
       <c r="H88" s="101"/>
     </row>
-    <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="55" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B89" s="55">
         <v>1</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D89" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E89" s="55"/>
       <c r="F89" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G89" s="55"/>
       <c r="H89" s="101"/>
     </row>
-    <row r="90" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="90" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="55" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B90" s="55">
         <v>1</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E90" s="55"/>
       <c r="F90" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G90" s="55"/>
       <c r="H90" s="101"/>
     </row>
-    <row r="91" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="91" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="55" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B91" s="55">
         <v>1</v>
@@ -12720,9 +13163,9 @@
       <c r="G91" s="55"/>
       <c r="H91" s="101"/>
     </row>
-    <row r="92" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="92" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="55" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B92" s="55">
         <v>1</v>
@@ -12733,9 +13176,9 @@
       <c r="G92" s="55"/>
       <c r="H92" s="101"/>
     </row>
-    <row r="93" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="93" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="55" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B93" s="55">
         <v>1</v>
@@ -12746,9 +13189,9 @@
       <c r="G93" s="55"/>
       <c r="H93" s="101"/>
     </row>
-    <row r="94" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="94" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="55" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B94" s="55">
         <v>1</v>
@@ -12759,7 +13202,7 @@
       <c r="G94" s="55"/>
       <c r="H94" s="101"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" thickTop="1"/>
+    <row r="95" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12774,7 +13217,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
@@ -12784,86 +13227,86 @@
     <col min="6" max="6" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="56" customFormat="1" ht="94.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:6" s="56" customFormat="1" ht="94.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D1" s="100" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="91" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B2" s="55" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="91" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>415</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="91" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" s="114" t="s">
+        <v>414</v>
+      </c>
+      <c r="E4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="91" t="s">
+        <v>482</v>
+      </c>
+      <c r="B5" s="55" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="91" t="s">
-        <v>485</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>452</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C5" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="91" t="s">
-        <v>485</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>483</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>415</v>
-      </c>
-      <c r="D4" s="114" t="s">
-        <v>417</v>
-      </c>
-      <c r="E4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="91" t="s">
-        <v>485</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>453</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="113"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
@@ -12871,129 +13314,129 @@
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="15.75" thickTop="1">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="112" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B7" s="55" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="112" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F8" t="s">
         <v>455</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>415</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="112" t="s">
-        <v>448</v>
-      </c>
-      <c r="B8" s="55" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="112" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" s="55" t="s">
         <v>456</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>409</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C9" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="112" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" s="55" t="s">
         <v>457</v>
       </c>
-      <c r="F8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="112" t="s">
-        <v>448</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>459</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>409</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E9" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="112" t="s">
-        <v>448</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>460</v>
-      </c>
       <c r="C10" s="55" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="112" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B11" s="55" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="112" t="s">
+        <v>445</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="112" t="s">
+        <v>445</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E13" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="112" t="s">
-        <v>448</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>461</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="112" t="s">
-        <v>448</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>467</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="113"/>
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
@@ -13001,101 +13444,101 @@
       <c r="E14" s="56"/>
       <c r="F14" s="56"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickTop="1">
+    <row r="15" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="112" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="112" t="s">
+        <v>444</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E16" t="s">
+        <v>474</v>
+      </c>
+      <c r="F16" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="112" t="s">
+        <v>444</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="112" t="s">
-        <v>447</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C17" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E17" t="s">
+        <v>475</v>
+      </c>
+      <c r="F17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="112" t="s">
+        <v>444</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E18" t="s">
+        <v>476</v>
+      </c>
+      <c r="F18" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="112" t="s">
+        <v>444</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E19" t="s">
+        <v>478</v>
+      </c>
+      <c r="F19" t="s">
         <v>471</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>415</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E16" t="s">
-        <v>477</v>
-      </c>
-      <c r="F16" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="112" t="s">
-        <v>447</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E17" t="s">
-        <v>478</v>
-      </c>
-      <c r="F17" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="112" t="s">
-        <v>447</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>409</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E18" t="s">
-        <v>479</v>
-      </c>
-      <c r="F18" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="112" t="s">
-        <v>447</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E19" t="s">
-        <v>481</v>
-      </c>
-      <c r="F19" t="s">
-        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -13111,49 +13554,49 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74.140625" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="56" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="109" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="150.75" thickTop="1">
-      <c r="B2" s="109" t="s">
-        <v>445</v>
-      </c>
-      <c r="C2" s="111" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="108" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="109" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="110" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -13170,172 +13613,172 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="147.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>202</v>
       </c>

--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -4064,30 +4064,6 @@
     </r>
   </si>
   <si>
-    <t>concept (abstract entity, ops)
-… the same structure</t>
-  </si>
-  <si>
-    <t>concept (event/keyword, args) 
-…  the same structure</t>
-  </si>
-  <si>
-    <t>concept (discourse/keyword, args) 
-…  the same structure</t>
-  </si>
-  <si>
-    <t>concept (discourse/keyword, ops) 
-… the same structure</t>
-  </si>
-  <si>
-    <t>concept (event, reif, args) 
-… the same structure</t>
-  </si>
-  <si>
-    <t>concept (event, reif, args) … 
-… TEDY to dopadne jako koordinace</t>
-  </si>
-  <si>
     <t>concept (abstract event, args) … 
 … TEDY to dopadne jako apozice</t>
   </si>
@@ -6720,6 +6696,157 @@
         <family val="2"/>
       </rPr>
       <t>… ALE 341 x pod ním něco visí</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">concept (discourse/keyword, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ops)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+… the same structure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">concept (abstract entity, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ops)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+… the same structure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">concept (discourse/keyword, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>args)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+…  the same structure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">concept (event/keyword, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>args)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+…  the same structure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">concept (event, reif, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>args)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+… the same structure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">concept (event, reif, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>args)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> … 
+… TEDY to dopadne jako koordinace</t>
     </r>
   </si>
 </sst>
@@ -7808,8 +7935,8 @@
   <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8122,7 +8249,7 @@
         <v>34902</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F12" s="71" t="s">
         <v>258</v>
@@ -8133,7 +8260,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="17"/>
       <c r="J12" s="26" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>28</v>
@@ -8487,7 +8614,7 @@
         <v>57</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -8723,7 +8850,7 @@
         <v>7271</v>
       </c>
       <c r="E36" s="106" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F36" s="71" t="s">
         <v>258</v>
@@ -8733,10 +8860,10 @@
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="17" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="K36" s="22" t="s">
         <v>76</v>
@@ -8764,7 +8891,7 @@
         <v>207</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="59"/>
@@ -9148,7 +9275,7 @@
         <v>236</v>
       </c>
       <c r="H52" s="37" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="I52" s="39" t="s">
         <v>247</v>
@@ -9282,7 +9409,7 @@
       <c r="H57" s="13"/>
       <c r="I57" s="17"/>
       <c r="J57" s="26" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
@@ -9411,7 +9538,7 @@
         <v>261</v>
       </c>
       <c r="G62" s="46" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="H62" s="58" t="s">
         <v>237</v>
@@ -9465,10 +9592,10 @@
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="46" t="s">
-        <v>372</v>
+        <v>553</v>
       </c>
       <c r="H64" s="77" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>242</v>
@@ -9495,7 +9622,7 @@
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="47" t="s">
-        <v>371</v>
+        <v>554</v>
       </c>
       <c r="H65" s="66"/>
       <c r="I65" s="24" t="s">
@@ -9520,7 +9647,7 @@
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="47" t="s">
-        <v>373</v>
+        <v>551</v>
       </c>
       <c r="H66" s="66"/>
       <c r="I66" s="17"/>
@@ -9546,7 +9673,7 @@
         <v>258</v>
       </c>
       <c r="G67" s="47" t="s">
-        <v>370</v>
+        <v>552</v>
       </c>
       <c r="H67" s="66"/>
       <c r="I67" s="24" t="s">
@@ -9572,7 +9699,7 @@
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="47" t="s">
-        <v>374</v>
+        <v>555</v>
       </c>
       <c r="H68" s="66"/>
       <c r="I68" s="24" t="s">
@@ -9598,7 +9725,7 @@
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="47" t="s">
-        <v>373</v>
+        <v>551</v>
       </c>
       <c r="H69" s="66"/>
       <c r="I69" s="45" t="s">
@@ -9626,7 +9753,7 @@
         <v>258</v>
       </c>
       <c r="G70" s="47" t="s">
-        <v>373</v>
+        <v>551</v>
       </c>
       <c r="H70" s="66"/>
       <c r="I70" s="17"/>
@@ -9650,7 +9777,7 @@
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="36" t="s">
-        <v>375</v>
+        <v>556</v>
       </c>
       <c r="H71" s="66"/>
       <c r="I71" s="24" t="s">
@@ -9698,7 +9825,7 @@
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="36" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H73" s="60" t="s">
         <v>263</v>
@@ -9796,22 +9923,22 @@
         <v>7505</v>
       </c>
       <c r="E77" s="69" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F77" s="71" t="s">
         <v>262</v>
       </c>
       <c r="G77" s="74" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H77" s="49" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="I77" s="122" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="J77" s="82" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
@@ -9832,7 +9959,7 @@
       </c>
       <c r="F78" s="121"/>
       <c r="G78" s="42" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="42"/>
@@ -9852,20 +9979,20 @@
         <v>7403</v>
       </c>
       <c r="E79" s="64" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F79" s="28" t="s">
         <v>258</v>
       </c>
       <c r="G79" s="70" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H79" s="78"/>
       <c r="I79" s="24" t="s">
         <v>267</v>
       </c>
       <c r="J79" s="70" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
@@ -9904,26 +10031,26 @@
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="14" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="57" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="F81" s="28" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G81" s="123" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H81" s="84" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="I81" s="115" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="J81" s="82" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="K81" s="24"/>
       <c r="L81" s="22"/>
@@ -9940,22 +10067,22 @@
         <v>17898</v>
       </c>
       <c r="E82" s="63" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F82" s="28" t="s">
         <v>258</v>
       </c>
       <c r="G82" s="123" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="H82" s="84" t="s">
         <v>272</v>
       </c>
       <c r="I82" s="120" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="J82" s="82" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
@@ -9972,13 +10099,13 @@
         <v>62978</v>
       </c>
       <c r="E83" s="69" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F83" s="28" t="s">
         <v>262</v>
       </c>
       <c r="G83" s="74" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H83" s="76" t="s">
         <v>273</v>
@@ -9987,7 +10114,7 @@
         <v>268</v>
       </c>
       <c r="J83" s="82" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
@@ -10016,10 +10143,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E86" s="92" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F86" s="91" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>209</v>
@@ -10027,10 +10154,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E87" s="92" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F87" s="91" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>209</v>
@@ -10038,10 +10165,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E88" s="92" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F88" s="91" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>209</v>
@@ -10049,10 +10176,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E89" s="92" t="s">
+        <v>382</v>
+      </c>
+      <c r="F89" s="91" t="s">
         <v>388</v>
-      </c>
-      <c r="F89" s="91" t="s">
-        <v>394</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>209</v>
@@ -10060,10 +10187,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E90" s="92" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F90" s="91" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>209</v>
@@ -10071,10 +10198,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E91" s="92" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F91" s="91" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>209</v>
@@ -10082,10 +10209,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E92" s="92" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F92" s="91" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>209</v>
@@ -10093,10 +10220,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E93" s="92" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F93" s="91" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>209</v>
@@ -10126,13 +10253,13 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C96" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E96" s="92" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F96" s="65" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>209</v>
@@ -10165,7 +10292,7 @@
         <v>22</v>
       </c>
       <c r="F99" s="91" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>209</v>
@@ -10173,7 +10300,7 @@
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C100" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E100" s="92" t="s">
         <v>55</v>
@@ -10201,7 +10328,7 @@
         <v>65</v>
       </c>
       <c r="F102" s="91" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>209</v>
@@ -10212,7 +10339,7 @@
         <v>84</v>
       </c>
       <c r="F103" s="91" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>209</v>
@@ -10220,13 +10347,13 @@
     </row>
     <row r="104" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C104" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E104" s="92" t="s">
         <v>144</v>
       </c>
       <c r="F104" s="65" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>209</v>
@@ -10240,7 +10367,7 @@
         <v>63</v>
       </c>
       <c r="F105" s="91" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>209</v>
@@ -10254,7 +10381,7 @@
         <v>30</v>
       </c>
       <c r="F106" s="91" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>209</v>
@@ -10276,7 +10403,7 @@
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C109" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E109" s="91" t="s">
         <v>145</v>
@@ -10288,7 +10415,7 @@
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C110" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E110" s="91" t="s">
         <v>146</v>
@@ -10300,7 +10427,7 @@
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C111" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E111" s="91" t="s">
         <v>147</v>
@@ -10312,7 +10439,7 @@
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C112" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E112" s="91" t="s">
         <v>148</v>
@@ -10324,7 +10451,7 @@
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C113" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E113" s="91" t="s">
         <v>149</v>
@@ -10336,7 +10463,7 @@
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C114" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E114" s="91" t="s">
         <v>150</v>
@@ -10348,7 +10475,7 @@
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C115" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E115" s="91" t="s">
         <v>151</v>
@@ -10366,15 +10493,15 @@
         <v>207</v>
       </c>
       <c r="H116" s="103" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="I116" s="104" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C117" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E117" s="91" t="s">
         <v>153</v>
@@ -10386,7 +10513,7 @@
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C118" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E118" s="91" t="s">
         <v>154</v>
@@ -10402,7 +10529,7 @@
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C120" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E120" s="91" t="s">
         <v>155</v>
@@ -10415,7 +10542,7 @@
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C121" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E121" s="91" t="s">
         <v>156</v>
@@ -10428,7 +10555,7 @@
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C122" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E122" s="91" t="s">
         <v>157</v>
@@ -10441,7 +10568,7 @@
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C123" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E123" s="91" t="s">
         <v>82</v>
@@ -10454,7 +10581,7 @@
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C124" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E124" s="91" t="s">
         <v>158</v>
@@ -10472,7 +10599,7 @@
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C126" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E126" s="91" t="s">
         <v>31</v>
@@ -10494,7 +10621,7 @@
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C128" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>167</v>
@@ -10508,7 +10635,7 @@
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C129" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>168</v>
@@ -10522,7 +10649,7 @@
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C130" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>169</v>
@@ -10536,10 +10663,10 @@
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C131" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G131" s="10" t="s">
         <v>208</v>
@@ -10551,35 +10678,35 @@
     </row>
     <row r="133" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C133" s="93" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D133" s="94"/>
       <c r="E133" s="95" t="s">
         <v>159</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H133" s="85"/>
       <c r="I133" s="85"/>
     </row>
     <row r="134" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C134" s="93" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D134" s="94"/>
       <c r="E134" s="95" t="s">
         <v>160</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H134" s="85"/>
       <c r="I134" s="85"/>
     </row>
     <row r="135" spans="3:9" s="89" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="C135" s="93" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D135" s="94"/>
       <c r="E135" s="95" t="s">
@@ -10589,12 +10716,12 @@
         <v>161</v>
       </c>
       <c r="H135" s="85" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C136" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E136" s="89" t="s">
         <v>163</v>
@@ -10604,36 +10731,36 @@
         <v>161</v>
       </c>
       <c r="H136" s="90" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I136" s="90" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="137" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C137" s="93" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D137" s="94"/>
       <c r="E137" s="95" t="s">
         <v>164</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H137" s="85"/>
       <c r="I137" s="85"/>
     </row>
     <row r="138" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C138" s="93" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D138" s="94"/>
       <c r="E138" s="95" t="s">
         <v>165</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H138" s="85"/>
       <c r="I138" s="85"/>
@@ -10649,42 +10776,42 @@
     </row>
     <row r="140" spans="3:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C140" s="93" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D140" s="98"/>
       <c r="E140" s="99" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G140" s="87" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H140" s="88"/>
       <c r="I140" s="88"/>
     </row>
     <row r="141" spans="3:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C141" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D141" s="86"/>
       <c r="E141" s="87" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G141" s="87" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H141" s="88"/>
       <c r="I141" s="88"/>
     </row>
     <row r="142" spans="3:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C142" s="91" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D142" s="86"/>
       <c r="E142" s="87" t="s">
         <v>166</v>
       </c>
       <c r="G142" s="87" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H142" s="88"/>
       <c r="I142" s="88"/>
@@ -10768,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -10776,7 +10903,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -10784,7 +10911,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -10792,7 +10919,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -10800,7 +10927,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -10808,7 +10935,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -10831,7 +10958,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -10839,7 +10966,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -10847,7 +10974,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -10855,7 +10982,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -10863,10 +10990,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D13" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -10874,7 +11001,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -10882,7 +11009,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -10890,7 +11017,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -10898,10 +11025,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D17" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10909,7 +11036,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -10917,7 +11044,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -10930,7 +11057,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="119" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C21" s="119"/>
     </row>
@@ -10939,10 +11066,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D22" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -10950,10 +11077,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D23" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -10961,10 +11088,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D24" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -10972,10 +11099,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D25" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -10983,10 +11110,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D26" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -10994,10 +11121,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D27" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -11005,10 +11132,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D28" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -11016,10 +11143,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D29" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -11027,10 +11154,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D30" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -11038,10 +11165,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D31" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -11049,10 +11176,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D32" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -11105,38 +11232,38 @@
   <sheetData>
     <row r="1" spans="1:21" s="55" customFormat="1" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="118" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D1" s="118" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E1" s="118"/>
       <c r="F1" s="118" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G1" s="118"/>
       <c r="H1" s="118"/>
       <c r="I1" s="118"/>
       <c r="J1" s="118" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K1" s="118"/>
       <c r="L1" s="118"/>
       <c r="M1" s="118"/>
       <c r="N1" s="118"/>
       <c r="O1" s="118" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="P1" s="118"/>
       <c r="Q1" s="118"/>
       <c r="R1" s="118"/>
       <c r="S1" s="118"/>
       <c r="T1" s="118" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="U1" s="118"/>
     </row>
@@ -11148,14 +11275,14 @@
         <v>1299</v>
       </c>
       <c r="C2" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>410</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>416</v>
       </c>
       <c r="E2" s="55"/>
       <c r="F2" s="91" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G2" s="55"/>
       <c r="H2" s="101"/>
@@ -11188,14 +11315,14 @@
         <v>878</v>
       </c>
       <c r="C3" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>410</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>416</v>
       </c>
       <c r="E3" s="55"/>
       <c r="F3" s="91" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G3" s="55"/>
       <c r="H3" s="101"/>
@@ -11228,14 +11355,14 @@
         <v>469</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E4" s="55"/>
       <c r="F4" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G4" s="55"/>
       <c r="H4" s="101"/>
@@ -11268,14 +11395,14 @@
         <v>432</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E5" s="55"/>
       <c r="F5" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H5" s="101"/>
       <c r="J5" s="85" t="s">
@@ -11307,14 +11434,14 @@
         <v>430</v>
       </c>
       <c r="C6" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>410</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>416</v>
       </c>
       <c r="E6" s="55"/>
       <c r="F6" s="91" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G6" s="55"/>
       <c r="H6" s="101"/>
@@ -11347,14 +11474,14 @@
         <v>388</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E7" s="55"/>
       <c r="F7" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G7" s="55"/>
       <c r="H7" s="101"/>
@@ -11387,14 +11514,14 @@
         <v>377</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E8" s="55"/>
       <c r="F8" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G8" s="55"/>
       <c r="H8" s="101"/>
@@ -11427,14 +11554,14 @@
         <v>220</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E9" s="55"/>
       <c r="F9" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G9" s="55"/>
       <c r="H9" s="101"/>
@@ -11467,14 +11594,14 @@
         <v>187</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="101"/>
@@ -11501,14 +11628,14 @@
         <v>115</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E11" s="55"/>
       <c r="F11" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G11" s="55"/>
       <c r="H11" s="101"/>
@@ -11535,14 +11662,14 @@
         <v>110</v>
       </c>
       <c r="C12" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D12" s="55" t="s">
         <v>410</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>416</v>
       </c>
       <c r="E12" s="55"/>
       <c r="F12" s="91" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G12" s="55"/>
       <c r="H12" s="101"/>
@@ -11569,14 +11696,14 @@
         <v>81</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E13" s="55"/>
       <c r="F13" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G13" s="55"/>
       <c r="H13" s="101"/>
@@ -11603,14 +11730,14 @@
         <v>51</v>
       </c>
       <c r="C14" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D14" s="55" t="s">
         <v>410</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>416</v>
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="91" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G14" s="55"/>
       <c r="H14" s="101"/>
@@ -11637,14 +11764,14 @@
         <v>44</v>
       </c>
       <c r="C15" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D15" s="55" t="s">
         <v>410</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>416</v>
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="91" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G15" s="55"/>
       <c r="H15" s="101"/>
@@ -11671,14 +11798,14 @@
         <v>40</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E16" s="55"/>
       <c r="F16" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G16" s="55"/>
       <c r="H16" s="101"/>
@@ -11705,14 +11832,14 @@
         <v>37</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E17" s="55"/>
       <c r="F17" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G17" s="55"/>
       <c r="H17" s="101"/>
@@ -11739,14 +11866,14 @@
         <v>36</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G18" s="55"/>
       <c r="H18" s="101"/>
@@ -11773,14 +11900,14 @@
         <v>29</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E19" s="55"/>
       <c r="F19" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G19" s="55"/>
       <c r="H19" s="101"/>
@@ -11807,14 +11934,14 @@
         <v>24</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E20" s="55"/>
       <c r="F20" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G20" s="55"/>
       <c r="H20" s="101"/>
@@ -11841,14 +11968,14 @@
         <v>22</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E21" s="55"/>
       <c r="F21" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G21" s="55"/>
       <c r="H21" s="101"/>
@@ -11875,14 +12002,14 @@
         <v>22</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E22" s="55"/>
       <c r="F22" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G22" s="55"/>
       <c r="H22" s="101"/>
@@ -11911,7 +12038,7 @@
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
       <c r="E23" s="102" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G23" s="55"/>
       <c r="H23" s="101"/>
@@ -11938,14 +12065,14 @@
         <v>19</v>
       </c>
       <c r="C24" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D24" s="55" t="s">
         <v>410</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>416</v>
       </c>
       <c r="E24" s="55"/>
       <c r="F24" s="91" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G24" s="55"/>
       <c r="H24" s="101"/>
@@ -11972,14 +12099,14 @@
         <v>19</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E25" s="55"/>
       <c r="F25" s="91" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G25" s="55"/>
       <c r="H25" s="101"/>
@@ -12006,14 +12133,14 @@
         <v>19</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E26" s="55"/>
       <c r="F26" s="91" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G26" s="55"/>
       <c r="H26" s="101"/>
@@ -12040,14 +12167,14 @@
         <v>17</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E27" s="55"/>
       <c r="F27" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G27" s="55"/>
       <c r="H27" s="101"/>
@@ -12074,14 +12201,14 @@
         <v>16</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G28" s="55"/>
       <c r="H28" s="101"/>
@@ -12108,14 +12235,14 @@
         <v>14</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G29" s="55"/>
       <c r="H29" s="101"/>
@@ -12142,16 +12269,16 @@
         <v>14</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E30" s="102" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G30" s="55"/>
       <c r="H30" s="101"/>
@@ -12180,7 +12307,7 @@
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
       <c r="E31" s="102" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G31" s="55"/>
       <c r="H31" s="101"/>
@@ -12207,14 +12334,14 @@
         <v>12</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E32" s="55"/>
       <c r="F32" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G32" s="55"/>
       <c r="H32" s="101"/>
@@ -12241,14 +12368,14 @@
         <v>12</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E33" s="55"/>
       <c r="F33" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G33" s="55"/>
       <c r="H33" s="101"/>
@@ -12275,16 +12402,16 @@
         <v>10</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E34" s="102" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F34" s="91" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G34" s="55"/>
       <c r="H34" s="101"/>
@@ -12307,7 +12434,7 @@
       <c r="C35" s="55"/>
       <c r="D35" s="55"/>
       <c r="E35" s="102" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G35" s="55"/>
       <c r="H35" s="101"/>
@@ -12330,7 +12457,7 @@
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
       <c r="E36" s="102" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G36" s="55"/>
       <c r="H36" s="101"/>
@@ -12343,13 +12470,13 @@
         <v>6</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E37" s="102" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G37" s="55"/>
       <c r="H37" s="101"/>
@@ -12363,16 +12490,16 @@
         <v>6</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E38" s="55" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G38" s="55"/>
       <c r="H38" s="101"/>
@@ -12385,10 +12512,10 @@
         <v>5</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E39" s="55"/>
       <c r="G39" s="55"/>
@@ -12402,10 +12529,10 @@
         <v>5</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E40" s="55"/>
       <c r="G40" s="55"/>
@@ -12419,13 +12546,13 @@
         <v>5</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D41" s="105" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E41" s="102" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G41" s="55"/>
       <c r="H41" s="101"/>
@@ -12438,14 +12565,14 @@
         <v>5</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E42" s="55"/>
       <c r="F42" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G42" s="55"/>
       <c r="H42" s="101"/>
@@ -12458,14 +12585,14 @@
         <v>5</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E43" s="55"/>
       <c r="F43" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G43" s="55"/>
       <c r="H43" s="101"/>
@@ -12478,13 +12605,13 @@
         <v>5</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E44" s="102" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G44" s="55"/>
       <c r="H44" s="101"/>
@@ -12497,10 +12624,10 @@
         <v>4</v>
       </c>
       <c r="C45" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D45" s="55" t="s">
         <v>410</v>
-      </c>
-      <c r="D45" s="55" t="s">
-        <v>416</v>
       </c>
       <c r="E45" s="55"/>
       <c r="G45" s="55"/>
@@ -12514,13 +12641,13 @@
         <v>4</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E46" s="102" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G46" s="55"/>
       <c r="H46" s="101"/>
@@ -12535,7 +12662,7 @@
       <c r="C47" s="55"/>
       <c r="D47" s="55"/>
       <c r="E47" s="102" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G47" s="55"/>
       <c r="H47" s="101"/>
@@ -12548,14 +12675,14 @@
         <v>3</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E48" s="55"/>
       <c r="F48" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G48" s="55"/>
       <c r="H48" s="101"/>
@@ -12568,14 +12695,14 @@
         <v>3</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D49" s="105" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E49" s="55"/>
       <c r="F49" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G49" s="55"/>
       <c r="H49" s="101"/>
@@ -12588,14 +12715,14 @@
         <v>3</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E50" s="55"/>
       <c r="F50" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G50" s="55"/>
       <c r="H50" s="101"/>
@@ -12608,14 +12735,14 @@
         <v>3</v>
       </c>
       <c r="C51" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D51" s="55" t="s">
         <v>410</v>
-      </c>
-      <c r="D51" s="55" t="s">
-        <v>416</v>
       </c>
       <c r="E51" s="55"/>
       <c r="F51" s="91" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G51" s="55"/>
       <c r="H51" s="101"/>
@@ -13031,14 +13158,14 @@
         <v>1</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E83" s="55"/>
       <c r="F83" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G83" s="55"/>
       <c r="H83" s="101"/>
@@ -13053,7 +13180,7 @@
       <c r="C84" s="55"/>
       <c r="D84" s="55"/>
       <c r="E84" s="55" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G84" s="55"/>
       <c r="H84" s="101"/>
@@ -13118,14 +13245,14 @@
         <v>1</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D89" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E89" s="55"/>
       <c r="F89" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G89" s="55"/>
       <c r="H89" s="101"/>
@@ -13138,14 +13265,14 @@
         <v>1</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D90" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E90" s="55"/>
       <c r="F90" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G90" s="55"/>
       <c r="H90" s="101"/>
@@ -13229,81 +13356,81 @@
   <sheetData>
     <row r="1" spans="1:6" s="56" customFormat="1" ht="94.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D1" s="100" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="91" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="91" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C3" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>416</v>
-      </c>
       <c r="E3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="91" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D4" s="114" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="91" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C5" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="D5" s="55" t="s">
-        <v>416</v>
-      </c>
       <c r="E5" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13316,124 +13443,124 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="112" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="112" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E8" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F8" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="112" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E9" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="112" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E10" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="112" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B11" s="55" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D11" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="D11" s="55" t="s">
-        <v>416</v>
-      </c>
       <c r="E11" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="112" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C12" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D12" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="D12" s="55" t="s">
-        <v>416</v>
-      </c>
       <c r="E12" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="112" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C13" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D13" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="D13" s="55" t="s">
-        <v>416</v>
-      </c>
       <c r="E13" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13446,99 +13573,99 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="112" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E15" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="112" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="E16" t="s">
         <v>468</v>
       </c>
-      <c r="C16" s="55" t="s">
-        <v>412</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>416</v>
-      </c>
-      <c r="E16" t="s">
-        <v>474</v>
-      </c>
       <c r="F16" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="112" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="E17" t="s">
         <v>469</v>
       </c>
-      <c r="C17" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>416</v>
-      </c>
-      <c r="E17" t="s">
-        <v>475</v>
-      </c>
       <c r="F17" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="112" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E18" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F18" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="112" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C19" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D19" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="D19" s="55" t="s">
-        <v>416</v>
-      </c>
       <c r="E19" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F19" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -13562,41 +13689,41 @@
   <sheetData>
     <row r="1" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="56" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="109" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="108" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="109" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="110" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="559">
   <si>
     <t>funktor</t>
   </si>
@@ -1590,87 +1590,6 @@
   <si>
     <t xml:space="preserve">TODO - must be further refined
 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ID v PDT =  efektivní kořen </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>identifikačního výrazu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-   - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>vlastní jména</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (osob, zvířat, předmětů a jevů, typ. v nom) --&gt; name;  
-                                    (osoby se poznají podle atributu "is_name_of_person")
-   - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>metajazykové výrazy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (slovo mlčet.ID; nápis "Odejděte".ID)
-   - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>genitiv explikativní</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (otázka laickosti.ID, trest smrti.ID; období reformace.ID; umění knihtisku.ID; osoba V. Havla.ID)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1854,444 +1773,8 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>t_lemma uzlu s ID NENÍ #Forn:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-?? lze najít vlastní jména 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(asi ano v PDT, jinde ne?)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID -&gt; name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-celý podstrom převést na op1, op2, … (tj. zrušit strukturu) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ostatní (mimo #Forn) --&gt; mod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">a ponechat strukturu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>t_lemma uzlu s ID JE #Forn … viz FPHR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>role (participant / NON-participant)
 role (NON-participant)</t>
-  </si>
-  <si>
-    <r>
-      <t>!! e-rodič uzlu FPHR má vždy t_lemma #Forn !!
-POKUD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> e-rodič uzlu FPHR (=#Forn)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> není ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(6 443x)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1: t_lemma #Forn 
-        --&gt; foreign-phrase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (NEW abstract concept)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   2: FPHR --&gt; op1, op2, …. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     (7x má FPHR dítě
-     1x PAR</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-POKUD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> e-rodič uzlu FPHR  (=#Forn</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) je ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(13 449x):</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ID </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(uzlu #Forn) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">--&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">name </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(role) ... </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-                                        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>??obecněji  mod</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> t_lemma #Forn --&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (concept)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-                                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>?? foreign-phrase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">FPHR --&gt; op1, op2, …. ATRIBUT místo uzlu
-       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(2x má FPHR dítě - jednou chyba, 
-                                         podruhé číslovka jako součást jména --&gt; též op)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <t>regard</t>
@@ -2963,51 +2446,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>if #Forn NE funktor ID:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-#Forn --&gt; foreign-phrase
-FPHR --&gt; op1, op2, …
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-if #Forn.ID:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID --&gt; name / mod
-#Forn --&gt; name 
-                    / foreign-phrase
-FPHR --&gt; op1, op2,  …</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">but-91 … generic for 
     unexpected-co-ossurence-91 (proti očekávání … Přestože měla rýmu, šla do školy)
     </t>
@@ -3290,11 +2728,6 @@
   </si>
   <si>
     <t>TODO …. should be refined later</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-??? TODO ne vše, co je #Forn.ID, je vlastní jméno???
-TODO refinement needed !!!</t>
   </si>
   <si>
     <r>
@@ -5824,45 +5257,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">concept (abstract entity)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>attributes ??</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-subrole (NE) / role (participant)
-concept (abstract entity)
-          /concept (abstract entity)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>attributes ??</t>
-    </r>
-  </si>
-  <si>
     <t>UMR: compared-to but only as ARG4 role of  have-degree-91 predicate</t>
   </si>
   <si>
@@ -6847,6 +6241,783 @@
       </rPr>
       <t xml:space="preserve"> … 
 … TEDY to dopadne jako koordinace</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if #Forn NE funktor ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+#Forn --&gt; foreign-phrase
+FPHR --&gt; op1, op2, …
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+if #Forn.ID:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID --&gt; name / mod
+#Forn --&gt; foreign-phrase
+FPHR --&gt; op1, op2,  …</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>concept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> foreign-phrase (abstr. entity)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>subroles: op1,op2, ...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (participant)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>concept</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> foreign-phrase (abstr. entity)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>subroles: op1,op2, ...</t>
+    </r>
+  </si>
+  <si>
+    <t>seskupení částí identifikačních výrazů</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ?? pokud lze najít vlastní jména </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TODO refinement needed !!!
+</t>
+  </si>
+  <si>
+    <r>
+      <t>!! e-rodič uzlu FPHR má vždy t_lemma #Forn !!
+POKUD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> e-rodič uzlu FPHR (=#Forn)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> není ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6 443x)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1: t_lemma #Forn 
+        --&gt; foreign-phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (NEW abstract concept)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   2: FPHR --&gt; op1, op2, …. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     (7x má FPHR dítě
+     1x PAR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+POKUD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> e-rodič uzlu FPHR  (=#Forn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) je ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(43 500x):</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(uzlu #Forn) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(role) ... </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>??obecněji  mod</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> t_lemma #Forn --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (concept)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?? foreign-phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">FPHR --&gt; op1, op2, …. subrole místo uzlu
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(2x má FPHR dítě 
+        - jednou chyba, 
+        - podruhé číslovka jako součást jména 
+                                                            --&gt; též op)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sempos uzlu, který je erodičem uzlu ID ...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+n: 43 423x ... OK mod
+undef: 148x ... #Idph, #Forn ... mod OK
+v: 7x .... chyby</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ID v PDT =  efektivní kořen </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>identifikačního výrazu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+   - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>vlastní jména</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (osob, zvířat, předmětů a jevů, typ. v nom) --&gt; name;  
+                                    (osoby se poznají podle atributu "is_name_of_person")
+   - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>metajazykové výrazy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (slovo mlčet.ID; nápis "Odejděte".ID)
+   - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>genitiv explikativní</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (otázka laickosti.ID, trest smrti.ID; období reformace.ID; umění knihtisku.ID; osoba V. Havla.ID)
+sempos uzlu, který je erodičem uzlu ID ... 
+n  4259+120+6+3 ... OK mod
+adj.denot 7x 
+v 3 ... 1 věta, chyba
+undef 1140 ... t_lemmata #Idph, #Forn ... OK mod</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>A. t_lemma uzlu s ID NENÍ #Forn:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+pokud lze najít vlastní jména 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID -&gt; name  (relace)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">t_lemma #Idph -&gt; name (concept)
+t_lemma NENÍ #Idph  ... doplnit koncept name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>celý podstrom převést na</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> op1, op2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> … (tj. zrušit strukturu) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ostatní mimo vlastní jména 
+ID --&gt; mod </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pro sempos erodiče n (cca 4 400x)
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>mod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pro sempos erodiče nedef (cca 1150x)
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">manner </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>pro sempos erodiče adj.* (3x mazvaný + 1x podobný)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">a ponechat strukturu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>t_lemma uzlu s ID JE #Forn … viz FPHR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
 </sst>
@@ -7172,7 +7343,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7207,18 +7378,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -7300,9 +7459,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -7409,7 +7568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7424,7 +7583,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7439,10 +7598,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7451,35 +7610,29 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="3" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="3" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="20" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="3" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="3" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="3" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="3" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7488,10 +7641,10 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7506,7 +7659,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7518,10 +7671,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7548,10 +7701,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7617,11 +7767,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7662,7 +7809,10 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7935,8 +8085,8 @@
   <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7961,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" s="50" t="s">
         <v>0</v>
@@ -7991,7 +8141,7 @@
       <c r="L1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="M1" s="78" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8249,18 +8399,18 @@
         <v>34902</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>524</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>258</v>
-      </c>
-      <c r="G12" s="59" t="s">
+        <v>519</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="G12" s="57" t="s">
         <v>209</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="17"/>
       <c r="J12" s="26" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>28</v>
@@ -8614,7 +8764,7 @@
         <v>57</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -8681,7 +8831,7 @@
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="25" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="22" t="s">
@@ -8733,13 +8883,13 @@
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="36" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I31" s="40" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
@@ -8788,7 +8938,7 @@
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="25" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="22"/>
@@ -8849,21 +8999,21 @@
       <c r="D36" s="15">
         <v>7271</v>
       </c>
-      <c r="E36" s="106" t="s">
-        <v>428</v>
-      </c>
-      <c r="F36" s="71" t="s">
-        <v>258</v>
-      </c>
-      <c r="G36" s="72" t="s">
+      <c r="E36" s="103" t="s">
+        <v>423</v>
+      </c>
+      <c r="F36" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" s="70" t="s">
         <v>207</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="17" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="K36" s="22" t="s">
         <v>76</v>
@@ -8882,19 +9032,19 @@
         <v>4932</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="F37" s="71" t="s">
-        <v>258</v>
-      </c>
-      <c r="G37" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" s="70" t="s">
         <v>207</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="I37" s="17"/>
-      <c r="J37" s="59"/>
+      <c r="J37" s="57"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
     </row>
@@ -9010,7 +9160,7 @@
       </c>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>35</v>
       </c>
@@ -9022,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="30" t="s">
@@ -9048,19 +9198,19 @@
         <v>10752</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="G43" s="66" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="G43" s="64" t="s">
+        <v>251</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I43" s="17"/>
-      <c r="J43" s="59"/>
+      <c r="J43" s="57"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
     </row>
@@ -9078,15 +9228,15 @@
       <c r="E44" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="71" t="s">
-        <v>258</v>
-      </c>
-      <c r="G44" s="72" t="s">
-        <v>259</v>
+      <c r="F44" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="G44" s="70" t="s">
+        <v>255</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="17"/>
-      <c r="J44" s="68"/>
+      <c r="J44" s="66"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
@@ -9171,18 +9321,18 @@
       <c r="D48" s="15">
         <v>656</v>
       </c>
-      <c r="E48" s="63" t="s">
+      <c r="E48" s="61" t="s">
         <v>101</v>
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="36" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="I48" s="61" t="s">
-        <v>246</v>
+        <v>225</v>
+      </c>
+      <c r="I48" s="59" t="s">
+        <v>243</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="22"/>
@@ -9272,13 +9422,13 @@
       </c>
       <c r="F52" s="23"/>
       <c r="G52" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H52" s="37" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I52" s="39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="J52" s="26" t="s">
         <v>217</v>
@@ -9323,7 +9473,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="17"/>
       <c r="J54" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K54" s="22" t="s">
         <v>108</v>
@@ -9358,32 +9508,32 @@
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:12" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="300" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>49</v>
       </c>
       <c r="B56" s="13"/>
-      <c r="C56" s="107" t="s">
+      <c r="C56" s="59" t="s">
         <v>112</v>
       </c>
       <c r="D56" s="15">
         <v>38823</v>
       </c>
       <c r="E56" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" s="23"/>
+      <c r="G56" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="H56" s="54" t="s">
-        <v>235</v>
+      <c r="H56" s="120" t="s">
+        <v>558</v>
       </c>
       <c r="I56" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="J56" s="26" t="s">
         <v>218</v>
-      </c>
-      <c r="J56" s="26" t="s">
-        <v>219</v>
       </c>
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
@@ -9406,10 +9556,12 @@
       <c r="G57" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="H57" s="13"/>
+      <c r="H57" s="13" t="s">
+        <v>554</v>
+      </c>
       <c r="I57" s="17"/>
       <c r="J57" s="26" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
@@ -9454,7 +9606,7 @@
       <c r="E59" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="121"/>
+      <c r="F59" s="117"/>
       <c r="G59" s="42"/>
       <c r="H59" s="42"/>
       <c r="I59" s="42"/>
@@ -9474,20 +9626,20 @@
         <v>8959</v>
       </c>
       <c r="E60" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="F60" s="71" t="s">
-        <v>258</v>
-      </c>
-      <c r="G60" s="67" t="s">
-        <v>260</v>
+        <v>223</v>
+      </c>
+      <c r="F60" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="G60" s="65" t="s">
+        <v>256</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="24" t="s">
         <v>118</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
@@ -9504,50 +9656,50 @@
         <v>5141</v>
       </c>
       <c r="E61" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="F61" s="71" t="s">
-        <v>258</v>
-      </c>
-      <c r="G61" s="67" t="s">
-        <v>260</v>
+        <v>224</v>
+      </c>
+      <c r="F61" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="G61" s="65" t="s">
+        <v>256</v>
       </c>
       <c r="H61" s="24"/>
       <c r="I61" s="17"/>
       <c r="J61" s="26" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12" ht="375" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>55</v>
       </c>
       <c r="B62" s="13"/>
-      <c r="C62" s="107" t="s">
+      <c r="C62" s="59" t="s">
         <v>120</v>
       </c>
       <c r="D62" s="15">
         <v>59068</v>
       </c>
-      <c r="E62" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="F62" s="71" t="s">
-        <v>261</v>
+      <c r="E62" s="56" t="s">
+        <v>551</v>
+      </c>
+      <c r="F62" s="69" t="s">
+        <v>257</v>
       </c>
       <c r="G62" s="46" t="s">
-        <v>539</v>
-      </c>
-      <c r="H62" s="58" t="s">
-        <v>237</v>
+        <v>552</v>
+      </c>
+      <c r="H62" s="74" t="s">
+        <v>556</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="J62" s="83" t="s">
-        <v>271</v>
+        <v>233</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>555</v>
       </c>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
@@ -9566,12 +9718,12 @@
       <c r="E63" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F63" s="121"/>
+      <c r="F63" s="117"/>
       <c r="G63" s="42"/>
       <c r="H63" s="42"/>
       <c r="I63" s="42"/>
       <c r="J63" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K63" s="42"/>
       <c r="L63" s="42"/>
@@ -9581,7 +9733,7 @@
         <v>57</v>
       </c>
       <c r="B64" s="13"/>
-      <c r="C64" s="61" t="s">
+      <c r="C64" s="59" t="s">
         <v>121</v>
       </c>
       <c r="D64" s="15">
@@ -9592,16 +9744,16 @@
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="46" t="s">
-        <v>553</v>
-      </c>
-      <c r="H64" s="77" t="s">
-        <v>541</v>
+        <v>547</v>
+      </c>
+      <c r="H64" s="75" t="s">
+        <v>535</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
@@ -9611,7 +9763,7 @@
         <v>58</v>
       </c>
       <c r="B65" s="13"/>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="59" t="s">
         <v>123</v>
       </c>
       <c r="D65" s="15">
@@ -9622,9 +9774,9 @@
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="H65" s="66"/>
+        <v>548</v>
+      </c>
+      <c r="H65" s="64"/>
       <c r="I65" s="24" t="s">
         <v>124</v>
       </c>
@@ -9636,7 +9788,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="13"/>
-      <c r="C66" s="61" t="s">
+      <c r="C66" s="59" t="s">
         <v>125</v>
       </c>
       <c r="D66" s="15">
@@ -9647,9 +9799,9 @@
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="47" t="s">
-        <v>551</v>
-      </c>
-      <c r="H66" s="66"/>
+        <v>545</v>
+      </c>
+      <c r="H66" s="64"/>
       <c r="I66" s="17"/>
       <c r="J66" s="13"/>
       <c r="K66" s="22"/>
@@ -9660,26 +9812,26 @@
         <v>60</v>
       </c>
       <c r="B67" s="13"/>
-      <c r="C67" s="61" t="s">
+      <c r="C67" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="D67" s="62">
+      <c r="D67" s="60">
         <v>211</v>
       </c>
       <c r="E67" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="F67" s="71" t="s">
-        <v>258</v>
+      <c r="F67" s="69" t="s">
+        <v>254</v>
       </c>
       <c r="G67" s="47" t="s">
-        <v>552</v>
-      </c>
-      <c r="H67" s="66"/>
+        <v>546</v>
+      </c>
+      <c r="H67" s="64"/>
       <c r="I67" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="J67" s="68"/>
+      <c r="J67" s="66"/>
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
     </row>
@@ -9688,7 +9840,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="13"/>
-      <c r="C68" s="61" t="s">
+      <c r="C68" s="59" t="s">
         <v>130</v>
       </c>
       <c r="D68" s="15">
@@ -9699,11 +9851,11 @@
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="47" t="s">
-        <v>555</v>
-      </c>
-      <c r="H68" s="66"/>
+        <v>549</v>
+      </c>
+      <c r="H68" s="64"/>
       <c r="I68" s="24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J68" s="13"/>
       <c r="K68" s="22"/>
@@ -9714,7 +9866,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="13"/>
-      <c r="C69" s="61" t="s">
+      <c r="C69" s="59" t="s">
         <v>131</v>
       </c>
       <c r="D69" s="15">
@@ -9725,11 +9877,11 @@
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="47" t="s">
-        <v>551</v>
-      </c>
-      <c r="H69" s="66"/>
+        <v>545</v>
+      </c>
+      <c r="H69" s="64"/>
       <c r="I69" s="45" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J69" s="48"/>
       <c r="K69" s="22"/>
@@ -9740,24 +9892,24 @@
         <v>68</v>
       </c>
       <c r="B70" s="13"/>
-      <c r="C70" s="61" t="s">
+      <c r="C70" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="D70" s="62">
+      <c r="D70" s="60">
         <v>1346</v>
       </c>
       <c r="E70" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="F70" s="71" t="s">
-        <v>258</v>
+      <c r="F70" s="69" t="s">
+        <v>254</v>
       </c>
       <c r="G70" s="47" t="s">
-        <v>551</v>
-      </c>
-      <c r="H70" s="66"/>
+        <v>545</v>
+      </c>
+      <c r="H70" s="64"/>
       <c r="I70" s="17"/>
-      <c r="J70" s="68"/>
+      <c r="J70" s="66"/>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
     </row>
@@ -9766,7 +9918,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="13"/>
-      <c r="C71" s="61" t="s">
+      <c r="C71" s="59" t="s">
         <v>134</v>
       </c>
       <c r="D71" s="15">
@@ -9777,11 +9929,11 @@
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="36" t="s">
-        <v>556</v>
-      </c>
-      <c r="H71" s="66"/>
+        <v>550</v>
+      </c>
+      <c r="H71" s="64"/>
       <c r="I71" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J71" s="48"/>
       <c r="K71" s="22"/>
@@ -9801,7 +9953,7 @@
       <c r="E72" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F72" s="121"/>
+      <c r="F72" s="117"/>
       <c r="G72" s="42"/>
       <c r="H72" s="42"/>
       <c r="I72" s="42"/>
@@ -9821,18 +9973,18 @@
         <v>18512</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="36" t="s">
-        <v>370</v>
-      </c>
-      <c r="H73" s="60" t="s">
-        <v>263</v>
+        <v>365</v>
+      </c>
+      <c r="H73" s="58" t="s">
+        <v>259</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="26" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
@@ -9851,7 +10003,7 @@
       <c r="E74" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F74" s="121"/>
+      <c r="F74" s="117"/>
       <c r="G74" s="42"/>
       <c r="H74" s="42"/>
       <c r="I74" s="42"/>
@@ -9873,18 +10025,18 @@
       <c r="E75" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="F75" s="71" t="s">
-        <v>258</v>
+      <c r="F75" s="69" t="s">
+        <v>254</v>
       </c>
       <c r="G75" s="47" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H75" s="47"/>
       <c r="I75" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="J75" s="82" t="s">
-        <v>270</v>
+      <c r="J75" s="80" t="s">
+        <v>266</v>
       </c>
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
@@ -9903,7 +10055,7 @@
       <c r="E76" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F76" s="121"/>
+      <c r="F76" s="117"/>
       <c r="G76" s="42"/>
       <c r="H76" s="42"/>
       <c r="I76" s="42"/>
@@ -9922,23 +10074,23 @@
       <c r="D77" s="15">
         <v>7505</v>
       </c>
-      <c r="E77" s="69" t="s">
-        <v>545</v>
-      </c>
-      <c r="F77" s="71" t="s">
-        <v>262</v>
-      </c>
-      <c r="G77" s="74" t="s">
-        <v>548</v>
+      <c r="E77" s="67" t="s">
+        <v>539</v>
+      </c>
+      <c r="F77" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="G77" s="72" t="s">
+        <v>542</v>
       </c>
       <c r="H77" s="49" t="s">
-        <v>544</v>
-      </c>
-      <c r="I77" s="122" t="s">
-        <v>543</v>
-      </c>
-      <c r="J77" s="82" t="s">
-        <v>525</v>
+        <v>538</v>
+      </c>
+      <c r="I77" s="118" t="s">
+        <v>537</v>
+      </c>
+      <c r="J77" s="80" t="s">
+        <v>520</v>
       </c>
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
@@ -9957,9 +10109,9 @@
       <c r="E78" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F78" s="121"/>
+      <c r="F78" s="117"/>
       <c r="G78" s="42" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H78" s="42"/>
       <c r="I78" s="42"/>
@@ -9978,21 +10130,21 @@
       <c r="D79" s="15">
         <v>7403</v>
       </c>
-      <c r="E79" s="64" t="s">
-        <v>529</v>
+      <c r="E79" s="62" t="s">
+        <v>524</v>
       </c>
       <c r="F79" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="G79" s="70" t="s">
-        <v>550</v>
-      </c>
-      <c r="H79" s="78"/>
+        <v>254</v>
+      </c>
+      <c r="G79" s="68" t="s">
+        <v>544</v>
+      </c>
+      <c r="H79" s="76"/>
       <c r="I79" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="J79" s="70" t="s">
-        <v>530</v>
+        <v>263</v>
+      </c>
+      <c r="J79" s="68" t="s">
+        <v>525</v>
       </c>
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
@@ -10008,20 +10160,20 @@
       <c r="D80" s="15">
         <v>1199</v>
       </c>
-      <c r="E80" s="68" t="s">
-        <v>266</v>
+      <c r="E80" s="66" t="s">
+        <v>262</v>
       </c>
       <c r="F80" s="28"/>
-      <c r="G80" s="79" t="s">
+      <c r="G80" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="H80" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="I80" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="H80" s="77" t="s">
-        <v>254</v>
-      </c>
-      <c r="I80" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="J80" s="70"/>
+      <c r="J80" s="68"/>
       <c r="K80" s="22"/>
       <c r="L80" s="22"/>
     </row>
@@ -10031,26 +10183,26 @@
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="14" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D81" s="13"/>
-      <c r="E81" s="57" t="s">
-        <v>528</v>
+      <c r="E81" s="56" t="s">
+        <v>523</v>
       </c>
       <c r="F81" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="G81" s="123" t="s">
-        <v>549</v>
-      </c>
-      <c r="H81" s="84" t="s">
-        <v>478</v>
-      </c>
-      <c r="I81" s="115" t="s">
-        <v>479</v>
-      </c>
-      <c r="J81" s="82" t="s">
-        <v>532</v>
+        <v>391</v>
+      </c>
+      <c r="G81" s="119" t="s">
+        <v>543</v>
+      </c>
+      <c r="H81" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="I81" s="111" t="s">
+        <v>474</v>
+      </c>
+      <c r="J81" s="80" t="s">
+        <v>527</v>
       </c>
       <c r="K81" s="24"/>
       <c r="L81" s="22"/>
@@ -10066,23 +10218,23 @@
       <c r="D82" s="15">
         <v>17898</v>
       </c>
-      <c r="E82" s="63" t="s">
+      <c r="E82" s="61" t="s">
+        <v>521</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="G82" s="119" t="s">
+        <v>522</v>
+      </c>
+      <c r="H82" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="I82" s="116" t="s">
+        <v>529</v>
+      </c>
+      <c r="J82" s="80" t="s">
         <v>526</v>
-      </c>
-      <c r="F82" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="G82" s="123" t="s">
-        <v>527</v>
-      </c>
-      <c r="H82" s="84" t="s">
-        <v>272</v>
-      </c>
-      <c r="I82" s="120" t="s">
-        <v>534</v>
-      </c>
-      <c r="J82" s="82" t="s">
-        <v>531</v>
       </c>
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
@@ -10098,23 +10250,23 @@
       <c r="D83" s="15">
         <v>62978</v>
       </c>
-      <c r="E83" s="69" t="s">
-        <v>546</v>
+      <c r="E83" s="67" t="s">
+        <v>540</v>
       </c>
       <c r="F83" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="G83" s="74" t="s">
-        <v>547</v>
-      </c>
-      <c r="H83" s="76" t="s">
-        <v>273</v>
+        <v>258</v>
+      </c>
+      <c r="G83" s="72" t="s">
+        <v>541</v>
+      </c>
+      <c r="H83" s="74" t="s">
+        <v>268</v>
       </c>
       <c r="I83" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="J83" s="82" t="s">
-        <v>533</v>
+        <v>264</v>
+      </c>
+      <c r="J83" s="80" t="s">
+        <v>528</v>
       </c>
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
@@ -10133,7 +10285,7 @@
       <c r="E84" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F84" s="121"/>
+      <c r="F84" s="117"/>
       <c r="G84" s="42"/>
       <c r="H84" s="42"/>
       <c r="I84" s="42"/>
@@ -10142,98 +10294,98 @@
       <c r="L84" s="42"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E86" s="92" t="s">
-        <v>379</v>
-      </c>
-      <c r="F86" s="91" t="s">
-        <v>388</v>
+      <c r="E86" s="89" t="s">
+        <v>374</v>
+      </c>
+      <c r="F86" s="88" t="s">
+        <v>383</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E87" s="92" t="s">
-        <v>380</v>
-      </c>
-      <c r="F87" s="91" t="s">
-        <v>388</v>
+      <c r="E87" s="89" t="s">
+        <v>375</v>
+      </c>
+      <c r="F87" s="88" t="s">
+        <v>383</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E88" s="92" t="s">
-        <v>381</v>
-      </c>
-      <c r="F88" s="91" t="s">
-        <v>388</v>
+      <c r="E88" s="89" t="s">
+        <v>376</v>
+      </c>
+      <c r="F88" s="88" t="s">
+        <v>383</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E89" s="92" t="s">
-        <v>382</v>
-      </c>
-      <c r="F89" s="91" t="s">
-        <v>388</v>
+      <c r="E89" s="89" t="s">
+        <v>377</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>383</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E90" s="92" t="s">
+      <c r="E90" s="89" t="s">
+        <v>378</v>
+      </c>
+      <c r="F90" s="88" t="s">
         <v>383</v>
-      </c>
-      <c r="F90" s="91" t="s">
-        <v>388</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E91" s="92" t="s">
-        <v>384</v>
-      </c>
-      <c r="F91" s="91" t="s">
-        <v>388</v>
+      <c r="E91" s="89" t="s">
+        <v>379</v>
+      </c>
+      <c r="F91" s="88" t="s">
+        <v>383</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E92" s="92" t="s">
-        <v>385</v>
-      </c>
-      <c r="F92" s="91" t="s">
-        <v>388</v>
+      <c r="E92" s="89" t="s">
+        <v>380</v>
+      </c>
+      <c r="F92" s="88" t="s">
+        <v>383</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E93" s="92" t="s">
-        <v>386</v>
-      </c>
-      <c r="F93" s="91" t="s">
-        <v>388</v>
+      <c r="E93" s="89" t="s">
+        <v>381</v>
+      </c>
+      <c r="F93" s="88" t="s">
+        <v>383</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E94" s="92" t="s">
+      <c r="E94" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="F94" s="91" t="s">
+      <c r="F94" s="88" t="s">
         <v>86</v>
       </c>
       <c r="G94" s="10" t="s">
@@ -10241,10 +10393,10 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E95" s="92" t="s">
+      <c r="E95" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="F95" s="91" t="s">
+      <c r="F95" s="88" t="s">
         <v>71</v>
       </c>
       <c r="G95" s="10" t="s">
@@ -10252,24 +10404,24 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C96" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E96" s="92" t="s">
-        <v>387</v>
-      </c>
-      <c r="F96" s="65" t="s">
-        <v>390</v>
+      <c r="C96" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E96" s="89" t="s">
+        <v>382</v>
+      </c>
+      <c r="F96" s="63" t="s">
+        <v>385</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E97" s="92" t="s">
+      <c r="E97" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="F97" s="91" t="s">
+      <c r="F97" s="88" t="s">
         <v>58</v>
       </c>
       <c r="G97" s="10" t="s">
@@ -10277,10 +10429,10 @@
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E98" s="92" t="s">
+      <c r="E98" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="F98" s="91" t="s">
+      <c r="F98" s="88" t="s">
         <v>44</v>
       </c>
       <c r="G98" s="10" t="s">
@@ -10288,24 +10440,24 @@
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E99" s="92" t="s">
+      <c r="E99" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="91" t="s">
-        <v>391</v>
+      <c r="F99" s="88" t="s">
+        <v>386</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C100" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E100" s="92" t="s">
+      <c r="C100" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E100" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="F100" s="91" t="s">
+      <c r="F100" s="88" t="s">
         <v>54</v>
       </c>
       <c r="G100" s="10" t="s">
@@ -10313,10 +10465,10 @@
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E101" s="92" t="s">
+      <c r="E101" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="F101" s="91" t="s">
+      <c r="F101" s="88" t="s">
         <v>95</v>
       </c>
       <c r="G101" s="10" t="s">
@@ -10324,74 +10476,74 @@
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E102" s="92" t="s">
+      <c r="E102" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F102" s="91" t="s">
-        <v>392</v>
+      <c r="F102" s="88" t="s">
+        <v>387</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E103" s="92" t="s">
+      <c r="E103" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="F103" s="91" t="s">
-        <v>393</v>
+      <c r="F103" s="88" t="s">
+        <v>388</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="104" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C104" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E104" s="92" t="s">
+      <c r="C104" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E104" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="F104" s="65" t="s">
-        <v>376</v>
+      <c r="F104" s="63" t="s">
+        <v>371</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>209</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E105" s="92" t="s">
+      <c r="E105" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="F105" s="91" t="s">
-        <v>394</v>
+      <c r="F105" s="88" t="s">
+        <v>389</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H105" s="65" t="s">
-        <v>251</v>
+      <c r="H105" s="63" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E106" s="92" t="s">
+      <c r="E106" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="F106" s="91" t="s">
-        <v>395</v>
+      <c r="F106" s="88" t="s">
+        <v>390</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E107" s="92" t="s">
+      <c r="E107" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="F107" s="91" t="s">
+      <c r="F107" s="88" t="s">
         <v>81</v>
       </c>
       <c r="G107" s="10" t="s">
@@ -10399,13 +10551,13 @@
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I108" s="65"/>
+      <c r="I108" s="63"/>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C109" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E109" s="91" t="s">
+      <c r="C109" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E109" s="88" t="s">
         <v>145</v>
       </c>
       <c r="G109" s="1" t="s">
@@ -10414,10 +10566,10 @@
       <c r="I109" s="7"/>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C110" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E110" s="91" t="s">
+      <c r="C110" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E110" s="88" t="s">
         <v>146</v>
       </c>
       <c r="G110" s="1" t="s">
@@ -10426,10 +10578,10 @@
       <c r="I110" s="7"/>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C111" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E111" s="91" t="s">
+      <c r="C111" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E111" s="88" t="s">
         <v>147</v>
       </c>
       <c r="G111" s="1" t="s">
@@ -10438,10 +10590,10 @@
       <c r="I111" s="7"/>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C112" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E112" s="91" t="s">
+      <c r="C112" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E112" s="88" t="s">
         <v>148</v>
       </c>
       <c r="G112" s="1" t="s">
@@ -10450,10 +10602,10 @@
       <c r="I112" s="7"/>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C113" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E113" s="91" t="s">
+      <c r="C113" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E113" s="88" t="s">
         <v>149</v>
       </c>
       <c r="G113" s="1" t="s">
@@ -10462,10 +10614,10 @@
       <c r="I113" s="7"/>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C114" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E114" s="91" t="s">
+      <c r="C114" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E114" s="88" t="s">
         <v>150</v>
       </c>
       <c r="G114" s="1" t="s">
@@ -10474,10 +10626,10 @@
       <c r="I114" s="7"/>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C115" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E115" s="91" t="s">
+      <c r="C115" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E115" s="88" t="s">
         <v>151</v>
       </c>
       <c r="G115" s="1" t="s">
@@ -10486,24 +10638,24 @@
       <c r="I115" s="7"/>
     </row>
     <row r="116" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="E116" s="91" t="s">
+      <c r="E116" s="88" t="s">
         <v>152</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H116" s="103" t="s">
-        <v>421</v>
-      </c>
-      <c r="I116" s="104" t="s">
-        <v>420</v>
+      <c r="H116" s="100" t="s">
+        <v>416</v>
+      </c>
+      <c r="I116" s="101" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C117" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E117" s="91" t="s">
+      <c r="C117" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E117" s="88" t="s">
         <v>153</v>
       </c>
       <c r="G117" s="1" t="s">
@@ -10512,10 +10664,10 @@
       <c r="I117" s="7"/>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C118" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E118" s="91" t="s">
+      <c r="C118" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E118" s="88" t="s">
         <v>154</v>
       </c>
       <c r="G118" s="1" t="s">
@@ -10524,14 +10676,14 @@
       <c r="I118" s="7"/>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C119" s="91"/>
-      <c r="E119" s="91"/>
+      <c r="C119" s="88"/>
+      <c r="E119" s="88"/>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C120" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E120" s="91" t="s">
+      <c r="C120" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E120" s="88" t="s">
         <v>155</v>
       </c>
       <c r="G120" s="10" t="s">
@@ -10541,10 +10693,10 @@
       <c r="I120" s="7"/>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C121" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E121" s="91" t="s">
+      <c r="C121" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E121" s="88" t="s">
         <v>156</v>
       </c>
       <c r="G121" s="7" t="s">
@@ -10554,10 +10706,10 @@
       <c r="I121" s="7"/>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C122" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E122" s="91" t="s">
+      <c r="C122" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E122" s="88" t="s">
         <v>157</v>
       </c>
       <c r="G122" s="7" t="s">
@@ -10567,10 +10719,10 @@
       <c r="I122" s="7"/>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C123" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E123" s="91" t="s">
+      <c r="C123" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E123" s="88" t="s">
         <v>82</v>
       </c>
       <c r="G123" s="7" t="s">
@@ -10580,10 +10732,10 @@
       <c r="I123" s="7"/>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C124" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E124" s="91" t="s">
+      <c r="C124" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E124" s="88" t="s">
         <v>158</v>
       </c>
       <c r="G124" s="7" t="s">
@@ -10593,15 +10745,15 @@
       <c r="I124" s="7"/>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C125" s="91"/>
-      <c r="E125" s="91"/>
+      <c r="C125" s="88"/>
+      <c r="E125" s="88"/>
       <c r="H125" s="4"/>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C126" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E126" s="91" t="s">
+      <c r="C126" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E126" s="88" t="s">
         <v>31</v>
       </c>
       <c r="F126" s="6"/>
@@ -10612,16 +10764,16 @@
       <c r="I126" s="9"/>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C127" s="91"/>
-      <c r="E127" s="75"/>
+      <c r="C127" s="88"/>
+      <c r="E127" s="73"/>
       <c r="F127" s="6"/>
       <c r="G127" s="7"/>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C128" s="91" t="s">
-        <v>376</v>
+      <c r="C128" s="88" t="s">
+        <v>371</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>167</v>
@@ -10634,8 +10786,8 @@
       <c r="I128" s="7"/>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C129" s="91" t="s">
-        <v>376</v>
+      <c r="C129" s="88" t="s">
+        <v>371</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>168</v>
@@ -10648,8 +10800,8 @@
       <c r="I129" s="7"/>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C130" s="91" t="s">
-        <v>376</v>
+      <c r="C130" s="88" t="s">
+        <v>371</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>169</v>
@@ -10662,11 +10814,11 @@
       <c r="I130" s="7"/>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C131" s="91" t="s">
-        <v>376</v>
+      <c r="C131" s="88" t="s">
+        <v>371</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G131" s="10" t="s">
         <v>208</v>
@@ -10677,144 +10829,144 @@
       <c r="H132" s="4"/>
     </row>
     <row r="133" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="93" t="s">
-        <v>377</v>
-      </c>
-      <c r="D133" s="94"/>
-      <c r="E133" s="95" t="s">
+      <c r="C133" s="90" t="s">
+        <v>372</v>
+      </c>
+      <c r="D133" s="91"/>
+      <c r="E133" s="92" t="s">
         <v>159</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="H133" s="85"/>
-      <c r="I133" s="85"/>
+        <v>411</v>
+      </c>
+      <c r="H133" s="82"/>
+      <c r="I133" s="82"/>
     </row>
     <row r="134" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="93" t="s">
-        <v>377</v>
-      </c>
-      <c r="D134" s="94"/>
-      <c r="E134" s="95" t="s">
+      <c r="C134" s="90" t="s">
+        <v>372</v>
+      </c>
+      <c r="D134" s="91"/>
+      <c r="E134" s="92" t="s">
         <v>160</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="H134" s="85"/>
-      <c r="I134" s="85"/>
-    </row>
-    <row r="135" spans="3:9" s="89" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="C135" s="93" t="s">
-        <v>377</v>
-      </c>
-      <c r="D135" s="94"/>
-      <c r="E135" s="95" t="s">
+        <v>412</v>
+      </c>
+      <c r="H134" s="82"/>
+      <c r="I134" s="82"/>
+    </row>
+    <row r="135" spans="3:9" s="86" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="C135" s="90" t="s">
+        <v>372</v>
+      </c>
+      <c r="D135" s="91"/>
+      <c r="E135" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="G135" s="89" t="s">
+      <c r="G135" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="H135" s="85" t="s">
-        <v>375</v>
+      <c r="H135" s="82" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="136" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C136" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E136" s="89" t="s">
+      <c r="C136" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E136" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="F136" s="89"/>
-      <c r="G136" s="89" t="s">
+      <c r="F136" s="86"/>
+      <c r="G136" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="H136" s="90" t="s">
-        <v>373</v>
-      </c>
-      <c r="I136" s="90" t="s">
-        <v>374</v>
+      <c r="H136" s="87" t="s">
+        <v>368</v>
+      </c>
+      <c r="I136" s="87" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="137" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="93" t="s">
-        <v>377</v>
-      </c>
-      <c r="D137" s="94"/>
-      <c r="E137" s="95" t="s">
+      <c r="C137" s="90" t="s">
+        <v>372</v>
+      </c>
+      <c r="D137" s="91"/>
+      <c r="E137" s="92" t="s">
         <v>164</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="H137" s="85"/>
-      <c r="I137" s="85"/>
+        <v>413</v>
+      </c>
+      <c r="H137" s="82"/>
+      <c r="I137" s="82"/>
     </row>
     <row r="138" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="93" t="s">
-        <v>377</v>
-      </c>
-      <c r="D138" s="94"/>
-      <c r="E138" s="95" t="s">
+      <c r="C138" s="90" t="s">
+        <v>372</v>
+      </c>
+      <c r="D138" s="91"/>
+      <c r="E138" s="92" t="s">
         <v>165</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="H138" s="85"/>
-      <c r="I138" s="85"/>
+        <v>413</v>
+      </c>
+      <c r="H138" s="82"/>
+      <c r="I138" s="82"/>
     </row>
     <row r="139" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C139" s="96"/>
-      <c r="D139" s="94"/>
-      <c r="E139" s="97"/>
+      <c r="C139" s="93"/>
+      <c r="D139" s="91"/>
+      <c r="E139" s="94"/>
       <c r="F139" s="6"/>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
     </row>
-    <row r="140" spans="3:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="93" t="s">
-        <v>377</v>
-      </c>
-      <c r="D140" s="98"/>
-      <c r="E140" s="99" t="s">
-        <v>378</v>
-      </c>
-      <c r="G140" s="87" t="s">
-        <v>419</v>
-      </c>
-      <c r="H140" s="88"/>
-      <c r="I140" s="88"/>
-    </row>
-    <row r="141" spans="3:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="D141" s="86"/>
-      <c r="E141" s="87" t="s">
+    <row r="140" spans="3:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="90" t="s">
         <v>372</v>
       </c>
-      <c r="G141" s="87" t="s">
-        <v>419</v>
-      </c>
-      <c r="H141" s="88"/>
-      <c r="I141" s="88"/>
-    </row>
-    <row r="142" spans="3:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C142" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="D142" s="86"/>
-      <c r="E142" s="87" t="s">
+      <c r="D140" s="95"/>
+      <c r="E140" s="96" t="s">
+        <v>373</v>
+      </c>
+      <c r="G140" s="84" t="s">
+        <v>414</v>
+      </c>
+      <c r="H140" s="85"/>
+      <c r="I140" s="85"/>
+    </row>
+    <row r="141" spans="3:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="D141" s="83"/>
+      <c r="E141" s="84" t="s">
+        <v>367</v>
+      </c>
+      <c r="G141" s="84" t="s">
+        <v>414</v>
+      </c>
+      <c r="H141" s="85"/>
+      <c r="I141" s="85"/>
+    </row>
+    <row r="142" spans="3:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="D142" s="83"/>
+      <c r="E142" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="G142" s="87" t="s">
-        <v>419</v>
-      </c>
-      <c r="H142" s="88"/>
-      <c r="I142" s="88"/>
+      <c r="G142" s="84" t="s">
+        <v>414</v>
+      </c>
+      <c r="H142" s="85"/>
+      <c r="I142" s="85"/>
     </row>
     <row r="143" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E143" s="7"/>
@@ -10866,7 +11018,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10878,16 +11030,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="98"/>
+      <c r="B1" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>229</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -10895,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -10903,7 +11055,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -10911,7 +11063,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -10919,7 +11071,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -10927,7 +11079,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -10935,7 +11087,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -10943,14 +11095,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="54" t="s">
         <v>231</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -10958,7 +11110,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -10966,7 +11118,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>514</v>
+        <v>509</v>
+      </c>
+      <c r="D10" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -10974,7 +11129,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -10982,7 +11137,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -10990,10 +11145,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D13" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -11001,7 +11156,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -11009,7 +11164,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -11017,7 +11172,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -11025,10 +11180,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D17" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -11036,7 +11191,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -11044,7 +11199,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -11056,20 +11211,20 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="119" t="s">
-        <v>482</v>
-      </c>
-      <c r="C21" s="119"/>
+      <c r="B21" s="115" t="s">
+        <v>477</v>
+      </c>
+      <c r="C21" s="115"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D22" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -11077,10 +11232,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D23" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -11088,10 +11243,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D24" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -11099,10 +11254,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D25" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -11110,10 +11265,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D26" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -11121,10 +11276,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D27" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -11132,10 +11287,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D28" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -11143,10 +11298,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D29" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -11154,10 +11309,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D30" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -11165,10 +11320,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -11176,10 +11331,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D32" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -11230,2104 +11385,2104 @@
     <col min="22" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="55" customFormat="1" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
-        <v>425</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118" t="s">
-        <v>480</v>
-      </c>
-      <c r="D1" s="118" t="s">
-        <v>411</v>
-      </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118" t="s">
+    <row r="1" spans="1:21" s="54" customFormat="1" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="114" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1" s="114" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114" t="s">
+        <v>397</v>
+      </c>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114" t="s">
+        <v>393</v>
+      </c>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114" t="s">
+        <v>394</v>
+      </c>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114" t="s">
+        <v>394</v>
+      </c>
+      <c r="U1" s="114"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="54">
+        <v>1299</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="54"/>
+      <c r="F2" s="88" t="s">
+        <v>398</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="98"/>
+      <c r="J2" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="K2" s="82">
+        <v>157</v>
+      </c>
+      <c r="M2" s="112"/>
+      <c r="O2" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="P2" s="82">
+        <v>53</v>
+      </c>
+      <c r="R2" s="112"/>
+      <c r="T2" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="U2" s="82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="54">
+        <v>878</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="88" t="s">
+        <v>398</v>
+      </c>
+      <c r="G3" s="54"/>
+      <c r="H3" s="98"/>
+      <c r="J3" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="K3" s="82">
+        <v>54</v>
+      </c>
+      <c r="M3" s="112"/>
+      <c r="O3" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="P3" s="82">
+        <v>32</v>
+      </c>
+      <c r="R3" s="112"/>
+      <c r="T3" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="U3" s="82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="54">
+        <v>469</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="98"/>
+      <c r="J4" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="K4" s="82">
+        <v>44</v>
+      </c>
+      <c r="M4" s="112"/>
+      <c r="O4" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="P4" s="82">
+        <v>28</v>
+      </c>
+      <c r="R4" s="112"/>
+      <c r="T4" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="U4" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="54">
+        <v>432</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H5" s="98"/>
+      <c r="J5" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="K5" s="82">
+        <v>30</v>
+      </c>
+      <c r="M5" s="112"/>
+      <c r="O5" s="82" t="s">
+        <v>291</v>
+      </c>
+      <c r="P5" s="82">
+        <v>17</v>
+      </c>
+      <c r="R5" s="112"/>
+      <c r="T5" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="U5" s="82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="54">
+        <v>430</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="88" t="s">
         <v>398</v>
       </c>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118" t="s">
+      <c r="G6" s="54"/>
+      <c r="H6" s="98"/>
+      <c r="J6" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="K6" s="82">
+        <v>30</v>
+      </c>
+      <c r="M6" s="112"/>
+      <c r="O6" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="P6" s="82">
+        <v>14</v>
+      </c>
+      <c r="R6" s="112"/>
+      <c r="T6" s="82" t="s">
+        <v>286</v>
+      </c>
+      <c r="U6" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="54">
+        <v>388</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="98"/>
+      <c r="J7" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="K7" s="82">
+        <v>14</v>
+      </c>
+      <c r="M7" s="112"/>
+      <c r="O7" s="82" t="s">
+        <v>274</v>
+      </c>
+      <c r="P7" s="82">
+        <v>11</v>
+      </c>
+      <c r="R7" s="112"/>
+      <c r="T7" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="U7" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="54">
+        <v>377</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G8" s="54"/>
+      <c r="H8" s="98"/>
+      <c r="J8" s="82" t="s">
+        <v>274</v>
+      </c>
+      <c r="K8" s="82">
+        <v>12</v>
+      </c>
+      <c r="M8" s="112"/>
+      <c r="O8" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="P8" s="82">
+        <v>11</v>
+      </c>
+      <c r="R8" s="112"/>
+      <c r="T8" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="U8" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="54">
+        <v>220</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="98"/>
+      <c r="J9" s="82" t="s">
+        <v>297</v>
+      </c>
+      <c r="K9" s="82">
+        <v>10</v>
+      </c>
+      <c r="M9" s="112"/>
+      <c r="O9" s="82" t="s">
+        <v>286</v>
+      </c>
+      <c r="P9" s="82">
+        <v>9</v>
+      </c>
+      <c r="R9" s="112"/>
+      <c r="T9" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="U9" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="54">
+        <v>187</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" s="54"/>
+      <c r="F10" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="98"/>
+      <c r="J10" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="K10" s="82">
+        <v>8</v>
+      </c>
+      <c r="M10" s="112"/>
+      <c r="O10" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="P10" s="82">
+        <v>9</v>
+      </c>
+      <c r="R10" s="112"/>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="54">
+        <v>115</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E11" s="54"/>
+      <c r="F11" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="98"/>
+      <c r="J11" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="K11" s="82">
+        <v>4</v>
+      </c>
+      <c r="M11" s="112"/>
+      <c r="O11" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="P11" s="82">
+        <v>7</v>
+      </c>
+      <c r="R11" s="112"/>
+    </row>
+    <row r="12" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="54">
+        <v>110</v>
+      </c>
+      <c r="C12" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118" t="s">
+      <c r="D12" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="88" t="s">
+        <v>398</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="98"/>
+      <c r="J12" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="K12" s="82">
+        <v>4</v>
+      </c>
+      <c r="M12" s="112"/>
+      <c r="O12" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="P12" s="82">
+        <v>7</v>
+      </c>
+      <c r="R12" s="112"/>
+    </row>
+    <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" s="54">
+        <v>81</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="98"/>
+      <c r="J13" s="82" t="s">
+        <v>312</v>
+      </c>
+      <c r="K13" s="82">
+        <v>4</v>
+      </c>
+      <c r="M13" s="112"/>
+      <c r="O13" s="82" t="s">
+        <v>298</v>
+      </c>
+      <c r="P13" s="82">
+        <v>4</v>
+      </c>
+      <c r="R13" s="112"/>
+    </row>
+    <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="54">
+        <v>51</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="U1" s="118"/>
-    </row>
-    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" s="55">
-        <v>1299</v>
-      </c>
-      <c r="C2" s="55" t="s">
+      <c r="D14" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="88" t="s">
+        <v>398</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="98"/>
+      <c r="J14" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="K14" s="82">
+        <v>3</v>
+      </c>
+      <c r="M14" s="112"/>
+      <c r="O14" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="P14" s="82">
+        <v>4</v>
+      </c>
+      <c r="R14" s="112"/>
+    </row>
+    <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="54">
+        <v>44</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E15" s="54"/>
+      <c r="F15" s="88" t="s">
+        <v>398</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="98"/>
+      <c r="J15" s="82" t="s">
+        <v>288</v>
+      </c>
+      <c r="K15" s="82">
+        <v>3</v>
+      </c>
+      <c r="M15" s="112"/>
+      <c r="O15" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="P15" s="82">
+        <v>3</v>
+      </c>
+      <c r="R15" s="112"/>
+    </row>
+    <row r="16" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" s="54">
+        <v>40</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="98"/>
+      <c r="J16" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="K16" s="82">
+        <v>3</v>
+      </c>
+      <c r="M16" s="112"/>
+      <c r="O16" s="82" t="s">
+        <v>285</v>
+      </c>
+      <c r="P16" s="82">
+        <v>2</v>
+      </c>
+      <c r="R16" s="112"/>
+    </row>
+    <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="54">
+        <v>37</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="98"/>
+      <c r="J17" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" s="82">
+        <v>2</v>
+      </c>
+      <c r="M17" s="112"/>
+      <c r="O17" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="P17" s="82">
+        <v>2</v>
+      </c>
+      <c r="R17" s="112"/>
+    </row>
+    <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="54">
+        <v>36</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="98"/>
+      <c r="J18" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="K18" s="82">
+        <v>2</v>
+      </c>
+      <c r="M18" s="112"/>
+      <c r="O18" s="82" t="s">
+        <v>282</v>
+      </c>
+      <c r="P18" s="82">
+        <v>2</v>
+      </c>
+      <c r="R18" s="112"/>
+    </row>
+    <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="B19" s="54">
+        <v>29</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="98"/>
+      <c r="J19" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="K19" s="82">
+        <v>2</v>
+      </c>
+      <c r="M19" s="112"/>
+      <c r="O19" s="82" t="s">
+        <v>284</v>
+      </c>
+      <c r="P19" s="82">
+        <v>1</v>
+      </c>
+      <c r="R19" s="112"/>
+    </row>
+    <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" s="54">
+        <v>24</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="98"/>
+      <c r="J20" s="82" t="s">
+        <v>287</v>
+      </c>
+      <c r="K20" s="82">
+        <v>1</v>
+      </c>
+      <c r="M20" s="112"/>
+      <c r="O20" s="82" t="s">
+        <v>335</v>
+      </c>
+      <c r="P20" s="82">
+        <v>1</v>
+      </c>
+      <c r="R20" s="112"/>
+    </row>
+    <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="B21" s="54">
+        <v>22</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="98"/>
+      <c r="J21" s="82" t="s">
+        <v>344</v>
+      </c>
+      <c r="K21" s="82">
+        <v>1</v>
+      </c>
+      <c r="M21" s="112"/>
+      <c r="O21" s="82" t="s">
+        <v>315</v>
+      </c>
+      <c r="P21" s="82">
+        <v>1</v>
+      </c>
+      <c r="R21" s="112"/>
+    </row>
+    <row r="22" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" s="54">
+        <v>22</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G22" s="54"/>
+      <c r="H22" s="98"/>
+      <c r="J22" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="K22" s="82">
+        <v>1</v>
+      </c>
+      <c r="M22" s="112"/>
+      <c r="O22" s="82" t="s">
+        <v>339</v>
+      </c>
+      <c r="P22" s="82">
+        <v>1</v>
+      </c>
+      <c r="R22" s="112"/>
+    </row>
+    <row r="23" spans="1:18" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" s="54">
+        <v>20</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="G23" s="54"/>
+      <c r="H23" s="98"/>
+      <c r="J23" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="K23" s="82">
+        <v>1</v>
+      </c>
+      <c r="M23" s="112"/>
+      <c r="O23" s="82" t="s">
+        <v>345</v>
+      </c>
+      <c r="P23" s="82">
+        <v>1</v>
+      </c>
+      <c r="R23" s="112"/>
+    </row>
+    <row r="24" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24" s="54">
+        <v>19</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E24" s="54"/>
+      <c r="F24" s="88" t="s">
+        <v>398</v>
+      </c>
+      <c r="G24" s="54"/>
+      <c r="H24" s="98"/>
+      <c r="J24" s="82" t="s">
+        <v>325</v>
+      </c>
+      <c r="K24" s="82">
+        <v>1</v>
+      </c>
+      <c r="M24" s="112"/>
+      <c r="O24" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="P24" s="82">
+        <v>1</v>
+      </c>
+      <c r="R24" s="112"/>
+    </row>
+    <row r="25" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" s="54">
+        <v>19</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="E25" s="54"/>
+      <c r="F25" s="88" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="G25" s="54"/>
+      <c r="H25" s="98"/>
+      <c r="J25" s="82" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" s="82">
+        <v>1</v>
+      </c>
+      <c r="M25" s="112"/>
+      <c r="O25" s="82" t="s">
+        <v>325</v>
+      </c>
+      <c r="P25" s="82">
+        <v>1</v>
+      </c>
+      <c r="R25" s="112"/>
+    </row>
+    <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="B26" s="54">
+        <v>19</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="E26" s="54"/>
+      <c r="F26" s="88" t="s">
+        <v>404</v>
+      </c>
+      <c r="G26" s="54"/>
+      <c r="H26" s="98"/>
+      <c r="J26" s="82" t="s">
+        <v>290</v>
+      </c>
+      <c r="K26" s="82">
+        <v>1</v>
+      </c>
+      <c r="M26" s="112"/>
+      <c r="O26" s="82" t="s">
+        <v>290</v>
+      </c>
+      <c r="P26" s="82">
+        <v>1</v>
+      </c>
+      <c r="R26" s="112"/>
+    </row>
+    <row r="27" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27" s="54">
+        <v>17</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E27" s="54"/>
+      <c r="F27" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G27" s="54"/>
+      <c r="H27" s="98"/>
+      <c r="J27" s="82" t="s">
+        <v>295</v>
+      </c>
+      <c r="K27" s="82">
+        <v>1</v>
+      </c>
+      <c r="M27" s="112"/>
+      <c r="O27" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="P27" s="82">
+        <v>1</v>
+      </c>
+      <c r="R27" s="112"/>
+    </row>
+    <row r="28" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="B28" s="54">
+        <v>16</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E28" s="54"/>
+      <c r="F28" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G28" s="54"/>
+      <c r="H28" s="98"/>
+      <c r="J28" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="K28" s="82">
+        <v>1</v>
+      </c>
+      <c r="M28" s="112"/>
+      <c r="O28" s="82" t="s">
+        <v>297</v>
+      </c>
+      <c r="P28" s="82">
+        <v>1</v>
+      </c>
+      <c r="R28" s="112"/>
+    </row>
+    <row r="29" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29" s="54">
+        <v>14</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E29" s="54"/>
+      <c r="F29" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G29" s="54"/>
+      <c r="H29" s="98"/>
+      <c r="J29" s="82" t="s">
+        <v>352</v>
+      </c>
+      <c r="K29" s="82">
+        <v>1</v>
+      </c>
+      <c r="M29" s="112"/>
+      <c r="O29" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="P29" s="82">
+        <v>1</v>
+      </c>
+      <c r="R29" s="112"/>
+    </row>
+    <row r="30" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="B30" s="54">
+        <v>14</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E30" s="99" t="s">
+        <v>408</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G30" s="54"/>
+      <c r="H30" s="98"/>
+      <c r="J30" s="82" t="s">
+        <v>328</v>
+      </c>
+      <c r="K30" s="82">
+        <v>1</v>
+      </c>
+      <c r="M30" s="112"/>
+      <c r="O30" s="82" t="s">
+        <v>288</v>
+      </c>
+      <c r="P30" s="82">
+        <v>1</v>
+      </c>
+      <c r="R30" s="112"/>
+    </row>
+    <row r="31" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="B31" s="54">
+        <v>14</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="G31" s="54"/>
+      <c r="H31" s="98"/>
+      <c r="J31" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31" s="82">
+        <v>1</v>
+      </c>
+      <c r="M31" s="112"/>
+      <c r="O31" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="P31" s="82">
+        <v>1</v>
+      </c>
+      <c r="R31" s="112"/>
+    </row>
+    <row r="32" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="B32" s="54">
+        <v>12</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E32" s="54"/>
+      <c r="F32" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G32" s="54"/>
+      <c r="H32" s="98"/>
+      <c r="J32" s="82" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" s="82">
+        <v>1</v>
+      </c>
+      <c r="M32" s="112"/>
+      <c r="O32" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="P32" s="82">
+        <v>1</v>
+      </c>
+      <c r="R32" s="112"/>
+    </row>
+    <row r="33" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="B33" s="54">
+        <v>12</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E33" s="54"/>
+      <c r="F33" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G33" s="54"/>
+      <c r="H33" s="98"/>
+      <c r="J33" s="82" t="s">
+        <v>357</v>
+      </c>
+      <c r="K33" s="82">
+        <v>1</v>
+      </c>
+      <c r="M33" s="112"/>
+      <c r="O33" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="P33" s="82">
+        <v>1</v>
+      </c>
+      <c r="R33" s="112"/>
+    </row>
+    <row r="34" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34" s="54">
+        <v>10</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="E34" s="99" t="s">
+        <v>408</v>
+      </c>
+      <c r="F34" s="88" t="s">
+        <v>404</v>
+      </c>
+      <c r="G34" s="54"/>
+      <c r="H34" s="98"/>
+      <c r="M34" s="112"/>
+      <c r="O34" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="P34" s="82">
+        <v>1</v>
+      </c>
+      <c r="R34" s="112"/>
+    </row>
+    <row r="35" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="B35" s="54">
+        <v>6</v>
+      </c>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="99" t="s">
+        <v>409</v>
+      </c>
+      <c r="G35" s="54"/>
+      <c r="H35" s="98"/>
+      <c r="M35" s="112"/>
+      <c r="O35" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="P35" s="82">
+        <v>1</v>
+      </c>
+      <c r="R35" s="112"/>
+    </row>
+    <row r="36" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="B36" s="54">
+        <v>6</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="99" t="s">
         <v>410</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="91" t="s">
+      <c r="G36" s="54"/>
+      <c r="H36" s="98"/>
+    </row>
+    <row r="37" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="B37" s="54">
+        <v>6</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E37" s="99" t="s">
+        <v>409</v>
+      </c>
+      <c r="G37" s="54"/>
+      <c r="H37" s="98"/>
+      <c r="O37" s="113"/>
+    </row>
+    <row r="38" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" s="54">
+        <v>6</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G38" s="54"/>
+      <c r="H38" s="98"/>
+    </row>
+    <row r="39" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="B39" s="54">
+        <v>5</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="98"/>
+    </row>
+    <row r="40" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="B40" s="54">
+        <v>5</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="98"/>
+    </row>
+    <row r="41" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="B41" s="54">
+        <v>5</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D41" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="E41" s="99" t="s">
+        <v>476</v>
+      </c>
+      <c r="G41" s="54"/>
+      <c r="H41" s="98"/>
+    </row>
+    <row r="42" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="B42" s="54">
+        <v>5</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E42" s="54"/>
+      <c r="F42" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G42" s="54"/>
+      <c r="H42" s="98"/>
+    </row>
+    <row r="43" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="B43" s="54">
+        <v>5</v>
+      </c>
+      <c r="C43" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E43" s="54"/>
+      <c r="F43" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G43" s="54"/>
+      <c r="H43" s="98"/>
+    </row>
+    <row r="44" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="B44" s="54">
+        <v>5</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D44" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="101"/>
-      <c r="J2" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="K2" s="85">
-        <v>157</v>
-      </c>
-      <c r="M2" s="116"/>
-      <c r="O2" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="P2" s="85">
-        <v>53</v>
-      </c>
-      <c r="R2" s="116"/>
-      <c r="T2" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="U2" s="85">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" s="55">
-        <v>878</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="91" t="s">
-        <v>403</v>
-      </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="101"/>
-      <c r="J3" s="85" t="s">
-        <v>275</v>
-      </c>
-      <c r="K3" s="85">
-        <v>54</v>
-      </c>
-      <c r="M3" s="116"/>
-      <c r="O3" s="85" t="s">
-        <v>278</v>
-      </c>
-      <c r="P3" s="85">
-        <v>32</v>
-      </c>
-      <c r="R3" s="116"/>
-      <c r="T3" s="85" t="s">
-        <v>275</v>
-      </c>
-      <c r="U3" s="85">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="B4" s="55">
-        <v>469</v>
-      </c>
-      <c r="C4" s="55" t="s">
+      <c r="E44" s="99" t="s">
+        <v>419</v>
+      </c>
+      <c r="G44" s="54"/>
+      <c r="H44" s="98"/>
+    </row>
+    <row r="45" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B45" s="54">
+        <v>4</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="98"/>
+    </row>
+    <row r="46" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="B46" s="54">
+        <v>4</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E46" s="99" t="s">
+        <v>409</v>
+      </c>
+      <c r="G46" s="54"/>
+      <c r="H46" s="98"/>
+    </row>
+    <row r="47" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" s="54">
+        <v>3</v>
+      </c>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="99" t="s">
+        <v>409</v>
+      </c>
+      <c r="G47" s="54"/>
+      <c r="H47" s="98"/>
+    </row>
+    <row r="48" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="B48" s="54">
+        <v>3</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D4" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="101"/>
-      <c r="J4" s="85" t="s">
-        <v>286</v>
-      </c>
-      <c r="K4" s="85">
-        <v>44</v>
-      </c>
-      <c r="M4" s="116"/>
-      <c r="O4" s="85" t="s">
-        <v>275</v>
-      </c>
-      <c r="P4" s="85">
-        <v>28</v>
-      </c>
-      <c r="R4" s="116"/>
-      <c r="T4" s="85" t="s">
-        <v>278</v>
-      </c>
-      <c r="U4" s="85">
+      <c r="G48" s="54"/>
+      <c r="H48" s="98"/>
+    </row>
+    <row r="49" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="B49" s="54">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="55">
-        <v>432</v>
-      </c>
-      <c r="C5" s="55" t="s">
+      <c r="C49" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D49" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="E49" s="54"/>
+      <c r="F49" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D5" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="H5" s="101"/>
-      <c r="J5" s="85" t="s">
-        <v>278</v>
-      </c>
-      <c r="K5" s="85">
-        <v>30</v>
-      </c>
-      <c r="M5" s="116"/>
-      <c r="O5" s="85" t="s">
-        <v>296</v>
-      </c>
-      <c r="P5" s="85">
-        <v>17</v>
-      </c>
-      <c r="R5" s="116"/>
-      <c r="T5" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="U5" s="85">
+      <c r="G49" s="54"/>
+      <c r="H49" s="98"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="B50" s="54">
+        <v>3</v>
+      </c>
+      <c r="C50" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D50" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E50" s="54"/>
+      <c r="F50" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G50" s="54"/>
+      <c r="H50" s="98"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B51" s="54">
+        <v>3</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="D51" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="88" t="s">
+        <v>398</v>
+      </c>
+      <c r="G51" s="54"/>
+      <c r="H51" s="98"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="B52" s="54">
+        <v>3</v>
+      </c>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="98"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B53" s="54">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="B6" s="55">
-        <v>430</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="91" t="s">
-        <v>403</v>
-      </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="101"/>
-      <c r="J6" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="K6" s="85">
-        <v>30</v>
-      </c>
-      <c r="M6" s="116"/>
-      <c r="O6" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="P6" s="85">
-        <v>14</v>
-      </c>
-      <c r="R6" s="116"/>
-      <c r="T6" s="85" t="s">
-        <v>291</v>
-      </c>
-      <c r="U6" s="85">
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="98"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="B54" s="54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="98"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="B55" s="54">
+        <v>2</v>
+      </c>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="98"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B56" s="54">
+        <v>2</v>
+      </c>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="98"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="B57" s="54">
+        <v>2</v>
+      </c>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="98"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="B58" s="54">
+        <v>2</v>
+      </c>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="98"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="B59" s="54">
+        <v>2</v>
+      </c>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="98"/>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="B60" s="54">
+        <v>2</v>
+      </c>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="98"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="B61" s="54">
+        <v>2</v>
+      </c>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="98"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="B62" s="54">
+        <v>2</v>
+      </c>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="98"/>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="B63" s="54">
+        <v>2</v>
+      </c>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="98"/>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="B64" s="54">
+        <v>2</v>
+      </c>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="98"/>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="B65" s="54">
+        <v>2</v>
+      </c>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="98"/>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="B66" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
-        <v>279</v>
-      </c>
-      <c r="B7" s="55">
-        <v>388</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="1" t="s">
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="98"/>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="B67" s="54">
+        <v>1</v>
+      </c>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="98"/>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="B68" s="54">
+        <v>1</v>
+      </c>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="98"/>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="B69" s="54">
+        <v>1</v>
+      </c>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="98"/>
+    </row>
+    <row r="70" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="B70" s="54">
+        <v>1</v>
+      </c>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="98"/>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="B71" s="54">
+        <v>1</v>
+      </c>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="98"/>
+    </row>
+    <row r="72" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="B72" s="54">
+        <v>1</v>
+      </c>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="98"/>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="B73" s="54">
+        <v>1</v>
+      </c>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="98"/>
+    </row>
+    <row r="74" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="B74" s="54">
+        <v>1</v>
+      </c>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="98"/>
+    </row>
+    <row r="75" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="B75" s="54">
+        <v>1</v>
+      </c>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="98"/>
+    </row>
+    <row r="76" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="B76" s="54">
+        <v>1</v>
+      </c>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="98"/>
+    </row>
+    <row r="77" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="B77" s="54">
+        <v>1</v>
+      </c>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="98"/>
+    </row>
+    <row r="78" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="B78" s="54">
+        <v>1</v>
+      </c>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="98"/>
+    </row>
+    <row r="79" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="B79" s="54">
+        <v>1</v>
+      </c>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="98"/>
+    </row>
+    <row r="80" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="B80" s="54">
+        <v>1</v>
+      </c>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="98"/>
+    </row>
+    <row r="81" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="B81" s="54">
+        <v>1</v>
+      </c>
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="98"/>
+    </row>
+    <row r="82" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="B82" s="54">
+        <v>1</v>
+      </c>
+      <c r="C82" s="54"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="98"/>
+    </row>
+    <row r="83" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="B83" s="54">
+        <v>1</v>
+      </c>
+      <c r="C83" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D83" s="54" t="s">
         <v>405</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="101"/>
-      <c r="J7" s="85" t="s">
-        <v>276</v>
-      </c>
-      <c r="K7" s="85">
-        <v>14</v>
-      </c>
-      <c r="M7" s="116"/>
-      <c r="O7" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="P7" s="85">
-        <v>11</v>
-      </c>
-      <c r="R7" s="116"/>
-      <c r="T7" s="85" t="s">
-        <v>282</v>
-      </c>
-      <c r="U7" s="85">
+      <c r="E83" s="54"/>
+      <c r="F83" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G83" s="54"/>
+      <c r="H83" s="98"/>
+    </row>
+    <row r="84" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="B84" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="55">
-        <v>377</v>
-      </c>
-      <c r="C8" s="55" t="s">
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="G84" s="54"/>
+      <c r="H84" s="98"/>
+    </row>
+    <row r="85" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="B85" s="54">
+        <v>1</v>
+      </c>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="98"/>
+    </row>
+    <row r="86" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="B86" s="54">
+        <v>1</v>
+      </c>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="98"/>
+    </row>
+    <row r="87" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="B87" s="54">
+        <v>1</v>
+      </c>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="98"/>
+    </row>
+    <row r="88" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="B88" s="54">
+        <v>1</v>
+      </c>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="98"/>
+    </row>
+    <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="B89" s="54">
+        <v>1</v>
+      </c>
+      <c r="C89" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D89" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E89" s="54"/>
+      <c r="F89" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D8" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="101"/>
-      <c r="J8" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="K8" s="85">
-        <v>12</v>
-      </c>
-      <c r="M8" s="116"/>
-      <c r="O8" s="85" t="s">
-        <v>276</v>
-      </c>
-      <c r="P8" s="85">
-        <v>11</v>
-      </c>
-      <c r="R8" s="116"/>
-      <c r="T8" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="U8" s="85">
+      <c r="G89" s="54"/>
+      <c r="H89" s="98"/>
+    </row>
+    <row r="90" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B90" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" s="55">
-        <v>220</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="1" t="s">
+      <c r="C90" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D90" s="54" t="s">
         <v>405</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="101"/>
-      <c r="J9" s="85" t="s">
-        <v>302</v>
-      </c>
-      <c r="K9" s="85">
-        <v>10</v>
-      </c>
-      <c r="M9" s="116"/>
-      <c r="O9" s="85" t="s">
-        <v>291</v>
-      </c>
-      <c r="P9" s="85">
-        <v>9</v>
-      </c>
-      <c r="R9" s="116"/>
-      <c r="T9" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="U9" s="85">
+      <c r="E90" s="54"/>
+      <c r="F90" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G90" s="54"/>
+      <c r="H90" s="98"/>
+    </row>
+    <row r="91" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="B91" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="B10" s="55">
-        <v>187</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="101"/>
-      <c r="J10" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="K10" s="85">
-        <v>8</v>
-      </c>
-      <c r="M10" s="116"/>
-      <c r="O10" s="85" t="s">
-        <v>282</v>
-      </c>
-      <c r="P10" s="85">
-        <v>9</v>
-      </c>
-      <c r="R10" s="116"/>
-    </row>
-    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="B11" s="55">
-        <v>115</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="101"/>
-      <c r="J11" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="K11" s="85">
-        <v>4</v>
-      </c>
-      <c r="M11" s="116"/>
-      <c r="O11" s="85" t="s">
-        <v>288</v>
-      </c>
-      <c r="P11" s="85">
-        <v>7</v>
-      </c>
-      <c r="R11" s="116"/>
-    </row>
-    <row r="12" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="B12" s="55">
-        <v>110</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="91" t="s">
-        <v>403</v>
-      </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="101"/>
-      <c r="J12" s="85" t="s">
-        <v>311</v>
-      </c>
-      <c r="K12" s="85">
-        <v>4</v>
-      </c>
-      <c r="M12" s="116"/>
-      <c r="O12" s="85" t="s">
-        <v>294</v>
-      </c>
-      <c r="P12" s="85">
-        <v>7</v>
-      </c>
-      <c r="R12" s="116"/>
-    </row>
-    <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="B13" s="55">
-        <v>81</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="101"/>
-      <c r="J13" s="85" t="s">
-        <v>317</v>
-      </c>
-      <c r="K13" s="85">
-        <v>4</v>
-      </c>
-      <c r="M13" s="116"/>
-      <c r="O13" s="85" t="s">
-        <v>303</v>
-      </c>
-      <c r="P13" s="85">
-        <v>4</v>
-      </c>
-      <c r="R13" s="116"/>
-    </row>
-    <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
-        <v>286</v>
-      </c>
-      <c r="B14" s="55">
-        <v>51</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="91" t="s">
-        <v>403</v>
-      </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="101"/>
-      <c r="J14" s="85" t="s">
-        <v>323</v>
-      </c>
-      <c r="K14" s="85">
-        <v>3</v>
-      </c>
-      <c r="M14" s="116"/>
-      <c r="O14" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="P14" s="85">
-        <v>4</v>
-      </c>
-      <c r="R14" s="116"/>
-    </row>
-    <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="B15" s="55">
-        <v>44</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="91" t="s">
-        <v>403</v>
-      </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="101"/>
-      <c r="J15" s="85" t="s">
-        <v>293</v>
-      </c>
-      <c r="K15" s="85">
-        <v>3</v>
-      </c>
-      <c r="M15" s="116"/>
-      <c r="O15" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="P15" s="85">
-        <v>3</v>
-      </c>
-      <c r="R15" s="116"/>
-    </row>
-    <row r="16" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="B16" s="55">
-        <v>40</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="101"/>
-      <c r="J16" s="85" t="s">
-        <v>318</v>
-      </c>
-      <c r="K16" s="85">
-        <v>3</v>
-      </c>
-      <c r="M16" s="116"/>
-      <c r="O16" s="85" t="s">
-        <v>290</v>
-      </c>
-      <c r="P16" s="85">
-        <v>2</v>
-      </c>
-      <c r="R16" s="116"/>
-    </row>
-    <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="B17" s="55">
-        <v>37</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="101"/>
-      <c r="J17" s="85" t="s">
-        <v>282</v>
-      </c>
-      <c r="K17" s="85">
-        <v>2</v>
-      </c>
-      <c r="M17" s="116"/>
-      <c r="O17" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="P17" s="85">
-        <v>2</v>
-      </c>
-      <c r="R17" s="116"/>
-    </row>
-    <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="B18" s="55">
-        <v>36</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="101"/>
-      <c r="J18" s="85" t="s">
-        <v>324</v>
-      </c>
-      <c r="K18" s="85">
-        <v>2</v>
-      </c>
-      <c r="M18" s="116"/>
-      <c r="O18" s="85" t="s">
-        <v>287</v>
-      </c>
-      <c r="P18" s="85">
-        <v>2</v>
-      </c>
-      <c r="R18" s="116"/>
-    </row>
-    <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="B19" s="55">
-        <v>29</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="101"/>
-      <c r="J19" s="85" t="s">
-        <v>334</v>
-      </c>
-      <c r="K19" s="85">
-        <v>2</v>
-      </c>
-      <c r="M19" s="116"/>
-      <c r="O19" s="85" t="s">
-        <v>289</v>
-      </c>
-      <c r="P19" s="85">
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="98"/>
+    </row>
+    <row r="92" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="B92" s="54">
         <v>1</v>
       </c>
-      <c r="R19" s="116"/>
-    </row>
-    <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="B20" s="55">
-        <v>24</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="101"/>
-      <c r="J20" s="85" t="s">
-        <v>292</v>
-      </c>
-      <c r="K20" s="85">
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="98"/>
+    </row>
+    <row r="93" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="B93" s="54">
         <v>1</v>
       </c>
-      <c r="M20" s="116"/>
-      <c r="O20" s="85" t="s">
-        <v>340</v>
-      </c>
-      <c r="P20" s="85">
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="98"/>
+    </row>
+    <row r="94" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="B94" s="54">
         <v>1</v>
       </c>
-      <c r="R20" s="116"/>
-    </row>
-    <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="B21" s="55">
-        <v>22</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="101"/>
-      <c r="J21" s="85" t="s">
-        <v>349</v>
-      </c>
-      <c r="K21" s="85">
-        <v>1</v>
-      </c>
-      <c r="M21" s="116"/>
-      <c r="O21" s="85" t="s">
-        <v>320</v>
-      </c>
-      <c r="P21" s="85">
-        <v>1</v>
-      </c>
-      <c r="R21" s="116"/>
-    </row>
-    <row r="22" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="B22" s="55">
-        <v>22</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="101"/>
-      <c r="J22" s="85" t="s">
-        <v>299</v>
-      </c>
-      <c r="K22" s="85">
-        <v>1</v>
-      </c>
-      <c r="M22" s="116"/>
-      <c r="O22" s="85" t="s">
-        <v>344</v>
-      </c>
-      <c r="P22" s="85">
-        <v>1</v>
-      </c>
-      <c r="R22" s="116"/>
-    </row>
-    <row r="23" spans="1:18" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="B23" s="55">
-        <v>20</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="102" t="s">
-        <v>412</v>
-      </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="101"/>
-      <c r="J23" s="85" t="s">
-        <v>353</v>
-      </c>
-      <c r="K23" s="85">
-        <v>1</v>
-      </c>
-      <c r="M23" s="116"/>
-      <c r="O23" s="85" t="s">
-        <v>350</v>
-      </c>
-      <c r="P23" s="85">
-        <v>1</v>
-      </c>
-      <c r="R23" s="116"/>
-    </row>
-    <row r="24" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="B24" s="55">
-        <v>19</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="91" t="s">
-        <v>403</v>
-      </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="101"/>
-      <c r="J24" s="85" t="s">
-        <v>330</v>
-      </c>
-      <c r="K24" s="85">
-        <v>1</v>
-      </c>
-      <c r="M24" s="116"/>
-      <c r="O24" s="85" t="s">
-        <v>299</v>
-      </c>
-      <c r="P24" s="85">
-        <v>1</v>
-      </c>
-      <c r="R24" s="116"/>
-    </row>
-    <row r="25" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="B25" s="55">
-        <v>19</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>408</v>
-      </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="91" t="s">
-        <v>409</v>
-      </c>
-      <c r="G25" s="55"/>
-      <c r="H25" s="101"/>
-      <c r="J25" s="85" t="s">
-        <v>291</v>
-      </c>
-      <c r="K25" s="85">
-        <v>1</v>
-      </c>
-      <c r="M25" s="116"/>
-      <c r="O25" s="85" t="s">
-        <v>330</v>
-      </c>
-      <c r="P25" s="85">
-        <v>1</v>
-      </c>
-      <c r="R25" s="116"/>
-    </row>
-    <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="B26" s="55">
-        <v>19</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>408</v>
-      </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="91" t="s">
-        <v>409</v>
-      </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="101"/>
-      <c r="J26" s="85" t="s">
-        <v>295</v>
-      </c>
-      <c r="K26" s="85">
-        <v>1</v>
-      </c>
-      <c r="M26" s="116"/>
-      <c r="O26" s="85" t="s">
-        <v>295</v>
-      </c>
-      <c r="P26" s="85">
-        <v>1</v>
-      </c>
-      <c r="R26" s="116"/>
-    </row>
-    <row r="27" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="B27" s="55">
-        <v>17</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="101"/>
-      <c r="J27" s="85" t="s">
-        <v>300</v>
-      </c>
-      <c r="K27" s="85">
-        <v>1</v>
-      </c>
-      <c r="M27" s="116"/>
-      <c r="O27" s="85" t="s">
-        <v>324</v>
-      </c>
-      <c r="P27" s="85">
-        <v>1</v>
-      </c>
-      <c r="R27" s="116"/>
-    </row>
-    <row r="28" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="B28" s="55">
-        <v>16</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="101"/>
-      <c r="J28" s="85" t="s">
-        <v>355</v>
-      </c>
-      <c r="K28" s="85">
-        <v>1</v>
-      </c>
-      <c r="M28" s="116"/>
-      <c r="O28" s="85" t="s">
-        <v>302</v>
-      </c>
-      <c r="P28" s="85">
-        <v>1</v>
-      </c>
-      <c r="R28" s="116"/>
-    </row>
-    <row r="29" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="B29" s="55">
-        <v>14</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="101"/>
-      <c r="J29" s="85" t="s">
-        <v>357</v>
-      </c>
-      <c r="K29" s="85">
-        <v>1</v>
-      </c>
-      <c r="M29" s="116"/>
-      <c r="O29" s="85" t="s">
-        <v>283</v>
-      </c>
-      <c r="P29" s="85">
-        <v>1</v>
-      </c>
-      <c r="R29" s="116"/>
-    </row>
-    <row r="30" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="B30" s="55">
-        <v>14</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E30" s="102" t="s">
-        <v>413</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="101"/>
-      <c r="J30" s="85" t="s">
-        <v>333</v>
-      </c>
-      <c r="K30" s="85">
-        <v>1</v>
-      </c>
-      <c r="M30" s="116"/>
-      <c r="O30" s="85" t="s">
-        <v>293</v>
-      </c>
-      <c r="P30" s="85">
-        <v>1</v>
-      </c>
-      <c r="R30" s="116"/>
-    </row>
-    <row r="31" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="B31" s="55">
-        <v>14</v>
-      </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="102" t="s">
-        <v>412</v>
-      </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="101"/>
-      <c r="J31" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="K31" s="85">
-        <v>1</v>
-      </c>
-      <c r="M31" s="116"/>
-      <c r="O31" s="85" t="s">
-        <v>336</v>
-      </c>
-      <c r="P31" s="85">
-        <v>1</v>
-      </c>
-      <c r="R31" s="116"/>
-    </row>
-    <row r="32" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="B32" s="55">
-        <v>12</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="101"/>
-      <c r="J32" s="85" t="s">
-        <v>287</v>
-      </c>
-      <c r="K32" s="85">
-        <v>1</v>
-      </c>
-      <c r="M32" s="116"/>
-      <c r="O32" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="P32" s="85">
-        <v>1</v>
-      </c>
-      <c r="R32" s="116"/>
-    </row>
-    <row r="33" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="B33" s="55">
-        <v>12</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="101"/>
-      <c r="J33" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="K33" s="85">
-        <v>1</v>
-      </c>
-      <c r="M33" s="116"/>
-      <c r="O33" s="85" t="s">
-        <v>305</v>
-      </c>
-      <c r="P33" s="85">
-        <v>1</v>
-      </c>
-      <c r="R33" s="116"/>
-    </row>
-    <row r="34" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="B34" s="55">
-        <v>10</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>408</v>
-      </c>
-      <c r="E34" s="102" t="s">
-        <v>413</v>
-      </c>
-      <c r="F34" s="91" t="s">
-        <v>409</v>
-      </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="101"/>
-      <c r="M34" s="116"/>
-      <c r="O34" s="85" t="s">
-        <v>315</v>
-      </c>
-      <c r="P34" s="85">
-        <v>1</v>
-      </c>
-      <c r="R34" s="116"/>
-    </row>
-    <row r="35" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="55" t="s">
-        <v>307</v>
-      </c>
-      <c r="B35" s="55">
-        <v>6</v>
-      </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="102" t="s">
-        <v>414</v>
-      </c>
-      <c r="G35" s="55"/>
-      <c r="H35" s="101"/>
-      <c r="M35" s="116"/>
-      <c r="O35" s="85" t="s">
-        <v>318</v>
-      </c>
-      <c r="P35" s="85">
-        <v>1</v>
-      </c>
-      <c r="R35" s="116"/>
-    </row>
-    <row r="36" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="B36" s="55">
-        <v>6</v>
-      </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="101"/>
-    </row>
-    <row r="37" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="55" t="s">
-        <v>309</v>
-      </c>
-      <c r="B37" s="55">
-        <v>6</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E37" s="102" t="s">
-        <v>414</v>
-      </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="101"/>
-      <c r="O37" s="117"/>
-    </row>
-    <row r="38" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="55" t="s">
-        <v>310</v>
-      </c>
-      <c r="B38" s="55">
-        <v>6</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E38" s="55" t="s">
-        <v>422</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G38" s="55"/>
-      <c r="H38" s="101"/>
-    </row>
-    <row r="39" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="55" t="s">
-        <v>311</v>
-      </c>
-      <c r="B39" s="55">
-        <v>5</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D39" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="101"/>
-    </row>
-    <row r="40" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="B40" s="55">
-        <v>5</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D40" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="101"/>
-    </row>
-    <row r="41" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="B41" s="55">
-        <v>5</v>
-      </c>
-      <c r="C41" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D41" s="105" t="s">
-        <v>423</v>
-      </c>
-      <c r="E41" s="102" t="s">
-        <v>481</v>
-      </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="101"/>
-    </row>
-    <row r="42" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="B42" s="55">
-        <v>5</v>
-      </c>
-      <c r="C42" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D42" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E42" s="55"/>
-      <c r="F42" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="101"/>
-    </row>
-    <row r="43" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="55" t="s">
-        <v>315</v>
-      </c>
-      <c r="B43" s="55">
-        <v>5</v>
-      </c>
-      <c r="C43" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D43" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E43" s="55"/>
-      <c r="F43" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G43" s="55"/>
-      <c r="H43" s="101"/>
-    </row>
-    <row r="44" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="55" t="s">
-        <v>316</v>
-      </c>
-      <c r="B44" s="55">
-        <v>5</v>
-      </c>
-      <c r="C44" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="D44" s="55" t="s">
-        <v>408</v>
-      </c>
-      <c r="E44" s="102" t="s">
-        <v>424</v>
-      </c>
-      <c r="G44" s="55"/>
-      <c r="H44" s="101"/>
-    </row>
-    <row r="45" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="55" t="s">
-        <v>317</v>
-      </c>
-      <c r="B45" s="55">
-        <v>4</v>
-      </c>
-      <c r="C45" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="D45" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="101"/>
-    </row>
-    <row r="46" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="55" t="s">
-        <v>318</v>
-      </c>
-      <c r="B46" s="55">
-        <v>4</v>
-      </c>
-      <c r="C46" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="D46" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E46" s="102" t="s">
-        <v>414</v>
-      </c>
-      <c r="G46" s="55"/>
-      <c r="H46" s="101"/>
-    </row>
-    <row r="47" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="55" t="s">
-        <v>319</v>
-      </c>
-      <c r="B47" s="55">
-        <v>3</v>
-      </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="102" t="s">
-        <v>414</v>
-      </c>
-      <c r="G47" s="55"/>
-      <c r="H47" s="101"/>
-    </row>
-    <row r="48" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="55" t="s">
-        <v>320</v>
-      </c>
-      <c r="B48" s="55">
-        <v>3</v>
-      </c>
-      <c r="C48" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D48" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E48" s="55"/>
-      <c r="F48" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G48" s="55"/>
-      <c r="H48" s="101"/>
-    </row>
-    <row r="49" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="55" t="s">
-        <v>321</v>
-      </c>
-      <c r="B49" s="55">
-        <v>3</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D49" s="105" t="s">
-        <v>423</v>
-      </c>
-      <c r="E49" s="55"/>
-      <c r="F49" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G49" s="55"/>
-      <c r="H49" s="101"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="55" t="s">
-        <v>322</v>
-      </c>
-      <c r="B50" s="55">
-        <v>3</v>
-      </c>
-      <c r="C50" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D50" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E50" s="55"/>
-      <c r="F50" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G50" s="55"/>
-      <c r="H50" s="101"/>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="55" t="s">
-        <v>323</v>
-      </c>
-      <c r="B51" s="55">
-        <v>3</v>
-      </c>
-      <c r="C51" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="D51" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E51" s="55"/>
-      <c r="F51" s="91" t="s">
-        <v>403</v>
-      </c>
-      <c r="G51" s="55"/>
-      <c r="H51" s="101"/>
-    </row>
-    <row r="52" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="55" t="s">
-        <v>324</v>
-      </c>
-      <c r="B52" s="55">
-        <v>3</v>
-      </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="101"/>
-    </row>
-    <row r="53" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="B53" s="55">
-        <v>2</v>
-      </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="101"/>
-    </row>
-    <row r="54" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="55" t="s">
-        <v>326</v>
-      </c>
-      <c r="B54" s="55">
-        <v>2</v>
-      </c>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="101"/>
-    </row>
-    <row r="55" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="55" t="s">
-        <v>327</v>
-      </c>
-      <c r="B55" s="55">
-        <v>2</v>
-      </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="101"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="B56" s="55">
-        <v>2</v>
-      </c>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="101"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="55" t="s">
-        <v>329</v>
-      </c>
-      <c r="B57" s="55">
-        <v>2</v>
-      </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="101"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="B58" s="55">
-        <v>2</v>
-      </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="101"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="B59" s="55">
-        <v>2</v>
-      </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="101"/>
-    </row>
-    <row r="60" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="55" t="s">
-        <v>332</v>
-      </c>
-      <c r="B60" s="55">
-        <v>2</v>
-      </c>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="101"/>
-    </row>
-    <row r="61" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="B61" s="55">
-        <v>2</v>
-      </c>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="101"/>
-    </row>
-    <row r="62" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="55" t="s">
-        <v>334</v>
-      </c>
-      <c r="B62" s="55">
-        <v>2</v>
-      </c>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="101"/>
-    </row>
-    <row r="63" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="55" t="s">
-        <v>335</v>
-      </c>
-      <c r="B63" s="55">
-        <v>2</v>
-      </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="101"/>
-    </row>
-    <row r="64" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="55" t="s">
-        <v>336</v>
-      </c>
-      <c r="B64" s="55">
-        <v>2</v>
-      </c>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="101"/>
-    </row>
-    <row r="65" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="55" t="s">
-        <v>337</v>
-      </c>
-      <c r="B65" s="55">
-        <v>2</v>
-      </c>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="101"/>
-    </row>
-    <row r="66" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="55" t="s">
-        <v>338</v>
-      </c>
-      <c r="B66" s="55">
-        <v>1</v>
-      </c>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="101"/>
-    </row>
-    <row r="67" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="55" t="s">
-        <v>339</v>
-      </c>
-      <c r="B67" s="55">
-        <v>1</v>
-      </c>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="101"/>
-    </row>
-    <row r="68" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="55" t="s">
-        <v>340</v>
-      </c>
-      <c r="B68" s="55">
-        <v>1</v>
-      </c>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="101"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="55" t="s">
-        <v>341</v>
-      </c>
-      <c r="B69" s="55">
-        <v>1</v>
-      </c>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="101"/>
-    </row>
-    <row r="70" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="55" t="s">
-        <v>342</v>
-      </c>
-      <c r="B70" s="55">
-        <v>1</v>
-      </c>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="101"/>
-    </row>
-    <row r="71" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="55" t="s">
-        <v>343</v>
-      </c>
-      <c r="B71" s="55">
-        <v>1</v>
-      </c>
-      <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="101"/>
-    </row>
-    <row r="72" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="55" t="s">
-        <v>344</v>
-      </c>
-      <c r="B72" s="55">
-        <v>1</v>
-      </c>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="101"/>
-    </row>
-    <row r="73" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="55" t="s">
-        <v>345</v>
-      </c>
-      <c r="B73" s="55">
-        <v>1</v>
-      </c>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="101"/>
-    </row>
-    <row r="74" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="55" t="s">
-        <v>346</v>
-      </c>
-      <c r="B74" s="55">
-        <v>1</v>
-      </c>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="101"/>
-    </row>
-    <row r="75" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="55" t="s">
-        <v>347</v>
-      </c>
-      <c r="B75" s="55">
-        <v>1</v>
-      </c>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="101"/>
-    </row>
-    <row r="76" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="55" t="s">
-        <v>348</v>
-      </c>
-      <c r="B76" s="55">
-        <v>1</v>
-      </c>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="101"/>
-    </row>
-    <row r="77" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="55" t="s">
-        <v>349</v>
-      </c>
-      <c r="B77" s="55">
-        <v>1</v>
-      </c>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="101"/>
-    </row>
-    <row r="78" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="55" t="s">
-        <v>350</v>
-      </c>
-      <c r="B78" s="55">
-        <v>1</v>
-      </c>
-      <c r="C78" s="55"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="55"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="101"/>
-    </row>
-    <row r="79" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="55" t="s">
-        <v>351</v>
-      </c>
-      <c r="B79" s="55">
-        <v>1</v>
-      </c>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="101"/>
-    </row>
-    <row r="80" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="55" t="s">
-        <v>352</v>
-      </c>
-      <c r="B80" s="55">
-        <v>1</v>
-      </c>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="101"/>
-    </row>
-    <row r="81" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="55" t="s">
-        <v>353</v>
-      </c>
-      <c r="B81" s="55">
-        <v>1</v>
-      </c>
-      <c r="C81" s="55"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="101"/>
-    </row>
-    <row r="82" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="55" t="s">
-        <v>354</v>
-      </c>
-      <c r="B82" s="55">
-        <v>1</v>
-      </c>
-      <c r="C82" s="55"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="101"/>
-    </row>
-    <row r="83" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="55" t="s">
-        <v>355</v>
-      </c>
-      <c r="B83" s="55">
-        <v>1</v>
-      </c>
-      <c r="C83" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="D83" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E83" s="55"/>
-      <c r="F83" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G83" s="55"/>
-      <c r="H83" s="101"/>
-    </row>
-    <row r="84" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="55" t="s">
-        <v>356</v>
-      </c>
-      <c r="B84" s="55">
-        <v>1</v>
-      </c>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55" t="s">
-        <v>426</v>
-      </c>
-      <c r="G84" s="55"/>
-      <c r="H84" s="101"/>
-    </row>
-    <row r="85" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="55" t="s">
-        <v>357</v>
-      </c>
-      <c r="B85" s="55">
-        <v>1</v>
-      </c>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="101"/>
-    </row>
-    <row r="86" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="55" t="s">
-        <v>358</v>
-      </c>
-      <c r="B86" s="55">
-        <v>1</v>
-      </c>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="101"/>
-    </row>
-    <row r="87" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="55" t="s">
-        <v>359</v>
-      </c>
-      <c r="B87" s="55">
-        <v>1</v>
-      </c>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="101"/>
-    </row>
-    <row r="88" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="55" t="s">
-        <v>360</v>
-      </c>
-      <c r="B88" s="55">
-        <v>1</v>
-      </c>
-      <c r="C88" s="55"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="101"/>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="55" t="s">
-        <v>361</v>
-      </c>
-      <c r="B89" s="55">
-        <v>1</v>
-      </c>
-      <c r="C89" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D89" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E89" s="55"/>
-      <c r="F89" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G89" s="55"/>
-      <c r="H89" s="101"/>
-    </row>
-    <row r="90" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="B90" s="55">
-        <v>1</v>
-      </c>
-      <c r="C90" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D90" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E90" s="55"/>
-      <c r="F90" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G90" s="55"/>
-      <c r="H90" s="101"/>
-    </row>
-    <row r="91" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="55" t="s">
-        <v>363</v>
-      </c>
-      <c r="B91" s="55">
-        <v>1</v>
-      </c>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="101"/>
-    </row>
-    <row r="92" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="55" t="s">
-        <v>364</v>
-      </c>
-      <c r="B92" s="55">
-        <v>1</v>
-      </c>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="101"/>
-    </row>
-    <row r="93" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="B93" s="55">
-        <v>1</v>
-      </c>
-      <c r="C93" s="55"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="101"/>
-    </row>
-    <row r="94" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="55" t="s">
-        <v>366</v>
-      </c>
-      <c r="B94" s="55">
-        <v>1</v>
-      </c>
-      <c r="C94" s="55"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="55"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="101"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="54"/>
+      <c r="G94" s="54"/>
+      <c r="H94" s="98"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -13354,318 +13509,318 @@
     <col min="6" max="6" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="56" customFormat="1" ht="94.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
-        <v>475</v>
-      </c>
-      <c r="C1" s="100" t="s">
-        <v>477</v>
-      </c>
-      <c r="D1" s="100" t="s">
-        <v>411</v>
+    <row r="1" spans="1:6" s="55" customFormat="1" ht="94.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1" s="97" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1" s="97" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="88" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>471</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>469</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="88" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>439</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" t="s">
         <v>440</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="109"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="108" t="s">
+        <v>434</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="B3" s="55" t="s">
+      <c r="C7" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="108" t="s">
+        <v>434</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" t="s">
         <v>443</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>474</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D4" s="114" t="s">
-        <v>408</v>
-      </c>
-      <c r="E4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="B5" s="55" t="s">
+      <c r="F8" t="s">
         <v>444</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="108" t="s">
+        <v>434</v>
+      </c>
+      <c r="B9" s="54" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="112" t="s">
-        <v>439</v>
-      </c>
-      <c r="B7" s="55" t="s">
+      <c r="C9" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="108" t="s">
+        <v>434</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>446</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C10" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="108" t="s">
+        <v>434</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="108" t="s">
+        <v>434</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="108" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="54" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="112" t="s">
-        <v>439</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>447</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E8" t="s">
-        <v>448</v>
-      </c>
-      <c r="F8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="112" t="s">
-        <v>439</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>450</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C13" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E13" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="112" t="s">
-        <v>439</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>451</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="109"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="108" t="s">
+        <v>433</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E15" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="112" t="s">
-        <v>439</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="108" t="s">
+        <v>433</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F16" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="112" t="s">
-        <v>439</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>452</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E12" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112" t="s">
-        <v>439</v>
-      </c>
-      <c r="B13" s="55" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="108" t="s">
+        <v>433</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C13" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C17" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E17" t="s">
+        <v>464</v>
+      </c>
+      <c r="F17" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="113"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="112" t="s">
-        <v>438</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>473</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E15" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="108" t="s">
+        <v>433</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E18" t="s">
+        <v>465</v>
+      </c>
+      <c r="F18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="108" t="s">
+        <v>433</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E19" t="s">
+        <v>467</v>
+      </c>
+      <c r="F19" t="s">
         <v>460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="112" t="s">
-        <v>438</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E16" t="s">
-        <v>468</v>
-      </c>
-      <c r="F16" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="112" t="s">
-        <v>438</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E17" t="s">
-        <v>469</v>
-      </c>
-      <c r="F17" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="112" t="s">
-        <v>438</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E18" t="s">
-        <v>470</v>
-      </c>
-      <c r="F18" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="112" t="s">
-        <v>438</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="E19" t="s">
-        <v>472</v>
-      </c>
-      <c r="F19" t="s">
-        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -13688,42 +13843,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="56" t="s">
-        <v>429</v>
+      <c r="B1" s="55" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="109" t="s">
-        <v>436</v>
-      </c>
-      <c r="C2" s="111" t="s">
-        <v>437</v>
+      <c r="B2" s="105" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="108" t="s">
-        <v>434</v>
+      <c r="B4" s="104" t="s">
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="109" t="s">
-        <v>431</v>
+      <c r="B5" s="105" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
-        <v>430</v>
+      <c r="B6" s="106" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lopatkova\SVN\GitHub-UMR\tecto2umr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
@@ -5753,48 +5758,6 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
---&gt; attribute polarity pro ADVS
---&gt; spojit s jenom apod. GRAD
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>if t_lemma jiné</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
---&gt; clausal marker</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>if t_lemma = #Neg</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
 attribute polarity
 </t>
     </r>
@@ -7018,6 +6981,48 @@
       </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if t_lemma = #Neg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; attribute polarity pro ADVS, CONJ
+--&gt; spojit s jenom apod. GRAD
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>if t_lemma jiné</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; clausal marker</t>
     </r>
   </si>
 </sst>
@@ -7817,10 +7822,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Excel Built-in Check Cell" xfId="2"/>
-    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
-    <cellStyle name="Kontrolní buňka" xfId="3" builtinId="23"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8085,28 +8090,28 @@
   <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="41.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="73.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="53.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="59.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="2" width="3.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="41.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="73.7265625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="53.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="23.26953125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="59.7265625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19">
         <v>0</v>
       </c>
@@ -8145,7 +8150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -8167,7 +8172,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>0</v>
       </c>
@@ -8189,7 +8194,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>0</v>
       </c>
@@ -8211,7 +8216,7 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>0</v>
       </c>
@@ -8233,7 +8238,7 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>0</v>
       </c>
@@ -8255,7 +8260,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>0</v>
       </c>
@@ -8271,7 +8276,7 @@
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:13" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="94" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>1</v>
       </c>
@@ -8299,7 +8304,7 @@
       </c>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>2</v>
       </c>
@@ -8327,7 +8332,7 @@
       </c>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>3</v>
       </c>
@@ -8355,7 +8360,7 @@
       </c>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>4</v>
       </c>
@@ -8387,7 +8392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>5</v>
       </c>
@@ -8419,7 +8424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>6</v>
       </c>
@@ -8435,7 +8440,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>7</v>
       </c>
@@ -8463,7 +8468,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>8</v>
       </c>
@@ -8487,7 +8492,7 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>9</v>
       </c>
@@ -8513,7 +8518,7 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>10</v>
       </c>
@@ -8539,7 +8544,7 @@
       </c>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>11</v>
       </c>
@@ -8563,7 +8568,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>12</v>
       </c>
@@ -8587,7 +8592,7 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <v>13</v>
       </c>
@@ -8611,7 +8616,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>14</v>
       </c>
@@ -8635,7 +8640,7 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <v>15</v>
       </c>
@@ -8659,7 +8664,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="19">
         <v>16</v>
       </c>
@@ -8675,7 +8680,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <v>17</v>
       </c>
@@ -8707,7 +8712,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <v>18</v>
       </c>
@@ -8737,7 +8742,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <v>19</v>
       </c>
@@ -8767,7 +8772,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
         <v>20</v>
       </c>
@@ -8797,7 +8802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="19">
         <v>21</v>
       </c>
@@ -8813,7 +8818,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
         <v>22</v>
       </c>
@@ -8839,7 +8844,7 @@
       </c>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
         <v>23</v>
       </c>
@@ -8867,7 +8872,7 @@
       </c>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
         <v>24</v>
       </c>
@@ -8894,7 +8899,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
         <v>25</v>
       </c>
@@ -8918,7 +8923,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
         <v>26</v>
       </c>
@@ -8944,7 +8949,7 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="19">
         <v>27</v>
       </c>
@@ -8960,7 +8965,7 @@
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <v>28</v>
       </c>
@@ -8988,7 +8993,7 @@
       </c>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <v>29</v>
       </c>
@@ -9020,7 +9025,7 @@
       </c>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
         <v>30</v>
       </c>
@@ -9048,7 +9053,7 @@
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
         <v>31</v>
       </c>
@@ -9074,7 +9079,7 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <v>32</v>
       </c>
@@ -9102,7 +9107,7 @@
       </c>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
         <v>33</v>
       </c>
@@ -9130,7 +9135,7 @@
       </c>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <v>34</v>
       </c>
@@ -9160,7 +9165,7 @@
       </c>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>35</v>
       </c>
@@ -9186,7 +9191,7 @@
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
     </row>
-    <row r="43" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
         <v>36</v>
       </c>
@@ -9214,7 +9219,7 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <v>37</v>
       </c>
@@ -9240,7 +9245,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
         <v>38</v>
       </c>
@@ -9264,7 +9269,7 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="19">
         <v>39</v>
       </c>
@@ -9280,7 +9285,7 @@
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
         <v>40</v>
       </c>
@@ -9310,7 +9315,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="126.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13">
         <v>41</v>
       </c>
@@ -9338,7 +9343,7 @@
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
     </row>
-    <row r="49" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
         <v>42</v>
       </c>
@@ -9366,7 +9371,7 @@
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="13">
         <v>43</v>
       </c>
@@ -9390,7 +9395,7 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="19">
         <v>44</v>
       </c>
@@ -9406,7 +9411,7 @@
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
     </row>
-    <row r="52" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A52" s="13">
         <v>45</v>
       </c>
@@ -9436,7 +9441,7 @@
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="19">
         <v>44</v>
       </c>
@@ -9452,7 +9457,7 @@
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
     </row>
-    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="13">
         <v>47</v>
       </c>
@@ -9482,7 +9487,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="13">
         <v>48</v>
       </c>
@@ -9508,7 +9513,7 @@
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:12" ht="300" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="261" x14ac:dyDescent="0.35">
       <c r="A56" s="13">
         <v>49</v>
       </c>
@@ -9527,10 +9532,10 @@
         <v>222</v>
       </c>
       <c r="H56" s="120" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J56" s="26" t="s">
         <v>218</v>
@@ -9538,7 +9543,7 @@
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="13">
         <v>50</v>
       </c>
@@ -9557,7 +9562,7 @@
         <v>207</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="26" t="s">
@@ -9566,7 +9571,7 @@
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="13">
         <v>51</v>
       </c>
@@ -9592,7 +9597,7 @@
       </c>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="42">
         <v>52</v>
       </c>
@@ -9614,7 +9619,7 @@
       <c r="K59" s="42"/>
       <c r="L59" s="42"/>
     </row>
-    <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A60" s="13">
         <v>53</v>
       </c>
@@ -9644,7 +9649,7 @@
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="13">
         <v>54</v>
       </c>
@@ -9672,7 +9677,7 @@
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="406" x14ac:dyDescent="0.35">
       <c r="A62" s="13">
         <v>55</v>
       </c>
@@ -9684,27 +9689,27 @@
         <v>59068</v>
       </c>
       <c r="E62" s="56" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F62" s="69" t="s">
         <v>257</v>
       </c>
       <c r="G62" s="46" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H62" s="74" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>233</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="42">
         <v>56</v>
       </c>
@@ -9728,7 +9733,7 @@
       <c r="K63" s="42"/>
       <c r="L63" s="42"/>
     </row>
-    <row r="64" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A64" s="13">
         <v>57</v>
       </c>
@@ -9744,7 +9749,7 @@
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="46" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H64" s="75" t="s">
         <v>535</v>
@@ -9758,7 +9763,7 @@
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
     </row>
-    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="13">
         <v>58</v>
       </c>
@@ -9774,7 +9779,7 @@
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="47" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H65" s="64"/>
       <c r="I65" s="24" t="s">
@@ -9783,7 +9788,7 @@
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
     </row>
-    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="13">
         <v>59</v>
       </c>
@@ -9799,7 +9804,7 @@
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H66" s="64"/>
       <c r="I66" s="17"/>
@@ -9807,7 +9812,7 @@
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
     </row>
-    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="13">
         <v>60</v>
       </c>
@@ -9825,7 +9830,7 @@
         <v>254</v>
       </c>
       <c r="G67" s="47" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H67" s="64"/>
       <c r="I67" s="24" t="s">
@@ -9835,7 +9840,7 @@
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
     </row>
-    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="13">
         <v>66</v>
       </c>
@@ -9851,7 +9856,7 @@
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="47" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H68" s="64"/>
       <c r="I68" s="24" t="s">
@@ -9861,7 +9866,7 @@
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
     </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="13">
         <v>67</v>
       </c>
@@ -9877,7 +9882,7 @@
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H69" s="64"/>
       <c r="I69" s="45" t="s">
@@ -9887,7 +9892,7 @@
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="13">
         <v>68</v>
       </c>
@@ -9905,7 +9910,7 @@
         <v>254</v>
       </c>
       <c r="G70" s="47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H70" s="64"/>
       <c r="I70" s="17"/>
@@ -9913,7 +9918,7 @@
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
     </row>
-    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="13">
         <v>69</v>
       </c>
@@ -9929,7 +9934,7 @@
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="36" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H71" s="64"/>
       <c r="I71" s="24" t="s">
@@ -9939,7 +9944,7 @@
       <c r="K71" s="22"/>
       <c r="L71" s="22"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="42">
         <v>70</v>
       </c>
@@ -9961,7 +9966,7 @@
       <c r="K72" s="42"/>
       <c r="L72" s="42"/>
     </row>
-    <row r="73" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A73" s="13">
         <v>71</v>
       </c>
@@ -9989,7 +9994,7 @@
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="42">
         <v>72</v>
       </c>
@@ -10011,7 +10016,7 @@
       <c r="K74" s="42"/>
       <c r="L74" s="42"/>
     </row>
-    <row r="75" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="13">
         <v>73</v>
       </c>
@@ -10041,7 +10046,7 @@
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="42">
         <v>74</v>
       </c>
@@ -10063,7 +10068,7 @@
       <c r="K76" s="42"/>
       <c r="L76" s="42"/>
     </row>
-    <row r="77" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A77" s="13">
         <v>75</v>
       </c>
@@ -10075,13 +10080,13 @@
         <v>7505</v>
       </c>
       <c r="E77" s="67" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="F77" s="69" t="s">
         <v>258</v>
       </c>
       <c r="G77" s="72" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H77" s="49" t="s">
         <v>538</v>
@@ -10095,7 +10100,7 @@
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="42">
         <v>76</v>
       </c>
@@ -10119,7 +10124,7 @@
       <c r="K78" s="42"/>
       <c r="L78" s="42"/>
     </row>
-    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="13">
         <v>77</v>
       </c>
@@ -10137,7 +10142,7 @@
         <v>254</v>
       </c>
       <c r="G79" s="68" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H79" s="76"/>
       <c r="I79" s="24" t="s">
@@ -10149,7 +10154,7 @@
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
     </row>
-    <row r="80" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A80" s="13">
         <v>78</v>
       </c>
@@ -10177,7 +10182,7 @@
       <c r="K80" s="22"/>
       <c r="L80" s="22"/>
     </row>
-    <row r="81" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A81" s="13">
         <v>79</v>
       </c>
@@ -10193,7 +10198,7 @@
         <v>391</v>
       </c>
       <c r="G81" s="119" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H81" s="81" t="s">
         <v>473</v>
@@ -10207,7 +10212,7 @@
       <c r="K81" s="24"/>
       <c r="L81" s="22"/>
     </row>
-    <row r="82" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A82" s="13">
         <v>80</v>
       </c>
@@ -10239,7 +10244,7 @@
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
     </row>
-    <row r="83" spans="1:12" ht="315" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A83" s="13">
         <v>81</v>
       </c>
@@ -10251,13 +10256,13 @@
         <v>62978</v>
       </c>
       <c r="E83" s="67" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F83" s="28" t="s">
         <v>258</v>
       </c>
       <c r="G83" s="72" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H83" s="74" t="s">
         <v>268</v>
@@ -10271,7 +10276,7 @@
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="42">
         <v>82</v>
       </c>
@@ -10293,7 +10298,7 @@
       <c r="K84" s="42"/>
       <c r="L84" s="42"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E86" s="89" t="s">
         <v>374</v>
       </c>
@@ -10304,7 +10309,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E87" s="89" t="s">
         <v>375</v>
       </c>
@@ -10315,7 +10320,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E88" s="89" t="s">
         <v>376</v>
       </c>
@@ -10326,7 +10331,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E89" s="89" t="s">
         <v>377</v>
       </c>
@@ -10337,7 +10342,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E90" s="89" t="s">
         <v>378</v>
       </c>
@@ -10348,7 +10353,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E91" s="89" t="s">
         <v>379</v>
       </c>
@@ -10359,7 +10364,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E92" s="89" t="s">
         <v>380</v>
       </c>
@@ -10370,7 +10375,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E93" s="89" t="s">
         <v>381</v>
       </c>
@@ -10381,7 +10386,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E94" s="89" t="s">
         <v>87</v>
       </c>
@@ -10392,7 +10397,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E95" s="89" t="s">
         <v>72</v>
       </c>
@@ -10403,7 +10408,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C96" s="88" t="s">
         <v>371</v>
       </c>
@@ -10417,7 +10422,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:9" x14ac:dyDescent="0.35">
       <c r="E97" s="89" t="s">
         <v>59</v>
       </c>
@@ -10428,7 +10433,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.35">
       <c r="E98" s="89" t="s">
         <v>45</v>
       </c>
@@ -10439,7 +10444,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:9" x14ac:dyDescent="0.35">
       <c r="E99" s="89" t="s">
         <v>22</v>
       </c>
@@ -10450,7 +10455,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C100" s="88" t="s">
         <v>371</v>
       </c>
@@ -10464,7 +10469,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:9" x14ac:dyDescent="0.35">
       <c r="E101" s="89" t="s">
         <v>96</v>
       </c>
@@ -10475,7 +10480,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:9" x14ac:dyDescent="0.35">
       <c r="E102" s="89" t="s">
         <v>65</v>
       </c>
@@ -10486,7 +10491,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:9" x14ac:dyDescent="0.35">
       <c r="E103" s="89" t="s">
         <v>84</v>
       </c>
@@ -10497,7 +10502,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:9" ht="29" x14ac:dyDescent="0.35">
       <c r="C104" s="88" t="s">
         <v>371</v>
       </c>
@@ -10514,7 +10519,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:9" x14ac:dyDescent="0.35">
       <c r="E105" s="89" t="s">
         <v>63</v>
       </c>
@@ -10528,7 +10533,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.35">
       <c r="E106" s="89" t="s">
         <v>30</v>
       </c>
@@ -10539,7 +10544,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:9" x14ac:dyDescent="0.35">
       <c r="E107" s="89" t="s">
         <v>79</v>
       </c>
@@ -10550,10 +10555,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.35">
       <c r="I108" s="63"/>
     </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C109" s="88" t="s">
         <v>371</v>
       </c>
@@ -10565,7 +10570,7 @@
       </c>
       <c r="I109" s="7"/>
     </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C110" s="88" t="s">
         <v>371</v>
       </c>
@@ -10577,7 +10582,7 @@
       </c>
       <c r="I110" s="7"/>
     </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C111" s="88" t="s">
         <v>371</v>
       </c>
@@ -10589,7 +10594,7 @@
       </c>
       <c r="I111" s="7"/>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C112" s="88" t="s">
         <v>371</v>
       </c>
@@ -10601,7 +10606,7 @@
       </c>
       <c r="I112" s="7"/>
     </row>
-    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C113" s="88" t="s">
         <v>371</v>
       </c>
@@ -10613,7 +10618,7 @@
       </c>
       <c r="I113" s="7"/>
     </row>
-    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C114" s="88" t="s">
         <v>371</v>
       </c>
@@ -10625,7 +10630,7 @@
       </c>
       <c r="I114" s="7"/>
     </row>
-    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C115" s="88" t="s">
         <v>371</v>
       </c>
@@ -10637,7 +10642,7 @@
       </c>
       <c r="I115" s="7"/>
     </row>
-    <row r="116" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E116" s="88" t="s">
         <v>152</v>
       </c>
@@ -10651,7 +10656,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C117" s="88" t="s">
         <v>371</v>
       </c>
@@ -10663,7 +10668,7 @@
       </c>
       <c r="I117" s="7"/>
     </row>
-    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C118" s="88" t="s">
         <v>371</v>
       </c>
@@ -10675,11 +10680,11 @@
       </c>
       <c r="I118" s="7"/>
     </row>
-    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C119" s="88"/>
       <c r="E119" s="88"/>
     </row>
-    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C120" s="88" t="s">
         <v>371</v>
       </c>
@@ -10692,7 +10697,7 @@
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
     </row>
-    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C121" s="88" t="s">
         <v>371</v>
       </c>
@@ -10705,7 +10710,7 @@
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
     </row>
-    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C122" s="88" t="s">
         <v>371</v>
       </c>
@@ -10718,7 +10723,7 @@
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
     </row>
-    <row r="123" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C123" s="88" t="s">
         <v>371</v>
       </c>
@@ -10731,7 +10736,7 @@
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
     </row>
-    <row r="124" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C124" s="88" t="s">
         <v>371</v>
       </c>
@@ -10744,12 +10749,12 @@
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
     </row>
-    <row r="125" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C125" s="88"/>
       <c r="E125" s="88"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C126" s="88" t="s">
         <v>371</v>
       </c>
@@ -10763,7 +10768,7 @@
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
     </row>
-    <row r="127" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C127" s="88"/>
       <c r="E127" s="73"/>
       <c r="F127" s="6"/>
@@ -10771,7 +10776,7 @@
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
     </row>
-    <row r="128" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C128" s="88" t="s">
         <v>371</v>
       </c>
@@ -10785,7 +10790,7 @@
       <c r="H128" s="10"/>
       <c r="I128" s="7"/>
     </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C129" s="88" t="s">
         <v>371</v>
       </c>
@@ -10799,7 +10804,7 @@
       <c r="H129" s="10"/>
       <c r="I129" s="7"/>
     </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C130" s="88" t="s">
         <v>371</v>
       </c>
@@ -10813,7 +10818,7 @@
       <c r="H130" s="10"/>
       <c r="I130" s="7"/>
     </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C131" s="88" t="s">
         <v>371</v>
       </c>
@@ -10824,11 +10829,11 @@
         <v>208</v>
       </c>
     </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:9" x14ac:dyDescent="0.35">
       <c r="G132" s="8"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C133" s="90" t="s">
         <v>372</v>
       </c>
@@ -10842,7 +10847,7 @@
       <c r="H133" s="82"/>
       <c r="I133" s="82"/>
     </row>
-    <row r="134" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C134" s="90" t="s">
         <v>372</v>
       </c>
@@ -10856,7 +10861,7 @@
       <c r="H134" s="82"/>
       <c r="I134" s="82"/>
     </row>
-    <row r="135" spans="3:9" s="86" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:9" s="86" customFormat="1" ht="44.5" x14ac:dyDescent="0.35">
       <c r="C135" s="90" t="s">
         <v>372</v>
       </c>
@@ -10871,7 +10876,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C136" s="88" t="s">
         <v>371</v>
       </c>
@@ -10889,7 +10894,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="137" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C137" s="90" t="s">
         <v>372</v>
       </c>
@@ -10903,7 +10908,7 @@
       <c r="H137" s="82"/>
       <c r="I137" s="82"/>
     </row>
-    <row r="138" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C138" s="90" t="s">
         <v>372</v>
       </c>
@@ -10917,7 +10922,7 @@
       <c r="H138" s="82"/>
       <c r="I138" s="82"/>
     </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C139" s="93"/>
       <c r="D139" s="91"/>
       <c r="E139" s="94"/>
@@ -10926,7 +10931,7 @@
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
     </row>
-    <row r="140" spans="3:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:9" s="84" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C140" s="90" t="s">
         <v>372</v>
       </c>
@@ -10940,7 +10945,7 @@
       <c r="H140" s="85"/>
       <c r="I140" s="85"/>
     </row>
-    <row r="141" spans="3:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:9" s="84" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C141" s="88" t="s">
         <v>371</v>
       </c>
@@ -10954,7 +10959,7 @@
       <c r="H141" s="85"/>
       <c r="I141" s="85"/>
     </row>
-    <row r="142" spans="3:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:9" s="84" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C142" s="88" t="s">
         <v>371</v>
       </c>
@@ -10968,38 +10973,38 @@
       <c r="H142" s="85"/>
       <c r="I142" s="85"/>
     </row>
-    <row r="143" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:9" x14ac:dyDescent="0.35">
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
     </row>
-    <row r="144" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:9" x14ac:dyDescent="0.35">
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
       <c r="I144" s="7"/>
     </row>
-    <row r="145" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
       <c r="I145" s="7"/>
     </row>
-    <row r="146" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
       <c r="I146" s="7"/>
     </row>
-    <row r="147" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E147" s="1"/>
       <c r="G147" s="10"/>
     </row>
-    <row r="148" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E148" s="1"/>
       <c r="G148" s="10"/>
     </row>
@@ -11021,15 +11026,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="58.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="98"/>
       <c r="B1" s="55" t="s">
         <v>227</v>
@@ -11042,7 +11047,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11050,7 +11055,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11058,7 +11063,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11066,7 +11071,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11074,7 +11079,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -11082,7 +11087,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -11090,7 +11095,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -11105,7 +11110,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -11113,7 +11118,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -11121,10 +11126,10 @@
         <v>509</v>
       </c>
       <c r="D10" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -11132,7 +11137,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -11140,7 +11145,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -11151,7 +11156,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -11159,7 +11164,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -11167,7 +11172,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -11175,7 +11180,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -11186,7 +11191,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -11194,7 +11199,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -11202,12 +11207,12 @@
         <v>518</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -11216,7 +11221,7 @@
       </c>
       <c r="C21" s="115"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -11227,7 +11232,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -11238,7 +11243,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -11249,7 +11254,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -11260,7 +11265,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -11271,7 +11276,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -11282,7 +11287,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -11293,7 +11298,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -11304,7 +11309,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -11315,7 +11320,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -11326,7 +11331,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -11337,7 +11342,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -11359,33 +11364,33 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
     <col min="8" max="8" width="3" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="5"/>
-    <col min="10" max="10" width="18.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="5"/>
-    <col min="13" max="13" width="2.85546875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="5"/>
-    <col min="15" max="15" width="16.7109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="5"/>
-    <col min="18" max="18" width="2.85546875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" style="5"/>
-    <col min="20" max="20" width="14.140625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="8.7109375" style="1"/>
+    <col min="9" max="9" width="8.7265625" style="5"/>
+    <col min="10" max="10" width="18.453125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="6.1796875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="5"/>
+    <col min="13" max="13" width="2.81640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="5"/>
+    <col min="15" max="15" width="16.7265625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="6.1796875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" style="5"/>
+    <col min="18" max="18" width="2.81640625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="8.7265625" style="5"/>
+    <col min="20" max="20" width="14.1796875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="6.26953125" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="54" customFormat="1" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="54" customFormat="1" ht="73.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="114" t="s">
         <v>420</v>
       </c>
@@ -11422,7 +11427,7 @@
       </c>
       <c r="U1" s="114"/>
     </row>
-    <row r="2" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="54" t="s">
         <v>269</v>
       </c>
@@ -11462,7 +11467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="54" t="s">
         <v>270</v>
       </c>
@@ -11502,7 +11507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="54" t="s">
         <v>271</v>
       </c>
@@ -11542,7 +11547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="54" t="s">
         <v>272</v>
       </c>
@@ -11581,7 +11586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="54" t="s">
         <v>273</v>
       </c>
@@ -11621,7 +11626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="54" t="s">
         <v>274</v>
       </c>
@@ -11661,7 +11666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="54" t="s">
         <v>275</v>
       </c>
@@ -11701,7 +11706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="54" t="s">
         <v>276</v>
       </c>
@@ -11741,7 +11746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="54" t="s">
         <v>277</v>
       </c>
@@ -11775,7 +11780,7 @@
       </c>
       <c r="R10" s="112"/>
     </row>
-    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="54" t="s">
         <v>278</v>
       </c>
@@ -11809,7 +11814,7 @@
       </c>
       <c r="R11" s="112"/>
     </row>
-    <row r="12" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="54" t="s">
         <v>279</v>
       </c>
@@ -11843,7 +11848,7 @@
       </c>
       <c r="R12" s="112"/>
     </row>
-    <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="54" t="s">
         <v>280</v>
       </c>
@@ -11877,7 +11882,7 @@
       </c>
       <c r="R13" s="112"/>
     </row>
-    <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="54" t="s">
         <v>281</v>
       </c>
@@ -11911,7 +11916,7 @@
       </c>
       <c r="R14" s="112"/>
     </row>
-    <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="54" t="s">
         <v>282</v>
       </c>
@@ -11945,7 +11950,7 @@
       </c>
       <c r="R15" s="112"/>
     </row>
-    <row r="16" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="54" t="s">
         <v>283</v>
       </c>
@@ -11979,7 +11984,7 @@
       </c>
       <c r="R16" s="112"/>
     </row>
-    <row r="17" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="54" t="s">
         <v>284</v>
       </c>
@@ -12013,7 +12018,7 @@
       </c>
       <c r="R17" s="112"/>
     </row>
-    <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="54" t="s">
         <v>285</v>
       </c>
@@ -12047,7 +12052,7 @@
       </c>
       <c r="R18" s="112"/>
     </row>
-    <row r="19" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="54" t="s">
         <v>286</v>
       </c>
@@ -12081,7 +12086,7 @@
       </c>
       <c r="R19" s="112"/>
     </row>
-    <row r="20" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="54" t="s">
         <v>287</v>
       </c>
@@ -12115,7 +12120,7 @@
       </c>
       <c r="R20" s="112"/>
     </row>
-    <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="54" t="s">
         <v>288</v>
       </c>
@@ -12149,7 +12154,7 @@
       </c>
       <c r="R21" s="112"/>
     </row>
-    <row r="22" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="54" t="s">
         <v>289</v>
       </c>
@@ -12183,7 +12188,7 @@
       </c>
       <c r="R22" s="112"/>
     </row>
-    <row r="23" spans="1:18" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="18.649999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="54" t="s">
         <v>290</v>
       </c>
@@ -12212,7 +12217,7 @@
       </c>
       <c r="R23" s="112"/>
     </row>
-    <row r="24" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="54" t="s">
         <v>291</v>
       </c>
@@ -12246,7 +12251,7 @@
       </c>
       <c r="R24" s="112"/>
     </row>
-    <row r="25" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="54" t="s">
         <v>292</v>
       </c>
@@ -12280,7 +12285,7 @@
       </c>
       <c r="R25" s="112"/>
     </row>
-    <row r="26" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="54" t="s">
         <v>293</v>
       </c>
@@ -12314,7 +12319,7 @@
       </c>
       <c r="R26" s="112"/>
     </row>
-    <row r="27" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="54" t="s">
         <v>294</v>
       </c>
@@ -12348,7 +12353,7 @@
       </c>
       <c r="R27" s="112"/>
     </row>
-    <row r="28" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="54" t="s">
         <v>295</v>
       </c>
@@ -12382,7 +12387,7 @@
       </c>
       <c r="R28" s="112"/>
     </row>
-    <row r="29" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="54" t="s">
         <v>296</v>
       </c>
@@ -12416,7 +12421,7 @@
       </c>
       <c r="R29" s="112"/>
     </row>
-    <row r="30" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="54" t="s">
         <v>297</v>
       </c>
@@ -12452,7 +12457,7 @@
       </c>
       <c r="R30" s="112"/>
     </row>
-    <row r="31" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="54" t="s">
         <v>298</v>
       </c>
@@ -12481,7 +12486,7 @@
       </c>
       <c r="R31" s="112"/>
     </row>
-    <row r="32" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="54" t="s">
         <v>299</v>
       </c>
@@ -12515,7 +12520,7 @@
       </c>
       <c r="R32" s="112"/>
     </row>
-    <row r="33" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="54" t="s">
         <v>300</v>
       </c>
@@ -12549,7 +12554,7 @@
       </c>
       <c r="R33" s="112"/>
     </row>
-    <row r="34" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="54" t="s">
         <v>301</v>
       </c>
@@ -12579,7 +12584,7 @@
       </c>
       <c r="R34" s="112"/>
     </row>
-    <row r="35" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="54" t="s">
         <v>302</v>
       </c>
@@ -12602,7 +12607,7 @@
       </c>
       <c r="R35" s="112"/>
     </row>
-    <row r="36" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="54" t="s">
         <v>303</v>
       </c>
@@ -12617,7 +12622,7 @@
       <c r="G36" s="54"/>
       <c r="H36" s="98"/>
     </row>
-    <row r="37" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="54" t="s">
         <v>304</v>
       </c>
@@ -12637,7 +12642,7 @@
       <c r="H37" s="98"/>
       <c r="O37" s="113"/>
     </row>
-    <row r="38" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="54" t="s">
         <v>305</v>
       </c>
@@ -12659,7 +12664,7 @@
       <c r="G38" s="54"/>
       <c r="H38" s="98"/>
     </row>
-    <row r="39" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="54" t="s">
         <v>306</v>
       </c>
@@ -12676,7 +12681,7 @@
       <c r="G39" s="54"/>
       <c r="H39" s="98"/>
     </row>
-    <row r="40" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="54" t="s">
         <v>307</v>
       </c>
@@ -12693,7 +12698,7 @@
       <c r="G40" s="54"/>
       <c r="H40" s="98"/>
     </row>
-    <row r="41" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="54" t="s">
         <v>308</v>
       </c>
@@ -12712,7 +12717,7 @@
       <c r="G41" s="54"/>
       <c r="H41" s="98"/>
     </row>
-    <row r="42" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="54" t="s">
         <v>309</v>
       </c>
@@ -12732,7 +12737,7 @@
       <c r="G42" s="54"/>
       <c r="H42" s="98"/>
     </row>
-    <row r="43" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="54" t="s">
         <v>310</v>
       </c>
@@ -12752,7 +12757,7 @@
       <c r="G43" s="54"/>
       <c r="H43" s="98"/>
     </row>
-    <row r="44" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="54" t="s">
         <v>311</v>
       </c>
@@ -12771,7 +12776,7 @@
       <c r="G44" s="54"/>
       <c r="H44" s="98"/>
     </row>
-    <row r="45" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="54" t="s">
         <v>312</v>
       </c>
@@ -12788,7 +12793,7 @@
       <c r="G45" s="54"/>
       <c r="H45" s="98"/>
     </row>
-    <row r="46" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="54" t="s">
         <v>313</v>
       </c>
@@ -12807,7 +12812,7 @@
       <c r="G46" s="54"/>
       <c r="H46" s="98"/>
     </row>
-    <row r="47" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="54" t="s">
         <v>314</v>
       </c>
@@ -12822,7 +12827,7 @@
       <c r="G47" s="54"/>
       <c r="H47" s="98"/>
     </row>
-    <row r="48" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="54" t="s">
         <v>315</v>
       </c>
@@ -12842,7 +12847,7 @@
       <c r="G48" s="54"/>
       <c r="H48" s="98"/>
     </row>
-    <row r="49" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="54" t="s">
         <v>316</v>
       </c>
@@ -12862,7 +12867,7 @@
       <c r="G49" s="54"/>
       <c r="H49" s="98"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="54" t="s">
         <v>317</v>
       </c>
@@ -12882,7 +12887,7 @@
       <c r="G50" s="54"/>
       <c r="H50" s="98"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="54" t="s">
         <v>318</v>
       </c>
@@ -12902,7 +12907,7 @@
       <c r="G51" s="54"/>
       <c r="H51" s="98"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="54" t="s">
         <v>319</v>
       </c>
@@ -12915,7 +12920,7 @@
       <c r="G52" s="54"/>
       <c r="H52" s="98"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="54" t="s">
         <v>320</v>
       </c>
@@ -12928,7 +12933,7 @@
       <c r="G53" s="54"/>
       <c r="H53" s="98"/>
     </row>
-    <row r="54" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="54" t="s">
         <v>321</v>
       </c>
@@ -12941,7 +12946,7 @@
       <c r="G54" s="54"/>
       <c r="H54" s="98"/>
     </row>
-    <row r="55" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="54" t="s">
         <v>322</v>
       </c>
@@ -12954,7 +12959,7 @@
       <c r="G55" s="54"/>
       <c r="H55" s="98"/>
     </row>
-    <row r="56" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="54" t="s">
         <v>323</v>
       </c>
@@ -12967,7 +12972,7 @@
       <c r="G56" s="54"/>
       <c r="H56" s="98"/>
     </row>
-    <row r="57" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="54" t="s">
         <v>324</v>
       </c>
@@ -12980,7 +12985,7 @@
       <c r="G57" s="54"/>
       <c r="H57" s="98"/>
     </row>
-    <row r="58" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="54" t="s">
         <v>325</v>
       </c>
@@ -12993,7 +12998,7 @@
       <c r="G58" s="54"/>
       <c r="H58" s="98"/>
     </row>
-    <row r="59" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="54" t="s">
         <v>326</v>
       </c>
@@ -13006,7 +13011,7 @@
       <c r="G59" s="54"/>
       <c r="H59" s="98"/>
     </row>
-    <row r="60" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="54" t="s">
         <v>327</v>
       </c>
@@ -13019,7 +13024,7 @@
       <c r="G60" s="54"/>
       <c r="H60" s="98"/>
     </row>
-    <row r="61" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="54" t="s">
         <v>328</v>
       </c>
@@ -13032,7 +13037,7 @@
       <c r="G61" s="54"/>
       <c r="H61" s="98"/>
     </row>
-    <row r="62" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="54" t="s">
         <v>329</v>
       </c>
@@ -13045,7 +13050,7 @@
       <c r="G62" s="54"/>
       <c r="H62" s="98"/>
     </row>
-    <row r="63" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="54" t="s">
         <v>330</v>
       </c>
@@ -13058,7 +13063,7 @@
       <c r="G63" s="54"/>
       <c r="H63" s="98"/>
     </row>
-    <row r="64" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="54" t="s">
         <v>331</v>
       </c>
@@ -13071,7 +13076,7 @@
       <c r="G64" s="54"/>
       <c r="H64" s="98"/>
     </row>
-    <row r="65" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="54" t="s">
         <v>332</v>
       </c>
@@ -13084,7 +13089,7 @@
       <c r="G65" s="54"/>
       <c r="H65" s="98"/>
     </row>
-    <row r="66" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="54" t="s">
         <v>333</v>
       </c>
@@ -13097,7 +13102,7 @@
       <c r="G66" s="54"/>
       <c r="H66" s="98"/>
     </row>
-    <row r="67" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="54" t="s">
         <v>334</v>
       </c>
@@ -13110,7 +13115,7 @@
       <c r="G67" s="54"/>
       <c r="H67" s="98"/>
     </row>
-    <row r="68" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="54" t="s">
         <v>335</v>
       </c>
@@ -13123,7 +13128,7 @@
       <c r="G68" s="54"/>
       <c r="H68" s="98"/>
     </row>
-    <row r="69" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="54" t="s">
         <v>336</v>
       </c>
@@ -13136,7 +13141,7 @@
       <c r="G69" s="54"/>
       <c r="H69" s="98"/>
     </row>
-    <row r="70" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="54" t="s">
         <v>337</v>
       </c>
@@ -13149,7 +13154,7 @@
       <c r="G70" s="54"/>
       <c r="H70" s="98"/>
     </row>
-    <row r="71" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="54" t="s">
         <v>338</v>
       </c>
@@ -13162,7 +13167,7 @@
       <c r="G71" s="54"/>
       <c r="H71" s="98"/>
     </row>
-    <row r="72" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="54" t="s">
         <v>339</v>
       </c>
@@ -13175,7 +13180,7 @@
       <c r="G72" s="54"/>
       <c r="H72" s="98"/>
     </row>
-    <row r="73" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="54" t="s">
         <v>340</v>
       </c>
@@ -13188,7 +13193,7 @@
       <c r="G73" s="54"/>
       <c r="H73" s="98"/>
     </row>
-    <row r="74" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="54" t="s">
         <v>341</v>
       </c>
@@ -13201,7 +13206,7 @@
       <c r="G74" s="54"/>
       <c r="H74" s="98"/>
     </row>
-    <row r="75" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="54" t="s">
         <v>342</v>
       </c>
@@ -13214,7 +13219,7 @@
       <c r="G75" s="54"/>
       <c r="H75" s="98"/>
     </row>
-    <row r="76" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="54" t="s">
         <v>343</v>
       </c>
@@ -13227,7 +13232,7 @@
       <c r="G76" s="54"/>
       <c r="H76" s="98"/>
     </row>
-    <row r="77" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="54" t="s">
         <v>344</v>
       </c>
@@ -13240,7 +13245,7 @@
       <c r="G77" s="54"/>
       <c r="H77" s="98"/>
     </row>
-    <row r="78" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="54" t="s">
         <v>345</v>
       </c>
@@ -13253,7 +13258,7 @@
       <c r="G78" s="54"/>
       <c r="H78" s="98"/>
     </row>
-    <row r="79" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="54" t="s">
         <v>346</v>
       </c>
@@ -13266,7 +13271,7 @@
       <c r="G79" s="54"/>
       <c r="H79" s="98"/>
     </row>
-    <row r="80" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="54" t="s">
         <v>347</v>
       </c>
@@ -13279,7 +13284,7 @@
       <c r="G80" s="54"/>
       <c r="H80" s="98"/>
     </row>
-    <row r="81" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="54" t="s">
         <v>348</v>
       </c>
@@ -13292,7 +13297,7 @@
       <c r="G81" s="54"/>
       <c r="H81" s="98"/>
     </row>
-    <row r="82" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="54" t="s">
         <v>349</v>
       </c>
@@ -13305,7 +13310,7 @@
       <c r="G82" s="54"/>
       <c r="H82" s="98"/>
     </row>
-    <row r="83" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="54" t="s">
         <v>350</v>
       </c>
@@ -13325,7 +13330,7 @@
       <c r="G83" s="54"/>
       <c r="H83" s="98"/>
     </row>
-    <row r="84" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="54" t="s">
         <v>351</v>
       </c>
@@ -13340,7 +13345,7 @@
       <c r="G84" s="54"/>
       <c r="H84" s="98"/>
     </row>
-    <row r="85" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="54" t="s">
         <v>352</v>
       </c>
@@ -13353,7 +13358,7 @@
       <c r="G85" s="54"/>
       <c r="H85" s="98"/>
     </row>
-    <row r="86" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="54" t="s">
         <v>353</v>
       </c>
@@ -13366,7 +13371,7 @@
       <c r="G86" s="54"/>
       <c r="H86" s="98"/>
     </row>
-    <row r="87" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="54" t="s">
         <v>354</v>
       </c>
@@ -13379,7 +13384,7 @@
       <c r="G87" s="54"/>
       <c r="H87" s="98"/>
     </row>
-    <row r="88" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="54" t="s">
         <v>355</v>
       </c>
@@ -13392,7 +13397,7 @@
       <c r="G88" s="54"/>
       <c r="H88" s="98"/>
     </row>
-    <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="54" t="s">
         <v>356</v>
       </c>
@@ -13412,7 +13417,7 @@
       <c r="G89" s="54"/>
       <c r="H89" s="98"/>
     </row>
-    <row r="90" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="54" t="s">
         <v>357</v>
       </c>
@@ -13432,7 +13437,7 @@
       <c r="G90" s="54"/>
       <c r="H90" s="98"/>
     </row>
-    <row r="91" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="54" t="s">
         <v>358</v>
       </c>
@@ -13445,7 +13450,7 @@
       <c r="G91" s="54"/>
       <c r="H91" s="98"/>
     </row>
-    <row r="92" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="54" t="s">
         <v>359</v>
       </c>
@@ -13458,7 +13463,7 @@
       <c r="G92" s="54"/>
       <c r="H92" s="98"/>
     </row>
-    <row r="93" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="54" t="s">
         <v>360</v>
       </c>
@@ -13471,7 +13476,7 @@
       <c r="G93" s="54"/>
       <c r="H93" s="98"/>
     </row>
-    <row r="94" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="54" t="s">
         <v>361</v>
       </c>
@@ -13484,7 +13489,7 @@
       <c r="G94" s="54"/>
       <c r="H94" s="98"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13499,17 +13504,17 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="6" max="6" width="34.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" ht="94.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="55" customFormat="1" ht="94.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="55" t="s">
         <v>470</v>
       </c>
@@ -13520,7 +13525,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="88" t="s">
         <v>471</v>
       </c>
@@ -13537,7 +13542,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="88" t="s">
         <v>471</v>
       </c>
@@ -13554,7 +13559,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="88" t="s">
         <v>471</v>
       </c>
@@ -13571,7 +13576,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="88" t="s">
         <v>471</v>
       </c>
@@ -13588,7 +13593,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="109"/>
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
@@ -13596,7 +13601,7 @@
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A7" s="108" t="s">
         <v>434</v>
       </c>
@@ -13613,7 +13618,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="108" t="s">
         <v>434</v>
       </c>
@@ -13633,7 +13638,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="108" t="s">
         <v>434</v>
       </c>
@@ -13650,7 +13655,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="108" t="s">
         <v>434</v>
       </c>
@@ -13667,7 +13672,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="108" t="s">
         <v>434</v>
       </c>
@@ -13684,7 +13689,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="108" t="s">
         <v>434</v>
       </c>
@@ -13701,7 +13706,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="108" t="s">
         <v>434</v>
       </c>
@@ -13718,7 +13723,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="109"/>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
@@ -13726,7 +13731,7 @@
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" s="108" t="s">
         <v>433</v>
       </c>
@@ -13743,7 +13748,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="108" t="s">
         <v>433</v>
       </c>
@@ -13763,7 +13768,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="108" t="s">
         <v>433</v>
       </c>
@@ -13783,7 +13788,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="108" t="s">
         <v>433</v>
       </c>
@@ -13803,7 +13808,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="108" t="s">
         <v>433</v>
       </c>
@@ -13836,18 +13841,18 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="74.140625" customWidth="1"/>
+    <col min="2" max="2" width="74.1796875" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="55" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="145.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B2" s="105" t="s">
         <v>431</v>
       </c>
@@ -13855,7 +13860,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>430</v>
       </c>
@@ -13863,7 +13868,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="104" t="s">
         <v>429</v>
       </c>
@@ -13871,12 +13876,12 @@
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="105" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="106" t="s">
         <v>425</v>
       </c>
@@ -13895,172 +13900,172 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="147.140625" customWidth="1"/>
+    <col min="1" max="1" width="147.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>202</v>
       </c>

--- a/tecto2umr/pdt-c-functors-to-args.xlsx
+++ b/tecto2umr/pdt-c-functors-to-args.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="562">
   <si>
     <t xml:space="preserve">HŠ</t>
   </si>
@@ -630,6 +630,9 @@
   </si>
   <si>
     <t xml:space="preserve">TSIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199c10196d1808439360e7a9bdad317716ea35b5</t>
   </si>
   <si>
     <t xml:space="preserve">TTILL</t>
@@ -8300,9 +8303,9 @@
   <dimension ref="A1:N148"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="M31" activeCellId="0" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8874,7 +8877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="n">
         <v>14</v>
       </c>
@@ -8890,7 +8893,7 @@
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="21" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="16"/>
@@ -8907,7 +8910,7 @@
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" s="14" t="n">
         <v>3411</v>
@@ -8945,36 +8948,36 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="n">
         <v>17</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="14" t="n">
         <v>17394</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="21" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K24" s="17" t="s">
         <v>29</v>
       </c>
       <c r="L24" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M24" s="23" t="s">
         <v>21</v>
@@ -8986,13 +8989,13 @@
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" s="14" t="n">
         <v>1590</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="12" t="s">
@@ -9000,14 +9003,14 @@
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M25" s="23" t="s">
         <v>21</v>
@@ -9019,13 +9022,13 @@
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" s="14" t="n">
         <v>28167</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="21" t="s">
@@ -9033,14 +9036,14 @@
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L26" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M26" s="23" t="s">
         <v>21</v>
@@ -9052,13 +9055,13 @@
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="14" t="n">
         <v>79877</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="21" t="s">
@@ -9066,14 +9069,14 @@
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M27" s="23" t="s">
         <v>21</v>
@@ -9102,11 +9105,11 @@
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="21" t="s">
@@ -9114,11 +9117,11 @@
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="23" t="s">
@@ -9131,13 +9134,13 @@
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="14" t="n">
         <v>10757</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="21" t="s">
@@ -9145,11 +9148,11 @@
       </c>
       <c r="H30" s="21"/>
       <c r="I30" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J30" s="29"/>
       <c r="K30" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="23" t="s">
@@ -9162,23 +9165,23 @@
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D31" s="14" t="n">
         <v>2713</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
@@ -9190,17 +9193,17 @@
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D32" s="14" t="n">
         <v>7375</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="18"/>
@@ -9217,13 +9220,13 @@
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D33" s="14" t="n">
         <v>2921</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="21" t="s">
@@ -9231,7 +9234,7 @@
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="17"/>
@@ -9263,13 +9266,13 @@
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35" s="14" t="n">
         <v>12042</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="21" t="s">
@@ -9277,11 +9280,11 @@
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="23" t="s">
@@ -9294,13 +9297,13 @@
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36" s="14" t="n">
         <v>7271</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>36</v>
@@ -9310,13 +9313,13 @@
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
@@ -9327,13 +9330,13 @@
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D37" s="14" t="n">
         <v>4932</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F37" s="25" t="s">
         <v>36</v>
@@ -9342,7 +9345,7 @@
         <v>45</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I37" s="16"/>
       <c r="J37" s="26"/>
@@ -9356,13 +9359,13 @@
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D38" s="14" t="n">
         <v>6449</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="21" t="s">
@@ -9370,7 +9373,7 @@
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="17"/>
@@ -9385,13 +9388,13 @@
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D39" s="14" t="n">
         <v>35669</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="21" t="s">
@@ -9399,11 +9402,11 @@
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="23" t="s">
@@ -9416,13 +9419,13 @@
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D40" s="14" t="n">
         <v>31911</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="21" t="s">
@@ -9430,11 +9433,11 @@
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L40" s="17"/>
       <c r="M40" s="23" t="s">
@@ -9447,13 +9450,13 @@
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D41" s="14" t="n">
         <v>8718</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="21" t="s">
@@ -9461,13 +9464,13 @@
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K41" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="J41" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>110</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="23" t="s">
@@ -9480,13 +9483,13 @@
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D42" s="38" t="n">
         <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F42" s="39"/>
       <c r="G42" s="36" t="s">
@@ -9494,7 +9497,7 @@
       </c>
       <c r="H42" s="36"/>
       <c r="I42" s="36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J42" s="39"/>
       <c r="K42" s="36"/>
@@ -9507,22 +9510,22 @@
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D43" s="14" t="n">
         <v>10752</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F43" s="29" t="s">
         <v>36</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="26"/>
@@ -9536,19 +9539,19 @@
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D44" s="14" t="n">
         <v>1617</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="16"/>
@@ -9565,17 +9568,17 @@
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D45" s="14" t="n">
         <v>1488</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="18"/>
@@ -9609,13 +9612,13 @@
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D47" s="14" t="n">
         <v>15359</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="21" t="s">
@@ -9623,14 +9626,14 @@
       </c>
       <c r="H47" s="21"/>
       <c r="I47" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M47" s="23" t="s">
         <v>21</v>
@@ -9642,23 +9645,23 @@
       </c>
       <c r="B48" s="42"/>
       <c r="C48" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D48" s="14" t="n">
         <v>656</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H48" s="44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I48" s="45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="17"/>
@@ -9671,7 +9674,7 @@
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D49" s="14" t="n">
         <v>142</v>
@@ -9685,10 +9688,10 @@
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
@@ -9702,17 +9705,17 @@
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D50" s="14" t="n">
         <v>989</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="18"/>
@@ -9746,26 +9749,26 @@
       </c>
       <c r="B52" s="42"/>
       <c r="C52" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D52" s="14" t="n">
         <v>7069</v>
       </c>
       <c r="E52" s="44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H52" s="44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I52" s="46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K52" s="17"/>
       <c r="L52" s="17"/>
@@ -9794,13 +9797,13 @@
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D54" s="14" t="n">
         <v>30097</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="12" t="s">
@@ -9809,13 +9812,13 @@
       <c r="H54" s="12"/>
       <c r="I54" s="16"/>
       <c r="J54" s="24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K54" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M54" s="23" t="s">
         <v>21</v>
@@ -9827,7 +9830,7 @@
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D55" s="14" t="n">
         <v>781</v>
@@ -9841,7 +9844,7 @@
       </c>
       <c r="H55" s="21"/>
       <c r="I55" s="32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="17"/>
@@ -9856,26 +9859,26 @@
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D56" s="14" t="n">
         <v>38823</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H56" s="44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
@@ -9887,24 +9890,24 @@
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D57" s="14" t="n">
         <v>5268</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="12" t="s">
         <v>45</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I57" s="16"/>
       <c r="J57" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
@@ -9918,13 +9921,13 @@
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D58" s="14" t="n">
         <v>493996</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="12" t="s">
@@ -9934,7 +9937,7 @@
       <c r="I58" s="18"/>
       <c r="J58" s="12"/>
       <c r="K58" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L58" s="17"/>
       <c r="M58" s="23" t="s">
@@ -9947,13 +9950,13 @@
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D59" s="50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E59" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="48"/>
@@ -9970,26 +9973,26 @@
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D60" s="14" t="n">
         <v>8959</v>
       </c>
       <c r="E60" s="46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G60" s="52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
@@ -10003,24 +10006,24 @@
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D61" s="14" t="n">
         <v>5141</v>
       </c>
       <c r="E61" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G61" s="52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H61" s="21"/>
       <c r="I61" s="16"/>
       <c r="J61" s="24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
@@ -10034,28 +10037,28 @@
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D62" s="14" t="n">
         <v>59068</v>
       </c>
       <c r="E62" s="53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G62" s="54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H62" s="44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I62" s="55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J62" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K62" s="17"/>
       <c r="L62" s="17"/>
@@ -10067,20 +10070,20 @@
       </c>
       <c r="B63" s="48"/>
       <c r="C63" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D63" s="50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E63" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="48"/>
       <c r="H63" s="48"/>
       <c r="I63" s="48"/>
       <c r="J63" s="48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K63" s="48"/>
       <c r="L63" s="48"/>
@@ -10092,26 +10095,26 @@
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D64" s="14" t="n">
         <v>7134</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I64" s="55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J64" s="24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K64" s="17"/>
       <c r="L64" s="17"/>
@@ -10125,21 +10128,21 @@
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="45" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D65" s="14" t="n">
         <v>99</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F65" s="29"/>
       <c r="G65" s="31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H65" s="34"/>
       <c r="I65" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
@@ -10153,17 +10156,17 @@
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D66" s="14" t="n">
         <v>76346</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H66" s="34"/>
       <c r="I66" s="16"/>
@@ -10180,23 +10183,23 @@
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D67" s="56" t="n">
         <v>211</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G67" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H67" s="34"/>
       <c r="I67" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J67" s="41"/>
       <c r="K67" s="17"/>
@@ -10211,21 +10214,21 @@
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="14" t="n">
         <v>3054</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H68" s="34"/>
       <c r="I68" s="21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J68" s="12"/>
       <c r="K68" s="17"/>
@@ -10240,21 +10243,21 @@
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="14" t="n">
         <v>4122</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H69" s="34"/>
       <c r="I69" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J69" s="57"/>
       <c r="K69" s="17"/>
@@ -10269,19 +10272,19 @@
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="56" t="n">
         <v>1346</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F70" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G70" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H70" s="34"/>
       <c r="I70" s="16"/>
@@ -10298,21 +10301,21 @@
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="14" t="n">
         <v>491</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H71" s="34"/>
       <c r="I71" s="21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J71" s="57"/>
       <c r="K71" s="17"/>
@@ -10327,13 +10330,13 @@
       </c>
       <c r="B72" s="48"/>
       <c r="C72" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D72" s="50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E72" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F72" s="51"/>
       <c r="G72" s="48"/>
@@ -10350,24 +10353,24 @@
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D73" s="14" t="n">
         <v>18512</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H73" s="53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I73" s="16"/>
       <c r="J73" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
@@ -10379,13 +10382,13 @@
       </c>
       <c r="B74" s="48"/>
       <c r="C74" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D74" s="50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E74" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F74" s="51"/>
       <c r="G74" s="48"/>
@@ -10402,26 +10405,26 @@
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D75" s="14" t="n">
         <v>5006</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H75" s="31"/>
       <c r="I75" s="21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J75" s="24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K75" s="17"/>
       <c r="L75" s="17"/>
@@ -10435,13 +10438,13 @@
       </c>
       <c r="B76" s="48"/>
       <c r="C76" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D76" s="50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E76" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F76" s="51"/>
       <c r="G76" s="48"/>
@@ -10458,28 +10461,28 @@
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D77" s="14" t="n">
         <v>7505</v>
       </c>
       <c r="E77" s="53" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G77" s="58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H77" s="59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I77" s="60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K77" s="17"/>
       <c r="L77" s="17"/>
@@ -10491,17 +10494,17 @@
       </c>
       <c r="B78" s="48"/>
       <c r="C78" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D78" s="50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E78" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F78" s="51"/>
       <c r="G78" s="48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H78" s="48"/>
       <c r="I78" s="48"/>
@@ -10516,26 +10519,26 @@
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="14" t="n">
         <v>7403</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>36</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H79" s="61"/>
       <c r="I79" s="21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J79" s="62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K79" s="17"/>
       <c r="L79" s="17"/>
@@ -10547,23 +10550,23 @@
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="14" t="n">
         <v>1199</v>
       </c>
       <c r="E80" s="62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F80" s="29"/>
       <c r="G80" s="63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H80" s="26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J80" s="26"/>
       <c r="K80" s="17"/>
@@ -10576,26 +10579,26 @@
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G81" s="65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H81" s="44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I81" s="26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K81" s="21"/>
       <c r="L81" s="17"/>
@@ -10607,28 +10610,28 @@
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="14" t="n">
         <v>17898</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F82" s="29" t="s">
         <v>36</v>
       </c>
       <c r="G82" s="65" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H82" s="44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I82" s="46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K82" s="17"/>
       <c r="L82" s="17"/>
@@ -10640,28 +10643,28 @@
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D83" s="14" t="n">
         <v>62978</v>
       </c>
       <c r="E83" s="53" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G83" s="58" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H83" s="59" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I83" s="46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J83" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K83" s="17"/>
       <c r="L83" s="17"/>
@@ -10673,13 +10676,13 @@
       </c>
       <c r="B84" s="48"/>
       <c r="C84" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D84" s="50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E84" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F84" s="51"/>
       <c r="G84" s="48"/>
@@ -10692,10 +10695,10 @@
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="66" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F86" s="67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G86" s="68" t="s">
         <v>19</v>
@@ -10703,10 +10706,10 @@
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="F87" s="67" t="s">
         <v>253</v>
-      </c>
-      <c r="F87" s="67" t="s">
-        <v>252</v>
       </c>
       <c r="G87" s="68" t="s">
         <v>19</v>
@@ -10714,10 +10717,10 @@
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="66" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F88" s="67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G88" s="68" t="s">
         <v>19</v>
@@ -10725,10 +10728,10 @@
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F89" s="67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G89" s="68" t="s">
         <v>19</v>
@@ -10736,10 +10739,10 @@
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="66" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F90" s="67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G90" s="68" t="s">
         <v>19</v>
@@ -10747,10 +10750,10 @@
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F91" s="67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G91" s="68" t="s">
         <v>19</v>
@@ -10758,10 +10761,10 @@
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F92" s="67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G92" s="68" t="s">
         <v>19</v>
@@ -10769,10 +10772,10 @@
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="66" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F93" s="67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G93" s="68" t="s">
         <v>19</v>
@@ -10780,10 +10783,10 @@
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="F94" s="67" t="s">
         <v>110</v>
-      </c>
-      <c r="F94" s="67" t="s">
-        <v>109</v>
       </c>
       <c r="G94" s="68" t="s">
         <v>19</v>
@@ -10791,10 +10794,10 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="F95" s="67" t="s">
         <v>90</v>
-      </c>
-      <c r="F95" s="67" t="s">
-        <v>89</v>
       </c>
       <c r="G95" s="68" t="s">
         <v>19</v>
@@ -10802,13 +10805,13 @@
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E96" s="66" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F96" s="69" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G96" s="68" t="s">
         <v>19</v>
@@ -10816,10 +10819,10 @@
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="F97" s="67" t="s">
         <v>71</v>
-      </c>
-      <c r="F97" s="67" t="s">
-        <v>70</v>
       </c>
       <c r="G97" s="68" t="s">
         <v>19</v>
@@ -10827,10 +10830,10 @@
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="F98" s="67" t="s">
         <v>56</v>
-      </c>
-      <c r="F98" s="67" t="s">
-        <v>55</v>
       </c>
       <c r="G98" s="68" t="s">
         <v>19</v>
@@ -10841,7 +10844,7 @@
         <v>29</v>
       </c>
       <c r="F99" s="69" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G99" s="68" t="s">
         <v>19</v>
@@ -10849,13 +10852,13 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E100" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F100" s="67" t="s">
         <v>66</v>
-      </c>
-      <c r="F100" s="67" t="s">
-        <v>65</v>
       </c>
       <c r="G100" s="68" t="s">
         <v>19</v>
@@ -10863,10 +10866,10 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="F101" s="67" t="s">
         <v>124</v>
-      </c>
-      <c r="F101" s="67" t="s">
-        <v>123</v>
       </c>
       <c r="G101" s="68" t="s">
         <v>19</v>
@@ -10874,10 +10877,10 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F102" s="67" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G102" s="68" t="s">
         <v>19</v>
@@ -10885,10 +10888,10 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F103" s="67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G103" s="68" t="s">
         <v>19</v>
@@ -10896,33 +10899,33 @@
     </row>
     <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C104" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E104" s="66" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F104" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G104" s="68" t="s">
         <v>19</v>
       </c>
       <c r="H104" s="70" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F105" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G105" s="68" t="s">
         <v>19</v>
       </c>
       <c r="H105" s="71" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10930,7 +10933,7 @@
         <v>40</v>
       </c>
       <c r="F106" s="67" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G106" s="68" t="s">
         <v>19</v>
@@ -10938,10 +10941,10 @@
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F107" s="67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G107" s="68" t="s">
         <v>19</v>
@@ -10952,10 +10955,10 @@
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C109" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E109" s="67" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>45</v>
@@ -10964,10 +10967,10 @@
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E110" s="67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>45</v>
@@ -10976,10 +10979,10 @@
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E111" s="67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>45</v>
@@ -10988,10 +10991,10 @@
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C112" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E112" s="67" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>45</v>
@@ -11000,10 +11003,10 @@
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C113" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E113" s="67" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>45</v>
@@ -11012,10 +11015,10 @@
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C114" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E114" s="67" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>45</v>
@@ -11024,10 +11027,10 @@
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C115" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E115" s="67" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>45</v>
@@ -11036,24 +11039,24 @@
     </row>
     <row r="116" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="67" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H116" s="72" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I116" s="73" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E117" s="67" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>45</v>
@@ -11062,10 +11065,10 @@
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E118" s="67" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>45</v>
@@ -11078,65 +11081,65 @@
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C120" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E120" s="67" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G120" s="68" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H120" s="66"/>
       <c r="I120" s="66"/>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C121" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E121" s="67" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G121" s="66" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H121" s="66"/>
       <c r="I121" s="66"/>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E122" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="G122" s="66" t="s">
         <v>287</v>
-      </c>
-      <c r="G122" s="66" t="s">
-        <v>286</v>
       </c>
       <c r="H122" s="66"/>
       <c r="I122" s="66"/>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C123" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E123" s="67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G123" s="66" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H123" s="66"/>
       <c r="I123" s="66"/>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E124" s="67" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G124" s="66" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H124" s="66"/>
       <c r="I124" s="66"/>
@@ -11148,14 +11151,14 @@
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C126" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E126" s="67" t="s">
         <v>41</v>
       </c>
       <c r="F126" s="67"/>
       <c r="G126" s="66" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H126" s="55"/>
       <c r="I126" s="55"/>
@@ -11169,55 +11172,55 @@
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C128" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H128" s="68"/>
       <c r="I128" s="66"/>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C129" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H129" s="68"/>
       <c r="I129" s="66"/>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H130" s="68"/>
       <c r="I130" s="66"/>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C131" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G131" s="68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11226,83 +11229,83 @@
     </row>
     <row r="133" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C133" s="75" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D133" s="76"/>
       <c r="E133" s="77" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="134" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C134" s="75" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D134" s="76"/>
       <c r="E134" s="77" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="135" s="78" customFormat="true" ht="38.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C135" s="75" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D135" s="76"/>
       <c r="E135" s="77" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G135" s="78" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H135" s="79" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C136" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E136" s="78" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F136" s="78"/>
       <c r="G136" s="78" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H136" s="80" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I136" s="80" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="137" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C137" s="75" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D137" s="76"/>
       <c r="E137" s="77" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="138" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C138" s="75" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D138" s="76"/>
       <c r="E138" s="77" t="s">
+        <v>308</v>
+      </c>
+      <c r="G138" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11316,38 +11319,38 @@
     </row>
     <row r="140" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C140" s="75" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D140" s="76"/>
       <c r="E140" s="77" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       